--- a/Data/item_wise_stock_days.xlsx
+++ b/Data/item_wise_stock_days.xlsx
@@ -19,30 +19,30 @@
     <t>Augment</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>1's</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
     <t>18's</t>
   </si>
   <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
     <t>Biltin</t>
   </si>
   <si>
@@ -73,24 +73,24 @@
     <t>Dinafex</t>
   </si>
   <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>50 ml</t>
-  </si>
-  <si>
     <t>Dorenta</t>
   </si>
   <si>
@@ -103,18 +103,18 @@
     <t>Etorix</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
     <t>50's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
@@ -151,18 +151,18 @@
     <t>Ketonic</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>1 's</t>
+  </si>
+  <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>1 's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
     <t>Levomax</t>
   </si>
   <si>
@@ -181,21 +181,21 @@
     <t>Lindamax</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>10gm</t>
+  </si>
+  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>10gm</t>
-  </si>
-  <si>
     <t>Mebidal</t>
   </si>
   <si>
@@ -220,16 +220,19 @@
     <t>Naprox</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
+    <t>15 gm</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
     <t>36's</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>15 gm</t>
+    <t>Naprox 50ml Suspension</t>
   </si>
   <si>
     <t>Naprox 250mg Tablet</t>
@@ -244,9 +247,6 @@
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
     <t>Ontin</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>Osticare</t>
   </si>
   <si>
+    <t>Osticare Tablet 30's</t>
+  </si>
+  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino</t>
   </si>
   <si>
@@ -289,75 +289,75 @@
     <t>Quinox</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday</t>
   </si>
   <si>
+    <t>Rupaday Oral Solution 60ml</t>
+  </si>
+  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
-    <t>Rupaday Oral Solution 60ml</t>
-  </si>
-  <si>
     <t>Sk-Mox</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
     <t>Stiba</t>
   </si>
   <si>
+    <t>Stiba 30ml Syrup</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
     <t>Sulidac</t>
   </si>
   <si>
+    <t>Sulidac 100mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim</t>
   </si>
   <si>
@@ -367,15 +367,15 @@
     <t>Timothy</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
+    <t>5's</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
-    <t>5's</t>
-  </si>
-  <si>
     <t>Tojak</t>
   </si>
   <si>
@@ -430,33 +430,33 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>20ml</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
     <t>12 's</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>20ml</t>
-  </si>
-  <si>
     <t>BSL NO</t>
   </si>
   <si>
@@ -565,21 +565,21 @@
     <t>VRB</t>
   </si>
   <si>
+    <t>89  2M29D</t>
+  </si>
+  <si>
     <t>152  27M3D</t>
   </si>
   <si>
+    <t>247  107M1D</t>
+  </si>
+  <si>
     <t>378  6M10D</t>
   </si>
   <si>
-    <t>247  107M1D</t>
-  </si>
-  <si>
     <t>381  21M24D</t>
   </si>
   <si>
-    <t>89  2M29D</t>
-  </si>
-  <si>
     <t>1294  -0M29D</t>
   </si>
   <si>
@@ -589,27 +589,27 @@
     <t>22  -0M20D</t>
   </si>
   <si>
+    <t>1057  1M13D</t>
+  </si>
+  <si>
+    <t>450  -0M25D</t>
+  </si>
+  <si>
+    <t>232  5M5D</t>
+  </si>
+  <si>
     <t>49  2M11D</t>
   </si>
   <si>
-    <t>232  5M5D</t>
-  </si>
-  <si>
-    <t>450  -0M25D</t>
-  </si>
-  <si>
-    <t>1057  1M13D</t>
-  </si>
-  <si>
     <t>3604  2M29D</t>
   </si>
   <si>
+    <t>3985  1M27D</t>
+  </si>
+  <si>
     <t>1057  -0M18D</t>
   </si>
   <si>
-    <t>3985  1M27D</t>
-  </si>
-  <si>
     <t>3689  1M10D</t>
   </si>
   <si>
@@ -631,33 +631,33 @@
     <t>6866  1M23D</t>
   </si>
   <si>
+    <t>121  -0M12D</t>
+  </si>
+  <si>
+    <t>5617  2M19D</t>
+  </si>
+  <si>
     <t>1408  2M10D</t>
   </si>
   <si>
-    <t>121  -0M12D</t>
-  </si>
-  <si>
-    <t>5617  2M19D</t>
-  </si>
-  <si>
     <t>33  12M15D</t>
   </si>
   <si>
     <t>104  3M5D</t>
   </si>
   <si>
+    <t>269  2M4D</t>
+  </si>
+  <si>
+    <t>48  1M23D</t>
+  </si>
+  <si>
+    <t>116  2M10D</t>
+  </si>
+  <si>
     <t>49  4M7D</t>
   </si>
   <si>
-    <t>269  2M4D</t>
-  </si>
-  <si>
-    <t>48  1M23D</t>
-  </si>
-  <si>
-    <t>116  2M10D</t>
-  </si>
-  <si>
     <t>46  3M29D</t>
   </si>
   <si>
@@ -667,10 +667,13 @@
     <t>756  1M10D</t>
   </si>
   <si>
+    <t>103  1M17D</t>
+  </si>
+  <si>
     <t>1064  1M9D</t>
   </si>
   <si>
-    <t>103  1M17D</t>
+    <t>841  1M5D</t>
   </si>
   <si>
     <t>440  2M20D</t>
@@ -682,9 +685,6 @@
     <t>199  -0M27D</t>
   </si>
   <si>
-    <t>841  1M5D</t>
-  </si>
-  <si>
     <t>30  -0M18D</t>
   </si>
   <si>
@@ -700,72 +700,72 @@
     <t>725  -0M16D</t>
   </si>
   <si>
+    <t>380  1M29D</t>
+  </si>
+  <si>
     <t>81  8M5D</t>
   </si>
   <si>
-    <t>380  1M29D</t>
-  </si>
-  <si>
     <t>237  2M0D</t>
   </si>
   <si>
+    <t>948  1M19D</t>
+  </si>
+  <si>
+    <t>17  3M20D</t>
+  </si>
+  <si>
+    <t>31  4M2D</t>
+  </si>
+  <si>
     <t>1  -0M3D</t>
   </si>
   <si>
-    <t>17  3M20D</t>
-  </si>
-  <si>
-    <t>948  1M19D</t>
-  </si>
-  <si>
     <t>353  1M7D</t>
   </si>
   <si>
-    <t>31  4M2D</t>
+    <t>1  -0M1D</t>
   </si>
   <si>
     <t>169  1M21D</t>
   </si>
   <si>
-    <t>1  -0M1D</t>
+    <t>1948  1M14D</t>
+  </si>
+  <si>
+    <t>221  1M11D</t>
+  </si>
+  <si>
+    <t>140  2M11D</t>
+  </si>
+  <si>
+    <t>2174  1M17D</t>
   </si>
   <si>
     <t>130  1M11D</t>
   </si>
   <si>
-    <t>221  1M11D</t>
-  </si>
-  <si>
-    <t>1948  1M14D</t>
-  </si>
-  <si>
-    <t>2174  1M17D</t>
-  </si>
-  <si>
-    <t>140  2M11D</t>
+    <t>365  73M24D</t>
   </si>
   <si>
     <t>536  6M29D</t>
   </si>
   <si>
-    <t>365  73M24D</t>
+    <t>218  33M1D</t>
   </si>
   <si>
     <t>256  8M16D</t>
   </si>
   <si>
-    <t>218  33M1D</t>
-  </si>
-  <si>
     <t>210  4M5D</t>
   </si>
   <si>
+    <t>259  1M7D</t>
+  </si>
+  <si>
     <t>1053  1M29D</t>
   </si>
   <si>
-    <t>259  1M7D</t>
-  </si>
-  <si>
     <t>123  -0M19D</t>
   </si>
   <si>
@@ -781,36 +781,36 @@
     <t>204  1M12D</t>
   </si>
   <si>
+    <t>1156  7M16D</t>
+  </si>
+  <si>
+    <t>428  3M6D</t>
+  </si>
+  <si>
+    <t>1974  1M24D</t>
+  </si>
+  <si>
+    <t>1985  2M18D</t>
+  </si>
+  <si>
     <t>3256  1M14D</t>
   </si>
   <si>
-    <t>1156  7M16D</t>
-  </si>
-  <si>
-    <t>1974  1M24D</t>
-  </si>
-  <si>
-    <t>428  3M6D</t>
-  </si>
-  <si>
-    <t>1985  2M18D</t>
+    <t>251  6M8D</t>
   </si>
   <si>
     <t>193  6M17D</t>
   </si>
   <si>
+    <t>94  -1M2D</t>
+  </si>
+  <si>
     <t>1028  2M27D</t>
   </si>
   <si>
-    <t>94  -1M2D</t>
-  </si>
-  <si>
     <t>442  4M23D</t>
   </si>
   <si>
-    <t>251  6M8D</t>
-  </si>
-  <si>
     <t>1244  -0M15D</t>
   </si>
   <si>
@@ -820,27 +820,27 @@
     <t>66  -0M29D</t>
   </si>
   <si>
+    <t>195  -0M3D</t>
+  </si>
+  <si>
+    <t>420  -0M19D</t>
+  </si>
+  <si>
+    <t>71  -1M2D</t>
+  </si>
+  <si>
     <t>196  1M19D</t>
   </si>
   <si>
-    <t>71  -1M2D</t>
-  </si>
-  <si>
-    <t>420  -0M19D</t>
-  </si>
-  <si>
-    <t>195  -0M3D</t>
-  </si>
-  <si>
     <t>2325  1M12D</t>
   </si>
   <si>
+    <t>6733  1M8D</t>
+  </si>
+  <si>
     <t>2699  2M16D</t>
   </si>
   <si>
-    <t>6733  1M8D</t>
-  </si>
-  <si>
     <t>7956  2M14D</t>
   </si>
   <si>
@@ -862,33 +862,33 @@
     <t>8520  1M25D</t>
   </si>
   <si>
+    <t>535  5M0D</t>
+  </si>
+  <si>
+    <t>5997  2M8D</t>
+  </si>
+  <si>
     <t>5047  -0M23D</t>
   </si>
   <si>
-    <t>535  5M0D</t>
-  </si>
-  <si>
-    <t>5997  2M8D</t>
-  </si>
-  <si>
     <t>39  14M23D</t>
   </si>
   <si>
     <t>92  3M0D</t>
   </si>
   <si>
+    <t>119  3M20D</t>
+  </si>
+  <si>
+    <t>70  1M8D</t>
+  </si>
+  <si>
+    <t>66  3M10D</t>
+  </si>
+  <si>
     <t>30  15M5D</t>
   </si>
   <si>
-    <t>119  3M20D</t>
-  </si>
-  <si>
-    <t>70  1M8D</t>
-  </si>
-  <si>
-    <t>66  3M10D</t>
-  </si>
-  <si>
     <t>109  11M24D</t>
   </si>
   <si>
@@ -898,10 +898,13 @@
     <t>794  -0M15D</t>
   </si>
   <si>
+    <t>151  3M2D</t>
+  </si>
+  <si>
     <t>1216  1M7D</t>
   </si>
   <si>
-    <t>151  3M2D</t>
+    <t>839  2M0D</t>
   </si>
   <si>
     <t>195  -0M14D</t>
@@ -913,9 +916,6 @@
     <t>628  1M22D</t>
   </si>
   <si>
-    <t>839  2M0D</t>
-  </si>
-  <si>
     <t>49  1M13D</t>
   </si>
   <si>
@@ -937,57 +937,57 @@
     <t>54  -0M18D</t>
   </si>
   <si>
+    <t>16  4M1D</t>
+  </si>
+  <si>
+    <t>14  -1M1D</t>
+  </si>
+  <si>
     <t>8  -0M16D</t>
   </si>
   <si>
-    <t>16  4M1D</t>
-  </si>
-  <si>
     <t>337  1M5D</t>
   </si>
   <si>
-    <t>14  -1M1D</t>
-  </si>
-  <si>
     <t>368  2M23D</t>
   </si>
   <si>
+    <t>2159  4M29D</t>
+  </si>
+  <si>
+    <t>410  2M23D</t>
+  </si>
+  <si>
+    <t>228  7M8D</t>
+  </si>
+  <si>
+    <t>1038  2M4D</t>
+  </si>
+  <si>
     <t>156  3M0D</t>
   </si>
   <si>
-    <t>410  2M23D</t>
-  </si>
-  <si>
-    <t>2159  4M29D</t>
-  </si>
-  <si>
-    <t>1038  2M4D</t>
-  </si>
-  <si>
-    <t>228  7M8D</t>
+    <t>111  3M15D</t>
   </si>
   <si>
     <t>470  2M29D</t>
   </si>
   <si>
-    <t>111  3M15D</t>
+    <t>158  7M7D</t>
   </si>
   <si>
     <t>346  1M9D</t>
   </si>
   <si>
-    <t>158  7M7D</t>
-  </si>
-  <si>
     <t>199  2M14D</t>
   </si>
   <si>
+    <t>134  1M26D</t>
+  </si>
+  <si>
     <t>755  2M4D</t>
   </si>
   <si>
-    <t>134  1M26D</t>
-  </si>
-  <si>
     <t>530  1M20D</t>
   </si>
   <si>
@@ -1009,36 +1009,36 @@
     <t>133  1M11D</t>
   </si>
   <si>
+    <t>2125  4M17D</t>
+  </si>
+  <si>
+    <t>415  -0M27D</t>
+  </si>
+  <si>
+    <t>2854  1M5D</t>
+  </si>
+  <si>
+    <t>957  1M8D</t>
+  </si>
+  <si>
     <t>3741  1M18D</t>
   </si>
   <si>
-    <t>2125  4M17D</t>
-  </si>
-  <si>
-    <t>2854  1M5D</t>
-  </si>
-  <si>
-    <t>415  -0M27D</t>
-  </si>
-  <si>
-    <t>957  1M8D</t>
+    <t>184  9M4D</t>
   </si>
   <si>
     <t>346  5M22D</t>
   </si>
   <si>
+    <t>129  1M15D</t>
+  </si>
+  <si>
     <t>1009  2M10D</t>
   </si>
   <si>
-    <t>129  1M15D</t>
-  </si>
-  <si>
     <t>461  2M1D</t>
   </si>
   <si>
-    <t>184  9M4D</t>
-  </si>
-  <si>
     <t>1435  -0M20D</t>
   </si>
   <si>
@@ -1048,27 +1048,27 @@
     <t>62  -0M24D</t>
   </si>
   <si>
+    <t>952  -0M15D</t>
+  </si>
+  <si>
+    <t>285  -0M12D</t>
+  </si>
+  <si>
+    <t>170  -1M0D</t>
+  </si>
+  <si>
     <t>96  -1M0D</t>
   </si>
   <si>
-    <t>170  -1M0D</t>
-  </si>
-  <si>
-    <t>285  -0M12D</t>
-  </si>
-  <si>
-    <t>952  -0M15D</t>
-  </si>
-  <si>
     <t>3512  2M28D</t>
   </si>
   <si>
+    <t>6870  2M22D</t>
+  </si>
+  <si>
     <t>949  -0M26D</t>
   </si>
   <si>
-    <t>6870  2M22D</t>
-  </si>
-  <si>
     <t>3688  1M12D</t>
   </si>
   <si>
@@ -1090,33 +1090,33 @@
     <t>4155  1M6D</t>
   </si>
   <si>
+    <t>195  -1M3D</t>
+  </si>
+  <si>
+    <t>3703  3M7D</t>
+  </si>
+  <si>
     <t>1303  1M26D</t>
   </si>
   <si>
-    <t>195  -1M3D</t>
-  </si>
-  <si>
-    <t>3703  3M7D</t>
-  </si>
-  <si>
     <t>36  21M25D</t>
   </si>
   <si>
     <t>108  3M8D</t>
   </si>
   <si>
+    <t>81  1M18D</t>
+  </si>
+  <si>
+    <t>50  2M22D</t>
+  </si>
+  <si>
+    <t>192  8M9D</t>
+  </si>
+  <si>
     <t>17  7M11D</t>
   </si>
   <si>
-    <t>81  1M18D</t>
-  </si>
-  <si>
-    <t>50  2M22D</t>
-  </si>
-  <si>
-    <t>192  8M9D</t>
-  </si>
-  <si>
     <t>60  6M8D</t>
   </si>
   <si>
@@ -1126,10 +1126,13 @@
     <t>412  -0M10D</t>
   </si>
   <si>
+    <t>181  2M8D</t>
+  </si>
+  <si>
     <t>1562  2M10D</t>
   </si>
   <si>
-    <t>181  2M8D</t>
+    <t>451  2M10D</t>
   </si>
   <si>
     <t>135  -0M11D</t>
@@ -1141,9 +1144,6 @@
     <t>170  -0M13D</t>
   </si>
   <si>
-    <t>451  2M10D</t>
-  </si>
-  <si>
     <t>110  2M15D</t>
   </si>
   <si>
@@ -1159,72 +1159,72 @@
     <t>498  -0M17D</t>
   </si>
   <si>
+    <t>362  1M5D</t>
+  </si>
+  <si>
     <t>71  2M11D</t>
   </si>
   <si>
-    <t>362  1M5D</t>
-  </si>
-  <si>
     <t>156  1M18D</t>
   </si>
   <si>
+    <t>1770  1M17D</t>
+  </si>
+  <si>
+    <t>68  1M6D</t>
+  </si>
+  <si>
+    <t>8  -1M0D</t>
+  </si>
+  <si>
+    <t>20  2M12D</t>
+  </si>
+  <si>
     <t>25  10M25D</t>
   </si>
   <si>
-    <t>68  1M6D</t>
-  </si>
-  <si>
-    <t>8  -1M0D</t>
-  </si>
-  <si>
-    <t>1770  1M17D</t>
-  </si>
-  <si>
     <t>515  1M20D</t>
   </si>
   <si>
-    <t>20  2M12D</t>
-  </si>
-  <si>
     <t>187  1M28D</t>
   </si>
   <si>
+    <t>2081  1M28D</t>
+  </si>
+  <si>
+    <t>249  3M5D</t>
+  </si>
+  <si>
+    <t>127  2M1D</t>
+  </si>
+  <si>
+    <t>1660  1M20D</t>
+  </si>
+  <si>
     <t>129  -0M21D</t>
   </si>
   <si>
-    <t>249  3M5D</t>
-  </si>
-  <si>
-    <t>2081  1M28D</t>
-  </si>
-  <si>
-    <t>1660  1M20D</t>
-  </si>
-  <si>
-    <t>127  2M1D</t>
+    <t>133  3M8D</t>
   </si>
   <si>
     <t>435  2M4D</t>
   </si>
   <si>
-    <t>133  3M8D</t>
+    <t>75  1M26D</t>
   </si>
   <si>
     <t>354  1M24D</t>
   </si>
   <si>
-    <t>75  1M26D</t>
-  </si>
-  <si>
     <t>243  -0M19D</t>
   </si>
   <si>
+    <t>117  -1M2D</t>
+  </si>
+  <si>
     <t>662  1M14D</t>
   </si>
   <si>
-    <t>117  -1M2D</t>
-  </si>
-  <si>
     <t>283  -1M3D</t>
   </si>
   <si>
@@ -1246,36 +1246,36 @@
     <t>55  -0M20D</t>
   </si>
   <si>
+    <t>915  2M0D</t>
+  </si>
+  <si>
+    <t>417  -1M1D</t>
+  </si>
+  <si>
+    <t>1729  1M8D</t>
+  </si>
+  <si>
+    <t>1390  6M6D</t>
+  </si>
+  <si>
     <t>1998  -0M28D</t>
   </si>
   <si>
-    <t>915  2M0D</t>
-  </si>
-  <si>
-    <t>1729  1M8D</t>
-  </si>
-  <si>
-    <t>417  -1M1D</t>
-  </si>
-  <si>
-    <t>1390  6M6D</t>
+    <t>444  -0M13D</t>
   </si>
   <si>
     <t>501  2M7D</t>
   </si>
   <si>
+    <t>504  3M16D</t>
+  </si>
+  <si>
     <t>1429  1M23D</t>
   </si>
   <si>
-    <t>504  3M16D</t>
-  </si>
-  <si>
     <t>1289  1M29D</t>
   </si>
   <si>
-    <t>444  -0M13D</t>
-  </si>
-  <si>
     <t>1596  1M19D</t>
   </si>
   <si>
@@ -1285,27 +1285,27 @@
     <t>97  8M12D</t>
   </si>
   <si>
+    <t>1031  -0M23D</t>
+  </si>
+  <si>
+    <t>344  -0M19D</t>
+  </si>
+  <si>
+    <t>195  2M0D</t>
+  </si>
+  <si>
     <t>135  3M14D</t>
   </si>
   <si>
-    <t>195  2M0D</t>
-  </si>
-  <si>
-    <t>344  -0M19D</t>
-  </si>
-  <si>
-    <t>1031  -0M23D</t>
-  </si>
-  <si>
     <t>2610  4M19D</t>
   </si>
   <si>
+    <t>2874  1M6D</t>
+  </si>
+  <si>
     <t>1598  3M2D</t>
   </si>
   <si>
-    <t>2874  1M6D</t>
-  </si>
-  <si>
     <t>3240  1M29D</t>
   </si>
   <si>
@@ -1327,33 +1327,33 @@
     <t>6375  1M19D</t>
   </si>
   <si>
+    <t>276  3M10D</t>
+  </si>
+  <si>
+    <t>3224  2M4D</t>
+  </si>
+  <si>
     <t>690  -0M27D</t>
   </si>
   <si>
-    <t>276  3M10D</t>
-  </si>
-  <si>
-    <t>3224  2M4D</t>
-  </si>
-  <si>
     <t>21  10M18D</t>
   </si>
   <si>
     <t>322  3M10D</t>
   </si>
   <si>
+    <t>47  1M21D</t>
+  </si>
+  <si>
+    <t>32  1M29D</t>
+  </si>
+  <si>
+    <t>94  2M8D</t>
+  </si>
+  <si>
     <t>22  1M22D</t>
   </si>
   <si>
-    <t>47  1M21D</t>
-  </si>
-  <si>
-    <t>32  1M29D</t>
-  </si>
-  <si>
-    <t>94  2M8D</t>
-  </si>
-  <si>
     <t>46  5M5D</t>
   </si>
   <si>
@@ -1363,10 +1363,13 @@
     <t>1135  2M14D</t>
   </si>
   <si>
+    <t>190  4M9D</t>
+  </si>
+  <si>
     <t>1037  2M8D</t>
   </si>
   <si>
-    <t>190  4M9D</t>
+    <t>560  14M19D</t>
   </si>
   <si>
     <t>322  3M15D</t>
@@ -1378,9 +1381,6 @@
     <t>715  3M19D</t>
   </si>
   <si>
-    <t>560  14M19D</t>
-  </si>
-  <si>
     <t>179  4M25D</t>
   </si>
   <si>
@@ -1396,72 +1396,72 @@
     <t>995  2M6D</t>
   </si>
   <si>
+    <t>302  2M4D</t>
+  </si>
+  <si>
     <t>52  9M25D</t>
   </si>
   <si>
-    <t>302  2M4D</t>
-  </si>
-  <si>
     <t>114  -0M28D</t>
   </si>
   <si>
+    <t>516  -0M11D</t>
+  </si>
+  <si>
+    <t>8  -0M4D</t>
+  </si>
+  <si>
+    <t>7  -1M3D</t>
+  </si>
+  <si>
+    <t>111  8M25D</t>
+  </si>
+  <si>
     <t>1  -0M4D</t>
   </si>
   <si>
-    <t>8  -0M4D</t>
-  </si>
-  <si>
-    <t>7  -1M3D</t>
-  </si>
-  <si>
-    <t>516  -0M11D</t>
-  </si>
-  <si>
     <t>857  4M12D</t>
   </si>
   <si>
-    <t>111  8M25D</t>
-  </si>
-  <si>
     <t>208  2M13D</t>
   </si>
   <si>
+    <t>2426  1M21D</t>
+  </si>
+  <si>
+    <t>232  -0M29D</t>
+  </si>
+  <si>
+    <t>129  2M29D</t>
+  </si>
+  <si>
+    <t>1194  1M27D</t>
+  </si>
+  <si>
     <t>38  -0M12D</t>
   </si>
   <si>
-    <t>232  -0M29D</t>
-  </si>
-  <si>
-    <t>2426  1M21D</t>
-  </si>
-  <si>
-    <t>1194  1M27D</t>
-  </si>
-  <si>
-    <t>129  2M29D</t>
+    <t>24  -0M19D</t>
   </si>
   <si>
     <t>425  4M2D</t>
   </si>
   <si>
-    <t>24  -0M19D</t>
+    <t>134  27M2D</t>
   </si>
   <si>
     <t>230  6M21D</t>
   </si>
   <si>
-    <t>134  27M2D</t>
-  </si>
-  <si>
     <t>343  18M7D</t>
   </si>
   <si>
+    <t>154  -0M22D</t>
+  </si>
+  <si>
     <t>290  -0M25D</t>
   </si>
   <si>
-    <t>154  -0M22D</t>
-  </si>
-  <si>
     <t>250  2M22D</t>
   </si>
   <si>
@@ -1480,36 +1480,36 @@
     <t>76  -0M28D</t>
   </si>
   <si>
+    <t>1821  2M20D</t>
+  </si>
+  <si>
+    <t>419  1M17D</t>
+  </si>
+  <si>
+    <t>2110  1M5D</t>
+  </si>
+  <si>
+    <t>1483  4M13D</t>
+  </si>
+  <si>
     <t>5636  1M28D</t>
   </si>
   <si>
-    <t>1821  2M20D</t>
-  </si>
-  <si>
-    <t>2110  1M5D</t>
-  </si>
-  <si>
-    <t>419  1M17D</t>
-  </si>
-  <si>
-    <t>1483  4M13D</t>
+    <t>106  1M6D</t>
   </si>
   <si>
     <t>216  2M9D</t>
   </si>
   <si>
+    <t>258  2M14D</t>
+  </si>
+  <si>
     <t>978  2M11D</t>
   </si>
   <si>
-    <t>258  2M14D</t>
-  </si>
-  <si>
     <t>706  2M16D</t>
   </si>
   <si>
-    <t>106  1M6D</t>
-  </si>
-  <si>
     <t>1469  -0M27D</t>
   </si>
   <si>
@@ -1519,27 +1519,27 @@
     <t>113  3M5D</t>
   </si>
   <si>
+    <t>1310  1M7D</t>
+  </si>
+  <si>
+    <t>402  -0M14D</t>
+  </si>
+  <si>
+    <t>194  1M23D</t>
+  </si>
+  <si>
     <t>160  4M2D</t>
   </si>
   <si>
-    <t>194  1M23D</t>
-  </si>
-  <si>
-    <t>402  -0M14D</t>
-  </si>
-  <si>
-    <t>1310  1M7D</t>
-  </si>
-  <si>
     <t>2611  3M6D</t>
   </si>
   <si>
+    <t>997  -0M7D</t>
+  </si>
+  <si>
     <t>1850  1M21D</t>
   </si>
   <si>
-    <t>997  -0M7D</t>
-  </si>
-  <si>
     <t>4204  1M16D</t>
   </si>
   <si>
@@ -1561,43 +1561,46 @@
     <t>4369  -1M2D</t>
   </si>
   <si>
+    <t>257  2M18D</t>
+  </si>
+  <si>
+    <t>2731  4M7D</t>
+  </si>
+  <si>
     <t>2253  6M23D</t>
   </si>
   <si>
-    <t>257  2M18D</t>
-  </si>
-  <si>
-    <t>2731  4M7D</t>
-  </si>
-  <si>
     <t>30  1M28D</t>
   </si>
   <si>
     <t>158  2M22D</t>
   </si>
   <si>
+    <t>76  2M23D</t>
+  </si>
+  <si>
+    <t>109  3M8D</t>
+  </si>
+  <si>
+    <t>128  1M24D</t>
+  </si>
+  <si>
     <t>62  18M24D</t>
   </si>
   <si>
-    <t>76  2M23D</t>
-  </si>
-  <si>
-    <t>109  3M8D</t>
-  </si>
-  <si>
-    <t>128  1M24D</t>
-  </si>
-  <si>
     <t>159  2M1D</t>
   </si>
   <si>
     <t>365  -0M16D</t>
   </si>
   <si>
+    <t>178  7M5D</t>
+  </si>
+  <si>
     <t>974  1M20D</t>
   </si>
   <si>
-    <t>178  7M5D</t>
+    <t>388  4M2D</t>
   </si>
   <si>
     <t>359  1M23D</t>
@@ -1609,9 +1612,6 @@
     <t>308  1M17D</t>
   </si>
   <si>
-    <t>388  4M2D</t>
-  </si>
-  <si>
     <t>68  3M1D</t>
   </si>
   <si>
@@ -1624,66 +1624,66 @@
     <t>755  -0M14D</t>
   </si>
   <si>
+    <t>569  1M28D</t>
+  </si>
+  <si>
     <t>32  -0M20D</t>
   </si>
   <si>
-    <t>569  1M28D</t>
-  </si>
-  <si>
     <t>216  2M22D</t>
   </si>
   <si>
+    <t>35  13M8D</t>
+  </si>
+  <si>
+    <t>123  5M19D</t>
+  </si>
+  <si>
     <t>31  1M26D</t>
   </si>
   <si>
-    <t>35  13M8D</t>
-  </si>
-  <si>
     <t>656  2M7D</t>
   </si>
   <si>
-    <t>123  5M19D</t>
-  </si>
-  <si>
     <t>229  1M18D</t>
   </si>
   <si>
+    <t>952  2M27D</t>
+  </si>
+  <si>
+    <t>218  2M24D</t>
+  </si>
+  <si>
+    <t>109  2M3D</t>
+  </si>
+  <si>
+    <t>1860  2M7D</t>
+  </si>
+  <si>
     <t>94  1M23D</t>
   </si>
   <si>
-    <t>218  2M24D</t>
-  </si>
-  <si>
-    <t>952  2M27D</t>
-  </si>
-  <si>
-    <t>1860  2M7D</t>
-  </si>
-  <si>
-    <t>109  2M3D</t>
+    <t>117  6M10D</t>
   </si>
   <si>
     <t>505  2M23D</t>
   </si>
   <si>
-    <t>117  6M10D</t>
+    <t>40  -1M0D</t>
   </si>
   <si>
     <t>334  1M16D</t>
   </si>
   <si>
-    <t>40  -1M0D</t>
-  </si>
-  <si>
     <t>251  3M27D</t>
   </si>
   <si>
+    <t>230  -0M18D</t>
+  </si>
+  <si>
     <t>466  -0M29D</t>
   </si>
   <si>
-    <t>230  -0M18D</t>
-  </si>
-  <si>
     <t>200  1M21D</t>
   </si>
   <si>
@@ -1705,36 +1705,36 @@
     <t>67  3M16D</t>
   </si>
   <si>
+    <t>1398  2M4D</t>
+  </si>
+  <si>
+    <t>477  1M25D</t>
+  </si>
+  <si>
+    <t>1214  -0M23D</t>
+  </si>
+  <si>
+    <t>668  1M28D</t>
+  </si>
+  <si>
     <t>10207  2M21D</t>
   </si>
   <si>
-    <t>1398  2M4D</t>
-  </si>
-  <si>
-    <t>1214  -0M23D</t>
-  </si>
-  <si>
-    <t>477  1M25D</t>
-  </si>
-  <si>
-    <t>668  1M28D</t>
+    <t>287  -0M26D</t>
   </si>
   <si>
     <t>148  -1M2D</t>
   </si>
   <si>
+    <t>164  2M19D</t>
+  </si>
+  <si>
     <t>978  1M21D</t>
   </si>
   <si>
-    <t>164  2M19D</t>
-  </si>
-  <si>
     <t>948  4M15D</t>
   </si>
   <si>
-    <t>287  -0M26D</t>
-  </si>
-  <si>
     <t>1255  -0M19D</t>
   </si>
   <si>
@@ -1744,27 +1744,27 @@
     <t>81  5M6D</t>
   </si>
   <si>
+    <t>748  -0M18D</t>
+  </si>
+  <si>
+    <t>571  -0M23D</t>
+  </si>
+  <si>
+    <t>286  1M28D</t>
+  </si>
+  <si>
     <t>133  2M25D</t>
   </si>
   <si>
-    <t>286  1M28D</t>
-  </si>
-  <si>
-    <t>571  -0M23D</t>
-  </si>
-  <si>
-    <t>748  -0M18D</t>
-  </si>
-  <si>
     <t>2854  6M11D</t>
   </si>
   <si>
+    <t>1537  -0M13D</t>
+  </si>
+  <si>
     <t>1793  1M28D</t>
   </si>
   <si>
-    <t>1537  -0M13D</t>
-  </si>
-  <si>
     <t>2945  1M7D</t>
   </si>
   <si>
@@ -1786,40 +1786,43 @@
     <t>5563  1M8D</t>
   </si>
   <si>
+    <t>287  3M12D</t>
+  </si>
+  <si>
+    <t>3012  4M12D</t>
+  </si>
+  <si>
     <t>2038  5M27D</t>
   </si>
   <si>
-    <t>287  3M12D</t>
-  </si>
-  <si>
-    <t>3012  4M12D</t>
-  </si>
-  <si>
     <t>106  6M2D</t>
   </si>
   <si>
+    <t>143  7M10D</t>
+  </si>
+  <si>
+    <t>117  2M21D</t>
+  </si>
+  <si>
+    <t>259  1M25D</t>
+  </si>
+  <si>
     <t>67  11M8D</t>
   </si>
   <si>
-    <t>143  7M10D</t>
-  </si>
-  <si>
-    <t>117  2M21D</t>
-  </si>
-  <si>
-    <t>259  1M25D</t>
-  </si>
-  <si>
     <t>629  6M6D</t>
   </si>
   <si>
     <t>523  -0M29D</t>
   </si>
   <si>
+    <t>190  5M3D</t>
+  </si>
+  <si>
     <t>1024  1M25D</t>
   </si>
   <si>
-    <t>190  5M3D</t>
+    <t>514  2M21D</t>
   </si>
   <si>
     <t>326  2M4D</t>
@@ -1831,9 +1834,6 @@
     <t>535  2M24D</t>
   </si>
   <si>
-    <t>514  2M21D</t>
-  </si>
-  <si>
     <t>100  1M5D</t>
   </si>
   <si>
@@ -1849,69 +1849,69 @@
     <t>1110  -0M21D</t>
   </si>
   <si>
+    <t>328  -1M2D</t>
+  </si>
+  <si>
     <t>9  -0M22D</t>
   </si>
   <si>
-    <t>328  -1M2D</t>
-  </si>
-  <si>
     <t>214  2M28D</t>
   </si>
   <si>
+    <t>1403  2M5D</t>
+  </si>
+  <si>
     <t>44  -1M2D</t>
   </si>
   <si>
     <t>13  4M11D</t>
   </si>
   <si>
-    <t>1403  2M5D</t>
+    <t>53  4M10D</t>
   </si>
   <si>
     <t>846  4M23D</t>
   </si>
   <si>
-    <t>53  4M10D</t>
+    <t>1  -0M5D</t>
   </si>
   <si>
     <t>162  -0M25D</t>
   </si>
   <si>
-    <t>1  -0M5D</t>
+    <t>2030  5M19D</t>
+  </si>
+  <si>
+    <t>364  8M12D</t>
+  </si>
+  <si>
+    <t>130  5M12D</t>
+  </si>
+  <si>
+    <t>1217  2M22D</t>
   </si>
   <si>
     <t>109  3M28D</t>
   </si>
   <si>
-    <t>364  8M12D</t>
-  </si>
-  <si>
-    <t>2030  5M19D</t>
-  </si>
-  <si>
-    <t>1217  2M22D</t>
-  </si>
-  <si>
-    <t>130  5M12D</t>
+    <t>39  -0M17D</t>
   </si>
   <si>
     <t>936  3M12D</t>
   </si>
   <si>
-    <t>39  -0M17D</t>
-  </si>
-  <si>
     <t>229  1M16D</t>
   </si>
   <si>
     <t>398  13M16D</t>
   </si>
   <si>
+    <t>92  1M19D</t>
+  </si>
+  <si>
     <t>500  2M8D</t>
   </si>
   <si>
-    <t>92  1M19D</t>
-  </si>
-  <si>
     <t>118  -0M22D</t>
   </si>
   <si>
@@ -1933,36 +1933,36 @@
     <t>290  5M7D</t>
   </si>
   <si>
+    <t>1318  1M27D</t>
+  </si>
+  <si>
+    <t>469  1M26D</t>
+  </si>
+  <si>
+    <t>1438  1M6D</t>
+  </si>
+  <si>
+    <t>1909  8M20D</t>
+  </si>
+  <si>
     <t>5572  1M25D</t>
   </si>
   <si>
-    <t>1318  1M27D</t>
-  </si>
-  <si>
-    <t>1438  1M6D</t>
-  </si>
-  <si>
-    <t>469  1M26D</t>
-  </si>
-  <si>
-    <t>1909  8M20D</t>
+    <t>232  10M5D</t>
   </si>
   <si>
     <t>145  3M22D</t>
   </si>
   <si>
+    <t>313  1M20D</t>
+  </si>
+  <si>
     <t>664  2M17D</t>
   </si>
   <si>
-    <t>313  1M20D</t>
-  </si>
-  <si>
     <t>446  4M10D</t>
   </si>
   <si>
-    <t>232  10M5D</t>
-  </si>
-  <si>
     <t>1214  1M7D</t>
   </si>
   <si>
@@ -1972,27 +1972,27 @@
     <t>95  3M8D</t>
   </si>
   <si>
+    <t>914  -1M1D</t>
+  </si>
+  <si>
+    <t>451  -1M3D</t>
+  </si>
+  <si>
+    <t>220  6M16D</t>
+  </si>
+  <si>
     <t>128  4M12D</t>
   </si>
   <si>
-    <t>220  6M16D</t>
-  </si>
-  <si>
-    <t>451  -1M3D</t>
-  </si>
-  <si>
-    <t>914  -1M1D</t>
-  </si>
-  <si>
     <t>3223  1M26D</t>
   </si>
   <si>
+    <t>2891  2M0D</t>
+  </si>
+  <si>
     <t>1274  -0M25D</t>
   </si>
   <si>
-    <t>2891  2M0D</t>
-  </si>
-  <si>
     <t>3783  1M22D</t>
   </si>
   <si>
@@ -2014,30 +2014,30 @@
     <t>5969  2M3D</t>
   </si>
   <si>
+    <t>875  4M6D</t>
+  </si>
+  <si>
+    <t>3570  1M24D</t>
+  </si>
+  <si>
     <t>1085  2M18D</t>
   </si>
   <si>
-    <t>875  4M6D</t>
-  </si>
-  <si>
-    <t>3570  1M24D</t>
-  </si>
-  <si>
     <t>9  1M10D</t>
   </si>
   <si>
     <t>126  2M5D</t>
   </si>
   <si>
+    <t>99  1M19D</t>
+  </si>
+  <si>
+    <t>102  4M20D</t>
+  </si>
+  <si>
     <t>39  3M17D</t>
   </si>
   <si>
-    <t>99  1M19D</t>
-  </si>
-  <si>
-    <t>102  4M20D</t>
-  </si>
-  <si>
     <t>27  5M3D</t>
   </si>
   <si>
@@ -2047,10 +2047,13 @@
     <t>471  -0M17D</t>
   </si>
   <si>
+    <t>119  1M29D</t>
+  </si>
+  <si>
     <t>1195  1M20D</t>
   </si>
   <si>
-    <t>119  1M29D</t>
+    <t>644  1M19D</t>
   </si>
   <si>
     <t>334  2M28D</t>
@@ -2062,9 +2065,6 @@
     <t>183  -0M22D</t>
   </si>
   <si>
-    <t>644  1M19D</t>
-  </si>
-  <si>
     <t>30  -0M23D</t>
   </si>
   <si>
@@ -2080,63 +2080,63 @@
     <t>724  -0M27D</t>
   </si>
   <si>
+    <t>723  2M19D</t>
+  </si>
+  <si>
     <t>103  4M22D</t>
   </si>
   <si>
-    <t>723  2M19D</t>
-  </si>
-  <si>
     <t>150  -0M26D</t>
   </si>
   <si>
+    <t>587  1M15D</t>
+  </si>
+  <si>
+    <t>3  -0M2D</t>
+  </si>
+  <si>
+    <t>27  2M4D</t>
+  </si>
+  <si>
+    <t>36  6M2D</t>
+  </si>
+  <si>
     <t>23  4M3D</t>
   </si>
   <si>
-    <t>3  -0M2D</t>
-  </si>
-  <si>
-    <t>27  2M4D</t>
-  </si>
-  <si>
-    <t>587  1M15D</t>
-  </si>
-  <si>
     <t>512  2M5D</t>
   </si>
   <si>
-    <t>36  6M2D</t>
-  </si>
-  <si>
     <t>346  3M20D</t>
   </si>
   <si>
+    <t>3551  1M17D</t>
+  </si>
+  <si>
+    <t>214  -1M3D</t>
+  </si>
+  <si>
+    <t>153  1M25D</t>
+  </si>
+  <si>
+    <t>2709  -0M23D</t>
+  </si>
+  <si>
     <t>187  -1M2D</t>
   </si>
   <si>
-    <t>214  -1M3D</t>
-  </si>
-  <si>
-    <t>3551  1M17D</t>
-  </si>
-  <si>
-    <t>2709  -0M23D</t>
-  </si>
-  <si>
-    <t>153  1M25D</t>
+    <t>50  2M7D</t>
   </si>
   <si>
     <t>495  4M2D</t>
   </si>
   <si>
-    <t>50  2M7D</t>
+    <t>10  -0M5D</t>
   </si>
   <si>
     <t>467  2M9D</t>
   </si>
   <si>
-    <t>10  -0M5D</t>
-  </si>
-  <si>
     <t>172  2M4D</t>
   </si>
   <si>
@@ -2164,36 +2164,36 @@
     <t>172  -0M18D</t>
   </si>
   <si>
+    <t>1169  8M9D</t>
+  </si>
+  <si>
+    <t>433  5M0D</t>
+  </si>
+  <si>
+    <t>2442  2M18D</t>
+  </si>
+  <si>
+    <t>1524  1M13D</t>
+  </si>
+  <si>
     <t>2195  1M8D</t>
   </si>
   <si>
-    <t>1169  8M9D</t>
-  </si>
-  <si>
-    <t>2442  2M18D</t>
-  </si>
-  <si>
-    <t>433  5M0D</t>
-  </si>
-  <si>
-    <t>1524  1M13D</t>
+    <t>191  27M17D</t>
   </si>
   <si>
     <t>157  4M5D</t>
   </si>
   <si>
+    <t>181  13M11D</t>
+  </si>
+  <si>
     <t>758  4M12D</t>
   </si>
   <si>
-    <t>181  13M11D</t>
-  </si>
-  <si>
     <t>461  13M21D</t>
   </si>
   <si>
-    <t>191  27M17D</t>
-  </si>
-  <si>
     <t>1351  -0M27D</t>
   </si>
   <si>
@@ -2203,27 +2203,27 @@
     <t>177  3M21D</t>
   </si>
   <si>
+    <t>582  -0M15D</t>
+  </si>
+  <si>
+    <t>273  -0M15D</t>
+  </si>
+  <si>
+    <t>134  1M15D</t>
+  </si>
+  <si>
     <t>132  1M20D</t>
   </si>
   <si>
-    <t>134  1M15D</t>
-  </si>
-  <si>
-    <t>273  -0M15D</t>
-  </si>
-  <si>
-    <t>582  -0M15D</t>
-  </si>
-  <si>
     <t>3320  7M2D</t>
   </si>
   <si>
+    <t>8020  3M6D</t>
+  </si>
+  <si>
     <t>1224  1M20D</t>
   </si>
   <si>
-    <t>8020  3M6D</t>
-  </si>
-  <si>
     <t>4411  2M0D</t>
   </si>
   <si>
@@ -2245,33 +2245,33 @@
     <t>5148  1M29D</t>
   </si>
   <si>
+    <t>453  4M6D</t>
+  </si>
+  <si>
+    <t>4331  5M2D</t>
+  </si>
+  <si>
     <t>1801  2M1D</t>
   </si>
   <si>
-    <t>453  4M6D</t>
-  </si>
-  <si>
-    <t>4331  5M2D</t>
-  </si>
-  <si>
     <t>27  27M9D</t>
   </si>
   <si>
     <t>165  4M12D</t>
   </si>
   <si>
+    <t>73  5M4D</t>
+  </si>
+  <si>
+    <t>72  5M6D</t>
+  </si>
+  <si>
+    <t>98  9M0D</t>
+  </si>
+  <si>
     <t>54  20M14D</t>
   </si>
   <si>
-    <t>73  5M4D</t>
-  </si>
-  <si>
-    <t>72  5M6D</t>
-  </si>
-  <si>
-    <t>98  9M0D</t>
-  </si>
-  <si>
     <t>51  7M0D</t>
   </si>
   <si>
@@ -2281,10 +2281,13 @@
     <t>999  1M14D</t>
   </si>
   <si>
+    <t>82  2M16D</t>
+  </si>
+  <si>
     <t>1183  2M26D</t>
   </si>
   <si>
-    <t>82  2M16D</t>
+    <t>412  2M18D</t>
   </si>
   <si>
     <t>363  1M16D</t>
@@ -2296,9 +2299,6 @@
     <t>344  2M10D</t>
   </si>
   <si>
-    <t>412  2M18D</t>
-  </si>
-  <si>
     <t>55  2M15D</t>
   </si>
   <si>
@@ -2314,72 +2314,72 @@
     <t>684  -0M22D</t>
   </si>
   <si>
+    <t>807  3M28D</t>
+  </si>
+  <si>
     <t>49  3M2D</t>
   </si>
   <si>
-    <t>807  3M28D</t>
-  </si>
-  <si>
     <t>79  1M23D</t>
   </si>
   <si>
+    <t>1618  1M16D</t>
+  </si>
+  <si>
+    <t>40  1M23D</t>
+  </si>
+  <si>
+    <t>8  3M14D</t>
+  </si>
+  <si>
+    <t>76  20M28D</t>
+  </si>
+  <si>
     <t>1  -0M8D</t>
   </si>
   <si>
-    <t>40  1M23D</t>
-  </si>
-  <si>
-    <t>8  3M14D</t>
-  </si>
-  <si>
-    <t>1618  1M16D</t>
-  </si>
-  <si>
     <t>487  3M28D</t>
   </si>
   <si>
-    <t>76  20M28D</t>
-  </si>
-  <si>
     <t>468  5M6D</t>
   </si>
   <si>
+    <t>1400  4M11D</t>
+  </si>
+  <si>
+    <t>83  1M20D</t>
+  </si>
+  <si>
+    <t>127  4M12D</t>
+  </si>
+  <si>
+    <t>2548  7M1D</t>
+  </si>
+  <si>
     <t>178  9M24D</t>
   </si>
   <si>
-    <t>83  1M20D</t>
-  </si>
-  <si>
-    <t>1400  4M11D</t>
-  </si>
-  <si>
-    <t>2548  7M1D</t>
-  </si>
-  <si>
-    <t>127  4M12D</t>
+    <t>81  1M26D</t>
   </si>
   <si>
     <t>929  3M18D</t>
   </si>
   <si>
-    <t>81  1M26D</t>
+    <t>138  5M19D</t>
   </si>
   <si>
     <t>517  2M25D</t>
   </si>
   <si>
-    <t>138  5M19D</t>
-  </si>
-  <si>
     <t>466  9M28D</t>
   </si>
   <si>
+    <t>141  2M10D</t>
+  </si>
+  <si>
     <t>687  2M15D</t>
   </si>
   <si>
-    <t>141  2M10D</t>
-  </si>
-  <si>
     <t>159  1M7D</t>
   </si>
   <si>
@@ -2401,36 +2401,36 @@
     <t>205  5M10D</t>
   </si>
   <si>
+    <t>1096  3M4D</t>
+  </si>
+  <si>
+    <t>414  5M18D</t>
+  </si>
+  <si>
+    <t>2683  2M3D</t>
+  </si>
+  <si>
+    <t>1433  4M18D</t>
+  </si>
+  <si>
     <t>2086  -0M28D</t>
   </si>
   <si>
-    <t>1096  3M4D</t>
-  </si>
-  <si>
-    <t>2683  2M3D</t>
-  </si>
-  <si>
-    <t>414  5M18D</t>
-  </si>
-  <si>
-    <t>1433  4M18D</t>
+    <t>172  23M21D</t>
   </si>
   <si>
     <t>187  3M29D</t>
   </si>
   <si>
+    <t>140  2M24D</t>
+  </si>
+  <si>
     <t>676  2M14D</t>
   </si>
   <si>
-    <t>140  2M24D</t>
-  </si>
-  <si>
     <t>416  4M11D</t>
   </si>
   <si>
-    <t>172  23M21D</t>
-  </si>
-  <si>
     <t>865  -0M13D</t>
   </si>
   <si>
@@ -2440,27 +2440,27 @@
     <t>71  4M14D</t>
   </si>
   <si>
+    <t>56  -0M1D</t>
+  </si>
+  <si>
+    <t>101  -0M4D</t>
+  </si>
+  <si>
+    <t>273  3M20D</t>
+  </si>
+  <si>
     <t>330  2M14D</t>
   </si>
   <si>
-    <t>273  3M20D</t>
-  </si>
-  <si>
-    <t>101  -0M4D</t>
-  </si>
-  <si>
-    <t>56  -0M1D</t>
-  </si>
-  <si>
     <t>1906  3M21D</t>
   </si>
   <si>
+    <t>4578  -1M0D</t>
+  </si>
+  <si>
     <t>2693  1M10D</t>
   </si>
   <si>
-    <t>4578  -1M0D</t>
-  </si>
-  <si>
     <t>7143  1M24D</t>
   </si>
   <si>
@@ -2482,33 +2482,33 @@
     <t>8327  1M11D</t>
   </si>
   <si>
+    <t>155  -0M14D</t>
+  </si>
+  <si>
+    <t>4834  2M22D</t>
+  </si>
+  <si>
     <t>10120  3M26D</t>
   </si>
   <si>
-    <t>155  -0M14D</t>
-  </si>
-  <si>
-    <t>4834  2M22D</t>
-  </si>
-  <si>
     <t>55  13M27D</t>
   </si>
   <si>
     <t>126  1M27D</t>
   </si>
   <si>
+    <t>141  2M11D</t>
+  </si>
+  <si>
+    <t>98  1M7D</t>
+  </si>
+  <si>
+    <t>96  2M1D</t>
+  </si>
+  <si>
     <t>51  15M14D</t>
   </si>
   <si>
-    <t>141  2M11D</t>
-  </si>
-  <si>
-    <t>98  1M7D</t>
-  </si>
-  <si>
-    <t>96  2M1D</t>
-  </si>
-  <si>
     <t>30  6M15D</t>
   </si>
   <si>
@@ -2518,10 +2518,13 @@
     <t>459  -0M13D</t>
   </si>
   <si>
+    <t>74  2M1D</t>
+  </si>
+  <si>
     <t>996  -0M29D</t>
   </si>
   <si>
-    <t>74  2M1D</t>
+    <t>706  1M15D</t>
   </si>
   <si>
     <t>352  -0M29D</t>
@@ -2530,9 +2533,6 @@
     <t>1582  1M15D</t>
   </si>
   <si>
-    <t>706  1M15D</t>
-  </si>
-  <si>
     <t>51  1M29D</t>
   </si>
   <si>
@@ -2554,60 +2554,60 @@
     <t>41  -0M6D</t>
   </si>
   <si>
+    <t>3  -0M0D</t>
+  </si>
+  <si>
+    <t>12  1M27D</t>
+  </si>
+  <si>
+    <t>92  4M10D</t>
+  </si>
+  <si>
     <t>16  6M2D</t>
   </si>
   <si>
-    <t>3  -0M0D</t>
-  </si>
-  <si>
-    <t>12  1M27D</t>
-  </si>
-  <si>
     <t>571  1M10D</t>
   </si>
   <si>
-    <t>92  4M10D</t>
-  </si>
-  <si>
     <t>227  2M10D</t>
   </si>
   <si>
+    <t>905  1M11D</t>
+  </si>
+  <si>
+    <t>14  -0M3D</t>
+  </si>
+  <si>
+    <t>98  2M13D</t>
+  </si>
+  <si>
+    <t>1120  1M13D</t>
+  </si>
+  <si>
     <t>102  3M8D</t>
   </si>
   <si>
-    <t>14  -0M3D</t>
-  </si>
-  <si>
-    <t>905  1M11D</t>
-  </si>
-  <si>
-    <t>1120  1M13D</t>
-  </si>
-  <si>
-    <t>98  2M13D</t>
+    <t>78  2M10D</t>
   </si>
   <si>
     <t>630  5M11D</t>
   </si>
   <si>
-    <t>78  2M10D</t>
+    <t>161  3M14D</t>
   </si>
   <si>
     <t>521  1M22D</t>
   </si>
   <si>
-    <t>161  3M14D</t>
-  </si>
-  <si>
     <t>331  8M17D</t>
   </si>
   <si>
+    <t>91  -0M26D</t>
+  </si>
+  <si>
     <t>271  -0M25D</t>
   </si>
   <si>
-    <t>91  -0M26D</t>
-  </si>
-  <si>
     <t>614  1M28D</t>
   </si>
   <si>
@@ -2629,36 +2629,36 @@
     <t>188  1M18D</t>
   </si>
   <si>
+    <t>927  2M22D</t>
+  </si>
+  <si>
+    <t>599  2M2D</t>
+  </si>
+  <si>
+    <t>2458  1M18D</t>
+  </si>
+  <si>
+    <t>1148  2M4D</t>
+  </si>
+  <si>
     <t>2143  -0M21D</t>
   </si>
   <si>
-    <t>927  2M22D</t>
-  </si>
-  <si>
-    <t>2458  1M18D</t>
-  </si>
-  <si>
-    <t>599  2M2D</t>
-  </si>
-  <si>
-    <t>1148  2M4D</t>
+    <t>139  9M11D</t>
   </si>
   <si>
     <t>300  10M13D</t>
   </si>
   <si>
+    <t>65  3M25D</t>
+  </si>
+  <si>
     <t>2218  13M26D</t>
   </si>
   <si>
-    <t>65  3M25D</t>
-  </si>
-  <si>
     <t>325  7M4D</t>
   </si>
   <si>
-    <t>139  9M11D</t>
-  </si>
-  <si>
     <t>1381  -0M22D</t>
   </si>
   <si>
@@ -2668,27 +2668,27 @@
     <t>38  6M23D</t>
   </si>
   <si>
+    <t>940  -0M19D</t>
+  </si>
+  <si>
+    <t>272  -0M14D</t>
+  </si>
+  <si>
+    <t>162  3M5D</t>
+  </si>
+  <si>
     <t>96  1M7D</t>
   </si>
   <si>
-    <t>162  3M5D</t>
-  </si>
-  <si>
-    <t>272  -0M14D</t>
-  </si>
-  <si>
-    <t>940  -0M19D</t>
-  </si>
-  <si>
     <t>2178  4M13D</t>
   </si>
   <si>
+    <t>3608  1M14D</t>
+  </si>
+  <si>
     <t>1115  1M13D</t>
   </si>
   <si>
-    <t>3608  1M14D</t>
-  </si>
-  <si>
     <t>4969  2M17D</t>
   </si>
   <si>
@@ -2710,33 +2710,33 @@
     <t>3335  1M8D</t>
   </si>
   <si>
+    <t>378  2M23D</t>
+  </si>
+  <si>
+    <t>1201  1M18D</t>
+  </si>
+  <si>
     <t>3124  16M5D</t>
   </si>
   <si>
-    <t>378  2M23D</t>
-  </si>
-  <si>
-    <t>1201  1M18D</t>
-  </si>
-  <si>
     <t>1  -0M7D</t>
   </si>
   <si>
     <t>125  3M11D</t>
   </si>
   <si>
+    <t>111  -1M4D</t>
+  </si>
+  <si>
+    <t>67  1M5D</t>
+  </si>
+  <si>
+    <t>56  -1M3D</t>
+  </si>
+  <si>
     <t>34  7M11D</t>
   </si>
   <si>
-    <t>111  -1M4D</t>
-  </si>
-  <si>
-    <t>67  1M5D</t>
-  </si>
-  <si>
-    <t>56  -1M3D</t>
-  </si>
-  <si>
     <t>11  -0M27D</t>
   </si>
   <si>
@@ -2746,10 +2746,13 @@
     <t>586  -0M20D</t>
   </si>
   <si>
+    <t>59  1M14D</t>
+  </si>
+  <si>
     <t>799  -1M3D</t>
   </si>
   <si>
-    <t>59  1M14D</t>
+    <t>986  2M6D</t>
   </si>
   <si>
     <t>106  -0M24D</t>
@@ -2761,9 +2764,6 @@
     <t>442  2M18D</t>
   </si>
   <si>
-    <t>986  2M6D</t>
-  </si>
-  <si>
     <t>56  1M12D</t>
   </si>
   <si>
@@ -2779,72 +2779,72 @@
     <t>1257  -1M2D</t>
   </si>
   <si>
+    <t>979  2M17D</t>
+  </si>
+  <si>
     <t>33  1M25D</t>
   </si>
   <si>
-    <t>979  2M17D</t>
-  </si>
-  <si>
     <t>121  3M2D</t>
   </si>
   <si>
+    <t>445  -0M12D</t>
+  </si>
+  <si>
+    <t>2  -0M0D</t>
+  </si>
+  <si>
+    <t>45  5M20D</t>
+  </si>
+  <si>
+    <t>34  3M16D</t>
+  </si>
+  <si>
     <t>29  3M11D</t>
   </si>
   <si>
-    <t>2  -0M0D</t>
-  </si>
-  <si>
-    <t>45  5M20D</t>
-  </si>
-  <si>
-    <t>445  -0M12D</t>
-  </si>
-  <si>
     <t>354  1M5D</t>
   </si>
   <si>
-    <t>34  3M16D</t>
-  </si>
-  <si>
     <t>402  3M19D</t>
   </si>
   <si>
+    <t>1345  4M12D</t>
+  </si>
+  <si>
+    <t>188  3M2D</t>
+  </si>
+  <si>
+    <t>107  3M24D</t>
+  </si>
+  <si>
+    <t>865  1M27D</t>
+  </si>
+  <si>
     <t>127  3M7D</t>
   </si>
   <si>
-    <t>188  3M2D</t>
-  </si>
-  <si>
-    <t>1345  4M12D</t>
-  </si>
-  <si>
-    <t>865  1M27D</t>
-  </si>
-  <si>
-    <t>107  3M24D</t>
+    <t>146  6M15D</t>
   </si>
   <si>
     <t>454  3M27D</t>
   </si>
   <si>
-    <t>146  6M15D</t>
+    <t>152  4M25D</t>
   </si>
   <si>
     <t>178  1M6D</t>
   </si>
   <si>
-    <t>152  4M25D</t>
-  </si>
-  <si>
     <t>346  10M5D</t>
   </si>
   <si>
+    <t>651  17M28D</t>
+  </si>
+  <si>
     <t>321  1M13D</t>
   </si>
   <si>
-    <t>651  17M28D</t>
-  </si>
-  <si>
     <t>968  4M6D</t>
   </si>
   <si>
@@ -2866,36 +2866,36 @@
     <t>984  2M4D</t>
   </si>
   <si>
+    <t>1171  6M7D</t>
+  </si>
+  <si>
+    <t>412  3M5D</t>
+  </si>
+  <si>
+    <t>1776  1M23D</t>
+  </si>
+  <si>
+    <t>1405  2M25D</t>
+  </si>
+  <si>
     <t>1898  -1M1D</t>
   </si>
   <si>
-    <t>1171  6M7D</t>
-  </si>
-  <si>
-    <t>1776  1M23D</t>
-  </si>
-  <si>
-    <t>412  3M5D</t>
-  </si>
-  <si>
-    <t>1405  2M25D</t>
+    <t>314  -0M25D</t>
   </si>
   <si>
     <t>258  3M14D</t>
   </si>
   <si>
+    <t>175  1M9D</t>
+  </si>
+  <si>
     <t>868  2M1D</t>
   </si>
   <si>
-    <t>175  1M9D</t>
-  </si>
-  <si>
     <t>947  2M19D</t>
   </si>
   <si>
-    <t>314  -0M25D</t>
-  </si>
-  <si>
     <t>1535  -0M20D</t>
   </si>
   <si>
@@ -2905,27 +2905,27 @@
     <t>104  3M0D</t>
   </si>
   <si>
+    <t>784  -0M17D</t>
+  </si>
+  <si>
+    <t>277  -0M15D</t>
+  </si>
+  <si>
+    <t>222  1M29D</t>
+  </si>
+  <si>
     <t>118  -0M29D</t>
   </si>
   <si>
-    <t>222  1M29D</t>
-  </si>
-  <si>
-    <t>277  -0M15D</t>
-  </si>
-  <si>
-    <t>784  -0M17D</t>
-  </si>
-  <si>
     <t>2009  7M15D</t>
   </si>
   <si>
+    <t>7962  3M3D</t>
+  </si>
+  <si>
     <t>1565  1M15D</t>
   </si>
   <si>
-    <t>7962  3M3D</t>
-  </si>
-  <si>
     <t>4846  1M14D</t>
   </si>
   <si>
@@ -2947,33 +2947,33 @@
     <t>6103  1M17D</t>
   </si>
   <si>
+    <t>315  1M12D</t>
+  </si>
+  <si>
+    <t>3335  2M14D</t>
+  </si>
+  <si>
     <t>4102  4M11D</t>
   </si>
   <si>
-    <t>315  1M12D</t>
-  </si>
-  <si>
-    <t>3335  2M14D</t>
-  </si>
-  <si>
     <t>26  4M4D</t>
   </si>
   <si>
     <t>105  2M10D</t>
   </si>
   <si>
+    <t>160  8M2D</t>
+  </si>
+  <si>
+    <t>39  1M13D</t>
+  </si>
+  <si>
+    <t>55  2M18D</t>
+  </si>
+  <si>
     <t>50  15M5D</t>
   </si>
   <si>
-    <t>160  8M2D</t>
-  </si>
-  <si>
-    <t>39  1M13D</t>
-  </si>
-  <si>
-    <t>55  2M18D</t>
-  </si>
-  <si>
     <t>40  2M12D</t>
   </si>
   <si>
@@ -2983,10 +2983,13 @@
     <t>722  -0M14D</t>
   </si>
   <si>
+    <t>131  3M19D</t>
+  </si>
+  <si>
     <t>1502  2M6D</t>
   </si>
   <si>
-    <t>131  3M19D</t>
+    <t>561  1M27D</t>
   </si>
   <si>
     <t>181  -0M15D</t>
@@ -2998,9 +3001,6 @@
     <t>294  -1M2D</t>
   </si>
   <si>
-    <t>561  1M27D</t>
-  </si>
-  <si>
     <t>97  3M21D</t>
   </si>
   <si>
@@ -3016,69 +3016,69 @@
     <t>715  -0M20D</t>
   </si>
   <si>
+    <t>709  2M21D</t>
+  </si>
+  <si>
     <t>70  6M2D</t>
   </si>
   <si>
-    <t>709  2M21D</t>
-  </si>
-  <si>
     <t>85  -0M21D</t>
   </si>
   <si>
+    <t>22  -0M0D</t>
+  </si>
+  <si>
+    <t>51  -1M1D</t>
+  </si>
+  <si>
+    <t>29  43M29D</t>
+  </si>
+  <si>
+    <t>59  3M19D</t>
+  </si>
+  <si>
     <t>40  1M10D</t>
   </si>
   <si>
-    <t>51  -1M1D</t>
-  </si>
-  <si>
-    <t>29  43M29D</t>
-  </si>
-  <si>
-    <t>22  -0M0D</t>
-  </si>
-  <si>
     <t>516  2M5D</t>
   </si>
   <si>
-    <t>59  3M19D</t>
-  </si>
-  <si>
     <t>119  -1M2D</t>
   </si>
   <si>
+    <t>933  2M4D</t>
+  </si>
+  <si>
     <t>415  4M28D</t>
   </si>
   <si>
-    <t>933  2M4D</t>
+    <t>113  3M7D</t>
   </si>
   <si>
     <t>847  1M21D</t>
   </si>
   <si>
-    <t>113  3M7D</t>
+    <t>4  -0M2D</t>
   </si>
   <si>
     <t>475  2M6D</t>
   </si>
   <si>
-    <t>4  -0M2D</t>
+    <t>102  2M10D</t>
   </si>
   <si>
     <t>391  1M14D</t>
   </si>
   <si>
-    <t>102  2M10D</t>
-  </si>
-  <si>
     <t>136  -1M2D</t>
   </si>
   <si>
+    <t>221  4M6D</t>
+  </si>
+  <si>
     <t>349  1M10D</t>
   </si>
   <si>
-    <t>221  4M6D</t>
-  </si>
-  <si>
     <t>78  -0M13D</t>
   </si>
   <si>
@@ -3100,36 +3100,36 @@
     <t>105  2M6D</t>
   </si>
   <si>
+    <t>928  2M6D</t>
+  </si>
+  <si>
+    <t>313  -0M25D</t>
+  </si>
+  <si>
+    <t>2471  -0M26D</t>
+  </si>
+  <si>
+    <t>1104  3M19D</t>
+  </si>
+  <si>
     <t>1875  -0M19D</t>
   </si>
   <si>
-    <t>928  2M6D</t>
-  </si>
-  <si>
-    <t>2471  -0M26D</t>
-  </si>
-  <si>
-    <t>313  -0M25D</t>
-  </si>
-  <si>
-    <t>1104  3M19D</t>
+    <t>114  4M3D</t>
   </si>
   <si>
     <t>287  8M8D</t>
   </si>
   <si>
+    <t>214  5M28D</t>
+  </si>
+  <si>
     <t>607  3M28D</t>
   </si>
   <si>
-    <t>214  5M28D</t>
-  </si>
-  <si>
     <t>205  5M9D</t>
   </si>
   <si>
-    <t>114  4M3D</t>
-  </si>
-  <si>
     <t>1362  -1M0D</t>
   </si>
   <si>
@@ -3139,27 +3139,27 @@
     <t>126  3M17D</t>
   </si>
   <si>
+    <t>504  -0M14D</t>
+  </si>
+  <si>
+    <t>510  -0M26D</t>
+  </si>
+  <si>
+    <t>91  1M29D</t>
+  </si>
+  <si>
     <t>166  2M6D</t>
   </si>
   <si>
-    <t>91  1M29D</t>
-  </si>
-  <si>
-    <t>510  -0M26D</t>
-  </si>
-  <si>
-    <t>504  -0M14D</t>
-  </si>
-  <si>
     <t>3500  1M14D</t>
   </si>
   <si>
+    <t>2361  -1M1D</t>
+  </si>
+  <si>
     <t>1568  -1M1D</t>
   </si>
   <si>
-    <t>2361  -1M1D</t>
-  </si>
-  <si>
     <t>3607  1M8D</t>
   </si>
   <si>
@@ -3181,33 +3181,33 @@
     <t>3218  -0M29D</t>
   </si>
   <si>
+    <t>251  1M7D</t>
+  </si>
+  <si>
+    <t>2615  -0M18D</t>
+  </si>
+  <si>
     <t>4279  1M21D</t>
   </si>
   <si>
-    <t>251  1M7D</t>
-  </si>
-  <si>
-    <t>2615  -0M18D</t>
-  </si>
-  <si>
     <t>32  3M26D</t>
   </si>
   <si>
     <t>129  1M29D</t>
   </si>
   <si>
+    <t>114  1M6D</t>
+  </si>
+  <si>
+    <t>41  1M26D</t>
+  </si>
+  <si>
+    <t>68  1M20D</t>
+  </si>
+  <si>
     <t>31  3M7D</t>
   </si>
   <si>
-    <t>114  1M6D</t>
-  </si>
-  <si>
-    <t>41  1M26D</t>
-  </si>
-  <si>
-    <t>68  1M20D</t>
-  </si>
-  <si>
     <t>66  33M11D</t>
   </si>
   <si>
@@ -3217,10 +3217,13 @@
     <t>672  -0M28D</t>
   </si>
   <si>
+    <t>130  3M15D</t>
+  </si>
+  <si>
     <t>829  -1M0D</t>
   </si>
   <si>
-    <t>130  3M15D</t>
+    <t>702  1M15D</t>
   </si>
   <si>
     <t>242  -0M22D</t>
@@ -3232,9 +3235,6 @@
     <t>88  -0M7D</t>
   </si>
   <si>
-    <t>702  1M15D</t>
-  </si>
-  <si>
     <t>44  1M15D</t>
   </si>
   <si>
@@ -3256,60 +3256,60 @@
     <t>200  1M17D</t>
   </si>
   <si>
+    <t>1185  2M29D</t>
+  </si>
+  <si>
+    <t>5  -0M2D</t>
+  </si>
+  <si>
+    <t>67  5M24D</t>
+  </si>
+  <si>
+    <t>83  8M3D</t>
+  </si>
+  <si>
     <t>5  -0M25D</t>
   </si>
   <si>
-    <t>5  -0M2D</t>
-  </si>
-  <si>
-    <t>67  5M24D</t>
-  </si>
-  <si>
-    <t>1185  2M29D</t>
-  </si>
-  <si>
-    <t>83  8M3D</t>
-  </si>
-  <si>
     <t>417  3M19D</t>
   </si>
   <si>
+    <t>1075  -1M2D</t>
+  </si>
+  <si>
+    <t>247  -1M0D</t>
+  </si>
+  <si>
+    <t>176  2M7D</t>
+  </si>
+  <si>
+    <t>1121  1M8D</t>
+  </si>
+  <si>
     <t>139  7M8D</t>
   </si>
   <si>
-    <t>247  -1M0D</t>
-  </si>
-  <si>
-    <t>1075  -1M2D</t>
-  </si>
-  <si>
-    <t>1121  1M8D</t>
-  </si>
-  <si>
-    <t>176  2M7D</t>
+    <t>71  3M3D</t>
   </si>
   <si>
     <t>888  5M29D</t>
   </si>
   <si>
-    <t>71  3M3D</t>
+    <t>80  1M20D</t>
   </si>
   <si>
     <t>282  1M23D</t>
   </si>
   <si>
-    <t>80  1M20D</t>
-  </si>
-  <si>
     <t>97  -1M4D</t>
   </si>
   <si>
+    <t>212  -0M22D</t>
+  </si>
+  <si>
     <t>834  1M19D</t>
   </si>
   <si>
-    <t>212  -0M22D</t>
-  </si>
-  <si>
     <t>49  -0M5D</t>
   </si>
   <si>
@@ -3328,36 +3328,36 @@
     <t>50  1M8D</t>
   </si>
   <si>
+    <t>1072  5M24D</t>
+  </si>
+  <si>
+    <t>192  -0M25D</t>
+  </si>
+  <si>
+    <t>989  -0M18D</t>
+  </si>
+  <si>
+    <t>1282  -1M0D</t>
+  </si>
+  <si>
     <t>3251  1M10D</t>
   </si>
   <si>
-    <t>1072  5M24D</t>
-  </si>
-  <si>
-    <t>989  -0M18D</t>
-  </si>
-  <si>
-    <t>192  -0M25D</t>
-  </si>
-  <si>
-    <t>1282  -1M0D</t>
+    <t>270  2M15D</t>
   </si>
   <si>
     <t>164  11M1D</t>
   </si>
   <si>
+    <t>168  12M4D</t>
+  </si>
+  <si>
     <t>532  5M12D</t>
   </si>
   <si>
-    <t>168  12M4D</t>
-  </si>
-  <si>
     <t>225  10M19D</t>
   </si>
   <si>
-    <t>270  2M15D</t>
-  </si>
-  <si>
     <t>606  -0M9D</t>
   </si>
   <si>
@@ -3367,27 +3367,27 @@
     <t>67  1M11D</t>
   </si>
   <si>
+    <t>1007  1M26D</t>
+  </si>
+  <si>
+    <t>653  2M2D</t>
+  </si>
+  <si>
+    <t>130  2M18D</t>
+  </si>
+  <si>
     <t>168  2M23D</t>
   </si>
   <si>
-    <t>130  2M18D</t>
-  </si>
-  <si>
-    <t>653  2M2D</t>
-  </si>
-  <si>
-    <t>1007  1M26D</t>
-  </si>
-  <si>
     <t>1258  3M24D</t>
   </si>
   <si>
+    <t>5852  1M24D</t>
+  </si>
+  <si>
     <t>1241  -0M29D</t>
   </si>
   <si>
-    <t>5852  1M24D</t>
-  </si>
-  <si>
     <t>2021  -0M27D</t>
   </si>
   <si>
@@ -3409,33 +3409,33 @@
     <t>4574  1M17D</t>
   </si>
   <si>
+    <t>143  -0M17D</t>
+  </si>
+  <si>
+    <t>5837  2M25D</t>
+  </si>
+  <si>
     <t>4566  2M4D</t>
   </si>
   <si>
-    <t>143  -0M17D</t>
-  </si>
-  <si>
-    <t>5837  2M25D</t>
-  </si>
-  <si>
     <t>30  9M3D</t>
   </si>
   <si>
     <t>75  2M2D</t>
   </si>
   <si>
+    <t>149  2M11D</t>
+  </si>
+  <si>
+    <t>68  7M28D</t>
+  </si>
+  <si>
+    <t>120  3M19D</t>
+  </si>
+  <si>
     <t>44  13M10D</t>
   </si>
   <si>
-    <t>149  2M11D</t>
-  </si>
-  <si>
-    <t>68  7M28D</t>
-  </si>
-  <si>
-    <t>120  3M19D</t>
-  </si>
-  <si>
     <t>81  13M19D</t>
   </si>
   <si>
@@ -3445,10 +3445,13 @@
     <t>647  1M6D</t>
   </si>
   <si>
+    <t>96  1M29D</t>
+  </si>
+  <si>
     <t>1066  1M11D</t>
   </si>
   <si>
-    <t>96  1M29D</t>
+    <t>456  2M21D</t>
   </si>
   <si>
     <t>132  -0M25D</t>
@@ -3460,9 +3463,6 @@
     <t>104  -0M13D</t>
   </si>
   <si>
-    <t>456  2M21D</t>
-  </si>
-  <si>
     <t>35  -0M22D</t>
   </si>
   <si>
@@ -3478,69 +3478,69 @@
     <t>664  -0M16D</t>
   </si>
   <si>
+    <t>437  2M8D</t>
+  </si>
+  <si>
     <t>100  15M5D</t>
   </si>
   <si>
-    <t>437  2M8D</t>
-  </si>
-  <si>
     <t>118  -1M2D</t>
   </si>
   <si>
+    <t>1093  1M13D</t>
+  </si>
+  <si>
+    <t>25  1M16D</t>
+  </si>
+  <si>
+    <t>74  6M18D</t>
+  </si>
+  <si>
     <t>20  30M10D</t>
   </si>
   <si>
-    <t>25  1M16D</t>
-  </si>
-  <si>
-    <t>1093  1M13D</t>
-  </si>
-  <si>
     <t>435  1M21D</t>
   </si>
   <si>
-    <t>74  6M18D</t>
-  </si>
-  <si>
     <t>427  3M19D</t>
   </si>
   <si>
+    <t>2246  6M1D</t>
+  </si>
+  <si>
+    <t>369  11M12D</t>
+  </si>
+  <si>
+    <t>135  2M9D</t>
+  </si>
+  <si>
+    <t>1351  2M28D</t>
+  </si>
+  <si>
     <t>137  18M26D</t>
   </si>
   <si>
-    <t>369  11M12D</t>
-  </si>
-  <si>
-    <t>2246  6M1D</t>
-  </si>
-  <si>
-    <t>1351  2M28D</t>
-  </si>
-  <si>
-    <t>135  2M9D</t>
+    <t>166  11M29D</t>
   </si>
   <si>
     <t>600  4M2D</t>
   </si>
   <si>
-    <t>166  11M29D</t>
+    <t>191  10M16D</t>
   </si>
   <si>
     <t>311  3M17D</t>
   </si>
   <si>
-    <t>191  10M16D</t>
-  </si>
-  <si>
     <t>120  -1M2D</t>
   </si>
   <si>
+    <t>36  -0M17D</t>
+  </si>
+  <si>
     <t>355  2M3D</t>
   </si>
   <si>
-    <t>36  -0M17D</t>
-  </si>
-  <si>
     <t>69  -0M7D</t>
   </si>
   <si>
@@ -3562,36 +3562,36 @@
     <t>4  -0M1D</t>
   </si>
   <si>
+    <t>782  4M18D</t>
+  </si>
+  <si>
+    <t>539  2M27D</t>
+  </si>
+  <si>
+    <t>1338  1M9D</t>
+  </si>
+  <si>
+    <t>986  1M9D</t>
+  </si>
+  <si>
     <t>3249  2M0D</t>
   </si>
   <si>
-    <t>782  4M18D</t>
-  </si>
-  <si>
-    <t>1338  1M9D</t>
-  </si>
-  <si>
-    <t>539  2M27D</t>
-  </si>
-  <si>
-    <t>986  1M9D</t>
+    <t>72  2M12D</t>
   </si>
   <si>
     <t>104  1M22D</t>
   </si>
   <si>
+    <t>130  4M7D</t>
+  </si>
+  <si>
     <t>387  1M16D</t>
   </si>
   <si>
-    <t>130  4M7D</t>
-  </si>
-  <si>
     <t>367  2M11D</t>
   </si>
   <si>
-    <t>72  2M12D</t>
-  </si>
-  <si>
     <t>1207  -0M29D</t>
   </si>
   <si>
@@ -3601,27 +3601,27 @@
     <t>109  11M12D</t>
   </si>
   <si>
+    <t>84  -0M1D</t>
+  </si>
+  <si>
+    <t>482  -0M28D</t>
+  </si>
+  <si>
+    <t>77  -0M29D</t>
+  </si>
+  <si>
     <t>50  -0M20D</t>
   </si>
   <si>
-    <t>77  -0M29D</t>
-  </si>
-  <si>
-    <t>482  -0M28D</t>
-  </si>
-  <si>
-    <t>84  -0M1D</t>
-  </si>
-  <si>
     <t>3099  3M26D</t>
   </si>
   <si>
+    <t>2963  2M25D</t>
+  </si>
+  <si>
     <t>1427  2M17D</t>
   </si>
   <si>
-    <t>2963  2M25D</t>
-  </si>
-  <si>
     <t>5186  3M5D</t>
   </si>
   <si>
@@ -3643,33 +3643,33 @@
     <t>4222  2M12D</t>
   </si>
   <si>
+    <t>173  1M17D</t>
+  </si>
+  <si>
+    <t>2578  4M26D</t>
+  </si>
+  <si>
     <t>1619  11M7D</t>
   </si>
   <si>
-    <t>173  1M17D</t>
-  </si>
-  <si>
-    <t>2578  4M26D</t>
-  </si>
-  <si>
     <t>49  29M21D</t>
   </si>
   <si>
     <t>104  6M9D</t>
   </si>
   <si>
+    <t>94  3M16D</t>
+  </si>
+  <si>
+    <t>93  3M15D</t>
+  </si>
+  <si>
+    <t>84  5M6D</t>
+  </si>
+  <si>
     <t>43  26M2D</t>
   </si>
   <si>
-    <t>94  3M16D</t>
-  </si>
-  <si>
-    <t>93  3M15D</t>
-  </si>
-  <si>
-    <t>84  5M6D</t>
-  </si>
-  <si>
     <t>48  5M18D</t>
   </si>
   <si>
@@ -3679,10 +3679,13 @@
     <t>621  1M5D</t>
   </si>
   <si>
+    <t>113  13M21D</t>
+  </si>
+  <si>
     <t>1086  2M17D</t>
   </si>
   <si>
-    <t>113  13M21D</t>
+    <t>702  4M3D</t>
   </si>
   <si>
     <t>149  1M10D</t>
@@ -3694,9 +3697,6 @@
     <t>330  1M21D</t>
   </si>
   <si>
-    <t>702  4M3D</t>
-  </si>
-  <si>
     <t>37  1M24D</t>
   </si>
   <si>
@@ -3712,69 +3712,69 @@
     <t>1382  2M7D</t>
   </si>
   <si>
+    <t>564  2M6D</t>
+  </si>
+  <si>
     <t>25  1M9D</t>
   </si>
   <si>
-    <t>564  2M6D</t>
-  </si>
-  <si>
     <t>132  2M10D</t>
   </si>
   <si>
+    <t>523  -0M19D</t>
+  </si>
+  <si>
+    <t>47  1M20D</t>
+  </si>
+  <si>
+    <t>59  17M26D</t>
+  </si>
+  <si>
+    <t>7  -1M0D</t>
+  </si>
+  <si>
     <t>13  -0M13D</t>
   </si>
   <si>
-    <t>47  1M20D</t>
-  </si>
-  <si>
-    <t>59  17M26D</t>
-  </si>
-  <si>
-    <t>523  -0M19D</t>
-  </si>
-  <si>
     <t>305  1M21D</t>
   </si>
   <si>
-    <t>7  -1M0D</t>
-  </si>
-  <si>
     <t>339  7M4D</t>
   </si>
   <si>
+    <t>944  6M13D</t>
+  </si>
+  <si>
+    <t>61  2M21D</t>
+  </si>
+  <si>
+    <t>281  10M23D</t>
+  </si>
+  <si>
+    <t>1357  3M9D</t>
+  </si>
+  <si>
     <t>332  13M18D</t>
   </si>
   <si>
-    <t>61  2M21D</t>
-  </si>
-  <si>
-    <t>944  6M13D</t>
-  </si>
-  <si>
-    <t>1357  3M9D</t>
-  </si>
-  <si>
-    <t>281  10M23D</t>
+    <t>136  12M4D</t>
   </si>
   <si>
     <t>577  5M11D</t>
   </si>
   <si>
-    <t>136  12M4D</t>
-  </si>
-  <si>
     <t>508  2M8D</t>
   </si>
   <si>
     <t>124  1M10D</t>
   </si>
   <si>
+    <t>149  4M21D</t>
+  </si>
+  <si>
     <t>481  2M6D</t>
   </si>
   <si>
-    <t>149  4M21D</t>
-  </si>
-  <si>
     <t>107  -0M17D</t>
   </si>
   <si>
@@ -3796,36 +3796,36 @@
     <t>111  7M19D</t>
   </si>
   <si>
+    <t>789  5M9D</t>
+  </si>
+  <si>
+    <t>205  1M28D</t>
+  </si>
+  <si>
+    <t>1993  1M28D</t>
+  </si>
+  <si>
+    <t>1017  3M27D</t>
+  </si>
+  <si>
     <t>1685  1M10D</t>
   </si>
   <si>
-    <t>789  5M9D</t>
-  </si>
-  <si>
-    <t>1993  1M28D</t>
-  </si>
-  <si>
-    <t>205  1M28D</t>
-  </si>
-  <si>
-    <t>1017  3M27D</t>
+    <t>59  89M14D</t>
   </si>
   <si>
     <t>170  10M3D</t>
   </si>
   <si>
+    <t>167  46M1D</t>
+  </si>
+  <si>
     <t>628  7M25D</t>
   </si>
   <si>
-    <t>167  46M1D</t>
-  </si>
-  <si>
     <t>351  6M26D</t>
   </si>
   <si>
-    <t>59  89M14D</t>
-  </si>
-  <si>
     <t>1269  1M17D</t>
   </si>
   <si>
@@ -3835,27 +3835,27 @@
     <t>51  3M20D</t>
   </si>
   <si>
+    <t>1975  3M9D</t>
+  </si>
+  <si>
+    <t>734  3M4D</t>
+  </si>
+  <si>
+    <t>76  1M10D</t>
+  </si>
+  <si>
     <t>107  2M29D</t>
   </si>
   <si>
-    <t>76  1M10D</t>
-  </si>
-  <si>
-    <t>734  3M4D</t>
-  </si>
-  <si>
-    <t>1975  3M9D</t>
-  </si>
-  <si>
     <t>2444  4M5D</t>
   </si>
   <si>
+    <t>2394  1M27D</t>
+  </si>
+  <si>
     <t>1592  1M27D</t>
   </si>
   <si>
-    <t>2394  1M27D</t>
-  </si>
-  <si>
     <t>3169  2M7D</t>
   </si>
   <si>
@@ -3877,33 +3877,33 @@
     <t>3346  1M20D</t>
   </si>
   <si>
+    <t>207  1M24D</t>
+  </si>
+  <si>
+    <t>1590  3M6D</t>
+  </si>
+  <si>
     <t>1729  4M15D</t>
   </si>
   <si>
-    <t>207  1M24D</t>
-  </si>
-  <si>
-    <t>1590  3M6D</t>
-  </si>
-  <si>
     <t>7  4M7D</t>
   </si>
   <si>
     <t>91  1M24D</t>
   </si>
   <si>
+    <t>87  1M23D</t>
+  </si>
+  <si>
+    <t>77  3M4D</t>
+  </si>
+  <si>
+    <t>81  3M21D</t>
+  </si>
+  <si>
     <t>23  5M11D</t>
   </si>
   <si>
-    <t>87  1M23D</t>
-  </si>
-  <si>
-    <t>77  3M4D</t>
-  </si>
-  <si>
-    <t>81  3M21D</t>
-  </si>
-  <si>
     <t>28  84M28D</t>
   </si>
   <si>
@@ -3913,10 +3913,13 @@
     <t>254  -0M9D</t>
   </si>
   <si>
+    <t>84  6M16D</t>
+  </si>
+  <si>
     <t>895  -1M4D</t>
   </si>
   <si>
-    <t>84  6M16D</t>
+    <t>516  8M0D</t>
   </si>
   <si>
     <t>318  -1M0D</t>
@@ -3928,9 +3931,6 @@
     <t>163  -0M13D</t>
   </si>
   <si>
-    <t>516  8M0D</t>
-  </si>
-  <si>
     <t>52  2M7D</t>
   </si>
   <si>
@@ -3946,60 +3946,60 @@
     <t>1062  -1M3D</t>
   </si>
   <si>
+    <t>617  1M23D</t>
+  </si>
+  <si>
     <t>1  -0M18D</t>
   </si>
   <si>
-    <t>617  1M23D</t>
+    <t>28  -0M17D</t>
+  </si>
+  <si>
+    <t>23  3M14D</t>
   </si>
   <si>
     <t>12  1M24D</t>
   </si>
   <si>
-    <t>28  -0M17D</t>
-  </si>
-  <si>
     <t>814  3M16D</t>
   </si>
   <si>
-    <t>23  3M14D</t>
-  </si>
-  <si>
     <t>198  6M15D</t>
   </si>
   <si>
+    <t>1601  1M13D</t>
+  </si>
+  <si>
+    <t>121  -1M1D</t>
+  </si>
+  <si>
+    <t>50  1M28D</t>
+  </si>
+  <si>
+    <t>1559  1M27D</t>
+  </si>
+  <si>
     <t>146  -1M4D</t>
   </si>
   <si>
-    <t>121  -1M1D</t>
-  </si>
-  <si>
-    <t>1601  1M13D</t>
-  </si>
-  <si>
-    <t>1559  1M27D</t>
-  </si>
-  <si>
-    <t>50  1M28D</t>
+    <t>33  1M12D</t>
   </si>
   <si>
     <t>801  8M2D</t>
   </si>
   <si>
-    <t>33  1M12D</t>
-  </si>
-  <si>
     <t>412  -1M0D</t>
   </si>
   <si>
     <t>220  3M8D</t>
   </si>
   <si>
+    <t>119  1M26D</t>
+  </si>
+  <si>
     <t>520  1M25D</t>
   </si>
   <si>
-    <t>119  1M26D</t>
-  </si>
-  <si>
     <t>655  -0M8D</t>
   </si>
   <si>
@@ -4015,36 +4015,36 @@
     <t>151  5M19D</t>
   </si>
   <si>
+    <t>1791  7M1D</t>
+  </si>
+  <si>
+    <t>564  3M29D</t>
+  </si>
+  <si>
+    <t>1464  -0M28D</t>
+  </si>
+  <si>
+    <t>1026  1M6D</t>
+  </si>
+  <si>
     <t>3327  2M0D</t>
   </si>
   <si>
-    <t>1791  7M1D</t>
-  </si>
-  <si>
-    <t>1464  -0M28D</t>
-  </si>
-  <si>
-    <t>564  3M29D</t>
-  </si>
-  <si>
-    <t>1026  1M6D</t>
+    <t>96  3M6D</t>
   </si>
   <si>
     <t>325  17M27D</t>
   </si>
   <si>
+    <t>177  13M23D</t>
+  </si>
+  <si>
     <t>587  3M5D</t>
   </si>
   <si>
-    <t>177  13M23D</t>
-  </si>
-  <si>
     <t>312  7M26D</t>
   </si>
   <si>
-    <t>96  3M6D</t>
-  </si>
-  <si>
     <t>1243  1M6D</t>
   </si>
   <si>
@@ -4054,27 +4054,27 @@
     <t>29  1M5D</t>
   </si>
   <si>
+    <t>1326  1M14D</t>
+  </si>
+  <si>
+    <t>485  -0M28D</t>
+  </si>
+  <si>
+    <t>156  3M5D</t>
+  </si>
+  <si>
     <t>132  1M15D</t>
   </si>
   <si>
-    <t>156  3M5D</t>
-  </si>
-  <si>
-    <t>485  -0M28D</t>
-  </si>
-  <si>
-    <t>1326  1M14D</t>
-  </si>
-  <si>
     <t>3110  1M16D</t>
   </si>
   <si>
+    <t>4942  1M29D</t>
+  </si>
+  <si>
     <t>2062  1M11D</t>
   </si>
   <si>
-    <t>4942  1M29D</t>
-  </si>
-  <si>
     <t>3414  -0M29D</t>
   </si>
   <si>
@@ -4096,33 +4096,33 @@
     <t>5962  1M19D</t>
   </si>
   <si>
+    <t>342  -1M1D</t>
+  </si>
+  <si>
+    <t>3358  -0M22D</t>
+  </si>
+  <si>
     <t>6729  4M16D</t>
   </si>
   <si>
-    <t>342  -1M1D</t>
-  </si>
-  <si>
-    <t>3358  -0M22D</t>
-  </si>
-  <si>
     <t>8  1M10D</t>
   </si>
   <si>
     <t>99  1M7D</t>
   </si>
   <si>
+    <t>97  -0M27D</t>
+  </si>
+  <si>
+    <t>52  -1M4D</t>
+  </si>
+  <si>
+    <t>76  -0M18D</t>
+  </si>
+  <si>
     <t>45  3M12D</t>
   </si>
   <si>
-    <t>97  -0M27D</t>
-  </si>
-  <si>
-    <t>52  -1M4D</t>
-  </si>
-  <si>
-    <t>76  -0M18D</t>
-  </si>
-  <si>
     <t>23  3M1D</t>
   </si>
   <si>
@@ -4132,10 +4132,13 @@
     <t>528  -0M18D</t>
   </si>
   <si>
+    <t>97  2M1D</t>
+  </si>
+  <si>
     <t>864  -1M3D</t>
   </si>
   <si>
-    <t>97  2M1D</t>
+    <t>270  -0M21D</t>
   </si>
   <si>
     <t>168  -0M13D</t>
@@ -4147,9 +4150,6 @@
     <t>112  -0M12D</t>
   </si>
   <si>
-    <t>270  -0M21D</t>
-  </si>
-  <si>
     <t>61  3M9D</t>
   </si>
   <si>
@@ -4171,57 +4171,57 @@
     <t>88  -0M19D</t>
   </si>
   <si>
+    <t>1218  2M23D</t>
+  </si>
+  <si>
     <t>29  1M17D</t>
   </si>
   <si>
-    <t>1218  2M23D</t>
+    <t>43  14M14D</t>
   </si>
   <si>
     <t>890  2M24D</t>
   </si>
   <si>
-    <t>43  14M14D</t>
-  </si>
-  <si>
     <t>172  2M3D</t>
   </si>
   <si>
+    <t>1811  2M15D</t>
+  </si>
+  <si>
+    <t>237  2M3D</t>
+  </si>
+  <si>
+    <t>121  2M2D</t>
+  </si>
+  <si>
+    <t>743  -0M24D</t>
+  </si>
+  <si>
     <t>72  1M14D</t>
   </si>
   <si>
-    <t>237  2M3D</t>
-  </si>
-  <si>
-    <t>1811  2M15D</t>
-  </si>
-  <si>
-    <t>743  -0M24D</t>
-  </si>
-  <si>
-    <t>121  2M2D</t>
+    <t>132  8M0D</t>
   </si>
   <si>
     <t>477  2M29D</t>
   </si>
   <si>
-    <t>132  8M0D</t>
+    <t>80  2M3D</t>
   </si>
   <si>
     <t>423  1M17D</t>
   </si>
   <si>
-    <t>80  2M3D</t>
-  </si>
-  <si>
     <t>78  -0M27D</t>
   </si>
   <si>
+    <t>62  -0M8D</t>
+  </si>
+  <si>
     <t>315  -0M24D</t>
   </si>
   <si>
-    <t>62  -0M8D</t>
-  </si>
-  <si>
     <t>124  -0M16D</t>
   </si>
   <si>
@@ -4240,63 +4240,63 @@
     <t>56  -0M20D</t>
   </si>
   <si>
+    <t>845  5M27D</t>
+  </si>
+  <si>
+    <t>363  2M12D</t>
+  </si>
+  <si>
+    <t>2088  -1M4D</t>
+  </si>
+  <si>
+    <t>1109  1M7D</t>
+  </si>
+  <si>
     <t>2962  -1M4D</t>
   </si>
   <si>
-    <t>845  5M27D</t>
-  </si>
-  <si>
-    <t>2088  -1M4D</t>
-  </si>
-  <si>
-    <t>363  2M12D</t>
-  </si>
-  <si>
-    <t>1109  1M7D</t>
+    <t>344  1M5D</t>
   </si>
   <si>
     <t>1795  22M12D</t>
   </si>
   <si>
+    <t>448  3M12D</t>
+  </si>
+  <si>
     <t>388  -1M0D</t>
   </si>
   <si>
-    <t>448  3M12D</t>
-  </si>
-  <si>
     <t>9180  68M17D</t>
   </si>
   <si>
-    <t>344  1M5D</t>
-  </si>
-  <si>
     <t>1821  197M8D</t>
   </si>
   <si>
     <t>983  80M17D</t>
   </si>
   <si>
+    <t>462  -0M18D</t>
+  </si>
+  <si>
+    <t>147  -0M5D</t>
+  </si>
+  <si>
+    <t>520  12M15D</t>
+  </si>
+  <si>
     <t>717  6M6D</t>
   </si>
   <si>
-    <t>520  12M15D</t>
-  </si>
-  <si>
-    <t>147  -0M5D</t>
-  </si>
-  <si>
-    <t>462  -0M18D</t>
-  </si>
-  <si>
     <t>3359  19M18D</t>
   </si>
   <si>
+    <t>7251  2M28D</t>
+  </si>
+  <si>
     <t>2790  4M3D</t>
   </si>
   <si>
-    <t>7251  2M28D</t>
-  </si>
-  <si>
     <t>3678  1M26D</t>
   </si>
   <si>
@@ -4318,33 +4318,33 @@
     <t>4356  2M8D</t>
   </si>
   <si>
+    <t>380  4M18D</t>
+  </si>
+  <si>
+    <t>2302  6M13D</t>
+  </si>
+  <si>
     <t>2084  46M4D</t>
   </si>
   <si>
-    <t>380  4M18D</t>
-  </si>
-  <si>
-    <t>2302  6M13D</t>
-  </si>
-  <si>
     <t>365  221M13D</t>
   </si>
   <si>
     <t>1085  31M28D</t>
   </si>
   <si>
+    <t>908  31M8D</t>
+  </si>
+  <si>
+    <t>214  3M5D</t>
+  </si>
+  <si>
+    <t>398  7M4D</t>
+  </si>
+  <si>
     <t>1265  639M15D</t>
   </si>
   <si>
-    <t>908  31M8D</t>
-  </si>
-  <si>
-    <t>214  3M5D</t>
-  </si>
-  <si>
-    <t>398  7M4D</t>
-  </si>
-  <si>
     <t>139  84M9D</t>
   </si>
   <si>
@@ -4354,10 +4354,13 @@
     <t>92  -0M2D</t>
   </si>
   <si>
+    <t>1116  1M21D</t>
+  </si>
+  <si>
     <t>801  -0M25D</t>
   </si>
   <si>
-    <t>1116  1M21D</t>
+    <t>654  4M20D</t>
   </si>
   <si>
     <t>745  3M12D</t>
@@ -4369,9 +4372,6 @@
     <t>269  -0M29D</t>
   </si>
   <si>
-    <t>654  4M20D</t>
-  </si>
-  <si>
     <t>1343  30M12D</t>
   </si>
   <si>
@@ -4387,75 +4387,75 @@
     <t>977  -0M16D</t>
   </si>
   <si>
+    <t>1433  3M14D</t>
+  </si>
+  <si>
     <t>31  -0M8D</t>
   </si>
   <si>
-    <t>1433  3M14D</t>
-  </si>
-  <si>
     <t>186  5M24D</t>
   </si>
   <si>
+    <t>3083  3M29D</t>
+  </si>
+  <si>
+    <t>31  -0M17D</t>
+  </si>
+  <si>
+    <t>2004  434M6D</t>
+  </si>
+  <si>
+    <t>4723  1193M26D</t>
+  </si>
+  <si>
     <t>154  3M2D</t>
   </si>
   <si>
-    <t>31  -0M17D</t>
-  </si>
-  <si>
-    <t>2004  434M6D</t>
-  </si>
-  <si>
-    <t>3083  3M29D</t>
-  </si>
-  <si>
     <t>1441  5M14D</t>
   </si>
   <si>
-    <t>4723  1193M26D</t>
+    <t>1  -0M9D</t>
   </si>
   <si>
     <t>1050  7M19D</t>
   </si>
   <si>
-    <t>1  -0M9D</t>
+    <t>1212  6M21D</t>
+  </si>
+  <si>
+    <t>116  10M1D</t>
+  </si>
+  <si>
+    <t>468  88M21D</t>
+  </si>
+  <si>
+    <t>1671  5M22D</t>
   </si>
   <si>
     <t>422  29M2D</t>
   </si>
   <si>
-    <t>116  10M1D</t>
-  </si>
-  <si>
-    <t>1212  6M21D</t>
-  </si>
-  <si>
-    <t>1671  5M22D</t>
-  </si>
-  <si>
-    <t>468  88M21D</t>
+    <t>274  30M23D</t>
   </si>
   <si>
     <t>8963  31M23D</t>
   </si>
   <si>
-    <t>274  30M23D</t>
+    <t>80  1M22D</t>
   </si>
   <si>
     <t>6977  31M20D</t>
   </si>
   <si>
-    <t>80  1M22D</t>
-  </si>
-  <si>
     <t>607  16M22D</t>
   </si>
   <si>
+    <t>291  6M7D</t>
+  </si>
+  <si>
     <t>2674  38M29D</t>
   </si>
   <si>
-    <t>291  6M7D</t>
-  </si>
-  <si>
     <t>5755  6M7D</t>
   </si>
   <si>
@@ -4477,36 +4477,36 @@
     <t>201  10M15D</t>
   </si>
   <si>
+    <t>945  15M0D</t>
+  </si>
+  <si>
+    <t>237  2M7D</t>
+  </si>
+  <si>
+    <t>2867  6M22D</t>
+  </si>
+  <si>
+    <t>1417  7M20D</t>
+  </si>
+  <si>
     <t>856  -0M26D</t>
   </si>
   <si>
-    <t>945  15M0D</t>
-  </si>
-  <si>
-    <t>2867  6M22D</t>
-  </si>
-  <si>
-    <t>237  2M7D</t>
-  </si>
-  <si>
-    <t>1417  7M20D</t>
+    <t>202  2M5D</t>
   </si>
   <si>
     <t>220  2M9D</t>
   </si>
   <si>
+    <t>518  4M27D</t>
+  </si>
+  <si>
     <t>386  -0M21D</t>
   </si>
   <si>
-    <t>518  4M27D</t>
-  </si>
-  <si>
     <t>675  17M28D</t>
   </si>
   <si>
-    <t>202  2M5D</t>
-  </si>
-  <si>
     <t>622  -0M9D</t>
   </si>
   <si>
@@ -4516,27 +4516,27 @@
     <t>109  8M21D</t>
   </si>
   <si>
+    <t>445  -0M28D</t>
+  </si>
+  <si>
+    <t>244  -0M23D</t>
+  </si>
+  <si>
+    <t>265  16M2D</t>
+  </si>
+  <si>
     <t>96  -0M29D</t>
   </si>
   <si>
-    <t>265  16M2D</t>
-  </si>
-  <si>
-    <t>244  -0M23D</t>
-  </si>
-  <si>
-    <t>445  -0M28D</t>
-  </si>
-  <si>
     <t>3489  26M0D</t>
   </si>
   <si>
+    <t>3335  2M0D</t>
+  </si>
+  <si>
     <t>1103  2M0D</t>
   </si>
   <si>
-    <t>3335  2M0D</t>
-  </si>
-  <si>
     <t>1639  -1M2D</t>
   </si>
   <si>
@@ -4558,33 +4558,33 @@
     <t>2154  1M22D</t>
   </si>
   <si>
+    <t>202  4M3D</t>
+  </si>
+  <si>
+    <t>3038  14M3D</t>
+  </si>
+  <si>
     <t>1806  365M6D</t>
   </si>
   <si>
-    <t>202  4M3D</t>
-  </si>
-  <si>
-    <t>3038  14M3D</t>
-  </si>
-  <si>
     <t>66  200M6D</t>
   </si>
   <si>
     <t>141  9M21D</t>
   </si>
   <si>
+    <t>116  4M8D</t>
+  </si>
+  <si>
+    <t>131  9M20D</t>
+  </si>
+  <si>
+    <t>135  6M15D</t>
+  </si>
+  <si>
     <t>78  236M18D</t>
   </si>
   <si>
-    <t>116  4M8D</t>
-  </si>
-  <si>
-    <t>131  9M20D</t>
-  </si>
-  <si>
-    <t>135  6M15D</t>
-  </si>
-  <si>
     <t>66  15M12D</t>
   </si>
   <si>
@@ -4594,10 +4594,13 @@
     <t>169  -0M9D</t>
   </si>
   <si>
+    <t>221  11M29D</t>
+  </si>
+  <si>
     <t>595  -1M1D</t>
   </si>
   <si>
-    <t>221  11M29D</t>
+    <t>739  13M7D</t>
   </si>
   <si>
     <t>223  1M13D</t>
@@ -4609,9 +4612,6 @@
     <t>692  3M24D</t>
   </si>
   <si>
-    <t>739  13M7D</t>
-  </si>
-  <si>
     <t>133  1M27D</t>
   </si>
   <si>
@@ -4633,63 +4633,63 @@
     <t>62  1M25D</t>
   </si>
   <si>
+    <t>647  -0M25D</t>
+  </si>
+  <si>
+    <t>20  -0M10D</t>
+  </si>
+  <si>
+    <t>95  48M0D</t>
+  </si>
+  <si>
+    <t>177  48M24D</t>
+  </si>
+  <si>
     <t>52  1M17D</t>
   </si>
   <si>
-    <t>20  -0M10D</t>
-  </si>
-  <si>
-    <t>95  48M0D</t>
-  </si>
-  <si>
-    <t>647  -0M25D</t>
-  </si>
-  <si>
     <t>476  2M4D</t>
   </si>
   <si>
-    <t>177  48M24D</t>
-  </si>
-  <si>
     <t>306  2M28D</t>
   </si>
   <si>
+    <t>1020  6M20D</t>
+  </si>
+  <si>
+    <t>57  8M19D</t>
+  </si>
+  <si>
+    <t>132  8M5D</t>
+  </si>
+  <si>
+    <t>1447  8M14D</t>
+  </si>
+  <si>
     <t>80  2M22D</t>
   </si>
   <si>
-    <t>57  8M19D</t>
-  </si>
-  <si>
-    <t>1020  6M20D</t>
-  </si>
-  <si>
-    <t>1447  8M14D</t>
-  </si>
-  <si>
-    <t>132  8M5D</t>
+    <t>183  30M25D</t>
   </si>
   <si>
     <t>828  3M10D</t>
   </si>
   <si>
-    <t>183  30M25D</t>
+    <t>173  4M3D</t>
   </si>
   <si>
     <t>289  1M5D</t>
   </si>
   <si>
-    <t>173  4M3D</t>
-  </si>
-  <si>
     <t>205  8M22D</t>
   </si>
   <si>
+    <t>215  50M5D</t>
+  </si>
+  <si>
     <t>432  8M27D</t>
   </si>
   <si>
-    <t>215  50M5D</t>
-  </si>
-  <si>
     <t>1163  2M21D</t>
   </si>
   <si>
@@ -4711,30 +4711,30 @@
     <t>147  6M5D</t>
   </si>
   <si>
+    <t>1220  19M17D</t>
+  </si>
+  <si>
+    <t>578  8M20D</t>
+  </si>
+  <si>
+    <t>3041  9M1D</t>
+  </si>
+  <si>
+    <t>972  3M25D</t>
+  </si>
+  <si>
     <t>966  1M5D</t>
   </si>
   <si>
-    <t>1220  19M17D</t>
-  </si>
-  <si>
-    <t>3041  9M1D</t>
-  </si>
-  <si>
-    <t>578  8M20D</t>
-  </si>
-  <si>
-    <t>972  3M25D</t>
-  </si>
-  <si>
     <t>197  3M6D</t>
   </si>
   <si>
+    <t>122  3M10D</t>
+  </si>
+  <si>
     <t>433  1M23D</t>
   </si>
   <si>
-    <t>122  3M10D</t>
-  </si>
-  <si>
     <t>401  2M15D</t>
   </si>
   <si>
@@ -4747,27 +4747,27 @@
     <t>31  1M15D</t>
   </si>
   <si>
+    <t>2082  1M22D</t>
+  </si>
+  <si>
+    <t>189  -0M10D</t>
+  </si>
+  <si>
+    <t>113  1M18D</t>
+  </si>
+  <si>
     <t>133  1M22D</t>
   </si>
   <si>
-    <t>113  1M18D</t>
-  </si>
-  <si>
-    <t>189  -0M10D</t>
-  </si>
-  <si>
-    <t>2082  1M22D</t>
-  </si>
-  <si>
     <t>2815  4M13D</t>
   </si>
   <si>
+    <t>4652  2M5D</t>
+  </si>
+  <si>
     <t>1599  1M11D</t>
   </si>
   <si>
-    <t>4652  2M5D</t>
-  </si>
-  <si>
     <t>3866  2M1D</t>
   </si>
   <si>
@@ -4789,33 +4789,33 @@
     <t>5893  2M1D</t>
   </si>
   <si>
+    <t>255  1M12D</t>
+  </si>
+  <si>
+    <t>3720  3M17D</t>
+  </si>
+  <si>
     <t>1915  6M11D</t>
   </si>
   <si>
-    <t>255  1M12D</t>
-  </si>
-  <si>
-    <t>3720  3M17D</t>
-  </si>
-  <si>
     <t>13  1M17D</t>
   </si>
   <si>
     <t>154  3M14D</t>
   </si>
   <si>
+    <t>105  2M15D</t>
+  </si>
+  <si>
+    <t>79  1M29D</t>
+  </si>
+  <si>
+    <t>256  2M5D</t>
+  </si>
+  <si>
     <t>55  5M22D</t>
   </si>
   <si>
-    <t>105  2M15D</t>
-  </si>
-  <si>
-    <t>79  1M29D</t>
-  </si>
-  <si>
-    <t>256  2M5D</t>
-  </si>
-  <si>
     <t>39  1M21D</t>
   </si>
   <si>
@@ -4825,10 +4825,13 @@
     <t>704  -0M26D</t>
   </si>
   <si>
+    <t>441  5M0D</t>
+  </si>
+  <si>
     <t>1160  1M9D</t>
   </si>
   <si>
-    <t>441  5M0D</t>
+    <t>675  2M3D</t>
   </si>
   <si>
     <t>266  -0M22D</t>
@@ -4840,9 +4843,6 @@
     <t>146  -0M12D</t>
   </si>
   <si>
-    <t>675  2M3D</t>
-  </si>
-  <si>
     <t>71  -0M28D</t>
   </si>
   <si>
@@ -4858,63 +4858,63 @@
     <t>919  1M7D</t>
   </si>
   <si>
+    <t>418  2M9D</t>
+  </si>
+  <si>
     <t>47  10M29D</t>
   </si>
   <si>
-    <t>418  2M9D</t>
-  </si>
-  <si>
     <t>121  1M18D</t>
   </si>
   <si>
+    <t>1179  -0M17D</t>
+  </si>
+  <si>
     <t>8  -0M5D</t>
   </si>
   <si>
     <t>58  3M11D</t>
   </si>
   <si>
-    <t>1179  -0M17D</t>
+    <t>49  3M4D</t>
   </si>
   <si>
     <t>473  1M13D</t>
   </si>
   <si>
-    <t>49  3M4D</t>
-  </si>
-  <si>
     <t>253  1M21D</t>
   </si>
   <si>
+    <t>1398  -0M29D</t>
+  </si>
+  <si>
+    <t>279  1M13D</t>
+  </si>
+  <si>
+    <t>1553  1M6D</t>
+  </si>
+  <si>
     <t>58  1M13D</t>
   </si>
   <si>
-    <t>1398  -0M29D</t>
-  </si>
-  <si>
-    <t>1553  1M6D</t>
-  </si>
-  <si>
-    <t>279  1M13D</t>
+    <t>101  5M23D</t>
   </si>
   <si>
     <t>519  4M20D</t>
   </si>
   <si>
-    <t>101  5M23D</t>
-  </si>
-  <si>
     <t>378  2M28D</t>
   </si>
   <si>
     <t>214  2M0D</t>
   </si>
   <si>
+    <t>132  -0M27D</t>
+  </si>
+  <si>
     <t>653  1M27D</t>
   </si>
   <si>
-    <t>132  -0M27D</t>
-  </si>
-  <si>
     <t>133  -1M4D</t>
   </si>
   <si>
@@ -4933,36 +4933,36 @@
     <t>112  4M27D</t>
   </si>
   <si>
+    <t>659  1M12D</t>
+  </si>
+  <si>
+    <t>419  3M1D</t>
+  </si>
+  <si>
+    <t>1764  -0M24D</t>
+  </si>
+  <si>
+    <t>3058  2M2D</t>
+  </si>
+  <si>
     <t>2991  -1M1D</t>
   </si>
   <si>
-    <t>659  1M12D</t>
-  </si>
-  <si>
-    <t>1764  -0M24D</t>
-  </si>
-  <si>
-    <t>419  3M1D</t>
-  </si>
-  <si>
-    <t>3058  2M2D</t>
+    <t>448  -0M25D</t>
   </si>
   <si>
     <t>416  6M7D</t>
   </si>
   <si>
+    <t>220  2M21D</t>
+  </si>
+  <si>
     <t>447  -1M4D</t>
   </si>
   <si>
-    <t>220  2M21D</t>
-  </si>
-  <si>
     <t>482  6M6D</t>
   </si>
   <si>
-    <t>448  -0M25D</t>
-  </si>
-  <si>
     <t>525  -0M5D</t>
   </si>
   <si>
@@ -4972,27 +4972,27 @@
     <t>143  3M26D</t>
   </si>
   <si>
+    <t>212  -0M7D</t>
+  </si>
+  <si>
+    <t>146  -0M5D</t>
+  </si>
+  <si>
+    <t>306  6M20D</t>
+  </si>
+  <si>
     <t>307  1M18D</t>
   </si>
   <si>
-    <t>306  6M20D</t>
-  </si>
-  <si>
-    <t>146  -0M5D</t>
-  </si>
-  <si>
-    <t>212  -0M7D</t>
-  </si>
-  <si>
     <t>1802  6M9D</t>
   </si>
   <si>
+    <t>4173  1M27D</t>
+  </si>
+  <si>
     <t>1514  2M0D</t>
   </si>
   <si>
-    <t>4173  1M27D</t>
-  </si>
-  <si>
     <t>1532  -0M19D</t>
   </si>
   <si>
@@ -5014,33 +5014,33 @@
     <t>3223  1M18D</t>
   </si>
   <si>
+    <t>374  5M1D</t>
+  </si>
+  <si>
+    <t>2876  4M22D</t>
+  </si>
+  <si>
     <t>2981  51M20D</t>
   </si>
   <si>
-    <t>374  5M1D</t>
-  </si>
-  <si>
-    <t>2876  4M22D</t>
-  </si>
-  <si>
     <t>112  33M29D</t>
   </si>
   <si>
     <t>218  4M23D</t>
   </si>
   <si>
+    <t>77  2M19D</t>
+  </si>
+  <si>
+    <t>127  1M5D</t>
+  </si>
+  <si>
+    <t>239  8M22D</t>
+  </si>
+  <si>
     <t>93  35M7D</t>
   </si>
   <si>
-    <t>77  2M19D</t>
-  </si>
-  <si>
-    <t>127  1M5D</t>
-  </si>
-  <si>
-    <t>239  8M22D</t>
-  </si>
-  <si>
     <t>101  9M26D</t>
   </si>
   <si>
@@ -5050,10 +5050,13 @@
     <t>195  -0M5D</t>
   </si>
   <si>
+    <t>204  3M26D</t>
+  </si>
+  <si>
     <t>595  -0M22D</t>
   </si>
   <si>
-    <t>204  3M26D</t>
+    <t>754  11M13D</t>
   </si>
   <si>
     <t>190  -0M23D</t>
@@ -5062,9 +5065,6 @@
     <t>683  -0M27D</t>
   </si>
   <si>
-    <t>754  11M13D</t>
-  </si>
-  <si>
     <t>191  7M18D</t>
   </si>
   <si>
@@ -5086,60 +5086,60 @@
     <t>183  3M19D</t>
   </si>
   <si>
+    <t>387  -0M7D</t>
+  </si>
+  <si>
+    <t>63  -0M18D</t>
+  </si>
+  <si>
+    <t>102  18M6D</t>
+  </si>
+  <si>
+    <t>160  19M12D</t>
+  </si>
+  <si>
     <t>169  73M7D</t>
   </si>
   <si>
-    <t>63  -0M18D</t>
-  </si>
-  <si>
-    <t>102  18M6D</t>
-  </si>
-  <si>
-    <t>387  -0M7D</t>
-  </si>
-  <si>
     <t>640  1M21D</t>
   </si>
   <si>
-    <t>160  19M12D</t>
-  </si>
-  <si>
     <t>526  4M5D</t>
   </si>
   <si>
+    <t>1768  8M13D</t>
+  </si>
+  <si>
+    <t>195  24M19D</t>
+  </si>
+  <si>
+    <t>860  1M28D</t>
+  </si>
+  <si>
     <t>53  -0M24D</t>
   </si>
   <si>
-    <t>1768  8M13D</t>
-  </si>
-  <si>
-    <t>860  1M28D</t>
-  </si>
-  <si>
-    <t>195  24M19D</t>
+    <t>451  33M11D</t>
   </si>
   <si>
     <t>1095  4M26D</t>
   </si>
   <si>
-    <t>451  33M11D</t>
+    <t>537  3M25D</t>
   </si>
   <si>
     <t>306  -0M19D</t>
   </si>
   <si>
-    <t>537  3M25D</t>
-  </si>
-  <si>
     <t>333  7M26D</t>
   </si>
   <si>
+    <t>55  -0M16D</t>
+  </si>
+  <si>
     <t>720  9M27D</t>
   </si>
   <si>
-    <t>55  -0M16D</t>
-  </si>
-  <si>
     <t>2372  3M7D</t>
   </si>
   <si>
@@ -5161,63 +5161,63 @@
     <t>198  4M27D</t>
   </si>
   <si>
+    <t>1555  19M19D</t>
+  </si>
+  <si>
+    <t>684  4M11D</t>
+  </si>
+  <si>
+    <t>2181  3M3D</t>
+  </si>
+  <si>
+    <t>1040  3M20D</t>
+  </si>
+  <si>
     <t>1458  -0M29D</t>
   </si>
   <si>
-    <t>1555  19M19D</t>
-  </si>
-  <si>
-    <t>2181  3M3D</t>
-  </si>
-  <si>
-    <t>684  4M11D</t>
-  </si>
-  <si>
-    <t>1040  3M20D</t>
+    <t>46  23M7D</t>
   </si>
   <si>
     <t>47  -0M27D</t>
   </si>
   <si>
+    <t>105  24M15D</t>
+  </si>
+  <si>
     <t>459  2M28D</t>
   </si>
   <si>
-    <t>105  24M15D</t>
-  </si>
-  <si>
     <t>211  7M27D</t>
   </si>
   <si>
-    <t>46  23M7D</t>
-  </si>
-  <si>
     <t>1088  -0M27D</t>
   </si>
   <si>
     <t>50  2M25D</t>
   </si>
   <si>
+    <t>741  -0M15D</t>
+  </si>
+  <si>
+    <t>586  1M6D</t>
+  </si>
+  <si>
+    <t>166  2M0D</t>
+  </si>
+  <si>
     <t>86  2M21D</t>
   </si>
   <si>
-    <t>166  2M0D</t>
-  </si>
-  <si>
-    <t>586  1M6D</t>
-  </si>
-  <si>
-    <t>741  -0M15D</t>
-  </si>
-  <si>
     <t>2052  1M12D</t>
   </si>
   <si>
+    <t>2378  1M11D</t>
+  </si>
+  <si>
     <t>2637  2M13D</t>
   </si>
   <si>
-    <t>2378  1M11D</t>
-  </si>
-  <si>
     <t>6721  3M20D</t>
   </si>
   <si>
@@ -5239,43 +5239,46 @@
     <t>3022  -0M23D</t>
   </si>
   <si>
+    <t>185  -0M24D</t>
+  </si>
+  <si>
+    <t>2747  3M18D</t>
+  </si>
+  <si>
     <t>2734  8M13D</t>
   </si>
   <si>
-    <t>185  -0M24D</t>
-  </si>
-  <si>
-    <t>2747  3M18D</t>
-  </si>
-  <si>
     <t>53  53M17D</t>
   </si>
   <si>
     <t>107  1M20D</t>
   </si>
   <si>
+    <t>98  -1M1D</t>
+  </si>
+  <si>
+    <t>50  -1M3D</t>
+  </si>
+  <si>
+    <t>53  1M5D</t>
+  </si>
+  <si>
     <t>50  4M13D</t>
   </si>
   <si>
-    <t>98  -1M1D</t>
-  </si>
-  <si>
-    <t>50  -1M3D</t>
-  </si>
-  <si>
-    <t>53  1M5D</t>
-  </si>
-  <si>
     <t>21  63M21D</t>
   </si>
   <si>
     <t>572  -0M14D</t>
   </si>
   <si>
+    <t>110  2M17D</t>
+  </si>
+  <si>
     <t>1673  1M20D</t>
   </si>
   <si>
-    <t>110  2M17D</t>
+    <t>660  6M0D</t>
   </si>
   <si>
     <t>331  1M23D</t>
@@ -5287,9 +5290,6 @@
     <t>148  -0M12D</t>
   </si>
   <si>
-    <t>660  6M0D</t>
-  </si>
-  <si>
     <t>54  -0M12D</t>
   </si>
   <si>
@@ -5305,72 +5305,72 @@
     <t>1527  1M15D</t>
   </si>
   <si>
+    <t>457  1M18D</t>
+  </si>
+  <si>
     <t>36  2M19D</t>
   </si>
   <si>
-    <t>457  1M18D</t>
-  </si>
-  <si>
     <t>127  -1M3D</t>
   </si>
   <si>
+    <t>339  -0M7D</t>
+  </si>
+  <si>
+    <t>31  -0M15D</t>
+  </si>
+  <si>
+    <t>14  2M10D</t>
+  </si>
+  <si>
+    <t>56  3M25D</t>
+  </si>
+  <si>
     <t>14  5M9D</t>
   </si>
   <si>
-    <t>31  -0M15D</t>
-  </si>
-  <si>
-    <t>14  2M10D</t>
-  </si>
-  <si>
-    <t>339  -0M7D</t>
-  </si>
-  <si>
     <t>387  -1M2D</t>
   </si>
   <si>
-    <t>56  3M25D</t>
-  </si>
-  <si>
     <t>129  -1M0D</t>
   </si>
   <si>
+    <t>1996  1M13D</t>
+  </si>
+  <si>
+    <t>176  -0M26D</t>
+  </si>
+  <si>
+    <t>175  3M28D</t>
+  </si>
+  <si>
+    <t>1671  1M21D</t>
+  </si>
+  <si>
     <t>263  8M20D</t>
   </si>
   <si>
-    <t>176  -0M26D</t>
-  </si>
-  <si>
-    <t>1996  1M13D</t>
-  </si>
-  <si>
-    <t>1671  1M21D</t>
-  </si>
-  <si>
-    <t>175  3M28D</t>
+    <t>190  5M22D</t>
   </si>
   <si>
     <t>357  2M12D</t>
   </si>
   <si>
-    <t>190  5M22D</t>
+    <t>165  2M17D</t>
   </si>
   <si>
     <t>594  -1M2D</t>
   </si>
   <si>
-    <t>165  2M17D</t>
-  </si>
-  <si>
     <t>476  17M18D</t>
   </si>
   <si>
+    <t>13  -0M3D</t>
+  </si>
+  <si>
     <t>817  1M29D</t>
   </si>
   <si>
-    <t>13  -0M3D</t>
-  </si>
-  <si>
     <t>1005  6M8D</t>
   </si>
   <si>
@@ -5392,36 +5392,36 @@
     <t>58  -0M8D</t>
   </si>
   <si>
+    <t>755  2M20D</t>
+  </si>
+  <si>
+    <t>640  2M20D</t>
+  </si>
+  <si>
+    <t>1627  -0M23D</t>
+  </si>
+  <si>
+    <t>2398  1M18D</t>
+  </si>
+  <si>
     <t>2709  -1M0D</t>
   </si>
   <si>
-    <t>755  2M20D</t>
-  </si>
-  <si>
-    <t>1627  -0M23D</t>
-  </si>
-  <si>
-    <t>640  2M20D</t>
-  </si>
-  <si>
-    <t>2398  1M18D</t>
+    <t>81  6M19D</t>
   </si>
   <si>
     <t>398  2M10D</t>
   </si>
   <si>
+    <t>254  1M17D</t>
+  </si>
+  <si>
     <t>1409  1M22D</t>
   </si>
   <si>
-    <t>254  1M17D</t>
-  </si>
-  <si>
     <t>453  1M13D</t>
   </si>
   <si>
-    <t>81  6M19D</t>
-  </si>
-  <si>
     <t>1450  -0M20D</t>
   </si>
   <si>
@@ -5431,27 +5431,27 @@
     <t>30  -0M8D</t>
   </si>
   <si>
+    <t>549  -0M7D</t>
+  </si>
+  <si>
+    <t>287  -0M8D</t>
+  </si>
+  <si>
+    <t>342  1M23D</t>
+  </si>
+  <si>
     <t>180  1M13D</t>
   </si>
   <si>
-    <t>342  1M23D</t>
-  </si>
-  <si>
-    <t>287  -0M8D</t>
-  </si>
-  <si>
-    <t>549  -0M7D</t>
-  </si>
-  <si>
     <t>2875  1M15D</t>
   </si>
   <si>
+    <t>3577  1M9D</t>
+  </si>
+  <si>
     <t>2842  2M14D</t>
   </si>
   <si>
-    <t>3577  1M9D</t>
-  </si>
-  <si>
     <t>3670  1M8D</t>
   </si>
   <si>
@@ -5473,30 +5473,30 @@
     <t>4874  -0M29D</t>
   </si>
   <si>
+    <t>229  -0M23D</t>
+  </si>
+  <si>
+    <t>2845  2M2D</t>
+  </si>
+  <si>
     <t>996  1M28D</t>
   </si>
   <si>
-    <t>229  -0M23D</t>
-  </si>
-  <si>
-    <t>2845  2M2D</t>
-  </si>
-  <si>
     <t>15  2M15D</t>
   </si>
   <si>
+    <t>360  3M0D</t>
+  </si>
+  <si>
+    <t>41  -1M2D</t>
+  </si>
+  <si>
+    <t>97  1M14D</t>
+  </si>
+  <si>
     <t>71  8M18D</t>
   </si>
   <si>
-    <t>360  3M0D</t>
-  </si>
-  <si>
-    <t>41  -1M2D</t>
-  </si>
-  <si>
-    <t>97  1M14D</t>
-  </si>
-  <si>
     <t>49  2M15D</t>
   </si>
   <si>
@@ -5506,10 +5506,13 @@
     <t>374  -0M10D</t>
   </si>
   <si>
+    <t>123  3M0D</t>
+  </si>
+  <si>
     <t>1720  1M21D</t>
   </si>
   <si>
-    <t>123  3M0D</t>
+    <t>894  3M0D</t>
   </si>
   <si>
     <t>796  2M21D</t>
@@ -5521,9 +5524,6 @@
     <t>24  -0M2D</t>
   </si>
   <si>
-    <t>894  3M0D</t>
-  </si>
-  <si>
     <t>57  -1M3D</t>
   </si>
   <si>
@@ -5545,63 +5545,63 @@
     <t>41  -0M9D</t>
   </si>
   <si>
+    <t>2020  -0M16D</t>
+  </si>
+  <si>
+    <t>7  -0M2D</t>
+  </si>
+  <si>
+    <t>55  4M19D</t>
+  </si>
+  <si>
+    <t>76  5M0D</t>
+  </si>
+  <si>
     <t>4  -0M9D</t>
   </si>
   <si>
-    <t>7  -0M2D</t>
-  </si>
-  <si>
-    <t>55  4M19D</t>
-  </si>
-  <si>
-    <t>2020  -0M16D</t>
-  </si>
-  <si>
     <t>668  1M16D</t>
   </si>
   <si>
-    <t>76  5M0D</t>
-  </si>
-  <si>
     <t>204  1M8D</t>
   </si>
   <si>
+    <t>2537  3M24D</t>
+  </si>
+  <si>
+    <t>26  -0M13D</t>
+  </si>
+  <si>
+    <t>106  2M15D</t>
+  </si>
+  <si>
+    <t>1221  1M10D</t>
+  </si>
+  <si>
     <t>121  1M26D</t>
   </si>
   <si>
-    <t>26  -0M13D</t>
-  </si>
-  <si>
-    <t>2537  3M24D</t>
-  </si>
-  <si>
-    <t>1221  1M10D</t>
-  </si>
-  <si>
-    <t>106  2M15D</t>
+    <t>38  -0M24D</t>
   </si>
   <si>
     <t>1101  6M17D</t>
   </si>
   <si>
-    <t>38  -0M24D</t>
+    <t>153  1M20D</t>
   </si>
   <si>
     <t>332  1M19D</t>
   </si>
   <si>
-    <t>153  1M20D</t>
-  </si>
-  <si>
     <t>323  12M21D</t>
   </si>
   <si>
+    <t>205  1M27D</t>
+  </si>
+  <si>
     <t>699  1M8D</t>
   </si>
   <si>
-    <t>205  1M27D</t>
-  </si>
-  <si>
     <t>904  2M1D</t>
   </si>
   <si>
@@ -5620,36 +5620,36 @@
     <t>267  4M18D</t>
   </si>
   <si>
+    <t>1687  3M29D</t>
+  </si>
+  <si>
+    <t>763  2M27D</t>
+  </si>
+  <si>
+    <t>2289  -1M2D</t>
+  </si>
+  <si>
+    <t>2048  3M3D</t>
+  </si>
+  <si>
     <t>2575  -0M27D</t>
   </si>
   <si>
-    <t>1687  3M29D</t>
-  </si>
-  <si>
-    <t>2289  -1M2D</t>
-  </si>
-  <si>
-    <t>763  2M27D</t>
-  </si>
-  <si>
-    <t>2048  3M3D</t>
+    <t>159  -0M15D</t>
   </si>
   <si>
     <t>235  4M17D</t>
   </si>
   <si>
+    <t>91  2M14D</t>
+  </si>
+  <si>
     <t>940  2M20D</t>
   </si>
   <si>
-    <t>91  2M14D</t>
-  </si>
-  <si>
     <t>328  2M18D</t>
   </si>
   <si>
-    <t>159  -0M15D</t>
-  </si>
-  <si>
     <t>1459  -0M22D</t>
   </si>
   <si>
@@ -5659,27 +5659,27 @@
     <t>75  2M17D</t>
   </si>
   <si>
+    <t>696  -0M19D</t>
+  </si>
+  <si>
+    <t>335  -0M16D</t>
+  </si>
+  <si>
+    <t>70  -0M21D</t>
+  </si>
+  <si>
     <t>94  -0M29D</t>
   </si>
   <si>
-    <t>70  -0M21D</t>
-  </si>
-  <si>
-    <t>335  -0M16D</t>
-  </si>
-  <si>
-    <t>696  -0M19D</t>
-  </si>
-  <si>
     <t>2579  15M8D</t>
   </si>
   <si>
+    <t>2858  -1M2D</t>
+  </si>
+  <si>
     <t>840  -0M21D</t>
   </si>
   <si>
-    <t>2858  -1M2D</t>
-  </si>
-  <si>
     <t>3795  1M13D</t>
   </si>
   <si>
@@ -5701,15 +5701,15 @@
     <t>1083  -0M9D</t>
   </si>
   <si>
+    <t>481  4M6D</t>
+  </si>
+  <si>
+    <t>3091  2M10D</t>
+  </si>
+  <si>
     <t>1816  1M25D</t>
   </si>
   <si>
-    <t>481  4M6D</t>
-  </si>
-  <si>
-    <t>3091  2M10D</t>
-  </si>
-  <si>
     <t>40  40M13D</t>
   </si>
   <si>
@@ -5734,10 +5734,13 @@
     <t>437  -0M10D</t>
   </si>
   <si>
+    <t>119  5M24D</t>
+  </si>
+  <si>
     <t>745  1M6D</t>
   </si>
   <si>
-    <t>119  5M24D</t>
+    <t>563  1M28D</t>
   </si>
   <si>
     <t>233  -0M20D</t>
@@ -5749,9 +5752,6 @@
     <t>232  -0M26D</t>
   </si>
   <si>
-    <t>563  1M28D</t>
-  </si>
-  <si>
     <t>92  3M14D</t>
   </si>
   <si>
@@ -5764,12 +5764,12 @@
     <t>737  -0M16D</t>
   </si>
   <si>
+    <t>578  2M19D</t>
+  </si>
+  <si>
     <t>11  -0M15D</t>
   </si>
   <si>
-    <t>578  2M19D</t>
-  </si>
-  <si>
     <t>206  4M0D</t>
   </si>
   <si>
@@ -5779,48 +5779,48 @@
     <t>17  3M6D</t>
   </si>
   <si>
+    <t>63  3M2D</t>
+  </si>
+  <si>
     <t>326  1M16D</t>
   </si>
   <si>
-    <t>63  3M2D</t>
-  </si>
-  <si>
     <t>300  2M1D</t>
   </si>
   <si>
+    <t>1603  3M4D</t>
+  </si>
+  <si>
+    <t>336  2M25D</t>
+  </si>
+  <si>
+    <t>124  3M20D</t>
+  </si>
+  <si>
+    <t>1724  4M29D</t>
+  </si>
+  <si>
     <t>49  -0M10D</t>
   </si>
   <si>
-    <t>336  2M25D</t>
-  </si>
-  <si>
-    <t>1603  3M4D</t>
-  </si>
-  <si>
-    <t>1724  4M29D</t>
-  </si>
-  <si>
-    <t>124  3M20D</t>
-  </si>
-  <si>
     <t>750  1M18D</t>
   </si>
   <si>
+    <t>67  2M24D</t>
+  </si>
+  <si>
     <t>183  1M11D</t>
   </si>
   <si>
-    <t>67  2M24D</t>
-  </si>
-  <si>
     <t>170  1M16D</t>
   </si>
   <si>
+    <t>80  -0M20D</t>
+  </si>
+  <si>
     <t>445  1M11D</t>
   </si>
   <si>
-    <t>80  -0M20D</t>
-  </si>
-  <si>
     <t>113  -0M26D</t>
   </si>
   <si>
@@ -5842,36 +5842,36 @@
     <t>124  5M4D</t>
   </si>
   <si>
+    <t>1167  2M15D</t>
+  </si>
+  <si>
+    <t>751  2M4D</t>
+  </si>
+  <si>
+    <t>2098  -0M27D</t>
+  </si>
+  <si>
+    <t>1512  3M26D</t>
+  </si>
+  <si>
     <t>1678  -0M21D</t>
   </si>
   <si>
-    <t>1167  2M15D</t>
-  </si>
-  <si>
-    <t>2098  -0M27D</t>
-  </si>
-  <si>
-    <t>751  2M4D</t>
-  </si>
-  <si>
-    <t>1512  3M26D</t>
+    <t>109  66M3D</t>
   </si>
   <si>
     <t>175  8M25D</t>
   </si>
   <si>
+    <t>174  25M4D</t>
+  </si>
+  <si>
     <t>431  3M4D</t>
   </si>
   <si>
-    <t>174  25M4D</t>
-  </si>
-  <si>
     <t>275  9M2D</t>
   </si>
   <si>
-    <t>109  66M3D</t>
-  </si>
-  <si>
     <t>1328  -1M4D</t>
   </si>
   <si>
@@ -5881,27 +5881,27 @@
     <t>25  2M11D</t>
   </si>
   <si>
+    <t>438  -0M22D</t>
+  </si>
+  <si>
+    <t>377  1M19D</t>
+  </si>
+  <si>
+    <t>84  2M20D</t>
+  </si>
+  <si>
     <t>183  2M27D</t>
   </si>
   <si>
-    <t>84  2M20D</t>
-  </si>
-  <si>
-    <t>377  1M19D</t>
-  </si>
-  <si>
-    <t>438  -0M22D</t>
-  </si>
-  <si>
     <t>2408  17M4D</t>
   </si>
   <si>
+    <t>4933  1M17D</t>
+  </si>
+  <si>
     <t>1484  2M16D</t>
   </si>
   <si>
-    <t>4933  1M17D</t>
-  </si>
-  <si>
     <t>5017  3M10D</t>
   </si>
   <si>
@@ -5923,27 +5923,27 @@
     <t>7876  3M10D</t>
   </si>
   <si>
+    <t>367  2M22D</t>
+  </si>
+  <si>
+    <t>6568  2M26D</t>
+  </si>
+  <si>
     <t>9191  2M9D</t>
   </si>
   <si>
-    <t>367  2M22D</t>
-  </si>
-  <si>
-    <t>6568  2M26D</t>
-  </si>
-  <si>
     <t>114  2M26D</t>
   </si>
   <si>
+    <t>46  69M23D</t>
+  </si>
+  <si>
+    <t>66  9M16D</t>
+  </si>
+  <si>
     <t>33  8M10D</t>
   </si>
   <si>
-    <t>46  69M23D</t>
-  </si>
-  <si>
-    <t>66  9M16D</t>
-  </si>
-  <si>
     <t>61  18M15D</t>
   </si>
   <si>
@@ -5953,10 +5953,13 @@
     <t>790  -1M1D</t>
   </si>
   <si>
+    <t>219  7M19D</t>
+  </si>
+  <si>
     <t>975  2M1D</t>
   </si>
   <si>
-    <t>219  7M19D</t>
+    <t>488  2M14D</t>
   </si>
   <si>
     <t>240  1M14D</t>
@@ -5968,9 +5971,6 @@
     <t>228  1M20D</t>
   </si>
   <si>
-    <t>488  2M14D</t>
-  </si>
-  <si>
     <t>36  3M19D</t>
   </si>
   <si>
@@ -5986,69 +5986,69 @@
     <t>1016  1M29D</t>
   </si>
   <si>
+    <t>738  2M16D</t>
+  </si>
+  <si>
     <t>50  -0M22D</t>
   </si>
   <si>
-    <t>738  2M16D</t>
-  </si>
-  <si>
     <t>97  2M12D</t>
   </si>
   <si>
+    <t>90  -0M4D</t>
+  </si>
+  <si>
+    <t>21  1M19D</t>
+  </si>
+  <si>
+    <t>65  5M29D</t>
+  </si>
+  <si>
     <t>79  10M26D</t>
   </si>
   <si>
-    <t>21  1M19D</t>
-  </si>
-  <si>
-    <t>90  -0M4D</t>
-  </si>
-  <si>
     <t>258  1M10D</t>
   </si>
   <si>
-    <t>65  5M29D</t>
-  </si>
-  <si>
     <t>423  4M12D</t>
   </si>
   <si>
+    <t>2480  22M5D</t>
+  </si>
+  <si>
+    <t>103  4M15D</t>
+  </si>
+  <si>
+    <t>47  2M29D</t>
+  </si>
+  <si>
+    <t>1578  6M14D</t>
+  </si>
+  <si>
     <t>25  2M13D</t>
   </si>
   <si>
-    <t>103  4M15D</t>
-  </si>
-  <si>
-    <t>2480  22M5D</t>
-  </si>
-  <si>
-    <t>1578  6M14D</t>
-  </si>
-  <si>
-    <t>47  2M29D</t>
+    <t>30  -0M19D</t>
   </si>
   <si>
     <t>433  5M18D</t>
   </si>
   <si>
-    <t>30  -0M19D</t>
+    <t>215  5M11D</t>
   </si>
   <si>
     <t>238  2M8D</t>
   </si>
   <si>
-    <t>215  5M11D</t>
-  </si>
-  <si>
     <t>158  2M19D</t>
   </si>
   <si>
+    <t>156  13M4D</t>
+  </si>
+  <si>
     <t>219  3M7D</t>
   </si>
   <si>
-    <t>156  13M4D</t>
-  </si>
-  <si>
     <t>471  2M8D</t>
   </si>
   <si>
@@ -6070,36 +6070,36 @@
     <t>95  2M20D</t>
   </si>
   <si>
+    <t>1723  8M22D</t>
+  </si>
+  <si>
+    <t>569  1M22D</t>
+  </si>
+  <si>
+    <t>2824  3M24D</t>
+  </si>
+  <si>
+    <t>1142  7M13D</t>
+  </si>
+  <si>
     <t>2429  1M24D</t>
   </si>
   <si>
-    <t>1723  8M22D</t>
-  </si>
-  <si>
-    <t>2824  3M24D</t>
-  </si>
-  <si>
-    <t>569  1M22D</t>
-  </si>
-  <si>
-    <t>1142  7M13D</t>
+    <t>95  16M0D</t>
   </si>
   <si>
     <t>191  3M29D</t>
   </si>
   <si>
+    <t>229  6M18D</t>
+  </si>
+  <si>
     <t>698  2M14D</t>
   </si>
   <si>
-    <t>229  6M18D</t>
-  </si>
-  <si>
     <t>271  2M8D</t>
   </si>
   <si>
-    <t>95  16M0D</t>
-  </si>
-  <si>
     <t>1257  1M11D</t>
   </si>
   <si>
@@ -6109,27 +6109,27 @@
     <t>60  -1M0D</t>
   </si>
   <si>
+    <t>1278  1M7D</t>
+  </si>
+  <si>
+    <t>605  1M7D</t>
+  </si>
+  <si>
+    <t>75  1M19D</t>
+  </si>
+  <si>
     <t>182  9M20D</t>
   </si>
   <si>
-    <t>75  1M19D</t>
-  </si>
-  <si>
-    <t>605  1M7D</t>
-  </si>
-  <si>
-    <t>1278  1M7D</t>
-  </si>
-  <si>
     <t>2706  2M2D</t>
   </si>
   <si>
+    <t>2829  1M19D</t>
+  </si>
+  <si>
     <t>1932  1M16D</t>
   </si>
   <si>
-    <t>2829  1M19D</t>
-  </si>
-  <si>
     <t>3073  1M10D</t>
   </si>
   <si>
@@ -6151,33 +6151,33 @@
     <t>5877  2M17D</t>
   </si>
   <si>
+    <t>271  1M5D</t>
+  </si>
+  <si>
+    <t>4685  1M17D</t>
+  </si>
+  <si>
     <t>4577  4M18D</t>
   </si>
   <si>
-    <t>271  1M5D</t>
-  </si>
-  <si>
-    <t>4685  1M17D</t>
-  </si>
-  <si>
     <t>45  45M15D</t>
   </si>
   <si>
     <t>152  2M28D</t>
   </si>
   <si>
+    <t>98  1M5D</t>
+  </si>
+  <si>
+    <t>56  2M17D</t>
+  </si>
+  <si>
+    <t>106  3M29D</t>
+  </si>
+  <si>
     <t>58  7M9D</t>
   </si>
   <si>
-    <t>98  1M5D</t>
-  </si>
-  <si>
-    <t>56  2M17D</t>
-  </si>
-  <si>
-    <t>106  3M29D</t>
-  </si>
-  <si>
     <t>96  145M18D</t>
   </si>
   <si>
@@ -6187,10 +6187,13 @@
     <t>739  1M8D</t>
   </si>
   <si>
+    <t>92  3M2D</t>
+  </si>
+  <si>
     <t>1043  1M18D</t>
   </si>
   <si>
-    <t>92  3M2D</t>
+    <t>764  1M24D</t>
   </si>
   <si>
     <t>133  -1M3D</t>
@@ -6202,9 +6205,6 @@
     <t>111  -0M10D</t>
   </si>
   <si>
-    <t>764  1M24D</t>
-  </si>
-  <si>
     <t>81  2M25D</t>
   </si>
   <si>
@@ -6220,72 +6220,72 @@
     <t>978  1M9D</t>
   </si>
   <si>
+    <t>702  1M13D</t>
+  </si>
+  <si>
     <t>124  4M0D</t>
   </si>
   <si>
-    <t>702  1M13D</t>
-  </si>
-  <si>
     <t>187  2M10D</t>
   </si>
   <si>
+    <t>685  -0M20D</t>
+  </si>
+  <si>
+    <t>22  -0M11D</t>
+  </si>
+  <si>
+    <t>19  2M26D</t>
+  </si>
+  <si>
+    <t>30  5M20D</t>
+  </si>
+  <si>
     <t>6  2M18D</t>
   </si>
   <si>
-    <t>22  -0M11D</t>
-  </si>
-  <si>
-    <t>19  2M26D</t>
-  </si>
-  <si>
-    <t>685  -0M20D</t>
-  </si>
-  <si>
     <t>719  2M27D</t>
   </si>
   <si>
-    <t>30  5M20D</t>
-  </si>
-  <si>
     <t>282  3M19D</t>
   </si>
   <si>
+    <t>2241  1M27D</t>
+  </si>
+  <si>
+    <t>184  2M10D</t>
+  </si>
+  <si>
+    <t>108  4M2D</t>
+  </si>
+  <si>
+    <t>2137  1M18D</t>
+  </si>
+  <si>
     <t>153  6M0D</t>
   </si>
   <si>
-    <t>184  2M10D</t>
-  </si>
-  <si>
-    <t>2241  1M27D</t>
-  </si>
-  <si>
-    <t>2137  1M18D</t>
-  </si>
-  <si>
-    <t>108  4M2D</t>
+    <t>65  1M6D</t>
   </si>
   <si>
     <t>445  10M23D</t>
   </si>
   <si>
-    <t>65  1M6D</t>
+    <t>75  7M17D</t>
   </si>
   <si>
     <t>209  3M3D</t>
   </si>
   <si>
-    <t>75  7M17D</t>
-  </si>
-  <si>
     <t>141  -0M23D</t>
   </si>
   <si>
+    <t>255  -0M28D</t>
+  </si>
+  <si>
     <t>347  -0M28D</t>
   </si>
   <si>
-    <t>255  -0M28D</t>
-  </si>
-  <si>
     <t>142  -0M15D</t>
   </si>
   <si>
@@ -6307,36 +6307,36 @@
     <t>128  -1M1D</t>
   </si>
   <si>
+    <t>664  6M6D</t>
+  </si>
+  <si>
+    <t>318  1M17D</t>
+  </si>
+  <si>
+    <t>1658  -0M27D</t>
+  </si>
+  <si>
+    <t>1731  1M15D</t>
+  </si>
+  <si>
     <t>3261  1M23D</t>
   </si>
   <si>
-    <t>664  6M6D</t>
-  </si>
-  <si>
-    <t>1658  -0M27D</t>
-  </si>
-  <si>
-    <t>318  1M17D</t>
-  </si>
-  <si>
-    <t>1731  1M15D</t>
+    <t>144  4M24D</t>
   </si>
   <si>
     <t>189  10M24D</t>
   </si>
   <si>
+    <t>110  1M20D</t>
+  </si>
+  <si>
     <t>380  3M0D</t>
   </si>
   <si>
-    <t>110  1M20D</t>
-  </si>
-  <si>
     <t>323  5M3D</t>
   </si>
   <si>
-    <t>144  4M24D</t>
-  </si>
-  <si>
     <t>1276  -1M2D</t>
   </si>
   <si>
@@ -6346,27 +6346,27 @@
     <t>99  7M27D</t>
   </si>
   <si>
+    <t>1535  3M22D</t>
+  </si>
+  <si>
+    <t>394  1M8D</t>
+  </si>
+  <si>
+    <t>199  12M9D</t>
+  </si>
+  <si>
     <t>99  8M17D</t>
   </si>
   <si>
-    <t>199  12M9D</t>
-  </si>
-  <si>
-    <t>394  1M8D</t>
-  </si>
-  <si>
-    <t>1535  3M22D</t>
-  </si>
-  <si>
     <t>2965  3M11D</t>
   </si>
   <si>
+    <t>1600  -0M17D</t>
+  </si>
+  <si>
     <t>2299  1M8D</t>
   </si>
   <si>
-    <t>1600  -0M17D</t>
-  </si>
-  <si>
     <t>3942  -1M1D</t>
   </si>
   <si>
@@ -6388,33 +6388,33 @@
     <t>4719  2M7D</t>
   </si>
   <si>
+    <t>391  2M3D</t>
+  </si>
+  <si>
+    <t>4139  1M10D</t>
+  </si>
+  <si>
     <t>3943  2M20D</t>
   </si>
   <si>
-    <t>391  2M3D</t>
-  </si>
-  <si>
-    <t>4139  1M10D</t>
-  </si>
-  <si>
     <t>23  -0M23D</t>
   </si>
   <si>
     <t>91  1M19D</t>
   </si>
   <si>
+    <t>110  2M13D</t>
+  </si>
+  <si>
+    <t>68  3M22D</t>
+  </si>
+  <si>
+    <t>83  6M4D</t>
+  </si>
+  <si>
     <t>28  2M19D</t>
   </si>
   <si>
-    <t>110  2M13D</t>
-  </si>
-  <si>
-    <t>68  3M22D</t>
-  </si>
-  <si>
-    <t>83  6M4D</t>
-  </si>
-  <si>
     <t>55  9M24D</t>
   </si>
   <si>
@@ -6424,10 +6424,13 @@
     <t>402  -0M17D</t>
   </si>
   <si>
+    <t>114  1M25D</t>
+  </si>
+  <si>
     <t>846  -1M2D</t>
   </si>
   <si>
-    <t>114  1M25D</t>
+    <t>479  1M5D</t>
   </si>
   <si>
     <t>254  2M23D</t>
@@ -6439,9 +6442,6 @@
     <t>90  -0M7D</t>
   </si>
   <si>
-    <t>479  1M5D</t>
-  </si>
-  <si>
     <t>89  6M12D</t>
   </si>
   <si>
@@ -6457,66 +6457,66 @@
     <t>888  1M18D</t>
   </si>
   <si>
+    <t>532  2M5D</t>
+  </si>
+  <si>
     <t>76  4M5D</t>
   </si>
   <si>
-    <t>532  2M5D</t>
-  </si>
-  <si>
     <t>260  2M1D</t>
   </si>
   <si>
+    <t>1316  2M25D</t>
+  </si>
+  <si>
+    <t>92  46M15D</t>
+  </si>
+  <si>
     <t>41  9M17D</t>
   </si>
   <si>
-    <t>1316  2M25D</t>
-  </si>
-  <si>
     <t>567  2M7D</t>
   </si>
   <si>
-    <t>92  46M15D</t>
-  </si>
-  <si>
     <t>303  6M15D</t>
   </si>
   <si>
+    <t>1987  1M19D</t>
+  </si>
+  <si>
+    <t>101  -0M16D</t>
+  </si>
+  <si>
+    <t>315  6M12D</t>
+  </si>
+  <si>
+    <t>2176  1M12D</t>
+  </si>
+  <si>
     <t>212  5M14D</t>
   </si>
   <si>
-    <t>101  -0M16D</t>
-  </si>
-  <si>
-    <t>1987  1M19D</t>
-  </si>
-  <si>
-    <t>2176  1M12D</t>
-  </si>
-  <si>
-    <t>315  6M12D</t>
+    <t>73  2M11D</t>
   </si>
   <si>
     <t>473  3M26D</t>
   </si>
   <si>
-    <t>73  2M11D</t>
+    <t>69  6M29D</t>
   </si>
   <si>
     <t>121  1M25D</t>
   </si>
   <si>
-    <t>69  6M29D</t>
-  </si>
-  <si>
     <t>216  6M22D</t>
   </si>
   <si>
+    <t>685  2M1D</t>
+  </si>
+  <si>
     <t>543  -0M21D</t>
   </si>
   <si>
-    <t>685  2M1D</t>
-  </si>
-  <si>
     <t>5497  1M16D</t>
   </si>
   <si>
@@ -6532,63 +6532,63 @@
     <t>169  12M15D</t>
   </si>
   <si>
+    <t>649  6M10D</t>
+  </si>
+  <si>
+    <t>282  2M6D</t>
+  </si>
+  <si>
+    <t>1383  -0M22D</t>
+  </si>
+  <si>
+    <t>1454  1M8D</t>
+  </si>
+  <si>
     <t>2424  -1M4D</t>
   </si>
   <si>
-    <t>649  6M10D</t>
-  </si>
-  <si>
-    <t>1383  -0M22D</t>
-  </si>
-  <si>
-    <t>282  2M6D</t>
-  </si>
-  <si>
-    <t>1454  1M8D</t>
+    <t>155  4M28D</t>
   </si>
   <si>
     <t>171  4M2D</t>
   </si>
   <si>
+    <t>309  9M19D</t>
+  </si>
+  <si>
     <t>931  4M21D</t>
   </si>
   <si>
-    <t>309  9M19D</t>
-  </si>
-  <si>
     <t>564  5M23D</t>
   </si>
   <si>
-    <t>155  4M28D</t>
-  </si>
-  <si>
     <t>1270  -1M1D</t>
   </si>
   <si>
     <t>74  3M26D</t>
   </si>
   <si>
+    <t>451  -0M16D</t>
+  </si>
+  <si>
+    <t>699  1M24D</t>
+  </si>
+  <si>
+    <t>146  4M12D</t>
+  </si>
+  <si>
     <t>100  2M7D</t>
   </si>
   <si>
-    <t>146  4M12D</t>
-  </si>
-  <si>
-    <t>699  1M24D</t>
-  </si>
-  <si>
-    <t>451  -0M16D</t>
-  </si>
-  <si>
     <t>5394  7M27D</t>
   </si>
   <si>
+    <t>2793  2M9D</t>
+  </si>
+  <si>
     <t>1279  -0M27D</t>
   </si>
   <si>
-    <t>2793  2M9D</t>
-  </si>
-  <si>
     <t>4307  1M28D</t>
   </si>
   <si>
@@ -6610,40 +6610,43 @@
     <t>7784  1M15D</t>
   </si>
   <si>
+    <t>562  2M28D</t>
+  </si>
+  <si>
+    <t>4175  2M26D</t>
+  </si>
+  <si>
     <t>2818  26M1D</t>
   </si>
   <si>
-    <t>562  2M28D</t>
-  </si>
-  <si>
-    <t>4175  2M26D</t>
-  </si>
-  <si>
     <t>290  2M0D</t>
   </si>
   <si>
+    <t>457  4M0D</t>
+  </si>
+  <si>
+    <t>104  2M0D</t>
+  </si>
+  <si>
+    <t>104  2M23D</t>
+  </si>
+  <si>
     <t>91  6M21D</t>
   </si>
   <si>
-    <t>457  4M0D</t>
-  </si>
-  <si>
-    <t>104  2M0D</t>
-  </si>
-  <si>
-    <t>104  2M23D</t>
-  </si>
-  <si>
     <t>55  3M4D</t>
   </si>
   <si>
     <t>166  -1M2D</t>
   </si>
   <si>
+    <t>142  2M19D</t>
+  </si>
+  <si>
     <t>974  1M10D</t>
   </si>
   <si>
-    <t>142  2M19D</t>
+    <t>542  1M9D</t>
   </si>
   <si>
     <t>247  1M21D</t>
@@ -6655,9 +6658,6 @@
     <t>73  -0M9D</t>
   </si>
   <si>
-    <t>542  1M9D</t>
-  </si>
-  <si>
     <t>28  -0M25D</t>
   </si>
   <si>
@@ -6670,66 +6670,66 @@
     <t>983  1M6D</t>
   </si>
   <si>
+    <t>734  3M22D</t>
+  </si>
+  <si>
     <t>12  -0M16D</t>
   </si>
   <si>
-    <t>734  3M22D</t>
-  </si>
-  <si>
     <t>190  -1M1D</t>
   </si>
   <si>
+    <t>628  -1M1D</t>
+  </si>
+  <si>
+    <t>14  -1M4D</t>
+  </si>
+  <si>
+    <t>69  9M29D</t>
+  </si>
+  <si>
     <t>5  -0M14D</t>
   </si>
   <si>
-    <t>14  -1M4D</t>
-  </si>
-  <si>
-    <t>628  -1M1D</t>
-  </si>
-  <si>
     <t>432  1M15D</t>
   </si>
   <si>
-    <t>69  9M29D</t>
-  </si>
-  <si>
     <t>65  -0M17D</t>
   </si>
   <si>
+    <t>1565  1M6D</t>
+  </si>
+  <si>
+    <t>271  5M13D</t>
+  </si>
+  <si>
+    <t>3288  2M20D</t>
+  </si>
+  <si>
     <t>176  2M4D</t>
   </si>
   <si>
-    <t>1565  1M6D</t>
-  </si>
-  <si>
-    <t>3288  2M20D</t>
-  </si>
-  <si>
-    <t>271  5M13D</t>
+    <t>53  1M20D</t>
   </si>
   <si>
     <t>1141  5M4D</t>
   </si>
   <si>
-    <t>53  1M20D</t>
+    <t>79  2M4D</t>
   </si>
   <si>
     <t>305  4M13D</t>
   </si>
   <si>
-    <t>79  2M4D</t>
-  </si>
-  <si>
     <t>333  5M11D</t>
   </si>
   <si>
+    <t>156  -0M13D</t>
+  </si>
+  <si>
     <t>677  1M16D</t>
   </si>
   <si>
-    <t>156  -0M13D</t>
-  </si>
-  <si>
     <t>159  1M17D</t>
   </si>
   <si>
@@ -6745,19 +6745,22 @@
     <t>68  7M3D</t>
   </si>
   <si>
+    <t>883  3M26D</t>
+  </si>
+  <si>
+    <t>437  4M16D</t>
+  </si>
+  <si>
+    <t>3517  2M8D</t>
+  </si>
+  <si>
+    <t>2210  1M23D</t>
+  </si>
+  <si>
     <t>2160  1M6D</t>
   </si>
   <si>
-    <t>883  3M26D</t>
-  </si>
-  <si>
-    <t>3517  2M8D</t>
-  </si>
-  <si>
-    <t>437  4M16D</t>
-  </si>
-  <si>
-    <t>2210  1M23D</t>
+    <t>20  -0M8D</t>
   </si>
   <si>
     <t>263  16M8D</t>
@@ -6769,9 +6772,6 @@
     <t>562  10M9D</t>
   </si>
   <si>
-    <t>20  -0M8D</t>
-  </si>
-  <si>
     <t>1165  -0M27D</t>
   </si>
   <si>
@@ -6781,27 +6781,27 @@
     <t>115  12M0D</t>
   </si>
   <si>
+    <t>1373  1M21D</t>
+  </si>
+  <si>
+    <t>366  -0M24D</t>
+  </si>
+  <si>
+    <t>109  2M26D</t>
+  </si>
+  <si>
     <t>105  2M3D</t>
   </si>
   <si>
-    <t>109  2M26D</t>
-  </si>
-  <si>
-    <t>366  -0M24D</t>
-  </si>
-  <si>
-    <t>1373  1M21D</t>
-  </si>
-  <si>
     <t>2531  14M17D</t>
   </si>
   <si>
+    <t>2817  1M6D</t>
+  </si>
+  <si>
     <t>3100  4M12D</t>
   </si>
   <si>
-    <t>2817  1M6D</t>
-  </si>
-  <si>
     <t>5136  2M25D</t>
   </si>
   <si>
@@ -6820,33 +6820,33 @@
     <t>2574  1M7D</t>
   </si>
   <si>
+    <t>393  2M1D</t>
+  </si>
+  <si>
+    <t>1467  1M19D</t>
+  </si>
+  <si>
     <t>1750  6M23D</t>
   </si>
   <si>
-    <t>393  2M1D</t>
-  </si>
-  <si>
-    <t>1467  1M19D</t>
-  </si>
-  <si>
     <t>27  11M21D</t>
   </si>
   <si>
     <t>113  2M22D</t>
   </si>
   <si>
+    <t>126  3M12D</t>
+  </si>
+  <si>
+    <t>10  -0M8D</t>
+  </si>
+  <si>
+    <t>71  3M29D</t>
+  </si>
+  <si>
     <t>69  69M23D</t>
   </si>
   <si>
-    <t>126  3M12D</t>
-  </si>
-  <si>
-    <t>10  -0M8D</t>
-  </si>
-  <si>
-    <t>71  3M29D</t>
-  </si>
-  <si>
     <t>37  6M18D</t>
   </si>
   <si>
@@ -6856,10 +6856,13 @@
     <t>337  -0M16D</t>
   </si>
   <si>
+    <t>140  2M19D</t>
+  </si>
+  <si>
     <t>833  -1M2D</t>
   </si>
   <si>
-    <t>140  2M19D</t>
+    <t>579  2M9D</t>
   </si>
   <si>
     <t>283  2M9D</t>
@@ -6871,9 +6874,6 @@
     <t>670  4M24D</t>
   </si>
   <si>
-    <t>579  2M9D</t>
-  </si>
-  <si>
     <t>100  2M13D</t>
   </si>
   <si>
@@ -6886,10 +6886,13 @@
     <t>600  -0M22D</t>
   </si>
   <si>
+    <t>586  3M13D</t>
+  </si>
+  <si>
     <t>74  3M2D</t>
   </si>
   <si>
-    <t>586  3M13D</t>
+    <t>576  -0M23D</t>
   </si>
   <si>
     <t>19  -0M10D</t>
@@ -6898,57 +6901,54 @@
     <t>11  6M20D</t>
   </si>
   <si>
-    <t>576  -0M23D</t>
+    <t>40  11M0D</t>
   </si>
   <si>
     <t>370  1M18D</t>
   </si>
   <si>
-    <t>40  11M0D</t>
+    <t>1  1M15D</t>
   </si>
   <si>
     <t>236  3M3D</t>
   </si>
   <si>
-    <t>1  1M15D</t>
+    <t>2311  9M20D</t>
+  </si>
+  <si>
+    <t>174  6M6D</t>
+  </si>
+  <si>
+    <t>118  6M15D</t>
+  </si>
+  <si>
+    <t>2299  6M9D</t>
   </si>
   <si>
     <t>167  2M24D</t>
   </si>
   <si>
-    <t>174  6M6D</t>
-  </si>
-  <si>
-    <t>2311  9M20D</t>
-  </si>
-  <si>
-    <t>2299  6M9D</t>
-  </si>
-  <si>
-    <t>118  6M15D</t>
+    <t>213  49M21D</t>
   </si>
   <si>
     <t>182  1M26D</t>
   </si>
   <si>
-    <t>213  49M21D</t>
+    <t>241  10M4D</t>
   </si>
   <si>
     <t>329  1M18D</t>
   </si>
   <si>
-    <t>241  10M4D</t>
-  </si>
-  <si>
     <t>436  19M22D</t>
   </si>
   <si>
+    <t>120  1M5D</t>
+  </si>
+  <si>
     <t>257  1M17D</t>
   </si>
   <si>
-    <t>120  1M5D</t>
-  </si>
-  <si>
     <t>497  1M23D</t>
   </si>
   <si>
@@ -6970,36 +6970,36 @@
     <t>9  -0M0D</t>
   </si>
   <si>
+    <t>1159  7M25D</t>
+  </si>
+  <si>
+    <t>272  2M6D</t>
+  </si>
+  <si>
+    <t>1358  1M14D</t>
+  </si>
+  <si>
+    <t>1211  4M7D</t>
+  </si>
+  <si>
     <t>1760  1M8D</t>
   </si>
   <si>
-    <t>1159  7M25D</t>
-  </si>
-  <si>
-    <t>1358  1M14D</t>
-  </si>
-  <si>
-    <t>272  2M6D</t>
-  </si>
-  <si>
-    <t>1211  4M7D</t>
+    <t>225  2M5D</t>
   </si>
   <si>
     <t>224  3M7D</t>
   </si>
   <si>
+    <t>95  1M19D</t>
+  </si>
+  <si>
     <t>350  1M5D</t>
   </si>
   <si>
-    <t>95  1M19D</t>
-  </si>
-  <si>
     <t>799  5M5D</t>
   </si>
   <si>
-    <t>225  2M5D</t>
-  </si>
-  <si>
     <t>808  -0M15D</t>
   </si>
   <si>
@@ -7009,27 +7009,27 @@
     <t>99  2M17D</t>
   </si>
   <si>
+    <t>1452  2M5D</t>
+  </si>
+  <si>
+    <t>254  -0M16D</t>
+  </si>
+  <si>
+    <t>96  1M8D</t>
+  </si>
+  <si>
     <t>117  -0M27D</t>
   </si>
   <si>
-    <t>96  1M8D</t>
-  </si>
-  <si>
-    <t>254  -0M16D</t>
-  </si>
-  <si>
-    <t>1452  2M5D</t>
-  </si>
-  <si>
     <t>1910  2M7D</t>
   </si>
   <si>
+    <t>3108  -0M28D</t>
+  </si>
+  <si>
     <t>1489  1M13D</t>
   </si>
   <si>
-    <t>3108  -0M28D</t>
-  </si>
-  <si>
     <t>2084  -0M27D</t>
   </si>
   <si>
@@ -7051,33 +7051,33 @@
     <t>3557  -1M1D</t>
   </si>
   <si>
+    <t>299  3M13D</t>
+  </si>
+  <si>
+    <t>3465  2M17D</t>
+  </si>
+  <si>
     <t>1069  2M9D</t>
   </si>
   <si>
-    <t>299  3M13D</t>
-  </si>
-  <si>
-    <t>3465  2M17D</t>
-  </si>
-  <si>
     <t>33  16M20D</t>
   </si>
   <si>
     <t>164  2M23D</t>
   </si>
   <si>
+    <t>94  4M2D</t>
+  </si>
+  <si>
+    <t>55  -0M24D</t>
+  </si>
+  <si>
+    <t>125  1M9D</t>
+  </si>
+  <si>
     <t>86  11M25D</t>
   </si>
   <si>
-    <t>94  4M2D</t>
-  </si>
-  <si>
-    <t>55  -0M24D</t>
-  </si>
-  <si>
-    <t>125  1M9D</t>
-  </si>
-  <si>
     <t>34  -0M27D</t>
   </si>
   <si>
@@ -7087,10 +7087,13 @@
     <t>544  -0M19D</t>
   </si>
   <si>
+    <t>127  3M12D</t>
+  </si>
+  <si>
     <t>1158  1M15D</t>
   </si>
   <si>
-    <t>127  3M12D</t>
+    <t>801  1M12D</t>
   </si>
   <si>
     <t>311  -0M16D</t>
@@ -7102,9 +7105,6 @@
     <t>44  -0M3D</t>
   </si>
   <si>
-    <t>801  1M12D</t>
-  </si>
-  <si>
     <t>49  -1M2D</t>
   </si>
   <si>
@@ -7120,69 +7120,69 @@
     <t>1500  1M13D</t>
   </si>
   <si>
+    <t>547  1M16D</t>
+  </si>
+  <si>
     <t>36  1M15D</t>
   </si>
   <si>
-    <t>547  1M16D</t>
-  </si>
-  <si>
     <t>172  1M23D</t>
   </si>
   <si>
+    <t>1687  -0M21D</t>
+  </si>
+  <si>
+    <t>61  10M8D</t>
+  </si>
+  <si>
+    <t>100  2M29D</t>
+  </si>
+  <si>
     <t>130  17M27D</t>
   </si>
   <si>
-    <t>61  10M8D</t>
-  </si>
-  <si>
-    <t>1687  -0M21D</t>
-  </si>
-  <si>
     <t>538  1M10D</t>
   </si>
   <si>
-    <t>100  2M29D</t>
-  </si>
-  <si>
     <t>236  1M15D</t>
   </si>
   <si>
+    <t>1669  1M7D</t>
+  </si>
+  <si>
+    <t>157  1M13D</t>
+  </si>
+  <si>
+    <t>262  2M6D</t>
+  </si>
+  <si>
+    <t>1979  1M27D</t>
+  </si>
+  <si>
     <t>122  1M24D</t>
   </si>
   <si>
-    <t>157  1M13D</t>
-  </si>
-  <si>
-    <t>1669  1M7D</t>
-  </si>
-  <si>
-    <t>1979  1M27D</t>
-  </si>
-  <si>
-    <t>262  2M6D</t>
+    <t>215  16M21D</t>
   </si>
   <si>
     <t>531  4M6D</t>
   </si>
   <si>
-    <t>215  16M21D</t>
+    <t>29  -0M7D</t>
   </si>
   <si>
     <t>785  2M1D</t>
   </si>
   <si>
-    <t>29  -0M7D</t>
-  </si>
-  <si>
     <t>229  2M17D</t>
   </si>
   <si>
+    <t>119  -0M24D</t>
+  </si>
+  <si>
     <t>660  1M17D</t>
   </si>
   <si>
-    <t>119  -0M24D</t>
-  </si>
-  <si>
     <t>253  1M29D</t>
   </si>
   <si>
@@ -7204,36 +7204,36 @@
     <t>180  1M22D</t>
   </si>
   <si>
+    <t>991  1M26D</t>
+  </si>
+  <si>
+    <t>491  4M16D</t>
+  </si>
+  <si>
+    <t>3743  2M0D</t>
+  </si>
+  <si>
+    <t>1652  1M26D</t>
+  </si>
+  <si>
     <t>2310  -0M23D</t>
   </si>
   <si>
-    <t>991  1M26D</t>
-  </si>
-  <si>
-    <t>3743  2M0D</t>
-  </si>
-  <si>
-    <t>491  4M16D</t>
-  </si>
-  <si>
-    <t>1652  1M26D</t>
+    <t>146  4M26D</t>
   </si>
   <si>
     <t>197  16M4D</t>
   </si>
   <si>
+    <t>208  4M17D</t>
+  </si>
+  <si>
     <t>678  4M22D</t>
   </si>
   <si>
-    <t>208  4M17D</t>
-  </si>
-  <si>
     <t>293  11M20D</t>
   </si>
   <si>
-    <t>146  4M26D</t>
-  </si>
-  <si>
     <t>1421  1M12D</t>
   </si>
   <si>
@@ -7243,27 +7243,27 @@
     <t>53  1M25D</t>
   </si>
   <si>
+    <t>1016  -0M24D</t>
+  </si>
+  <si>
+    <t>482  -0M27D</t>
+  </si>
+  <si>
+    <t>198  2M17D</t>
+  </si>
+  <si>
     <t>61  2M0D</t>
   </si>
   <si>
-    <t>198  2M17D</t>
-  </si>
-  <si>
-    <t>482  -0M27D</t>
-  </si>
-  <si>
-    <t>1016  -0M24D</t>
-  </si>
-  <si>
     <t>3277  4M13D</t>
   </si>
   <si>
+    <t>3465  1M20D</t>
+  </si>
+  <si>
     <t>1757  1M17D</t>
   </si>
   <si>
-    <t>3465  1M20D</t>
-  </si>
-  <si>
     <t>3956  1M26D</t>
   </si>
   <si>
@@ -7285,33 +7285,33 @@
     <t>2551  -1M2D</t>
   </si>
   <si>
+    <t>470  2M18D</t>
+  </si>
+  <si>
+    <t>3165  3M24D</t>
+  </si>
+  <si>
     <t>1733  5M13D</t>
   </si>
   <si>
-    <t>470  2M18D</t>
-  </si>
-  <si>
-    <t>3165  3M24D</t>
-  </si>
-  <si>
     <t>37  56M3D</t>
   </si>
   <si>
     <t>84  2M25D</t>
   </si>
   <si>
+    <t>126  1M12D</t>
+  </si>
+  <si>
+    <t>61  -0M25D</t>
+  </si>
+  <si>
+    <t>17  -0M5D</t>
+  </si>
+  <si>
     <t>41  6M16D</t>
   </si>
   <si>
-    <t>126  1M12D</t>
-  </si>
-  <si>
-    <t>61  -0M25D</t>
-  </si>
-  <si>
-    <t>17  -0M5D</t>
-  </si>
-  <si>
     <t>11  -0M21D</t>
   </si>
   <si>
@@ -7321,10 +7321,13 @@
     <t>679  -0M21D</t>
   </si>
   <si>
+    <t>52  -1M3D</t>
+  </si>
+  <si>
     <t>1060  1M20D</t>
   </si>
   <si>
-    <t>52  -1M3D</t>
+    <t>1260  3M14D</t>
   </si>
   <si>
     <t>189  1M9D</t>
@@ -7336,9 +7339,6 @@
     <t>250  -1M0D</t>
   </si>
   <si>
-    <t>1260  3M14D</t>
-  </si>
-  <si>
     <t>126  -0M11D</t>
   </si>
   <si>
@@ -7360,63 +7360,63 @@
     <t>95  -0M23D</t>
   </si>
   <si>
+    <t>522  -0M23D</t>
+  </si>
+  <si>
+    <t>19  -0M9D</t>
+  </si>
+  <si>
+    <t>14  10M18D</t>
+  </si>
+  <si>
+    <t>56  8M28D</t>
+  </si>
+  <si>
     <t>5  -0M28D</t>
   </si>
   <si>
-    <t>19  -0M9D</t>
-  </si>
-  <si>
-    <t>14  10M18D</t>
-  </si>
-  <si>
-    <t>522  -0M23D</t>
-  </si>
-  <si>
     <t>807  3M8D</t>
   </si>
   <si>
-    <t>56  8M28D</t>
-  </si>
-  <si>
     <t>176  -1M1D</t>
   </si>
   <si>
+    <t>2294  1M14D</t>
+  </si>
+  <si>
+    <t>93  -0M19D</t>
+  </si>
+  <si>
+    <t>79  2M9D</t>
+  </si>
+  <si>
+    <t>938  -0M29D</t>
+  </si>
+  <si>
     <t>139  10M8D</t>
   </si>
   <si>
-    <t>93  -0M19D</t>
-  </si>
-  <si>
-    <t>2294  1M14D</t>
-  </si>
-  <si>
-    <t>938  -0M29D</t>
-  </si>
-  <si>
-    <t>79  2M9D</t>
+    <t>61  1M27D</t>
   </si>
   <si>
     <t>240  1M26D</t>
   </si>
   <si>
-    <t>61  1M27D</t>
+    <t>158  4M19D</t>
   </si>
   <si>
     <t>326  1M15D</t>
   </si>
   <si>
-    <t>158  4M19D</t>
-  </si>
-  <si>
     <t>300  8M3D</t>
   </si>
   <si>
+    <t>67  -0M20D</t>
+  </si>
+  <si>
     <t>589  1M23D</t>
   </si>
   <si>
-    <t>67  -0M20D</t>
-  </si>
-  <si>
     <t>217  -0M26D</t>
   </si>
   <si>
@@ -7435,36 +7435,36 @@
     <t>108  -1M1D</t>
   </si>
   <si>
+    <t>1468  7M4D</t>
+  </si>
+  <si>
+    <t>425  1M18D</t>
+  </si>
+  <si>
+    <t>1737  -0M27D</t>
+  </si>
+  <si>
+    <t>2046  3M5D</t>
+  </si>
+  <si>
     <t>1972  -1M4D</t>
   </si>
   <si>
-    <t>1468  7M4D</t>
-  </si>
-  <si>
-    <t>1737  -0M27D</t>
-  </si>
-  <si>
-    <t>425  1M18D</t>
-  </si>
-  <si>
-    <t>2046  3M5D</t>
+    <t>156  2M25D</t>
   </si>
   <si>
     <t>226  3M26D</t>
   </si>
   <si>
+    <t>183  8M8D</t>
+  </si>
+  <si>
     <t>466  1M7D</t>
   </si>
   <si>
-    <t>183  8M8D</t>
-  </si>
-  <si>
     <t>381  2M14D</t>
   </si>
   <si>
-    <t>156  2M25D</t>
-  </si>
-  <si>
     <t>607  -0M13D</t>
   </si>
   <si>
@@ -7474,27 +7474,27 @@
     <t>135  4M24D</t>
   </si>
   <si>
+    <t>1317  -0M29D</t>
+  </si>
+  <si>
+    <t>412  -0M23D</t>
+  </si>
+  <si>
+    <t>149  1M24D</t>
+  </si>
+  <si>
     <t>175  2M26D</t>
   </si>
   <si>
-    <t>149  1M24D</t>
-  </si>
-  <si>
-    <t>412  -0M23D</t>
-  </si>
-  <si>
-    <t>1317  -0M29D</t>
-  </si>
-  <si>
     <t>2584  3M21D</t>
   </si>
   <si>
+    <t>2181  -1M2D</t>
+  </si>
+  <si>
     <t>703  -0M16D</t>
   </si>
   <si>
-    <t>2181  -1M2D</t>
-  </si>
-  <si>
     <t>4691  2M3D</t>
   </si>
   <si>
@@ -7516,15 +7516,15 @@
     <t>1118  -0M9D</t>
   </si>
   <si>
+    <t>297  2M24D</t>
+  </si>
+  <si>
+    <t>4702  5M18D</t>
+  </si>
+  <si>
     <t>2072  11M4D</t>
   </si>
   <si>
-    <t>297  2M24D</t>
-  </si>
-  <si>
-    <t>4702  5M18D</t>
-  </si>
-  <si>
     <t>115  3M22D</t>
   </si>
   <si>
@@ -7546,10 +7546,13 @@
     <t>533  -0M14D</t>
   </si>
   <si>
+    <t>86  2M27D</t>
+  </si>
+  <si>
     <t>1438  1M27D</t>
   </si>
   <si>
-    <t>86  2M27D</t>
+    <t>909  6M14D</t>
   </si>
   <si>
     <t>576  2M9D</t>
@@ -7561,9 +7564,6 @@
     <t>264  -1M3D</t>
   </si>
   <si>
-    <t>909  6M14D</t>
-  </si>
-  <si>
     <t>49  1M21D</t>
   </si>
   <si>
@@ -7576,69 +7576,69 @@
     <t>952  -1M0D</t>
   </si>
   <si>
+    <t>464  1M13D</t>
+  </si>
+  <si>
     <t>51  4M16D</t>
   </si>
   <si>
-    <t>464  1M13D</t>
-  </si>
-  <si>
     <t>128  2M15D</t>
   </si>
   <si>
+    <t>3828  -1M0D</t>
+  </si>
+  <si>
+    <t>51  11M1D</t>
+  </si>
+  <si>
+    <t>76  6M2D</t>
+  </si>
+  <si>
     <t>11  16M20D</t>
   </si>
   <si>
-    <t>51  11M1D</t>
-  </si>
-  <si>
-    <t>3828  -1M0D</t>
-  </si>
-  <si>
     <t>239  -0M18D</t>
   </si>
   <si>
-    <t>76  6M2D</t>
-  </si>
-  <si>
     <t>197  2M12D</t>
   </si>
   <si>
+    <t>2469  1M19D</t>
+  </si>
+  <si>
+    <t>142  -0M27D</t>
+  </si>
+  <si>
+    <t>138  1M25D</t>
+  </si>
+  <si>
+    <t>1780  -1M4D</t>
+  </si>
+  <si>
     <t>206  4M4D</t>
   </si>
   <si>
-    <t>142  -0M27D</t>
-  </si>
-  <si>
-    <t>2469  1M19D</t>
-  </si>
-  <si>
-    <t>1780  -1M4D</t>
-  </si>
-  <si>
-    <t>138  1M25D</t>
+    <t>316  4M7D</t>
   </si>
   <si>
     <t>562  4M26D</t>
   </si>
   <si>
-    <t>316  4M7D</t>
+    <t>160  4M24D</t>
   </si>
   <si>
     <t>333  2M5D</t>
   </si>
   <si>
-    <t>160  4M24D</t>
-  </si>
-  <si>
     <t>159  2M9D</t>
   </si>
   <si>
+    <t>258  3M12D</t>
+  </si>
+  <si>
     <t>328  -0M29D</t>
   </si>
   <si>
-    <t>258  3M12D</t>
-  </si>
-  <si>
     <t>97  -0M5D</t>
   </si>
   <si>
@@ -7654,19 +7654,19 @@
     <t>277  4M19D</t>
   </si>
   <si>
+    <t>1448  5M24D</t>
+  </si>
+  <si>
+    <t>532  2M19D</t>
+  </si>
+  <si>
+    <t>2075  -0M26D</t>
+  </si>
+  <si>
+    <t>1445  2M16D</t>
+  </si>
+  <si>
     <t>1943  -0M25D</t>
-  </si>
-  <si>
-    <t>1448  5M24D</t>
-  </si>
-  <si>
-    <t>2075  -0M26D</t>
-  </si>
-  <si>
-    <t>532  2M19D</t>
-  </si>
-  <si>
-    <t>1445  2M16D</t>
   </si>
 </sst>
 </file>
@@ -8185,7 +8185,7 @@
         <v>1492</v>
       </c>
       <c r="X2" t="s">
-        <v>1570</v>
+        <v>1187</v>
       </c>
       <c r="Y2" t="s">
         <v>1644</v>
@@ -8238,7 +8238,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>184</v>
@@ -8295,7 +8295,7 @@
         <v>1493</v>
       </c>
       <c r="X3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="Y3" t="s">
         <v>1645</v>
@@ -8322,7 +8322,7 @@
         <v>2178</v>
       </c>
       <c r="AG3" t="s">
-        <v>705</v>
+        <v>2249</v>
       </c>
       <c r="AH3" t="s">
         <v>2324</v>
@@ -8345,10 +8345,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>185</v>
@@ -8405,7 +8405,7 @@
         <v>1494</v>
       </c>
       <c r="X4" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="Y4" t="s">
         <v>1646</v>
@@ -8432,7 +8432,7 @@
         <v>2179</v>
       </c>
       <c r="AG4" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="AH4" t="s">
         <v>2325</v>
@@ -8455,10 +8455,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>186</v>
@@ -8515,7 +8515,7 @@
         <v>1495</v>
       </c>
       <c r="X5" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="Y5" t="s">
         <v>1647</v>
@@ -8542,7 +8542,7 @@
         <v>2180</v>
       </c>
       <c r="AG5" t="s">
-        <v>2250</v>
+        <v>706</v>
       </c>
       <c r="AH5" t="s">
         <v>2326</v>
@@ -8568,7 +8568,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>187</v>
@@ -8625,7 +8625,7 @@
         <v>1496</v>
       </c>
       <c r="X6" t="s">
-        <v>1191</v>
+        <v>1573</v>
       </c>
       <c r="Y6" t="s">
         <v>1648</v>
@@ -9118,7 +9118,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>192</v>
@@ -9225,10 +9225,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>193</v>
@@ -9335,10 +9335,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>194</v>
@@ -9778,7 +9778,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>198</v>
@@ -10192,7 +10192,7 @@
         <v>2194</v>
       </c>
       <c r="AG20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AH20" t="s">
         <v>2341</v>
@@ -10218,7 +10218,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>202</v>
@@ -10438,7 +10438,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
         <v>204</v>
@@ -10548,7 +10548,7 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>205</v>
@@ -10655,10 +10655,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>47</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>206</v>
@@ -10768,7 +10768,7 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
         <v>207</v>
@@ -10959,7 +10959,7 @@
         <v>2127</v>
       </c>
       <c r="AF27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG27" t="s">
         <v>2271</v>
@@ -11098,7 +11098,7 @@
         <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
         <v>210</v>
@@ -11167,10 +11167,10 @@
         <v>1823</v>
       </c>
       <c r="AB29" t="s">
-        <v>1344</v>
+        <v>1900</v>
       </c>
       <c r="AC29" t="s">
-        <v>1973</v>
+        <v>927</v>
       </c>
       <c r="AD29" t="s">
         <v>2050</v>
@@ -11191,7 +11191,7 @@
         <v>2428</v>
       </c>
       <c r="AJ29" t="s">
-        <v>458</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -11208,7 +11208,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>211</v>
@@ -11229,7 +11229,7 @@
         <v>595</v>
       </c>
       <c r="L30" t="s">
-        <v>672</v>
+        <v>561</v>
       </c>
       <c r="M30" t="s">
         <v>749</v>
@@ -11277,10 +11277,10 @@
         <v>1824</v>
       </c>
       <c r="AB30" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="AC30" t="s">
-        <v>929</v>
+        <v>1973</v>
       </c>
       <c r="AD30" t="s">
         <v>2051</v>
@@ -11301,7 +11301,7 @@
         <v>2429</v>
       </c>
       <c r="AJ30" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -11318,7 +11318,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
         <v>212</v>
@@ -11339,7 +11339,7 @@
         <v>596</v>
       </c>
       <c r="L31" t="s">
-        <v>561</v>
+        <v>672</v>
       </c>
       <c r="M31" t="s">
         <v>750</v>
@@ -11387,7 +11387,7 @@
         <v>1825</v>
       </c>
       <c r="AB31" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="AC31" t="s">
         <v>1974</v>
@@ -11411,7 +11411,7 @@
         <v>2430</v>
       </c>
       <c r="AJ31" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -11425,10 +11425,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
         <v>213</v>
@@ -11497,7 +11497,7 @@
         <v>1826</v>
       </c>
       <c r="AB32" t="s">
-        <v>1902</v>
+        <v>1344</v>
       </c>
       <c r="AC32" t="s">
         <v>1975</v>
@@ -11521,7 +11521,7 @@
         <v>2431</v>
       </c>
       <c r="AJ32" t="s">
-        <v>2506</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -11553,7 +11553,7 @@
         <v>446</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
         <v>325</v>
@@ -11758,7 +11758,7 @@
         <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -11839,7 +11839,7 @@
         <v>2135</v>
       </c>
       <c r="AF35" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AG35" t="s">
         <v>2279</v>
@@ -12088,7 +12088,7 @@
         <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
         <v>219</v>
@@ -12195,10 +12195,10 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
         <v>74</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
       </c>
       <c r="F39" t="s">
         <v>220</v>
@@ -12308,7 +12308,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
         <v>221</v>
@@ -12335,7 +12335,7 @@
         <v>759</v>
       </c>
       <c r="N40" t="s">
-        <v>226</v>
+        <v>838</v>
       </c>
       <c r="O40" t="s">
         <v>914</v>
@@ -12368,7 +12368,7 @@
         <v>1607</v>
       </c>
       <c r="Y40" t="s">
-        <v>1620</v>
+        <v>1682</v>
       </c>
       <c r="Z40" t="s">
         <v>1756</v>
@@ -12418,7 +12418,7 @@
         <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
         <v>222</v>
@@ -12445,7 +12445,7 @@
         <v>760</v>
       </c>
       <c r="N41" t="s">
-        <v>838</v>
+        <v>226</v>
       </c>
       <c r="O41" t="s">
         <v>915</v>
@@ -12478,7 +12478,7 @@
         <v>1608</v>
       </c>
       <c r="Y41" t="s">
-        <v>1682</v>
+        <v>1621</v>
       </c>
       <c r="Z41" t="s">
         <v>1757</v>
@@ -13078,13 +13078,13 @@
         <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
         <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="H47" t="s">
         <v>381</v>
@@ -13105,7 +13105,7 @@
         <v>766</v>
       </c>
       <c r="N47" t="s">
-        <v>329</v>
+        <v>844</v>
       </c>
       <c r="O47" t="s">
         <v>921</v>
@@ -13114,7 +13114,7 @@
         <v>1000</v>
       </c>
       <c r="Q47" t="s">
-        <v>237</v>
+        <v>1078</v>
       </c>
       <c r="R47" t="s">
         <v>1154</v>
@@ -13126,25 +13126,25 @@
         <v>1310</v>
       </c>
       <c r="U47" t="s">
-        <v>1180</v>
+        <v>1383</v>
       </c>
       <c r="V47" t="s">
         <v>1457</v>
       </c>
       <c r="W47" t="s">
-        <v>226</v>
+        <v>1537</v>
       </c>
       <c r="X47" t="s">
         <v>1614</v>
       </c>
       <c r="Y47" t="s">
-        <v>1181</v>
+        <v>1688</v>
       </c>
       <c r="Z47" t="s">
         <v>1763</v>
       </c>
       <c r="AA47" t="s">
-        <v>231</v>
+        <v>1841</v>
       </c>
       <c r="AB47" t="s">
         <v>1916</v>
@@ -13168,7 +13168,7 @@
         <v>2368</v>
       </c>
       <c r="AI47" t="s">
-        <v>237</v>
+        <v>2446</v>
       </c>
       <c r="AJ47" t="s">
         <v>2520</v>
@@ -13188,13 +13188,13 @@
         <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
         <v>229</v>
       </c>
       <c r="G48" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="H48" t="s">
         <v>382</v>
@@ -13215,7 +13215,7 @@
         <v>767</v>
       </c>
       <c r="N48" t="s">
-        <v>844</v>
+        <v>329</v>
       </c>
       <c r="O48" t="s">
         <v>922</v>
@@ -13224,7 +13224,7 @@
         <v>1001</v>
       </c>
       <c r="Q48" t="s">
-        <v>1078</v>
+        <v>236</v>
       </c>
       <c r="R48" t="s">
         <v>1155</v>
@@ -13236,25 +13236,25 @@
         <v>1311</v>
       </c>
       <c r="U48" t="s">
-        <v>1383</v>
+        <v>1180</v>
       </c>
       <c r="V48" t="s">
         <v>1458</v>
       </c>
       <c r="W48" t="s">
-        <v>1537</v>
+        <v>226</v>
       </c>
       <c r="X48" t="s">
         <v>1615</v>
       </c>
       <c r="Y48" t="s">
-        <v>1688</v>
+        <v>1181</v>
       </c>
       <c r="Z48" t="s">
         <v>1764</v>
       </c>
       <c r="AA48" t="s">
-        <v>1841</v>
+        <v>234</v>
       </c>
       <c r="AB48" t="s">
         <v>1917</v>
@@ -13278,7 +13278,7 @@
         <v>2369</v>
       </c>
       <c r="AI48" t="s">
-        <v>2446</v>
+        <v>236</v>
       </c>
       <c r="AJ48" t="s">
         <v>2521</v>
@@ -13343,7 +13343,7 @@
         <v>1234</v>
       </c>
       <c r="T49" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="U49" t="s">
         <v>1384</v>
@@ -13382,7 +13382,7 @@
         <v>2220</v>
       </c>
       <c r="AG49" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="AH49" t="s">
         <v>2370</v>
@@ -13408,13 +13408,13 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
         <v>231</v>
       </c>
       <c r="G50" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
         <v>384</v>
@@ -13423,10 +13423,10 @@
         <v>463</v>
       </c>
       <c r="J50" t="s">
-        <v>539</v>
+        <v>226</v>
       </c>
       <c r="K50" t="s">
-        <v>237</v>
+        <v>614</v>
       </c>
       <c r="L50" t="s">
         <v>691</v>
@@ -13435,7 +13435,7 @@
         <v>769</v>
       </c>
       <c r="N50" t="s">
-        <v>846</v>
+        <v>226</v>
       </c>
       <c r="O50" t="s">
         <v>924</v>
@@ -13453,10 +13453,10 @@
         <v>1235</v>
       </c>
       <c r="T50" t="s">
-        <v>1312</v>
+        <v>226</v>
       </c>
       <c r="U50" t="s">
-        <v>706</v>
+        <v>1385</v>
       </c>
       <c r="V50" t="s">
         <v>1460</v>
@@ -13465,7 +13465,7 @@
         <v>1539</v>
       </c>
       <c r="X50" t="s">
-        <v>208</v>
+        <v>1617</v>
       </c>
       <c r="Y50" t="s">
         <v>1690</v>
@@ -13477,7 +13477,7 @@
         <v>1843</v>
       </c>
       <c r="AB50" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="AC50" t="s">
         <v>1993</v>
@@ -13492,7 +13492,7 @@
         <v>2221</v>
       </c>
       <c r="AG50" t="s">
-        <v>237</v>
+        <v>2292</v>
       </c>
       <c r="AH50" t="s">
         <v>2371</v>
@@ -13536,7 +13536,7 @@
         <v>464</v>
       </c>
       <c r="K51" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L51" t="s">
         <v>692</v>
@@ -13545,7 +13545,7 @@
         <v>770</v>
       </c>
       <c r="N51" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O51" t="s">
         <v>925</v>
@@ -13557,7 +13557,7 @@
         <v>1081</v>
       </c>
       <c r="R51" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="S51" t="s">
         <v>1236</v>
@@ -13575,7 +13575,7 @@
         <v>1540</v>
       </c>
       <c r="X51" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="Y51" t="s">
         <v>1691</v>
@@ -13602,7 +13602,7 @@
         <v>925</v>
       </c>
       <c r="AG51" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="AH51" t="s">
         <v>226</v>
@@ -13634,7 +13634,7 @@
         <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s">
         <v>386</v>
@@ -13643,10 +13643,10 @@
         <v>465</v>
       </c>
       <c r="J52" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K52" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L52" t="s">
         <v>693</v>
@@ -13655,7 +13655,7 @@
         <v>771</v>
       </c>
       <c r="N52" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O52" t="s">
         <v>926</v>
@@ -13673,10 +13673,10 @@
         <v>1237</v>
       </c>
       <c r="T52" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="U52" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="V52" t="s">
         <v>1462</v>
@@ -13685,7 +13685,7 @@
         <v>1541</v>
       </c>
       <c r="X52" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="Y52" t="s">
         <v>1692</v>
@@ -13712,7 +13712,7 @@
         <v>2222</v>
       </c>
       <c r="AG52" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="AH52" t="s">
         <v>2372</v>
@@ -13738,13 +13738,13 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
         <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="H53" t="s">
         <v>387</v>
@@ -13753,10 +13753,10 @@
         <v>466</v>
       </c>
       <c r="J53" t="s">
-        <v>226</v>
+        <v>540</v>
       </c>
       <c r="K53" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L53" t="s">
         <v>694</v>
@@ -13765,7 +13765,7 @@
         <v>772</v>
       </c>
       <c r="N53" t="s">
-        <v>226</v>
+        <v>848</v>
       </c>
       <c r="O53" t="s">
         <v>927</v>
@@ -13783,10 +13783,10 @@
         <v>1238</v>
       </c>
       <c r="T53" t="s">
-        <v>226</v>
+        <v>1313</v>
       </c>
       <c r="U53" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="V53" t="s">
         <v>1463</v>
@@ -13795,7 +13795,7 @@
         <v>1542</v>
       </c>
       <c r="X53" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="Y53" t="s">
         <v>1693</v>
@@ -13807,7 +13807,7 @@
         <v>1846</v>
       </c>
       <c r="AB53" t="s">
-        <v>226</v>
+        <v>1921</v>
       </c>
       <c r="AC53" t="s">
         <v>1995</v>
@@ -13822,7 +13822,7 @@
         <v>2223</v>
       </c>
       <c r="AG53" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="AH53" t="s">
         <v>2373</v>
@@ -13848,7 +13848,7 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>234</v>
@@ -13866,7 +13866,7 @@
         <v>541</v>
       </c>
       <c r="K54" t="s">
-        <v>617</v>
+        <v>236</v>
       </c>
       <c r="L54" t="s">
         <v>695</v>
@@ -13884,7 +13884,7 @@
         <v>1007</v>
       </c>
       <c r="Q54" t="s">
-        <v>941</v>
+        <v>1084</v>
       </c>
       <c r="R54" t="s">
         <v>1160</v>
@@ -13896,7 +13896,7 @@
         <v>1314</v>
       </c>
       <c r="U54" t="s">
-        <v>1387</v>
+        <v>705</v>
       </c>
       <c r="V54" t="s">
         <v>1464</v>
@@ -13905,7 +13905,7 @@
         <v>1543</v>
       </c>
       <c r="X54" t="s">
-        <v>1620</v>
+        <v>208</v>
       </c>
       <c r="Y54" t="s">
         <v>1694</v>
@@ -13917,7 +13917,7 @@
         <v>1847</v>
       </c>
       <c r="AB54" t="s">
-        <v>1921</v>
+        <v>329</v>
       </c>
       <c r="AC54" t="s">
         <v>1996</v>
@@ -13932,7 +13932,7 @@
         <v>2224</v>
       </c>
       <c r="AG54" t="s">
-        <v>2295</v>
+        <v>236</v>
       </c>
       <c r="AH54" t="s">
         <v>2374</v>
@@ -13958,7 +13958,7 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
@@ -13994,7 +13994,7 @@
         <v>1008</v>
       </c>
       <c r="Q55" t="s">
-        <v>1084</v>
+        <v>942</v>
       </c>
       <c r="R55" t="s">
         <v>1161</v>
@@ -14068,100 +14068,100 @@
         <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>236</v>
       </c>
       <c r="G56" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="H56" t="s">
-        <v>390</v>
+        <v>236</v>
       </c>
       <c r="I56" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J56" t="s">
-        <v>543</v>
+        <v>236</v>
       </c>
       <c r="K56" t="s">
         <v>619</v>
       </c>
       <c r="L56" t="s">
-        <v>697</v>
+        <v>619</v>
       </c>
       <c r="M56" t="s">
-        <v>775</v>
+        <v>236</v>
       </c>
       <c r="N56" t="s">
-        <v>851</v>
+        <v>467</v>
       </c>
       <c r="O56" t="s">
-        <v>930</v>
+        <v>236</v>
       </c>
       <c r="P56" t="s">
-        <v>1009</v>
+        <v>236</v>
       </c>
       <c r="Q56" t="s">
-        <v>1085</v>
+        <v>236</v>
       </c>
       <c r="R56" t="s">
-        <v>1162</v>
+        <v>236</v>
       </c>
       <c r="S56" t="s">
-        <v>1241</v>
+        <v>236</v>
       </c>
       <c r="T56" t="s">
-        <v>1316</v>
+        <v>236</v>
       </c>
       <c r="U56" t="s">
-        <v>1389</v>
+        <v>236</v>
       </c>
       <c r="V56" t="s">
         <v>1466</v>
       </c>
       <c r="W56" t="s">
-        <v>1545</v>
+        <v>901</v>
       </c>
       <c r="X56" t="s">
-        <v>1622</v>
+        <v>236</v>
       </c>
       <c r="Y56" t="s">
-        <v>1696</v>
+        <v>236</v>
       </c>
       <c r="Z56" t="s">
-        <v>1772</v>
+        <v>236</v>
       </c>
       <c r="AA56" t="s">
-        <v>1849</v>
+        <v>236</v>
       </c>
       <c r="AB56" t="s">
-        <v>1923</v>
+        <v>236</v>
       </c>
       <c r="AC56" t="s">
-        <v>1998</v>
+        <v>236</v>
       </c>
       <c r="AD56" t="s">
-        <v>2077</v>
+        <v>236</v>
       </c>
       <c r="AE56" t="s">
-        <v>2154</v>
+        <v>236</v>
       </c>
       <c r="AF56" t="s">
-        <v>2226</v>
+        <v>236</v>
       </c>
       <c r="AG56" t="s">
         <v>2297</v>
       </c>
       <c r="AH56" t="s">
-        <v>2376</v>
+        <v>236</v>
       </c>
       <c r="AI56" t="s">
-        <v>2454</v>
+        <v>236</v>
       </c>
       <c r="AJ56" t="s">
-        <v>2528</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:36">
@@ -14178,100 +14178,100 @@
         <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
         <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="I57" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="J57" t="s">
-        <v>237</v>
+        <v>543</v>
       </c>
       <c r="K57" t="s">
         <v>620</v>
       </c>
       <c r="L57" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="M57" t="s">
-        <v>237</v>
+        <v>775</v>
       </c>
       <c r="N57" t="s">
-        <v>463</v>
+        <v>851</v>
       </c>
       <c r="O57" t="s">
-        <v>237</v>
+        <v>930</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>1009</v>
       </c>
       <c r="Q57" t="s">
-        <v>237</v>
+        <v>1085</v>
       </c>
       <c r="R57" t="s">
-        <v>237</v>
+        <v>1162</v>
       </c>
       <c r="S57" t="s">
-        <v>237</v>
+        <v>1241</v>
       </c>
       <c r="T57" t="s">
-        <v>237</v>
+        <v>1316</v>
       </c>
       <c r="U57" t="s">
-        <v>237</v>
+        <v>1389</v>
       </c>
       <c r="V57" t="s">
         <v>1467</v>
       </c>
       <c r="W57" t="s">
-        <v>901</v>
+        <v>1545</v>
       </c>
       <c r="X57" t="s">
-        <v>237</v>
+        <v>1622</v>
       </c>
       <c r="Y57" t="s">
-        <v>237</v>
+        <v>1696</v>
       </c>
       <c r="Z57" t="s">
-        <v>237</v>
+        <v>1772</v>
       </c>
       <c r="AA57" t="s">
-        <v>237</v>
+        <v>1849</v>
       </c>
       <c r="AB57" t="s">
-        <v>237</v>
+        <v>1923</v>
       </c>
       <c r="AC57" t="s">
-        <v>237</v>
+        <v>1998</v>
       </c>
       <c r="AD57" t="s">
-        <v>237</v>
+        <v>2077</v>
       </c>
       <c r="AE57" t="s">
-        <v>237</v>
+        <v>2154</v>
       </c>
       <c r="AF57" t="s">
-        <v>237</v>
+        <v>2226</v>
       </c>
       <c r="AG57" t="s">
         <v>2298</v>
       </c>
       <c r="AH57" t="s">
-        <v>237</v>
+        <v>2376</v>
       </c>
       <c r="AI57" t="s">
-        <v>237</v>
+        <v>2454</v>
       </c>
       <c r="AJ57" t="s">
-        <v>237</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="58" spans="1:36">
@@ -14321,7 +14321,7 @@
         <v>931</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>1010</v>
       </c>
       <c r="Q58" t="s">
         <v>1086</v>
@@ -14431,7 +14431,7 @@
         <v>932</v>
       </c>
       <c r="P59" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q59" t="s">
         <v>1087</v>
@@ -14508,7 +14508,7 @@
         <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
         <v>240</v>
@@ -14541,7 +14541,7 @@
         <v>933</v>
       </c>
       <c r="P60" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Q60" t="s">
         <v>1088</v>
@@ -14618,7 +14618,7 @@
         <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
         <v>241</v>
@@ -14651,7 +14651,7 @@
         <v>934</v>
       </c>
       <c r="P61" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Q61" t="s">
         <v>1089</v>
@@ -14728,7 +14728,7 @@
         <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
         <v>242</v>
@@ -14761,7 +14761,7 @@
         <v>935</v>
       </c>
       <c r="P62" t="s">
-        <v>1013</v>
+        <v>183</v>
       </c>
       <c r="Q62" t="s">
         <v>1090</v>
@@ -14838,7 +14838,7 @@
         <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
         <v>243</v>
@@ -14907,7 +14907,7 @@
         <v>1855</v>
       </c>
       <c r="AB63" t="s">
-        <v>1929</v>
+        <v>226</v>
       </c>
       <c r="AC63" t="s">
         <v>2004</v>
@@ -14945,10 +14945,10 @@
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
         <v>244</v>
@@ -15017,7 +15017,7 @@
         <v>1856</v>
       </c>
       <c r="AB64" t="s">
-        <v>226</v>
+        <v>1929</v>
       </c>
       <c r="AC64" t="s">
         <v>2005</v>
@@ -15058,7 +15058,7 @@
         <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
         <v>245</v>
@@ -15076,7 +15076,7 @@
         <v>551</v>
       </c>
       <c r="K65" t="s">
-        <v>628</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s">
         <v>705</v>
@@ -15100,10 +15100,10 @@
         <v>1170</v>
       </c>
       <c r="S65" t="s">
-        <v>1249</v>
+        <v>226</v>
       </c>
       <c r="T65" t="s">
-        <v>1324</v>
+        <v>226</v>
       </c>
       <c r="U65" t="s">
         <v>1397</v>
@@ -15115,7 +15115,7 @@
         <v>1553</v>
       </c>
       <c r="X65" t="s">
-        <v>1629</v>
+        <v>226</v>
       </c>
       <c r="Y65" t="s">
         <v>1703</v>
@@ -15168,7 +15168,7 @@
         <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
         <v>246</v>
@@ -15186,7 +15186,7 @@
         <v>552</v>
       </c>
       <c r="K66" t="s">
-        <v>226</v>
+        <v>628</v>
       </c>
       <c r="L66" t="s">
         <v>706</v>
@@ -15210,10 +15210,10 @@
         <v>1171</v>
       </c>
       <c r="S66" t="s">
-        <v>226</v>
+        <v>1249</v>
       </c>
       <c r="T66" t="s">
-        <v>226</v>
+        <v>1324</v>
       </c>
       <c r="U66" t="s">
         <v>1398</v>
@@ -15225,7 +15225,7 @@
         <v>1554</v>
       </c>
       <c r="X66" t="s">
-        <v>226</v>
+        <v>1629</v>
       </c>
       <c r="Y66" t="s">
         <v>1704</v>
@@ -15278,7 +15278,7 @@
         <v>115</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>247</v>
@@ -15388,7 +15388,7 @@
         <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F68" t="s">
         <v>248</v>
@@ -15409,7 +15409,7 @@
         <v>630</v>
       </c>
       <c r="L68" t="s">
-        <v>708</v>
+        <v>226</v>
       </c>
       <c r="M68" t="s">
         <v>786</v>
@@ -15495,10 +15495,10 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
         <v>249</v>
@@ -15519,7 +15519,7 @@
         <v>631</v>
       </c>
       <c r="L69" t="s">
-        <v>226</v>
+        <v>708</v>
       </c>
       <c r="M69" t="s">
         <v>787</v>
@@ -15763,7 +15763,7 @@
         <v>1254</v>
       </c>
       <c r="T71" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="U71" t="s">
         <v>1403</v>
@@ -15811,7 +15811,7 @@
         <v>2468</v>
       </c>
       <c r="AJ71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:36">
@@ -16170,7 +16170,7 @@
         <v>408</v>
       </c>
       <c r="I75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J75" t="s">
         <v>561</v>
@@ -16215,7 +16215,7 @@
         <v>1563</v>
       </c>
       <c r="X75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y75" t="s">
         <v>1713</v>
@@ -16378,7 +16378,7 @@
         <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
         <v>255</v>
@@ -16485,10 +16485,10 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" t="s">
         <v>140</v>
-      </c>
-      <c r="E78" t="s">
-        <v>5</v>
       </c>
       <c r="F78" t="s">
         <v>256</v>

--- a/Data/item_wise_stock_days.xlsx
+++ b/Data/item_wise_stock_days.xlsx
@@ -19,18 +19,18 @@
     <t>Augment</t>
   </si>
   <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
+    <t>18's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
     <t>1's</t>
   </si>
   <si>
-    <t>Augment 375 Tablet 18's</t>
-  </si>
-  <si>
-    <t>18's</t>
-  </si>
-  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
@@ -73,6 +73,15 @@
     <t>Dinafex</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
@@ -82,15 +91,6 @@
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta</t>
   </si>
   <si>
@@ -139,30 +139,30 @@
     <t>100 's</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
     <t>Ketonic</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
+    <t>1 's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
-    <t>1 's</t>
-  </si>
-  <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
     <t>Levomax</t>
   </si>
   <si>
@@ -181,18 +181,18 @@
     <t>Lindamax</t>
   </si>
   <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>10gm</t>
+  </si>
+  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>10gm</t>
-  </si>
-  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
@@ -220,33 +220,33 @@
     <t>Naprox</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ontin</t>
   </si>
   <si>
@@ -262,24 +262,24 @@
     <t>Oradin</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare</t>
   </si>
   <si>
+    <t>Osticare FC Tab Container 30's</t>
+  </si>
+  <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
-    <t>Osticare FC Tab Container 30's</t>
-  </si>
-  <si>
     <t>Paino</t>
   </si>
   <si>
@@ -289,54 +289,54 @@
     <t>Quinox</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday</t>
   </si>
   <si>
+    <t>Rupaday 10mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
-    <t>Rupaday 10mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Sk-Mox</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Stiba</t>
   </si>
   <si>
@@ -352,12 +352,12 @@
     <t>Sulidac</t>
   </si>
   <si>
+    <t>Sulidac 200 Tablet 20's</t>
+  </si>
+  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim</t>
   </si>
   <si>
@@ -430,15 +430,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
@@ -451,12 +457,6 @@
     <t>20ml</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>12 's</t>
-  </si>
-  <si>
     <t>BSL NO</t>
   </si>
   <si>
@@ -565,12 +565,12 @@
     <t>VRB</t>
   </si>
   <si>
+    <t>152  27M3D</t>
+  </si>
+  <si>
     <t>89  2M29D</t>
   </si>
   <si>
-    <t>152  27M3D</t>
-  </si>
-  <si>
     <t>247  107M1D</t>
   </si>
   <si>
@@ -589,18 +589,18 @@
     <t>22  -0M20D</t>
   </si>
   <si>
+    <t>232  5M5D</t>
+  </si>
+  <si>
+    <t>49  2M11D</t>
+  </si>
+  <si>
     <t>1057  1M13D</t>
   </si>
   <si>
     <t>450  -0M25D</t>
   </si>
   <si>
-    <t>232  5M5D</t>
-  </si>
-  <si>
-    <t>49  2M11D</t>
-  </si>
-  <si>
     <t>3604  2M29D</t>
   </si>
   <si>
@@ -622,13 +622,16 @@
     <t>459  1M28D</t>
   </si>
   <si>
+    <t>6866  1M23D</t>
+  </si>
+  <si>
     <t>1566  10M5D</t>
   </si>
   <si>
     <t>5006  -0M24D</t>
   </si>
   <si>
-    <t>6866  1M23D</t>
+    <t>1408  2M10D</t>
   </si>
   <si>
     <t>121  -0M12D</t>
@@ -637,24 +640,21 @@
     <t>5617  2M19D</t>
   </si>
   <si>
-    <t>1408  2M10D</t>
-  </si>
-  <si>
     <t>33  12M15D</t>
   </si>
   <si>
     <t>104  3M5D</t>
   </si>
   <si>
+    <t>116  2M10D</t>
+  </si>
+  <si>
     <t>269  2M4D</t>
   </si>
   <si>
     <t>48  1M23D</t>
   </si>
   <si>
-    <t>116  2M10D</t>
-  </si>
-  <si>
     <t>49  4M7D</t>
   </si>
   <si>
@@ -667,96 +667,96 @@
     <t>756  1M10D</t>
   </si>
   <si>
+    <t>440  2M20D</t>
+  </si>
+  <si>
+    <t>199  -0M27D</t>
+  </si>
+  <si>
+    <t>1064  1M9D</t>
+  </si>
+  <si>
+    <t>1109  1M14D</t>
+  </si>
+  <si>
+    <t>841  1M5D</t>
+  </si>
+  <si>
     <t>103  1M17D</t>
   </si>
   <si>
-    <t>1064  1M9D</t>
-  </si>
-  <si>
-    <t>841  1M5D</t>
-  </si>
-  <si>
-    <t>440  2M20D</t>
-  </si>
-  <si>
-    <t>1109  1M14D</t>
-  </si>
-  <si>
-    <t>199  -0M27D</t>
-  </si>
-  <si>
     <t>30  -0M18D</t>
   </si>
   <si>
     <t>192  -0M18D</t>
   </si>
   <si>
+    <t>1  -0M0D</t>
+  </si>
+  <si>
+    <t>725  -0M16D</t>
+  </si>
+  <si>
     <t>2380  2M8D</t>
   </si>
   <si>
-    <t>1  -0M0D</t>
-  </si>
-  <si>
-    <t>725  -0M16D</t>
+    <t>81  8M5D</t>
   </si>
   <si>
     <t>380  1M29D</t>
   </si>
   <si>
-    <t>81  8M5D</t>
-  </si>
-  <si>
     <t>237  2M0D</t>
   </si>
   <si>
+    <t>31  4M2D</t>
+  </si>
+  <si>
+    <t>353  1M7D</t>
+  </si>
+  <si>
+    <t>1  -0M3D</t>
+  </si>
+  <si>
+    <t>17  3M20D</t>
+  </si>
+  <si>
     <t>948  1M19D</t>
   </si>
   <si>
-    <t>17  3M20D</t>
-  </si>
-  <si>
-    <t>31  4M2D</t>
-  </si>
-  <si>
-    <t>1  -0M3D</t>
-  </si>
-  <si>
-    <t>353  1M7D</t>
+    <t>169  1M21D</t>
   </si>
   <si>
     <t>1  -0M1D</t>
   </si>
   <si>
-    <t>169  1M21D</t>
+    <t>130  1M11D</t>
+  </si>
+  <si>
+    <t>221  1M11D</t>
   </si>
   <si>
     <t>1948  1M14D</t>
   </si>
   <si>
-    <t>221  1M11D</t>
-  </si>
-  <si>
     <t>140  2M11D</t>
   </si>
   <si>
     <t>2174  1M17D</t>
   </si>
   <si>
-    <t>130  1M11D</t>
-  </si>
-  <si>
     <t>365  73M24D</t>
   </si>
   <si>
     <t>536  6M29D</t>
   </si>
   <si>
+    <t>256  8M16D</t>
+  </si>
+  <si>
     <t>218  33M1D</t>
   </si>
   <si>
-    <t>256  8M16D</t>
-  </si>
-  <si>
     <t>210  4M5D</t>
   </si>
   <si>
@@ -781,27 +781,27 @@
     <t>204  1M12D</t>
   </si>
   <si>
+    <t>428  3M6D</t>
+  </si>
+  <si>
+    <t>3256  1M14D</t>
+  </si>
+  <si>
     <t>1156  7M16D</t>
   </si>
   <si>
-    <t>428  3M6D</t>
-  </si>
-  <si>
     <t>1974  1M24D</t>
   </si>
   <si>
     <t>1985  2M18D</t>
   </si>
   <si>
-    <t>3256  1M14D</t>
+    <t>193  6M17D</t>
   </si>
   <si>
     <t>251  6M8D</t>
   </si>
   <si>
-    <t>193  6M17D</t>
-  </si>
-  <si>
     <t>94  -1M2D</t>
   </si>
   <si>
@@ -820,18 +820,18 @@
     <t>66  -0M29D</t>
   </si>
   <si>
+    <t>71  -1M2D</t>
+  </si>
+  <si>
+    <t>196  1M19D</t>
+  </si>
+  <si>
     <t>195  -0M3D</t>
   </si>
   <si>
     <t>420  -0M19D</t>
   </si>
   <si>
-    <t>71  -1M2D</t>
-  </si>
-  <si>
-    <t>196  1M19D</t>
-  </si>
-  <si>
     <t>2325  1M12D</t>
   </si>
   <si>
@@ -853,13 +853,16 @@
     <t>404  -1M0D</t>
   </si>
   <si>
+    <t>8520  1M25D</t>
+  </si>
+  <si>
     <t>812  2M17D</t>
   </si>
   <si>
     <t>6342  -0M21D</t>
   </si>
   <si>
-    <t>8520  1M25D</t>
+    <t>5047  -0M23D</t>
   </si>
   <si>
     <t>535  5M0D</t>
@@ -868,24 +871,21 @@
     <t>5997  2M8D</t>
   </si>
   <si>
-    <t>5047  -0M23D</t>
-  </si>
-  <si>
     <t>39  14M23D</t>
   </si>
   <si>
     <t>92  3M0D</t>
   </si>
   <si>
+    <t>66  3M10D</t>
+  </si>
+  <si>
     <t>119  3M20D</t>
   </si>
   <si>
     <t>70  1M8D</t>
   </si>
   <si>
-    <t>66  3M10D</t>
-  </si>
-  <si>
     <t>30  15M5D</t>
   </si>
   <si>
@@ -898,87 +898,87 @@
     <t>794  -0M15D</t>
   </si>
   <si>
+    <t>195  -0M14D</t>
+  </si>
+  <si>
+    <t>628  1M22D</t>
+  </si>
+  <si>
+    <t>1216  1M7D</t>
+  </si>
+  <si>
+    <t>848  -1M2D</t>
+  </si>
+  <si>
+    <t>839  2M0D</t>
+  </si>
+  <si>
     <t>151  3M2D</t>
   </si>
   <si>
-    <t>1216  1M7D</t>
-  </si>
-  <si>
-    <t>839  2M0D</t>
-  </si>
-  <si>
-    <t>195  -0M14D</t>
-  </si>
-  <si>
-    <t>848  -1M2D</t>
-  </si>
-  <si>
-    <t>628  1M22D</t>
-  </si>
-  <si>
     <t>49  1M13D</t>
   </si>
   <si>
     <t>230  -0M13D</t>
   </si>
   <si>
+    <t>12  1M6D</t>
+  </si>
+  <si>
+    <t>1293  1M5D</t>
+  </si>
+  <si>
     <t>3198  2M7D</t>
   </si>
   <si>
-    <t>12  1M6D</t>
-  </si>
-  <si>
-    <t>1293  1M5D</t>
-  </si>
-  <si>
     <t>864  1M20D</t>
   </si>
   <si>
     <t>54  -0M18D</t>
   </si>
   <si>
+    <t>14  -1M1D</t>
+  </si>
+  <si>
+    <t>337  1M5D</t>
+  </si>
+  <si>
+    <t>8  -0M16D</t>
+  </si>
+  <si>
     <t>16  4M1D</t>
   </si>
   <si>
-    <t>14  -1M1D</t>
-  </si>
-  <si>
-    <t>8  -0M16D</t>
-  </si>
-  <si>
-    <t>337  1M5D</t>
-  </si>
-  <si>
     <t>368  2M23D</t>
   </si>
   <si>
+    <t>156  3M0D</t>
+  </si>
+  <si>
+    <t>410  2M23D</t>
+  </si>
+  <si>
     <t>2159  4M29D</t>
   </si>
   <si>
-    <t>410  2M23D</t>
-  </si>
-  <si>
     <t>228  7M8D</t>
   </si>
   <si>
     <t>1038  2M4D</t>
   </si>
   <si>
-    <t>156  3M0D</t>
-  </si>
-  <si>
     <t>111  3M15D</t>
   </si>
   <si>
     <t>470  2M29D</t>
   </si>
   <si>
+    <t>346  1M9D</t>
+  </si>
+  <si>
     <t>158  7M7D</t>
   </si>
   <si>
-    <t>346  1M9D</t>
-  </si>
-  <si>
     <t>199  2M14D</t>
   </si>
   <si>
@@ -1009,27 +1009,27 @@
     <t>133  1M11D</t>
   </si>
   <si>
+    <t>415  -0M27D</t>
+  </si>
+  <si>
+    <t>3741  1M18D</t>
+  </si>
+  <si>
     <t>2125  4M17D</t>
   </si>
   <si>
-    <t>415  -0M27D</t>
-  </si>
-  <si>
     <t>2854  1M5D</t>
   </si>
   <si>
     <t>957  1M8D</t>
   </si>
   <si>
-    <t>3741  1M18D</t>
+    <t>346  5M22D</t>
   </si>
   <si>
     <t>184  9M4D</t>
   </si>
   <si>
-    <t>346  5M22D</t>
-  </si>
-  <si>
     <t>129  1M15D</t>
   </si>
   <si>
@@ -1048,18 +1048,18 @@
     <t>62  -0M24D</t>
   </si>
   <si>
+    <t>170  -1M0D</t>
+  </si>
+  <si>
+    <t>96  -1M0D</t>
+  </si>
+  <si>
     <t>952  -0M15D</t>
   </si>
   <si>
     <t>285  -0M12D</t>
   </si>
   <si>
-    <t>170  -1M0D</t>
-  </si>
-  <si>
-    <t>96  -1M0D</t>
-  </si>
-  <si>
     <t>3512  2M28D</t>
   </si>
   <si>
@@ -1081,13 +1081,16 @@
     <t>199  -0M14D</t>
   </si>
   <si>
+    <t>4155  1M6D</t>
+  </si>
+  <si>
     <t>938  1M25D</t>
   </si>
   <si>
     <t>4636  -0M17D</t>
   </si>
   <si>
-    <t>4155  1M6D</t>
+    <t>1303  1M26D</t>
   </si>
   <si>
     <t>195  -1M3D</t>
@@ -1096,24 +1099,21 @@
     <t>3703  3M7D</t>
   </si>
   <si>
-    <t>1303  1M26D</t>
-  </si>
-  <si>
     <t>36  21M25D</t>
   </si>
   <si>
     <t>108  3M8D</t>
   </si>
   <si>
+    <t>192  8M9D</t>
+  </si>
+  <si>
     <t>81  1M18D</t>
   </si>
   <si>
     <t>50  2M22D</t>
   </si>
   <si>
-    <t>192  8M9D</t>
-  </si>
-  <si>
     <t>17  7M11D</t>
   </si>
   <si>
@@ -1126,96 +1126,96 @@
     <t>412  -0M10D</t>
   </si>
   <si>
+    <t>135  -0M11D</t>
+  </si>
+  <si>
+    <t>170  -0M13D</t>
+  </si>
+  <si>
+    <t>1562  2M10D</t>
+  </si>
+  <si>
+    <t>617  -1M4D</t>
+  </si>
+  <si>
+    <t>451  2M10D</t>
+  </si>
+  <si>
     <t>181  2M8D</t>
   </si>
   <si>
-    <t>1562  2M10D</t>
-  </si>
-  <si>
-    <t>451  2M10D</t>
-  </si>
-  <si>
-    <t>135  -0M11D</t>
-  </si>
-  <si>
-    <t>617  -1M4D</t>
-  </si>
-  <si>
-    <t>170  -0M13D</t>
-  </si>
-  <si>
     <t>110  2M15D</t>
   </si>
   <si>
     <t>87  -0M5D</t>
   </si>
   <si>
+    <t>28  -0M19D</t>
+  </si>
+  <si>
+    <t>498  -0M17D</t>
+  </si>
+  <si>
     <t>1714  1M5D</t>
   </si>
   <si>
-    <t>28  -0M19D</t>
-  </si>
-  <si>
-    <t>498  -0M17D</t>
+    <t>71  2M11D</t>
   </si>
   <si>
     <t>362  1M5D</t>
   </si>
   <si>
-    <t>71  2M11D</t>
-  </si>
-  <si>
     <t>156  1M18D</t>
   </si>
   <si>
+    <t>20  2M12D</t>
+  </si>
+  <si>
+    <t>68  1M6D</t>
+  </si>
+  <si>
+    <t>515  1M20D</t>
+  </si>
+  <si>
+    <t>25  10M25D</t>
+  </si>
+  <si>
+    <t>8  -1M0D</t>
+  </si>
+  <si>
     <t>1770  1M17D</t>
   </si>
   <si>
-    <t>68  1M6D</t>
-  </si>
-  <si>
-    <t>8  -1M0D</t>
-  </si>
-  <si>
-    <t>20  2M12D</t>
-  </si>
-  <si>
-    <t>25  10M25D</t>
-  </si>
-  <si>
-    <t>515  1M20D</t>
-  </si>
-  <si>
     <t>187  1M28D</t>
   </si>
   <si>
+    <t>129  -0M21D</t>
+  </si>
+  <si>
+    <t>249  3M5D</t>
+  </si>
+  <si>
     <t>2081  1M28D</t>
   </si>
   <si>
-    <t>249  3M5D</t>
-  </si>
-  <si>
     <t>127  2M1D</t>
   </si>
   <si>
     <t>1660  1M20D</t>
   </si>
   <si>
-    <t>129  -0M21D</t>
-  </si>
-  <si>
     <t>133  3M8D</t>
   </si>
   <si>
     <t>435  2M4D</t>
   </si>
   <si>
+    <t>354  1M24D</t>
+  </si>
+  <si>
     <t>75  1M26D</t>
   </si>
   <si>
-    <t>354  1M24D</t>
-  </si>
-  <si>
     <t>243  -0M19D</t>
   </si>
   <si>
@@ -1246,27 +1246,27 @@
     <t>55  -0M20D</t>
   </si>
   <si>
+    <t>417  -1M1D</t>
+  </si>
+  <si>
+    <t>1998  -0M28D</t>
+  </si>
+  <si>
     <t>915  2M0D</t>
   </si>
   <si>
-    <t>417  -1M1D</t>
-  </si>
-  <si>
     <t>1729  1M8D</t>
   </si>
   <si>
     <t>1390  6M6D</t>
   </si>
   <si>
-    <t>1998  -0M28D</t>
+    <t>501  2M7D</t>
   </si>
   <si>
     <t>444  -0M13D</t>
   </si>
   <si>
-    <t>501  2M7D</t>
-  </si>
-  <si>
     <t>504  3M16D</t>
   </si>
   <si>
@@ -1285,18 +1285,18 @@
     <t>97  8M12D</t>
   </si>
   <si>
+    <t>195  2M0D</t>
+  </si>
+  <si>
+    <t>135  3M14D</t>
+  </si>
+  <si>
     <t>1031  -0M23D</t>
   </si>
   <si>
     <t>344  -0M19D</t>
   </si>
   <si>
-    <t>195  2M0D</t>
-  </si>
-  <si>
-    <t>135  3M14D</t>
-  </si>
-  <si>
     <t>2610  4M19D</t>
   </si>
   <si>
@@ -1318,13 +1318,16 @@
     <t>779  1M22D</t>
   </si>
   <si>
+    <t>6375  1M19D</t>
+  </si>
+  <si>
     <t>1231  1M10D</t>
   </si>
   <si>
     <t>7163  -0M25D</t>
   </si>
   <si>
-    <t>6375  1M19D</t>
+    <t>690  -0M27D</t>
   </si>
   <si>
     <t>276  3M10D</t>
@@ -1333,24 +1336,21 @@
     <t>3224  2M4D</t>
   </si>
   <si>
-    <t>690  -0M27D</t>
-  </si>
-  <si>
     <t>21  10M18D</t>
   </si>
   <si>
     <t>322  3M10D</t>
   </si>
   <si>
+    <t>94  2M8D</t>
+  </si>
+  <si>
     <t>47  1M21D</t>
   </si>
   <si>
     <t>32  1M29D</t>
   </si>
   <si>
-    <t>94  2M8D</t>
-  </si>
-  <si>
     <t>22  1M22D</t>
   </si>
   <si>
@@ -1363,96 +1363,96 @@
     <t>1135  2M14D</t>
   </si>
   <si>
+    <t>322  3M15D</t>
+  </si>
+  <si>
+    <t>715  3M19D</t>
+  </si>
+  <si>
+    <t>1037  2M8D</t>
+  </si>
+  <si>
+    <t>730  2M9D</t>
+  </si>
+  <si>
+    <t>560  14M19D</t>
+  </si>
+  <si>
     <t>190  4M9D</t>
   </si>
   <si>
-    <t>1037  2M8D</t>
-  </si>
-  <si>
-    <t>560  14M19D</t>
-  </si>
-  <si>
-    <t>322  3M15D</t>
-  </si>
-  <si>
-    <t>730  2M9D</t>
-  </si>
-  <si>
-    <t>715  3M19D</t>
-  </si>
-  <si>
     <t>179  4M25D</t>
   </si>
   <si>
     <t>621  -0M28D</t>
   </si>
   <si>
+    <t>39  5M19D</t>
+  </si>
+  <si>
+    <t>995  2M6D</t>
+  </si>
+  <si>
     <t>1479  1M24D</t>
   </si>
   <si>
-    <t>39  5M19D</t>
-  </si>
-  <si>
-    <t>995  2M6D</t>
+    <t>52  9M25D</t>
   </si>
   <si>
     <t>302  2M4D</t>
   </si>
   <si>
-    <t>52  9M25D</t>
-  </si>
-  <si>
     <t>114  -0M28D</t>
   </si>
   <si>
+    <t>111  8M25D</t>
+  </si>
+  <si>
+    <t>8  -0M4D</t>
+  </si>
+  <si>
+    <t>857  4M12D</t>
+  </si>
+  <si>
+    <t>1  -0M4D</t>
+  </si>
+  <si>
+    <t>7  -1M3D</t>
+  </si>
+  <si>
     <t>516  -0M11D</t>
   </si>
   <si>
-    <t>8  -0M4D</t>
-  </si>
-  <si>
-    <t>7  -1M3D</t>
-  </si>
-  <si>
-    <t>111  8M25D</t>
-  </si>
-  <si>
-    <t>1  -0M4D</t>
-  </si>
-  <si>
-    <t>857  4M12D</t>
-  </si>
-  <si>
     <t>208  2M13D</t>
   </si>
   <si>
+    <t>38  -0M12D</t>
+  </si>
+  <si>
+    <t>232  -0M29D</t>
+  </si>
+  <si>
     <t>2426  1M21D</t>
   </si>
   <si>
-    <t>232  -0M29D</t>
-  </si>
-  <si>
     <t>129  2M29D</t>
   </si>
   <si>
     <t>1194  1M27D</t>
   </si>
   <si>
-    <t>38  -0M12D</t>
-  </si>
-  <si>
     <t>24  -0M19D</t>
   </si>
   <si>
     <t>425  4M2D</t>
   </si>
   <si>
+    <t>230  6M21D</t>
+  </si>
+  <si>
     <t>134  27M2D</t>
   </si>
   <si>
-    <t>230  6M21D</t>
-  </si>
-  <si>
     <t>343  18M7D</t>
   </si>
   <si>
@@ -1480,27 +1480,27 @@
     <t>76  -0M28D</t>
   </si>
   <si>
+    <t>419  1M17D</t>
+  </si>
+  <si>
+    <t>5636  1M28D</t>
+  </si>
+  <si>
     <t>1821  2M20D</t>
   </si>
   <si>
-    <t>419  1M17D</t>
-  </si>
-  <si>
     <t>2110  1M5D</t>
   </si>
   <si>
     <t>1483  4M13D</t>
   </si>
   <si>
-    <t>5636  1M28D</t>
+    <t>216  2M9D</t>
   </si>
   <si>
     <t>106  1M6D</t>
   </si>
   <si>
-    <t>216  2M9D</t>
-  </si>
-  <si>
     <t>258  2M14D</t>
   </si>
   <si>
@@ -1519,18 +1519,18 @@
     <t>113  3M5D</t>
   </si>
   <si>
+    <t>194  1M23D</t>
+  </si>
+  <si>
+    <t>160  4M2D</t>
+  </si>
+  <si>
     <t>1310  1M7D</t>
   </si>
   <si>
     <t>402  -0M14D</t>
   </si>
   <si>
-    <t>194  1M23D</t>
-  </si>
-  <si>
-    <t>160  4M2D</t>
-  </si>
-  <si>
     <t>2611  3M6D</t>
   </si>
   <si>
@@ -1552,13 +1552,16 @@
     <t>851  1M24D</t>
   </si>
   <si>
+    <t>4369  -1M2D</t>
+  </si>
+  <si>
     <t>985  7M0D</t>
   </si>
   <si>
     <t>10096  1M13D</t>
   </si>
   <si>
-    <t>4369  -1M2D</t>
+    <t>2253  6M23D</t>
   </si>
   <si>
     <t>257  2M18D</t>
@@ -1567,24 +1570,21 @@
     <t>2731  4M7D</t>
   </si>
   <si>
-    <t>2253  6M23D</t>
-  </si>
-  <si>
     <t>30  1M28D</t>
   </si>
   <si>
     <t>158  2M22D</t>
   </si>
   <si>
+    <t>128  1M24D</t>
+  </si>
+  <si>
     <t>76  2M23D</t>
   </si>
   <si>
     <t>109  3M8D</t>
   </si>
   <si>
-    <t>128  1M24D</t>
-  </si>
-  <si>
     <t>62  18M24D</t>
   </si>
   <si>
@@ -1594,87 +1594,87 @@
     <t>365  -0M16D</t>
   </si>
   <si>
+    <t>359  1M23D</t>
+  </si>
+  <si>
+    <t>308  1M17D</t>
+  </si>
+  <si>
+    <t>974  1M20D</t>
+  </si>
+  <si>
+    <t>477  -0M27D</t>
+  </si>
+  <si>
+    <t>388  4M2D</t>
+  </si>
+  <si>
     <t>178  7M5D</t>
   </si>
   <si>
-    <t>974  1M20D</t>
-  </si>
-  <si>
-    <t>388  4M2D</t>
-  </si>
-  <si>
-    <t>359  1M23D</t>
-  </si>
-  <si>
-    <t>477  -0M27D</t>
-  </si>
-  <si>
-    <t>308  1M17D</t>
-  </si>
-  <si>
     <t>68  3M1D</t>
   </si>
   <si>
     <t>836  4M15D</t>
   </si>
   <si>
+    <t>755  -0M14D</t>
+  </si>
+  <si>
     <t>2580  1M6D</t>
   </si>
   <si>
-    <t>755  -0M14D</t>
+    <t>32  -0M20D</t>
   </si>
   <si>
     <t>569  1M28D</t>
   </si>
   <si>
-    <t>32  -0M20D</t>
-  </si>
-  <si>
     <t>216  2M22D</t>
   </si>
   <si>
+    <t>123  5M19D</t>
+  </si>
+  <si>
+    <t>656  2M7D</t>
+  </si>
+  <si>
+    <t>31  1M26D</t>
+  </si>
+  <si>
     <t>35  13M8D</t>
   </si>
   <si>
-    <t>123  5M19D</t>
-  </si>
-  <si>
-    <t>31  1M26D</t>
-  </si>
-  <si>
-    <t>656  2M7D</t>
-  </si>
-  <si>
     <t>229  1M18D</t>
   </si>
   <si>
+    <t>94  1M23D</t>
+  </si>
+  <si>
+    <t>218  2M24D</t>
+  </si>
+  <si>
     <t>952  2M27D</t>
   </si>
   <si>
-    <t>218  2M24D</t>
-  </si>
-  <si>
     <t>109  2M3D</t>
   </si>
   <si>
     <t>1860  2M7D</t>
   </si>
   <si>
-    <t>94  1M23D</t>
-  </si>
-  <si>
     <t>117  6M10D</t>
   </si>
   <si>
     <t>505  2M23D</t>
   </si>
   <si>
+    <t>334  1M16D</t>
+  </si>
+  <si>
     <t>40  -1M0D</t>
   </si>
   <si>
-    <t>334  1M16D</t>
-  </si>
-  <si>
     <t>251  3M27D</t>
   </si>
   <si>
@@ -1705,27 +1705,27 @@
     <t>67  3M16D</t>
   </si>
   <si>
+    <t>477  1M25D</t>
+  </si>
+  <si>
+    <t>10207  2M21D</t>
+  </si>
+  <si>
     <t>1398  2M4D</t>
   </si>
   <si>
-    <t>477  1M25D</t>
-  </si>
-  <si>
     <t>1214  -0M23D</t>
   </si>
   <si>
     <t>668  1M28D</t>
   </si>
   <si>
-    <t>10207  2M21D</t>
+    <t>148  -1M2D</t>
   </si>
   <si>
     <t>287  -0M26D</t>
   </si>
   <si>
-    <t>148  -1M2D</t>
-  </si>
-  <si>
     <t>164  2M19D</t>
   </si>
   <si>
@@ -1744,18 +1744,18 @@
     <t>81  5M6D</t>
   </si>
   <si>
+    <t>286  1M28D</t>
+  </si>
+  <si>
+    <t>133  2M25D</t>
+  </si>
+  <si>
     <t>748  -0M18D</t>
   </si>
   <si>
     <t>571  -0M23D</t>
   </si>
   <si>
-    <t>286  1M28D</t>
-  </si>
-  <si>
-    <t>133  2M25D</t>
-  </si>
-  <si>
     <t>2854  6M11D</t>
   </si>
   <si>
@@ -1777,13 +1777,16 @@
     <t>632  -1M4D</t>
   </si>
   <si>
+    <t>5563  1M8D</t>
+  </si>
+  <si>
     <t>1301  1M13D</t>
   </si>
   <si>
     <t>6225  -1M1D</t>
   </si>
   <si>
-    <t>5563  1M8D</t>
+    <t>2038  5M27D</t>
   </si>
   <si>
     <t>287  3M12D</t>
@@ -1792,21 +1795,18 @@
     <t>3012  4M12D</t>
   </si>
   <si>
-    <t>2038  5M27D</t>
-  </si>
-  <si>
     <t>106  6M2D</t>
   </si>
   <si>
+    <t>259  1M25D</t>
+  </si>
+  <si>
     <t>143  7M10D</t>
   </si>
   <si>
     <t>117  2M21D</t>
   </si>
   <si>
-    <t>259  1M25D</t>
-  </si>
-  <si>
     <t>67  11M8D</t>
   </si>
   <si>
@@ -1816,84 +1816,84 @@
     <t>523  -0M29D</t>
   </si>
   <si>
+    <t>326  2M4D</t>
+  </si>
+  <si>
+    <t>535  2M24D</t>
+  </si>
+  <si>
+    <t>1024  1M25D</t>
+  </si>
+  <si>
+    <t>464  -0M28D</t>
+  </si>
+  <si>
+    <t>514  2M21D</t>
+  </si>
+  <si>
     <t>190  5M3D</t>
   </si>
   <si>
-    <t>1024  1M25D</t>
-  </si>
-  <si>
-    <t>514  2M21D</t>
-  </si>
-  <si>
-    <t>326  2M4D</t>
-  </si>
-  <si>
-    <t>464  -0M28D</t>
-  </si>
-  <si>
-    <t>535  2M24D</t>
-  </si>
-  <si>
     <t>100  1M5D</t>
   </si>
   <si>
     <t>1046  8M2D</t>
   </si>
   <si>
+    <t>23  -0M19D</t>
+  </si>
+  <si>
+    <t>1110  -0M21D</t>
+  </si>
+  <si>
     <t>2153  1M11D</t>
   </si>
   <si>
-    <t>23  -0M19D</t>
-  </si>
-  <si>
-    <t>1110  -0M21D</t>
+    <t>9  -0M22D</t>
   </si>
   <si>
     <t>328  -1M2D</t>
   </si>
   <si>
-    <t>9  -0M22D</t>
-  </si>
-  <si>
     <t>214  2M28D</t>
   </si>
   <si>
+    <t>53  4M10D</t>
+  </si>
+  <si>
+    <t>44  -1M2D</t>
+  </si>
+  <si>
+    <t>846  4M23D</t>
+  </si>
+  <si>
+    <t>13  4M11D</t>
+  </si>
+  <si>
     <t>1403  2M5D</t>
   </si>
   <si>
-    <t>44  -1M2D</t>
-  </si>
-  <si>
-    <t>13  4M11D</t>
-  </si>
-  <si>
-    <t>53  4M10D</t>
-  </si>
-  <si>
-    <t>846  4M23D</t>
+    <t>162  -0M25D</t>
   </si>
   <si>
     <t>1  -0M5D</t>
   </si>
   <si>
-    <t>162  -0M25D</t>
+    <t>109  3M28D</t>
+  </si>
+  <si>
+    <t>364  8M12D</t>
   </si>
   <si>
     <t>2030  5M19D</t>
   </si>
   <si>
-    <t>364  8M12D</t>
-  </si>
-  <si>
     <t>130  5M12D</t>
   </si>
   <si>
     <t>1217  2M22D</t>
   </si>
   <si>
-    <t>109  3M28D</t>
-  </si>
-  <si>
     <t>39  -0M17D</t>
   </si>
   <si>
@@ -1933,27 +1933,27 @@
     <t>290  5M7D</t>
   </si>
   <si>
+    <t>469  1M26D</t>
+  </si>
+  <si>
+    <t>5572  1M25D</t>
+  </si>
+  <si>
     <t>1318  1M27D</t>
   </si>
   <si>
-    <t>469  1M26D</t>
-  </si>
-  <si>
     <t>1438  1M6D</t>
   </si>
   <si>
     <t>1909  8M20D</t>
   </si>
   <si>
-    <t>5572  1M25D</t>
+    <t>145  3M22D</t>
   </si>
   <si>
     <t>232  10M5D</t>
   </si>
   <si>
-    <t>145  3M22D</t>
-  </si>
-  <si>
     <t>313  1M20D</t>
   </si>
   <si>
@@ -1972,18 +1972,18 @@
     <t>95  3M8D</t>
   </si>
   <si>
+    <t>220  6M16D</t>
+  </si>
+  <si>
+    <t>128  4M12D</t>
+  </si>
+  <si>
     <t>914  -1M1D</t>
   </si>
   <si>
     <t>451  -1M3D</t>
   </si>
   <si>
-    <t>220  6M16D</t>
-  </si>
-  <si>
-    <t>128  4M12D</t>
-  </si>
-  <si>
     <t>3223  1M26D</t>
   </si>
   <si>
@@ -2005,13 +2005,16 @@
     <t>826  3M7D</t>
   </si>
   <si>
+    <t>5969  2M3D</t>
+  </si>
+  <si>
     <t>1411  6M13D</t>
   </si>
   <si>
     <t>4503  -0M25D</t>
   </si>
   <si>
-    <t>5969  2M3D</t>
+    <t>1085  2M18D</t>
   </si>
   <si>
     <t>875  4M6D</t>
@@ -2020,21 +2023,18 @@
     <t>3570  1M24D</t>
   </si>
   <si>
-    <t>1085  2M18D</t>
-  </si>
-  <si>
     <t>9  1M10D</t>
   </si>
   <si>
     <t>126  2M5D</t>
   </si>
   <si>
+    <t>102  4M20D</t>
+  </si>
+  <si>
     <t>99  1M19D</t>
   </si>
   <si>
-    <t>102  4M20D</t>
-  </si>
-  <si>
     <t>39  3M17D</t>
   </si>
   <si>
@@ -2047,96 +2047,96 @@
     <t>471  -0M17D</t>
   </si>
   <si>
+    <t>334  2M28D</t>
+  </si>
+  <si>
+    <t>183  -0M22D</t>
+  </si>
+  <si>
+    <t>1195  1M20D</t>
+  </si>
+  <si>
+    <t>1104  2M2D</t>
+  </si>
+  <si>
+    <t>644  1M19D</t>
+  </si>
+  <si>
     <t>119  1M29D</t>
   </si>
   <si>
-    <t>1195  1M20D</t>
-  </si>
-  <si>
-    <t>644  1M19D</t>
-  </si>
-  <si>
-    <t>334  2M28D</t>
-  </si>
-  <si>
-    <t>1104  2M2D</t>
-  </si>
-  <si>
-    <t>183  -0M22D</t>
-  </si>
-  <si>
     <t>30  -0M23D</t>
   </si>
   <si>
     <t>178  -0M21D</t>
   </si>
   <si>
+    <t>38  2M4D</t>
+  </si>
+  <si>
+    <t>724  -0M27D</t>
+  </si>
+  <si>
     <t>2386  3M0D</t>
   </si>
   <si>
-    <t>38  2M4D</t>
-  </si>
-  <si>
-    <t>724  -0M27D</t>
+    <t>103  4M22D</t>
   </si>
   <si>
     <t>723  2M19D</t>
   </si>
   <si>
-    <t>103  4M22D</t>
-  </si>
-  <si>
     <t>150  -0M26D</t>
   </si>
   <si>
+    <t>36  6M2D</t>
+  </si>
+  <si>
+    <t>3  -0M2D</t>
+  </si>
+  <si>
+    <t>512  2M5D</t>
+  </si>
+  <si>
+    <t>23  4M3D</t>
+  </si>
+  <si>
+    <t>27  2M4D</t>
+  </si>
+  <si>
     <t>587  1M15D</t>
   </si>
   <si>
-    <t>3  -0M2D</t>
-  </si>
-  <si>
-    <t>27  2M4D</t>
-  </si>
-  <si>
-    <t>36  6M2D</t>
-  </si>
-  <si>
-    <t>23  4M3D</t>
-  </si>
-  <si>
-    <t>512  2M5D</t>
-  </si>
-  <si>
     <t>346  3M20D</t>
   </si>
   <si>
+    <t>187  -1M2D</t>
+  </si>
+  <si>
+    <t>214  -1M3D</t>
+  </si>
+  <si>
     <t>3551  1M17D</t>
   </si>
   <si>
-    <t>214  -1M3D</t>
-  </si>
-  <si>
     <t>153  1M25D</t>
   </si>
   <si>
     <t>2709  -0M23D</t>
   </si>
   <si>
-    <t>187  -1M2D</t>
-  </si>
-  <si>
     <t>50  2M7D</t>
   </si>
   <si>
     <t>495  4M2D</t>
   </si>
   <si>
+    <t>467  2M9D</t>
+  </si>
+  <si>
     <t>10  -0M5D</t>
   </si>
   <si>
-    <t>467  2M9D</t>
-  </si>
-  <si>
     <t>172  2M4D</t>
   </si>
   <si>
@@ -2164,27 +2164,27 @@
     <t>172  -0M18D</t>
   </si>
   <si>
+    <t>433  5M0D</t>
+  </si>
+  <si>
+    <t>2195  1M8D</t>
+  </si>
+  <si>
     <t>1169  8M9D</t>
   </si>
   <si>
-    <t>433  5M0D</t>
-  </si>
-  <si>
     <t>2442  2M18D</t>
   </si>
   <si>
     <t>1524  1M13D</t>
   </si>
   <si>
-    <t>2195  1M8D</t>
+    <t>157  4M5D</t>
   </si>
   <si>
     <t>191  27M17D</t>
   </si>
   <si>
-    <t>157  4M5D</t>
-  </si>
-  <si>
     <t>181  13M11D</t>
   </si>
   <si>
@@ -2203,18 +2203,18 @@
     <t>177  3M21D</t>
   </si>
   <si>
+    <t>134  1M15D</t>
+  </si>
+  <si>
+    <t>132  1M20D</t>
+  </si>
+  <si>
     <t>582  -0M15D</t>
   </si>
   <si>
     <t>273  -0M15D</t>
   </si>
   <si>
-    <t>134  1M15D</t>
-  </si>
-  <si>
-    <t>132  1M20D</t>
-  </si>
-  <si>
     <t>3320  7M2D</t>
   </si>
   <si>
@@ -2236,13 +2236,16 @@
     <t>282  1M5D</t>
   </si>
   <si>
+    <t>5148  1M29D</t>
+  </si>
+  <si>
     <t>1154  5M22D</t>
   </si>
   <si>
     <t>5421  -1M3D</t>
   </si>
   <si>
-    <t>5148  1M29D</t>
+    <t>1801  2M1D</t>
   </si>
   <si>
     <t>453  4M6D</t>
@@ -2251,24 +2254,21 @@
     <t>4331  5M2D</t>
   </si>
   <si>
-    <t>1801  2M1D</t>
-  </si>
-  <si>
     <t>27  27M9D</t>
   </si>
   <si>
     <t>165  4M12D</t>
   </si>
   <si>
+    <t>98  9M0D</t>
+  </si>
+  <si>
     <t>73  5M4D</t>
   </si>
   <si>
     <t>72  5M6D</t>
   </si>
   <si>
-    <t>98  9M0D</t>
-  </si>
-  <si>
     <t>54  20M14D</t>
   </si>
   <si>
@@ -2281,96 +2281,96 @@
     <t>999  1M14D</t>
   </si>
   <si>
+    <t>363  1M16D</t>
+  </si>
+  <si>
+    <t>344  2M10D</t>
+  </si>
+  <si>
+    <t>1183  2M26D</t>
+  </si>
+  <si>
+    <t>721  1M17D</t>
+  </si>
+  <si>
+    <t>412  2M18D</t>
+  </si>
+  <si>
     <t>82  2M16D</t>
   </si>
   <si>
-    <t>1183  2M26D</t>
-  </si>
-  <si>
-    <t>412  2M18D</t>
-  </si>
-  <si>
-    <t>363  1M16D</t>
-  </si>
-  <si>
-    <t>721  1M17D</t>
-  </si>
-  <si>
-    <t>344  2M10D</t>
-  </si>
-  <si>
     <t>55  2M15D</t>
   </si>
   <si>
     <t>474  1M14D</t>
   </si>
   <si>
+    <t>36  -1M3D</t>
+  </si>
+  <si>
+    <t>684  -0M22D</t>
+  </si>
+  <si>
     <t>3249  3M29D</t>
   </si>
   <si>
-    <t>36  -1M3D</t>
-  </si>
-  <si>
-    <t>684  -0M22D</t>
+    <t>49  3M2D</t>
   </si>
   <si>
     <t>807  3M28D</t>
   </si>
   <si>
-    <t>49  3M2D</t>
-  </si>
-  <si>
     <t>79  1M23D</t>
   </si>
   <si>
+    <t>76  20M28D</t>
+  </si>
+  <si>
+    <t>40  1M23D</t>
+  </si>
+  <si>
+    <t>487  3M28D</t>
+  </si>
+  <si>
+    <t>1  -0M8D</t>
+  </si>
+  <si>
+    <t>8  3M14D</t>
+  </si>
+  <si>
     <t>1618  1M16D</t>
   </si>
   <si>
-    <t>40  1M23D</t>
-  </si>
-  <si>
-    <t>8  3M14D</t>
-  </si>
-  <si>
-    <t>76  20M28D</t>
-  </si>
-  <si>
-    <t>1  -0M8D</t>
-  </si>
-  <si>
-    <t>487  3M28D</t>
-  </si>
-  <si>
     <t>468  5M6D</t>
   </si>
   <si>
+    <t>178  9M24D</t>
+  </si>
+  <si>
+    <t>83  1M20D</t>
+  </si>
+  <si>
     <t>1400  4M11D</t>
   </si>
   <si>
-    <t>83  1M20D</t>
-  </si>
-  <si>
     <t>127  4M12D</t>
   </si>
   <si>
     <t>2548  7M1D</t>
   </si>
   <si>
-    <t>178  9M24D</t>
-  </si>
-  <si>
     <t>81  1M26D</t>
   </si>
   <si>
     <t>929  3M18D</t>
   </si>
   <si>
+    <t>517  2M25D</t>
+  </si>
+  <si>
     <t>138  5M19D</t>
   </si>
   <si>
-    <t>517  2M25D</t>
-  </si>
-  <si>
     <t>466  9M28D</t>
   </si>
   <si>
@@ -2401,27 +2401,27 @@
     <t>205  5M10D</t>
   </si>
   <si>
+    <t>414  5M18D</t>
+  </si>
+  <si>
+    <t>2086  -0M28D</t>
+  </si>
+  <si>
     <t>1096  3M4D</t>
   </si>
   <si>
-    <t>414  5M18D</t>
-  </si>
-  <si>
     <t>2683  2M3D</t>
   </si>
   <si>
     <t>1433  4M18D</t>
   </si>
   <si>
-    <t>2086  -0M28D</t>
+    <t>187  3M29D</t>
   </si>
   <si>
     <t>172  23M21D</t>
   </si>
   <si>
-    <t>187  3M29D</t>
-  </si>
-  <si>
     <t>140  2M24D</t>
   </si>
   <si>
@@ -2440,18 +2440,18 @@
     <t>71  4M14D</t>
   </si>
   <si>
+    <t>273  3M20D</t>
+  </si>
+  <si>
+    <t>330  2M14D</t>
+  </si>
+  <si>
     <t>56  -0M1D</t>
   </si>
   <si>
     <t>101  -0M4D</t>
   </si>
   <si>
-    <t>273  3M20D</t>
-  </si>
-  <si>
-    <t>330  2M14D</t>
-  </si>
-  <si>
     <t>1906  3M21D</t>
   </si>
   <si>
@@ -2473,13 +2473,16 @@
     <t>197  -0M10D</t>
   </si>
   <si>
+    <t>8327  1M11D</t>
+  </si>
+  <si>
     <t>798  5M27D</t>
   </si>
   <si>
     <t>5567  -0M23D</t>
   </si>
   <si>
-    <t>8327  1M11D</t>
+    <t>10120  3M26D</t>
   </si>
   <si>
     <t>155  -0M14D</t>
@@ -2488,24 +2491,21 @@
     <t>4834  2M22D</t>
   </si>
   <si>
-    <t>10120  3M26D</t>
-  </si>
-  <si>
     <t>55  13M27D</t>
   </si>
   <si>
     <t>126  1M27D</t>
   </si>
   <si>
+    <t>96  2M1D</t>
+  </si>
+  <si>
     <t>141  2M11D</t>
   </si>
   <si>
     <t>98  1M7D</t>
   </si>
   <si>
-    <t>96  2M1D</t>
-  </si>
-  <si>
     <t>51  15M14D</t>
   </si>
   <si>
@@ -2518,87 +2518,87 @@
     <t>459  -0M13D</t>
   </si>
   <si>
+    <t>352  -0M29D</t>
+  </si>
+  <si>
+    <t>996  -0M29D</t>
+  </si>
+  <si>
+    <t>1582  1M15D</t>
+  </si>
+  <si>
+    <t>706  1M15D</t>
+  </si>
+  <si>
     <t>74  2M1D</t>
   </si>
   <si>
-    <t>996  -0M29D</t>
-  </si>
-  <si>
-    <t>706  1M15D</t>
-  </si>
-  <si>
-    <t>352  -0M29D</t>
-  </si>
-  <si>
-    <t>1582  1M15D</t>
-  </si>
-  <si>
     <t>51  1M29D</t>
   </si>
   <si>
     <t>266  -0M19D</t>
   </si>
   <si>
+    <t>44  6M2D</t>
+  </si>
+  <si>
+    <t>764  -0M17D</t>
+  </si>
+  <si>
     <t>3288  3M0D</t>
   </si>
   <si>
-    <t>44  6M2D</t>
-  </si>
-  <si>
-    <t>764  -0M17D</t>
-  </si>
-  <si>
     <t>352  1M21D</t>
   </si>
   <si>
     <t>41  -0M6D</t>
   </si>
   <si>
+    <t>92  4M10D</t>
+  </si>
+  <si>
     <t>3  -0M0D</t>
   </si>
   <si>
+    <t>571  1M10D</t>
+  </si>
+  <si>
+    <t>16  6M2D</t>
+  </si>
+  <si>
     <t>12  1M27D</t>
   </si>
   <si>
-    <t>92  4M10D</t>
-  </si>
-  <si>
-    <t>16  6M2D</t>
-  </si>
-  <si>
-    <t>571  1M10D</t>
-  </si>
-  <si>
     <t>227  2M10D</t>
   </si>
   <si>
+    <t>102  3M8D</t>
+  </si>
+  <si>
+    <t>14  -0M3D</t>
+  </si>
+  <si>
     <t>905  1M11D</t>
   </si>
   <si>
-    <t>14  -0M3D</t>
-  </si>
-  <si>
     <t>98  2M13D</t>
   </si>
   <si>
     <t>1120  1M13D</t>
   </si>
   <si>
-    <t>102  3M8D</t>
-  </si>
-  <si>
     <t>78  2M10D</t>
   </si>
   <si>
     <t>630  5M11D</t>
   </si>
   <si>
+    <t>521  1M22D</t>
+  </si>
+  <si>
     <t>161  3M14D</t>
   </si>
   <si>
-    <t>521  1M22D</t>
-  </si>
-  <si>
     <t>331  8M17D</t>
   </si>
   <si>
@@ -2629,27 +2629,27 @@
     <t>188  1M18D</t>
   </si>
   <si>
+    <t>599  2M2D</t>
+  </si>
+  <si>
+    <t>2143  -0M21D</t>
+  </si>
+  <si>
     <t>927  2M22D</t>
   </si>
   <si>
-    <t>599  2M2D</t>
-  </si>
-  <si>
     <t>2458  1M18D</t>
   </si>
   <si>
     <t>1148  2M4D</t>
   </si>
   <si>
-    <t>2143  -0M21D</t>
+    <t>300  10M13D</t>
   </si>
   <si>
     <t>139  9M11D</t>
   </si>
   <si>
-    <t>300  10M13D</t>
-  </si>
-  <si>
     <t>65  3M25D</t>
   </si>
   <si>
@@ -2668,18 +2668,18 @@
     <t>38  6M23D</t>
   </si>
   <si>
+    <t>162  3M5D</t>
+  </si>
+  <si>
+    <t>96  1M7D</t>
+  </si>
+  <si>
     <t>940  -0M19D</t>
   </si>
   <si>
     <t>272  -0M14D</t>
   </si>
   <si>
-    <t>162  3M5D</t>
-  </si>
-  <si>
-    <t>96  1M7D</t>
-  </si>
-  <si>
     <t>2178  4M13D</t>
   </si>
   <si>
@@ -2701,13 +2701,16 @@
     <t>416  3M2D</t>
   </si>
   <si>
+    <t>3335  1M8D</t>
+  </si>
+  <si>
     <t>564  1M15D</t>
   </si>
   <si>
     <t>3821  -1M0D</t>
   </si>
   <si>
-    <t>3335  1M8D</t>
+    <t>3124  16M5D</t>
   </si>
   <si>
     <t>378  2M23D</t>
@@ -2716,24 +2719,21 @@
     <t>1201  1M18D</t>
   </si>
   <si>
-    <t>3124  16M5D</t>
-  </si>
-  <si>
     <t>1  -0M7D</t>
   </si>
   <si>
     <t>125  3M11D</t>
   </si>
   <si>
+    <t>56  -1M3D</t>
+  </si>
+  <si>
     <t>111  -1M4D</t>
   </si>
   <si>
     <t>67  1M5D</t>
   </si>
   <si>
-    <t>56  -1M3D</t>
-  </si>
-  <si>
     <t>34  7M11D</t>
   </si>
   <si>
@@ -2746,96 +2746,96 @@
     <t>586  -0M20D</t>
   </si>
   <si>
+    <t>106  -0M24D</t>
+  </si>
+  <si>
+    <t>442  2M18D</t>
+  </si>
+  <si>
+    <t>799  -1M3D</t>
+  </si>
+  <si>
+    <t>1237  1M28D</t>
+  </si>
+  <si>
+    <t>986  2M6D</t>
+  </si>
+  <si>
     <t>59  1M14D</t>
   </si>
   <si>
-    <t>799  -1M3D</t>
-  </si>
-  <si>
-    <t>986  2M6D</t>
-  </si>
-  <si>
-    <t>106  -0M24D</t>
-  </si>
-  <si>
-    <t>1237  1M28D</t>
-  </si>
-  <si>
-    <t>442  2M18D</t>
-  </si>
-  <si>
     <t>56  1M12D</t>
   </si>
   <si>
     <t>57  -0M4D</t>
   </si>
   <si>
+    <t>18  -1M2D</t>
+  </si>
+  <si>
+    <t>1257  -1M2D</t>
+  </si>
+  <si>
     <t>2366  2M5D</t>
   </si>
   <si>
-    <t>18  -1M2D</t>
-  </si>
-  <si>
-    <t>1257  -1M2D</t>
+    <t>33  1M25D</t>
   </si>
   <si>
     <t>979  2M17D</t>
   </si>
   <si>
-    <t>33  1M25D</t>
-  </si>
-  <si>
     <t>121  3M2D</t>
   </si>
   <si>
+    <t>34  3M16D</t>
+  </si>
+  <si>
+    <t>2  -0M0D</t>
+  </si>
+  <si>
+    <t>354  1M5D</t>
+  </si>
+  <si>
+    <t>29  3M11D</t>
+  </si>
+  <si>
+    <t>45  5M20D</t>
+  </si>
+  <si>
     <t>445  -0M12D</t>
   </si>
   <si>
-    <t>2  -0M0D</t>
-  </si>
-  <si>
-    <t>45  5M20D</t>
-  </si>
-  <si>
-    <t>34  3M16D</t>
-  </si>
-  <si>
-    <t>29  3M11D</t>
-  </si>
-  <si>
-    <t>354  1M5D</t>
-  </si>
-  <si>
     <t>402  3M19D</t>
   </si>
   <si>
+    <t>127  3M7D</t>
+  </si>
+  <si>
+    <t>188  3M2D</t>
+  </si>
+  <si>
     <t>1345  4M12D</t>
   </si>
   <si>
-    <t>188  3M2D</t>
-  </si>
-  <si>
     <t>107  3M24D</t>
   </si>
   <si>
     <t>865  1M27D</t>
   </si>
   <si>
-    <t>127  3M7D</t>
-  </si>
-  <si>
     <t>146  6M15D</t>
   </si>
   <si>
     <t>454  3M27D</t>
   </si>
   <si>
+    <t>178  1M6D</t>
+  </si>
+  <si>
     <t>152  4M25D</t>
   </si>
   <si>
-    <t>178  1M6D</t>
-  </si>
-  <si>
     <t>346  10M5D</t>
   </si>
   <si>
@@ -2866,27 +2866,27 @@
     <t>984  2M4D</t>
   </si>
   <si>
+    <t>412  3M5D</t>
+  </si>
+  <si>
+    <t>1898  -1M1D</t>
+  </si>
+  <si>
     <t>1171  6M7D</t>
   </si>
   <si>
-    <t>412  3M5D</t>
-  </si>
-  <si>
     <t>1776  1M23D</t>
   </si>
   <si>
     <t>1405  2M25D</t>
   </si>
   <si>
-    <t>1898  -1M1D</t>
+    <t>258  3M14D</t>
   </si>
   <si>
     <t>314  -0M25D</t>
   </si>
   <si>
-    <t>258  3M14D</t>
-  </si>
-  <si>
     <t>175  1M9D</t>
   </si>
   <si>
@@ -2905,18 +2905,18 @@
     <t>104  3M0D</t>
   </si>
   <si>
+    <t>222  1M29D</t>
+  </si>
+  <si>
+    <t>118  -0M29D</t>
+  </si>
+  <si>
     <t>784  -0M17D</t>
   </si>
   <si>
     <t>277  -0M15D</t>
   </si>
   <si>
-    <t>222  1M29D</t>
-  </si>
-  <si>
-    <t>118  -0M29D</t>
-  </si>
-  <si>
     <t>2009  7M15D</t>
   </si>
   <si>
@@ -2938,13 +2938,16 @@
     <t>566  2M3D</t>
   </si>
   <si>
+    <t>6103  1M17D</t>
+  </si>
+  <si>
     <t>650  4M10D</t>
   </si>
   <si>
     <t>3220  -0M11D</t>
   </si>
   <si>
-    <t>6103  1M17D</t>
+    <t>4102  4M11D</t>
   </si>
   <si>
     <t>315  1M12D</t>
@@ -2953,24 +2956,21 @@
     <t>3335  2M14D</t>
   </si>
   <si>
-    <t>4102  4M11D</t>
-  </si>
-  <si>
     <t>26  4M4D</t>
   </si>
   <si>
     <t>105  2M10D</t>
   </si>
   <si>
+    <t>55  2M18D</t>
+  </si>
+  <si>
     <t>160  8M2D</t>
   </si>
   <si>
     <t>39  1M13D</t>
   </si>
   <si>
-    <t>55  2M18D</t>
-  </si>
-  <si>
     <t>50  15M5D</t>
   </si>
   <si>
@@ -2983,75 +2983,75 @@
     <t>722  -0M14D</t>
   </si>
   <si>
+    <t>181  -0M15D</t>
+  </si>
+  <si>
+    <t>294  -1M2D</t>
+  </si>
+  <si>
+    <t>1502  2M6D</t>
+  </si>
+  <si>
+    <t>553  -1M0D</t>
+  </si>
+  <si>
+    <t>561  1M27D</t>
+  </si>
+  <si>
     <t>131  3M19D</t>
   </si>
   <si>
-    <t>1502  2M6D</t>
-  </si>
-  <si>
-    <t>561  1M27D</t>
-  </si>
-  <si>
-    <t>181  -0M15D</t>
-  </si>
-  <si>
-    <t>553  -1M0D</t>
-  </si>
-  <si>
-    <t>294  -1M2D</t>
-  </si>
-  <si>
     <t>97  3M21D</t>
   </si>
   <si>
     <t>72  -0M5D</t>
   </si>
   <si>
+    <t>22  1M5D</t>
+  </si>
+  <si>
+    <t>715  -0M20D</t>
+  </si>
+  <si>
     <t>2008  1M6D</t>
   </si>
   <si>
-    <t>22  1M5D</t>
-  </si>
-  <si>
-    <t>715  -0M20D</t>
+    <t>70  6M2D</t>
   </si>
   <si>
     <t>709  2M21D</t>
   </si>
   <si>
-    <t>70  6M2D</t>
-  </si>
-  <si>
     <t>85  -0M21D</t>
   </si>
   <si>
+    <t>59  3M19D</t>
+  </si>
+  <si>
+    <t>51  -1M1D</t>
+  </si>
+  <si>
+    <t>516  2M5D</t>
+  </si>
+  <si>
+    <t>40  1M10D</t>
+  </si>
+  <si>
+    <t>29  43M29D</t>
+  </si>
+  <si>
     <t>22  -0M0D</t>
   </si>
   <si>
-    <t>51  -1M1D</t>
-  </si>
-  <si>
-    <t>29  43M29D</t>
-  </si>
-  <si>
-    <t>59  3M19D</t>
-  </si>
-  <si>
-    <t>40  1M10D</t>
-  </si>
-  <si>
-    <t>516  2M5D</t>
-  </si>
-  <si>
     <t>119  -1M2D</t>
   </si>
   <si>
+    <t>415  4M28D</t>
+  </si>
+  <si>
     <t>933  2M4D</t>
   </si>
   <si>
-    <t>415  4M28D</t>
-  </si>
-  <si>
     <t>113  3M7D</t>
   </si>
   <si>
@@ -3064,12 +3064,12 @@
     <t>475  2M6D</t>
   </si>
   <si>
+    <t>391  1M14D</t>
+  </si>
+  <si>
     <t>102  2M10D</t>
   </si>
   <si>
-    <t>391  1M14D</t>
-  </si>
-  <si>
     <t>136  -1M2D</t>
   </si>
   <si>
@@ -3100,27 +3100,27 @@
     <t>105  2M6D</t>
   </si>
   <si>
+    <t>313  -0M25D</t>
+  </si>
+  <si>
+    <t>1875  -0M19D</t>
+  </si>
+  <si>
     <t>928  2M6D</t>
   </si>
   <si>
-    <t>313  -0M25D</t>
-  </si>
-  <si>
     <t>2471  -0M26D</t>
   </si>
   <si>
     <t>1104  3M19D</t>
   </si>
   <si>
-    <t>1875  -0M19D</t>
+    <t>287  8M8D</t>
   </si>
   <si>
     <t>114  4M3D</t>
   </si>
   <si>
-    <t>287  8M8D</t>
-  </si>
-  <si>
     <t>214  5M28D</t>
   </si>
   <si>
@@ -3139,18 +3139,18 @@
     <t>126  3M17D</t>
   </si>
   <si>
+    <t>91  1M29D</t>
+  </si>
+  <si>
+    <t>166  2M6D</t>
+  </si>
+  <si>
     <t>504  -0M14D</t>
   </si>
   <si>
     <t>510  -0M26D</t>
   </si>
   <si>
-    <t>91  1M29D</t>
-  </si>
-  <si>
-    <t>166  2M6D</t>
-  </si>
-  <si>
     <t>3500  1M14D</t>
   </si>
   <si>
@@ -3172,13 +3172,16 @@
     <t>271  -0M23D</t>
   </si>
   <si>
+    <t>3218  -0M29D</t>
+  </si>
+  <si>
     <t>820  1M12D</t>
   </si>
   <si>
     <t>2861  -0M26D</t>
   </si>
   <si>
-    <t>3218  -0M29D</t>
+    <t>4279  1M21D</t>
   </si>
   <si>
     <t>251  1M7D</t>
@@ -3187,24 +3190,21 @@
     <t>2615  -0M18D</t>
   </si>
   <si>
-    <t>4279  1M21D</t>
-  </si>
-  <si>
     <t>32  3M26D</t>
   </si>
   <si>
     <t>129  1M29D</t>
   </si>
   <si>
+    <t>68  1M20D</t>
+  </si>
+  <si>
     <t>114  1M6D</t>
   </si>
   <si>
     <t>41  1M26D</t>
   </si>
   <si>
-    <t>68  1M20D</t>
-  </si>
-  <si>
     <t>31  3M7D</t>
   </si>
   <si>
@@ -3217,90 +3217,90 @@
     <t>672  -0M28D</t>
   </si>
   <si>
+    <t>242  -0M22D</t>
+  </si>
+  <si>
+    <t>88  -0M7D</t>
+  </si>
+  <si>
+    <t>829  -1M0D</t>
+  </si>
+  <si>
+    <t>1136  1M19D</t>
+  </si>
+  <si>
+    <t>702  1M15D</t>
+  </si>
+  <si>
     <t>130  3M15D</t>
   </si>
   <si>
-    <t>829  -1M0D</t>
-  </si>
-  <si>
-    <t>702  1M15D</t>
-  </si>
-  <si>
-    <t>242  -0M22D</t>
-  </si>
-  <si>
-    <t>1136  1M19D</t>
-  </si>
-  <si>
-    <t>88  -0M7D</t>
-  </si>
-  <si>
     <t>44  1M15D</t>
   </si>
   <si>
     <t>912  5M28D</t>
   </si>
   <si>
+    <t>7  -0M3D</t>
+  </si>
+  <si>
+    <t>885  -0M27D</t>
+  </si>
+  <si>
     <t>2187  1M27D</t>
   </si>
   <si>
-    <t>7  -0M3D</t>
-  </si>
-  <si>
-    <t>885  -0M27D</t>
-  </si>
-  <si>
     <t>447  2M9D</t>
   </si>
   <si>
     <t>200  1M17D</t>
   </si>
   <si>
+    <t>83  8M3D</t>
+  </si>
+  <si>
+    <t>5  -0M2D</t>
+  </si>
+  <si>
+    <t>5  -0M25D</t>
+  </si>
+  <si>
+    <t>67  5M24D</t>
+  </si>
+  <si>
     <t>1185  2M29D</t>
   </si>
   <si>
-    <t>5  -0M2D</t>
-  </si>
-  <si>
-    <t>67  5M24D</t>
-  </si>
-  <si>
-    <t>83  8M3D</t>
-  </si>
-  <si>
-    <t>5  -0M25D</t>
-  </si>
-  <si>
     <t>417  3M19D</t>
   </si>
   <si>
+    <t>139  7M8D</t>
+  </si>
+  <si>
+    <t>247  -1M0D</t>
+  </si>
+  <si>
     <t>1075  -1M2D</t>
   </si>
   <si>
-    <t>247  -1M0D</t>
-  </si>
-  <si>
     <t>176  2M7D</t>
   </si>
   <si>
     <t>1121  1M8D</t>
   </si>
   <si>
-    <t>139  7M8D</t>
-  </si>
-  <si>
     <t>71  3M3D</t>
   </si>
   <si>
     <t>888  5M29D</t>
   </si>
   <si>
+    <t>282  1M23D</t>
+  </si>
+  <si>
     <t>80  1M20D</t>
   </si>
   <si>
-    <t>282  1M23D</t>
-  </si>
-  <si>
     <t>97  -1M4D</t>
   </si>
   <si>
@@ -3328,27 +3328,27 @@
     <t>50  1M8D</t>
   </si>
   <si>
+    <t>192  -0M25D</t>
+  </si>
+  <si>
+    <t>3251  1M10D</t>
+  </si>
+  <si>
     <t>1072  5M24D</t>
   </si>
   <si>
-    <t>192  -0M25D</t>
-  </si>
-  <si>
     <t>989  -0M18D</t>
   </si>
   <si>
     <t>1282  -1M0D</t>
   </si>
   <si>
-    <t>3251  1M10D</t>
+    <t>164  11M1D</t>
   </si>
   <si>
     <t>270  2M15D</t>
   </si>
   <si>
-    <t>164  11M1D</t>
-  </si>
-  <si>
     <t>168  12M4D</t>
   </si>
   <si>
@@ -3367,18 +3367,18 @@
     <t>67  1M11D</t>
   </si>
   <si>
+    <t>130  2M18D</t>
+  </si>
+  <si>
+    <t>168  2M23D</t>
+  </si>
+  <si>
     <t>1007  1M26D</t>
   </si>
   <si>
     <t>653  2M2D</t>
   </si>
   <si>
-    <t>130  2M18D</t>
-  </si>
-  <si>
-    <t>168  2M23D</t>
-  </si>
-  <si>
     <t>1258  3M24D</t>
   </si>
   <si>
@@ -3400,13 +3400,16 @@
     <t>231  1M5D</t>
   </si>
   <si>
+    <t>4574  1M17D</t>
+  </si>
+  <si>
     <t>1148  1M15D</t>
   </si>
   <si>
     <t>3995  1M13D</t>
   </si>
   <si>
-    <t>4574  1M17D</t>
+    <t>4566  2M4D</t>
   </si>
   <si>
     <t>143  -0M17D</t>
@@ -3415,24 +3418,21 @@
     <t>5837  2M25D</t>
   </si>
   <si>
-    <t>4566  2M4D</t>
-  </si>
-  <si>
     <t>30  9M3D</t>
   </si>
   <si>
     <t>75  2M2D</t>
   </si>
   <si>
+    <t>120  3M19D</t>
+  </si>
+  <si>
     <t>149  2M11D</t>
   </si>
   <si>
     <t>68  7M28D</t>
   </si>
   <si>
-    <t>120  3M19D</t>
-  </si>
-  <si>
     <t>44  13M10D</t>
   </si>
   <si>
@@ -3445,93 +3445,93 @@
     <t>647  1M6D</t>
   </si>
   <si>
+    <t>132  -0M25D</t>
+  </si>
+  <si>
+    <t>104  -0M13D</t>
+  </si>
+  <si>
+    <t>1066  1M11D</t>
+  </si>
+  <si>
+    <t>831  1M19D</t>
+  </si>
+  <si>
+    <t>456  2M21D</t>
+  </si>
+  <si>
     <t>96  1M29D</t>
   </si>
   <si>
-    <t>1066  1M11D</t>
-  </si>
-  <si>
-    <t>456  2M21D</t>
-  </si>
-  <si>
-    <t>132  -0M25D</t>
-  </si>
-  <si>
-    <t>831  1M19D</t>
-  </si>
-  <si>
-    <t>104  -0M13D</t>
-  </si>
-  <si>
     <t>35  -0M22D</t>
   </si>
   <si>
     <t>413  1M18D</t>
   </si>
   <si>
+    <t>30  2M2D</t>
+  </si>
+  <si>
+    <t>664  -0M16D</t>
+  </si>
+  <si>
     <t>2016  3M4D</t>
   </si>
   <si>
-    <t>30  2M2D</t>
-  </si>
-  <si>
-    <t>664  -0M16D</t>
+    <t>100  15M5D</t>
   </si>
   <si>
     <t>437  2M8D</t>
   </si>
   <si>
-    <t>100  15M5D</t>
-  </si>
-  <si>
     <t>118  -1M2D</t>
   </si>
   <si>
+    <t>74  6M18D</t>
+  </si>
+  <si>
+    <t>435  1M21D</t>
+  </si>
+  <si>
+    <t>20  30M10D</t>
+  </si>
+  <si>
+    <t>25  1M16D</t>
+  </si>
+  <si>
     <t>1093  1M13D</t>
   </si>
   <si>
-    <t>25  1M16D</t>
-  </si>
-  <si>
-    <t>74  6M18D</t>
-  </si>
-  <si>
-    <t>20  30M10D</t>
-  </si>
-  <si>
-    <t>435  1M21D</t>
-  </si>
-  <si>
     <t>427  3M19D</t>
   </si>
   <si>
+    <t>137  18M26D</t>
+  </si>
+  <si>
+    <t>369  11M12D</t>
+  </si>
+  <si>
     <t>2246  6M1D</t>
   </si>
   <si>
-    <t>369  11M12D</t>
-  </si>
-  <si>
     <t>135  2M9D</t>
   </si>
   <si>
     <t>1351  2M28D</t>
   </si>
   <si>
-    <t>137  18M26D</t>
-  </si>
-  <si>
     <t>166  11M29D</t>
   </si>
   <si>
     <t>600  4M2D</t>
   </si>
   <si>
+    <t>311  3M17D</t>
+  </si>
+  <si>
     <t>191  10M16D</t>
   </si>
   <si>
-    <t>311  3M17D</t>
-  </si>
-  <si>
     <t>120  -1M2D</t>
   </si>
   <si>
@@ -3562,27 +3562,27 @@
     <t>4  -0M1D</t>
   </si>
   <si>
+    <t>539  2M27D</t>
+  </si>
+  <si>
+    <t>3249  2M0D</t>
+  </si>
+  <si>
     <t>782  4M18D</t>
   </si>
   <si>
-    <t>539  2M27D</t>
-  </si>
-  <si>
     <t>1338  1M9D</t>
   </si>
   <si>
     <t>986  1M9D</t>
   </si>
   <si>
-    <t>3249  2M0D</t>
+    <t>104  1M22D</t>
   </si>
   <si>
     <t>72  2M12D</t>
   </si>
   <si>
-    <t>104  1M22D</t>
-  </si>
-  <si>
     <t>130  4M7D</t>
   </si>
   <si>
@@ -3601,18 +3601,18 @@
     <t>109  11M12D</t>
   </si>
   <si>
+    <t>77  -0M29D</t>
+  </si>
+  <si>
+    <t>50  -0M20D</t>
+  </si>
+  <si>
     <t>84  -0M1D</t>
   </si>
   <si>
     <t>482  -0M28D</t>
   </si>
   <si>
-    <t>77  -0M29D</t>
-  </si>
-  <si>
-    <t>50  -0M20D</t>
-  </si>
-  <si>
     <t>3099  3M26D</t>
   </si>
   <si>
@@ -3634,13 +3634,16 @@
     <t>160  -1M4D</t>
   </si>
   <si>
+    <t>4222  2M12D</t>
+  </si>
+  <si>
     <t>370  1M26D</t>
   </si>
   <si>
     <t>4672  2M1D</t>
   </si>
   <si>
-    <t>4222  2M12D</t>
+    <t>1619  11M7D</t>
   </si>
   <si>
     <t>173  1M17D</t>
@@ -3649,24 +3652,21 @@
     <t>2578  4M26D</t>
   </si>
   <si>
-    <t>1619  11M7D</t>
-  </si>
-  <si>
     <t>49  29M21D</t>
   </si>
   <si>
     <t>104  6M9D</t>
   </si>
   <si>
+    <t>84  5M6D</t>
+  </si>
+  <si>
     <t>94  3M16D</t>
   </si>
   <si>
     <t>93  3M15D</t>
   </si>
   <si>
-    <t>84  5M6D</t>
-  </si>
-  <si>
     <t>43  26M2D</t>
   </si>
   <si>
@@ -3679,84 +3679,84 @@
     <t>621  1M5D</t>
   </si>
   <si>
+    <t>149  1M10D</t>
+  </si>
+  <si>
+    <t>330  1M21D</t>
+  </si>
+  <si>
+    <t>1086  2M17D</t>
+  </si>
+  <si>
+    <t>471  1M7D</t>
+  </si>
+  <si>
+    <t>702  4M3D</t>
+  </si>
+  <si>
     <t>113  13M21D</t>
   </si>
   <si>
-    <t>1086  2M17D</t>
-  </si>
-  <si>
-    <t>702  4M3D</t>
-  </si>
-  <si>
-    <t>149  1M10D</t>
-  </si>
-  <si>
-    <t>471  1M7D</t>
-  </si>
-  <si>
-    <t>330  1M21D</t>
-  </si>
-  <si>
     <t>37  1M24D</t>
   </si>
   <si>
     <t>503  -1M3D</t>
   </si>
   <si>
+    <t>35  5M26D</t>
+  </si>
+  <si>
+    <t>1382  2M7D</t>
+  </si>
+  <si>
     <t>1608  2M9D</t>
   </si>
   <si>
-    <t>35  5M26D</t>
-  </si>
-  <si>
-    <t>1382  2M7D</t>
+    <t>25  1M9D</t>
   </si>
   <si>
     <t>564  2M6D</t>
   </si>
   <si>
-    <t>25  1M9D</t>
-  </si>
-  <si>
     <t>132  2M10D</t>
   </si>
   <si>
+    <t>7  -1M0D</t>
+  </si>
+  <si>
+    <t>47  1M20D</t>
+  </si>
+  <si>
+    <t>305  1M21D</t>
+  </si>
+  <si>
+    <t>13  -0M13D</t>
+  </si>
+  <si>
+    <t>59  17M26D</t>
+  </si>
+  <si>
     <t>523  -0M19D</t>
   </si>
   <si>
-    <t>47  1M20D</t>
-  </si>
-  <si>
-    <t>59  17M26D</t>
-  </si>
-  <si>
-    <t>7  -1M0D</t>
-  </si>
-  <si>
-    <t>13  -0M13D</t>
-  </si>
-  <si>
-    <t>305  1M21D</t>
-  </si>
-  <si>
     <t>339  7M4D</t>
   </si>
   <si>
+    <t>332  13M18D</t>
+  </si>
+  <si>
+    <t>61  2M21D</t>
+  </si>
+  <si>
     <t>944  6M13D</t>
   </si>
   <si>
-    <t>61  2M21D</t>
-  </si>
-  <si>
     <t>281  10M23D</t>
   </si>
   <si>
     <t>1357  3M9D</t>
   </si>
   <si>
-    <t>332  13M18D</t>
-  </si>
-  <si>
     <t>136  12M4D</t>
   </si>
   <si>
@@ -3796,27 +3796,27 @@
     <t>111  7M19D</t>
   </si>
   <si>
+    <t>205  1M28D</t>
+  </si>
+  <si>
+    <t>1685  1M10D</t>
+  </si>
+  <si>
     <t>789  5M9D</t>
   </si>
   <si>
-    <t>205  1M28D</t>
-  </si>
-  <si>
     <t>1993  1M28D</t>
   </si>
   <si>
     <t>1017  3M27D</t>
   </si>
   <si>
-    <t>1685  1M10D</t>
+    <t>170  10M3D</t>
   </si>
   <si>
     <t>59  89M14D</t>
   </si>
   <si>
-    <t>170  10M3D</t>
-  </si>
-  <si>
     <t>167  46M1D</t>
   </si>
   <si>
@@ -3835,18 +3835,18 @@
     <t>51  3M20D</t>
   </si>
   <si>
+    <t>76  1M10D</t>
+  </si>
+  <si>
+    <t>107  2M29D</t>
+  </si>
+  <si>
     <t>1975  3M9D</t>
   </si>
   <si>
     <t>734  3M4D</t>
   </si>
   <si>
-    <t>76  1M10D</t>
-  </si>
-  <si>
-    <t>107  2M29D</t>
-  </si>
-  <si>
     <t>2444  4M5D</t>
   </si>
   <si>
@@ -3868,13 +3868,16 @@
     <t>218  -0M22D</t>
   </si>
   <si>
+    <t>3346  1M20D</t>
+  </si>
+  <si>
     <t>406  -1M2D</t>
   </si>
   <si>
     <t>2348  -0M13D</t>
   </si>
   <si>
-    <t>3346  1M20D</t>
+    <t>1729  4M15D</t>
   </si>
   <si>
     <t>207  1M24D</t>
@@ -3883,24 +3886,21 @@
     <t>1590  3M6D</t>
   </si>
   <si>
-    <t>1729  4M15D</t>
-  </si>
-  <si>
     <t>7  4M7D</t>
   </si>
   <si>
     <t>91  1M24D</t>
   </si>
   <si>
+    <t>81  3M21D</t>
+  </si>
+  <si>
     <t>87  1M23D</t>
   </si>
   <si>
     <t>77  3M4D</t>
   </si>
   <si>
-    <t>81  3M21D</t>
-  </si>
-  <si>
     <t>23  5M11D</t>
   </si>
   <si>
@@ -3913,75 +3913,75 @@
     <t>254  -0M9D</t>
   </si>
   <si>
+    <t>318  -1M0D</t>
+  </si>
+  <si>
+    <t>163  -0M13D</t>
+  </si>
+  <si>
+    <t>895  -1M4D</t>
+  </si>
+  <si>
+    <t>592  1M7D</t>
+  </si>
+  <si>
+    <t>516  8M0D</t>
+  </si>
+  <si>
     <t>84  6M16D</t>
   </si>
   <si>
-    <t>895  -1M4D</t>
-  </si>
-  <si>
-    <t>516  8M0D</t>
-  </si>
-  <si>
-    <t>318  -1M0D</t>
-  </si>
-  <si>
-    <t>592  1M7D</t>
-  </si>
-  <si>
-    <t>163  -0M13D</t>
-  </si>
-  <si>
     <t>52  2M7D</t>
   </si>
   <si>
     <t>337  -1M3D</t>
   </si>
   <si>
+    <t>30  2M8D</t>
+  </si>
+  <si>
+    <t>1062  -1M3D</t>
+  </si>
+  <si>
     <t>1942  1M13D</t>
   </si>
   <si>
-    <t>30  2M8D</t>
-  </si>
-  <si>
-    <t>1062  -1M3D</t>
+    <t>1  -0M18D</t>
   </si>
   <si>
     <t>617  1M23D</t>
   </si>
   <si>
-    <t>1  -0M18D</t>
+    <t>23  3M14D</t>
+  </si>
+  <si>
+    <t>814  3M16D</t>
+  </si>
+  <si>
+    <t>12  1M24D</t>
   </si>
   <si>
     <t>28  -0M17D</t>
   </si>
   <si>
-    <t>23  3M14D</t>
-  </si>
-  <si>
-    <t>12  1M24D</t>
-  </si>
-  <si>
-    <t>814  3M16D</t>
-  </si>
-  <si>
     <t>198  6M15D</t>
   </si>
   <si>
+    <t>146  -1M4D</t>
+  </si>
+  <si>
+    <t>121  -1M1D</t>
+  </si>
+  <si>
     <t>1601  1M13D</t>
   </si>
   <si>
-    <t>121  -1M1D</t>
-  </si>
-  <si>
     <t>50  1M28D</t>
   </si>
   <si>
     <t>1559  1M27D</t>
   </si>
   <si>
-    <t>146  -1M4D</t>
-  </si>
-  <si>
     <t>33  1M12D</t>
   </si>
   <si>
@@ -4015,27 +4015,27 @@
     <t>151  5M19D</t>
   </si>
   <si>
+    <t>564  3M29D</t>
+  </si>
+  <si>
+    <t>3327  2M0D</t>
+  </si>
+  <si>
     <t>1791  7M1D</t>
   </si>
   <si>
-    <t>564  3M29D</t>
-  </si>
-  <si>
     <t>1464  -0M28D</t>
   </si>
   <si>
     <t>1026  1M6D</t>
   </si>
   <si>
-    <t>3327  2M0D</t>
+    <t>325  17M27D</t>
   </si>
   <si>
     <t>96  3M6D</t>
   </si>
   <si>
-    <t>325  17M27D</t>
-  </si>
-  <si>
     <t>177  13M23D</t>
   </si>
   <si>
@@ -4054,18 +4054,18 @@
     <t>29  1M5D</t>
   </si>
   <si>
+    <t>156  3M5D</t>
+  </si>
+  <si>
+    <t>132  1M15D</t>
+  </si>
+  <si>
     <t>1326  1M14D</t>
   </si>
   <si>
     <t>485  -0M28D</t>
   </si>
   <si>
-    <t>156  3M5D</t>
-  </si>
-  <si>
-    <t>132  1M15D</t>
-  </si>
-  <si>
     <t>3110  1M16D</t>
   </si>
   <si>
@@ -4087,13 +4087,16 @@
     <t>245  -0M23D</t>
   </si>
   <si>
+    <t>5962  1M19D</t>
+  </si>
+  <si>
     <t>756  2M17D</t>
   </si>
   <si>
     <t>5335  1M11D</t>
   </si>
   <si>
-    <t>5962  1M19D</t>
+    <t>6729  4M16D</t>
   </si>
   <si>
     <t>342  -1M1D</t>
@@ -4102,24 +4105,21 @@
     <t>3358  -0M22D</t>
   </si>
   <si>
-    <t>6729  4M16D</t>
-  </si>
-  <si>
     <t>8  1M10D</t>
   </si>
   <si>
     <t>99  1M7D</t>
   </si>
   <si>
+    <t>76  -0M18D</t>
+  </si>
+  <si>
     <t>97  -0M27D</t>
   </si>
   <si>
     <t>52  -1M4D</t>
   </si>
   <si>
-    <t>76  -0M18D</t>
-  </si>
-  <si>
     <t>45  3M12D</t>
   </si>
   <si>
@@ -4132,87 +4132,87 @@
     <t>528  -0M18D</t>
   </si>
   <si>
+    <t>168  -0M13D</t>
+  </si>
+  <si>
+    <t>112  -0M12D</t>
+  </si>
+  <si>
+    <t>864  -1M3D</t>
+  </si>
+  <si>
+    <t>762  1M5D</t>
+  </si>
+  <si>
+    <t>270  -0M21D</t>
+  </si>
+  <si>
     <t>97  2M1D</t>
   </si>
   <si>
-    <t>864  -1M3D</t>
-  </si>
-  <si>
-    <t>270  -0M21D</t>
-  </si>
-  <si>
-    <t>168  -0M13D</t>
-  </si>
-  <si>
-    <t>762  1M5D</t>
-  </si>
-  <si>
-    <t>112  -0M12D</t>
-  </si>
-  <si>
     <t>61  3M9D</t>
   </si>
   <si>
     <t>387  1M29D</t>
   </si>
   <si>
+    <t>12  -0M11D</t>
+  </si>
+  <si>
+    <t>804  -0M23D</t>
+  </si>
+  <si>
     <t>1814  -0M16D</t>
   </si>
   <si>
-    <t>12  -0M11D</t>
-  </si>
-  <si>
-    <t>804  -0M23D</t>
-  </si>
-  <si>
     <t>223  -0M22D</t>
   </si>
   <si>
     <t>88  -0M19D</t>
   </si>
   <si>
+    <t>43  14M14D</t>
+  </si>
+  <si>
+    <t>890  2M24D</t>
+  </si>
+  <si>
+    <t>29  1M17D</t>
+  </si>
+  <si>
     <t>1218  2M23D</t>
   </si>
   <si>
-    <t>29  1M17D</t>
-  </si>
-  <si>
-    <t>43  14M14D</t>
-  </si>
-  <si>
-    <t>890  2M24D</t>
-  </si>
-  <si>
     <t>172  2M3D</t>
   </si>
   <si>
+    <t>72  1M14D</t>
+  </si>
+  <si>
+    <t>237  2M3D</t>
+  </si>
+  <si>
     <t>1811  2M15D</t>
   </si>
   <si>
-    <t>237  2M3D</t>
-  </si>
-  <si>
     <t>121  2M2D</t>
   </si>
   <si>
     <t>743  -0M24D</t>
   </si>
   <si>
-    <t>72  1M14D</t>
-  </si>
-  <si>
     <t>132  8M0D</t>
   </si>
   <si>
     <t>477  2M29D</t>
   </si>
   <si>
+    <t>423  1M17D</t>
+  </si>
+  <si>
     <t>80  2M3D</t>
   </si>
   <si>
-    <t>423  1M17D</t>
-  </si>
-  <si>
     <t>78  -0M27D</t>
   </si>
   <si>
@@ -4240,27 +4240,27 @@
     <t>56  -0M20D</t>
   </si>
   <si>
+    <t>363  2M12D</t>
+  </si>
+  <si>
+    <t>2962  -1M4D</t>
+  </si>
+  <si>
     <t>845  5M27D</t>
   </si>
   <si>
-    <t>363  2M12D</t>
-  </si>
-  <si>
     <t>2088  -1M4D</t>
   </si>
   <si>
     <t>1109  1M7D</t>
   </si>
   <si>
-    <t>2962  -1M4D</t>
+    <t>1795  22M12D</t>
   </si>
   <si>
     <t>344  1M5D</t>
   </si>
   <si>
-    <t>1795  22M12D</t>
-  </si>
-  <si>
     <t>448  3M12D</t>
   </si>
   <si>
@@ -4276,18 +4276,18 @@
     <t>983  80M17D</t>
   </si>
   <si>
+    <t>520  12M15D</t>
+  </si>
+  <si>
+    <t>717  6M6D</t>
+  </si>
+  <si>
     <t>462  -0M18D</t>
   </si>
   <si>
     <t>147  -0M5D</t>
   </si>
   <si>
-    <t>520  12M15D</t>
-  </si>
-  <si>
-    <t>717  6M6D</t>
-  </si>
-  <si>
     <t>3359  19M18D</t>
   </si>
   <si>
@@ -4309,13 +4309,16 @@
     <t>234  3M7D</t>
   </si>
   <si>
+    <t>4356  2M8D</t>
+  </si>
+  <si>
     <t>5310  5M16D</t>
   </si>
   <si>
     <t>13511  8M9D</t>
   </si>
   <si>
-    <t>4356  2M8D</t>
+    <t>2084  46M4D</t>
   </si>
   <si>
     <t>380  4M18D</t>
@@ -4324,24 +4327,21 @@
     <t>2302  6M13D</t>
   </si>
   <si>
-    <t>2084  46M4D</t>
-  </si>
-  <si>
     <t>365  221M13D</t>
   </si>
   <si>
     <t>1085  31M28D</t>
   </si>
   <si>
+    <t>398  7M4D</t>
+  </si>
+  <si>
     <t>908  31M8D</t>
   </si>
   <si>
     <t>214  3M5D</t>
   </si>
   <si>
-    <t>398  7M4D</t>
-  </si>
-  <si>
     <t>1265  639M15D</t>
   </si>
   <si>
@@ -4354,99 +4354,99 @@
     <t>92  -0M2D</t>
   </si>
   <si>
+    <t>745  3M12D</t>
+  </si>
+  <si>
+    <t>269  -0M29D</t>
+  </si>
+  <si>
+    <t>801  -0M25D</t>
+  </si>
+  <si>
+    <t>5192  6M27D</t>
+  </si>
+  <si>
+    <t>654  4M20D</t>
+  </si>
+  <si>
     <t>1116  1M21D</t>
   </si>
   <si>
-    <t>801  -0M25D</t>
-  </si>
-  <si>
-    <t>654  4M20D</t>
-  </si>
-  <si>
-    <t>745  3M12D</t>
-  </si>
-  <si>
-    <t>5192  6M27D</t>
-  </si>
-  <si>
-    <t>269  -0M29D</t>
-  </si>
-  <si>
     <t>1343  30M12D</t>
   </si>
   <si>
     <t>70  -0M26D</t>
   </si>
   <si>
+    <t>82  4M26D</t>
+  </si>
+  <si>
+    <t>977  -0M16D</t>
+  </si>
+  <si>
     <t>1909  1M24D</t>
   </si>
   <si>
-    <t>82  4M26D</t>
-  </si>
-  <si>
-    <t>977  -0M16D</t>
+    <t>31  -0M8D</t>
   </si>
   <si>
     <t>1433  3M14D</t>
   </si>
   <si>
-    <t>31  -0M8D</t>
-  </si>
-  <si>
     <t>186  5M24D</t>
   </si>
   <si>
+    <t>4723  1193M26D</t>
+  </si>
+  <si>
+    <t>31  -0M17D</t>
+  </si>
+  <si>
+    <t>1441  5M14D</t>
+  </si>
+  <si>
+    <t>154  3M2D</t>
+  </si>
+  <si>
+    <t>2004  434M6D</t>
+  </si>
+  <si>
     <t>3083  3M29D</t>
   </si>
   <si>
-    <t>31  -0M17D</t>
-  </si>
-  <si>
-    <t>2004  434M6D</t>
-  </si>
-  <si>
-    <t>4723  1193M26D</t>
-  </si>
-  <si>
-    <t>154  3M2D</t>
-  </si>
-  <si>
-    <t>1441  5M14D</t>
+    <t>1050  7M19D</t>
   </si>
   <si>
     <t>1  -0M9D</t>
   </si>
   <si>
-    <t>1050  7M19D</t>
+    <t>422  29M2D</t>
+  </si>
+  <si>
+    <t>116  10M1D</t>
   </si>
   <si>
     <t>1212  6M21D</t>
   </si>
   <si>
-    <t>116  10M1D</t>
-  </si>
-  <si>
     <t>468  88M21D</t>
   </si>
   <si>
     <t>1671  5M22D</t>
   </si>
   <si>
-    <t>422  29M2D</t>
-  </si>
-  <si>
     <t>274  30M23D</t>
   </si>
   <si>
     <t>8963  31M23D</t>
   </si>
   <si>
+    <t>6977  31M20D</t>
+  </si>
+  <si>
     <t>80  1M22D</t>
   </si>
   <si>
-    <t>6977  31M20D</t>
-  </si>
-  <si>
     <t>607  16M22D</t>
   </si>
   <si>
@@ -4477,27 +4477,27 @@
     <t>201  10M15D</t>
   </si>
   <si>
+    <t>237  2M7D</t>
+  </si>
+  <si>
+    <t>856  -0M26D</t>
+  </si>
+  <si>
     <t>945  15M0D</t>
   </si>
   <si>
-    <t>237  2M7D</t>
-  </si>
-  <si>
     <t>2867  6M22D</t>
   </si>
   <si>
     <t>1417  7M20D</t>
   </si>
   <si>
-    <t>856  -0M26D</t>
+    <t>220  2M9D</t>
   </si>
   <si>
     <t>202  2M5D</t>
   </si>
   <si>
-    <t>220  2M9D</t>
-  </si>
-  <si>
     <t>518  4M27D</t>
   </si>
   <si>
@@ -4516,18 +4516,18 @@
     <t>109  8M21D</t>
   </si>
   <si>
+    <t>265  16M2D</t>
+  </si>
+  <si>
+    <t>96  -0M29D</t>
+  </si>
+  <si>
     <t>445  -0M28D</t>
   </si>
   <si>
     <t>244  -0M23D</t>
   </si>
   <si>
-    <t>265  16M2D</t>
-  </si>
-  <si>
-    <t>96  -0M29D</t>
-  </si>
-  <si>
     <t>3489  26M0D</t>
   </si>
   <si>
@@ -4549,13 +4549,16 @@
     <t>215  4M4D</t>
   </si>
   <si>
+    <t>2154  1M22D</t>
+  </si>
+  <si>
     <t>1905  1M20D</t>
   </si>
   <si>
     <t>2445  2M7D</t>
   </si>
   <si>
-    <t>2154  1M22D</t>
+    <t>1806  365M6D</t>
   </si>
   <si>
     <t>202  4M3D</t>
@@ -4564,24 +4567,21 @@
     <t>3038  14M3D</t>
   </si>
   <si>
-    <t>1806  365M6D</t>
-  </si>
-  <si>
     <t>66  200M6D</t>
   </si>
   <si>
     <t>141  9M21D</t>
   </si>
   <si>
+    <t>135  6M15D</t>
+  </si>
+  <si>
     <t>116  4M8D</t>
   </si>
   <si>
     <t>131  9M20D</t>
   </si>
   <si>
-    <t>135  6M15D</t>
-  </si>
-  <si>
     <t>78  236M18D</t>
   </si>
   <si>
@@ -4594,93 +4594,93 @@
     <t>169  -0M9D</t>
   </si>
   <si>
+    <t>223  1M13D</t>
+  </si>
+  <si>
+    <t>692  3M24D</t>
+  </si>
+  <si>
+    <t>595  -1M1D</t>
+  </si>
+  <si>
+    <t>361  -0M19D</t>
+  </si>
+  <si>
+    <t>739  13M7D</t>
+  </si>
+  <si>
     <t>221  11M29D</t>
   </si>
   <si>
-    <t>595  -1M1D</t>
-  </si>
-  <si>
-    <t>739  13M7D</t>
-  </si>
-  <si>
-    <t>223  1M13D</t>
-  </si>
-  <si>
-    <t>361  -0M19D</t>
-  </si>
-  <si>
-    <t>692  3M24D</t>
-  </si>
-  <si>
     <t>133  1M27D</t>
   </si>
   <si>
     <t>166  -0M28D</t>
   </si>
   <si>
+    <t>58  3M22D</t>
+  </si>
+  <si>
+    <t>635  -0M15D</t>
+  </si>
+  <si>
     <t>1580  3M0D</t>
   </si>
   <si>
-    <t>58  3M22D</t>
-  </si>
-  <si>
-    <t>635  -0M15D</t>
-  </si>
-  <si>
     <t>217  -0M17D</t>
   </si>
   <si>
     <t>62  1M25D</t>
   </si>
   <si>
+    <t>177  48M24D</t>
+  </si>
+  <si>
+    <t>20  -0M10D</t>
+  </si>
+  <si>
+    <t>476  2M4D</t>
+  </si>
+  <si>
+    <t>52  1M17D</t>
+  </si>
+  <si>
+    <t>95  48M0D</t>
+  </si>
+  <si>
     <t>647  -0M25D</t>
   </si>
   <si>
-    <t>20  -0M10D</t>
-  </si>
-  <si>
-    <t>95  48M0D</t>
-  </si>
-  <si>
-    <t>177  48M24D</t>
-  </si>
-  <si>
-    <t>52  1M17D</t>
-  </si>
-  <si>
-    <t>476  2M4D</t>
-  </si>
-  <si>
     <t>306  2M28D</t>
   </si>
   <si>
+    <t>80  2M22D</t>
+  </si>
+  <si>
+    <t>57  8M19D</t>
+  </si>
+  <si>
     <t>1020  6M20D</t>
   </si>
   <si>
-    <t>57  8M19D</t>
-  </si>
-  <si>
     <t>132  8M5D</t>
   </si>
   <si>
     <t>1447  8M14D</t>
   </si>
   <si>
-    <t>80  2M22D</t>
-  </si>
-  <si>
     <t>183  30M25D</t>
   </si>
   <si>
     <t>828  3M10D</t>
   </si>
   <si>
+    <t>289  1M5D</t>
+  </si>
+  <si>
     <t>173  4M3D</t>
   </si>
   <si>
-    <t>289  1M5D</t>
-  </si>
-  <si>
     <t>205  8M22D</t>
   </si>
   <si>
@@ -4711,21 +4711,21 @@
     <t>147  6M5D</t>
   </si>
   <si>
+    <t>578  8M20D</t>
+  </si>
+  <si>
+    <t>966  1M5D</t>
+  </si>
+  <si>
     <t>1220  19M17D</t>
   </si>
   <si>
-    <t>578  8M20D</t>
-  </si>
-  <si>
     <t>3041  9M1D</t>
   </si>
   <si>
     <t>972  3M25D</t>
   </si>
   <si>
-    <t>966  1M5D</t>
-  </si>
-  <si>
     <t>197  3M6D</t>
   </si>
   <si>
@@ -4747,18 +4747,18 @@
     <t>31  1M15D</t>
   </si>
   <si>
+    <t>113  1M18D</t>
+  </si>
+  <si>
+    <t>133  1M22D</t>
+  </si>
+  <si>
     <t>2082  1M22D</t>
   </si>
   <si>
     <t>189  -0M10D</t>
   </si>
   <si>
-    <t>113  1M18D</t>
-  </si>
-  <si>
-    <t>133  1M22D</t>
-  </si>
-  <si>
     <t>2815  4M13D</t>
   </si>
   <si>
@@ -4780,13 +4780,16 @@
     <t>226  -0M13D</t>
   </si>
   <si>
+    <t>5893  2M1D</t>
+  </si>
+  <si>
     <t>471  1M15D</t>
   </si>
   <si>
     <t>1806  -0M7D</t>
   </si>
   <si>
-    <t>5893  2M1D</t>
+    <t>1915  6M11D</t>
   </si>
   <si>
     <t>255  1M12D</t>
@@ -4795,24 +4798,21 @@
     <t>3720  3M17D</t>
   </si>
   <si>
-    <t>1915  6M11D</t>
-  </si>
-  <si>
     <t>13  1M17D</t>
   </si>
   <si>
     <t>154  3M14D</t>
   </si>
   <si>
+    <t>256  2M5D</t>
+  </si>
+  <si>
     <t>105  2M15D</t>
   </si>
   <si>
     <t>79  1M29D</t>
   </si>
   <si>
-    <t>256  2M5D</t>
-  </si>
-  <si>
     <t>55  5M22D</t>
   </si>
   <si>
@@ -4825,66 +4825,69 @@
     <t>704  -0M26D</t>
   </si>
   <si>
+    <t>266  -0M22D</t>
+  </si>
+  <si>
+    <t>146  -0M12D</t>
+  </si>
+  <si>
+    <t>1160  1M9D</t>
+  </si>
+  <si>
+    <t>831  1M15D</t>
+  </si>
+  <si>
+    <t>675  2M3D</t>
+  </si>
+  <si>
     <t>441  5M0D</t>
   </si>
   <si>
-    <t>1160  1M9D</t>
-  </si>
-  <si>
-    <t>675  2M3D</t>
-  </si>
-  <si>
-    <t>266  -0M22D</t>
-  </si>
-  <si>
-    <t>831  1M15D</t>
-  </si>
-  <si>
-    <t>146  -0M12D</t>
-  </si>
-  <si>
     <t>71  -0M28D</t>
   </si>
   <si>
     <t>120  -0M5D</t>
   </si>
   <si>
+    <t>10  -0M18D</t>
+  </si>
+  <si>
+    <t>919  1M7D</t>
+  </si>
+  <si>
     <t>1645  1M13D</t>
   </si>
   <si>
-    <t>10  -0M18D</t>
-  </si>
-  <si>
-    <t>919  1M7D</t>
+    <t>47  10M29D</t>
   </si>
   <si>
     <t>418  2M9D</t>
   </si>
   <si>
-    <t>47  10M29D</t>
-  </si>
-  <si>
     <t>121  1M18D</t>
   </si>
   <si>
+    <t>49  3M4D</t>
+  </si>
+  <si>
+    <t>8  -0M5D</t>
+  </si>
+  <si>
+    <t>473  1M13D</t>
+  </si>
+  <si>
+    <t>58  3M11D</t>
+  </si>
+  <si>
     <t>1179  -0M17D</t>
   </si>
   <si>
-    <t>8  -0M5D</t>
-  </si>
-  <si>
-    <t>58  3M11D</t>
-  </si>
-  <si>
-    <t>49  3M4D</t>
-  </si>
-  <si>
-    <t>473  1M13D</t>
-  </si>
-  <si>
     <t>253  1M21D</t>
   </si>
   <si>
+    <t>58  1M13D</t>
+  </si>
+  <si>
     <t>1398  -0M29D</t>
   </si>
   <si>
@@ -4894,9 +4897,6 @@
     <t>1553  1M6D</t>
   </si>
   <si>
-    <t>58  1M13D</t>
-  </si>
-  <si>
     <t>101  5M23D</t>
   </si>
   <si>
@@ -4933,27 +4933,27 @@
     <t>112  4M27D</t>
   </si>
   <si>
+    <t>419  3M1D</t>
+  </si>
+  <si>
+    <t>2991  -1M1D</t>
+  </si>
+  <si>
     <t>659  1M12D</t>
   </si>
   <si>
-    <t>419  3M1D</t>
-  </si>
-  <si>
     <t>1764  -0M24D</t>
   </si>
   <si>
     <t>3058  2M2D</t>
   </si>
   <si>
-    <t>2991  -1M1D</t>
+    <t>416  6M7D</t>
   </si>
   <si>
     <t>448  -0M25D</t>
   </si>
   <si>
-    <t>416  6M7D</t>
-  </si>
-  <si>
     <t>220  2M21D</t>
   </si>
   <si>
@@ -4972,18 +4972,18 @@
     <t>143  3M26D</t>
   </si>
   <si>
+    <t>306  6M20D</t>
+  </si>
+  <si>
+    <t>307  1M18D</t>
+  </si>
+  <si>
     <t>212  -0M7D</t>
   </si>
   <si>
     <t>146  -0M5D</t>
   </si>
   <si>
-    <t>306  6M20D</t>
-  </si>
-  <si>
-    <t>307  1M18D</t>
-  </si>
-  <si>
     <t>1802  6M9D</t>
   </si>
   <si>
@@ -5005,13 +5005,16 @@
     <t>460  6M18D</t>
   </si>
   <si>
+    <t>3223  1M18D</t>
+  </si>
+  <si>
     <t>1290  -0M18D</t>
   </si>
   <si>
     <t>2878  1M12D</t>
   </si>
   <si>
-    <t>3223  1M18D</t>
+    <t>2981  51M20D</t>
   </si>
   <si>
     <t>374  5M1D</t>
@@ -5020,24 +5023,21 @@
     <t>2876  4M22D</t>
   </si>
   <si>
-    <t>2981  51M20D</t>
-  </si>
-  <si>
     <t>112  33M29D</t>
   </si>
   <si>
     <t>218  4M23D</t>
   </si>
   <si>
+    <t>239  8M22D</t>
+  </si>
+  <si>
     <t>77  2M19D</t>
   </si>
   <si>
     <t>127  1M5D</t>
   </si>
   <si>
-    <t>239  8M22D</t>
-  </si>
-  <si>
     <t>93  35M7D</t>
   </si>
   <si>
@@ -5050,63 +5050,66 @@
     <t>195  -0M5D</t>
   </si>
   <si>
+    <t>190  -0M23D</t>
+  </si>
+  <si>
+    <t>595  -0M22D</t>
+  </si>
+  <si>
+    <t>683  -0M27D</t>
+  </si>
+  <si>
+    <t>754  11M13D</t>
+  </si>
+  <si>
     <t>204  3M26D</t>
   </si>
   <si>
-    <t>595  -0M22D</t>
-  </si>
-  <si>
-    <t>754  11M13D</t>
-  </si>
-  <si>
-    <t>190  -0M23D</t>
-  </si>
-  <si>
-    <t>683  -0M27D</t>
-  </si>
-  <si>
     <t>191  7M18D</t>
   </si>
   <si>
     <t>75  -0M15D</t>
   </si>
   <si>
+    <t>38  -1M4D</t>
+  </si>
+  <si>
+    <t>515  -0M10D</t>
+  </si>
+  <si>
     <t>2262  2M17D</t>
   </si>
   <si>
-    <t>38  -1M4D</t>
-  </si>
-  <si>
-    <t>515  -0M10D</t>
-  </si>
-  <si>
     <t>530  -1M4D</t>
   </si>
   <si>
     <t>183  3M19D</t>
   </si>
   <si>
+    <t>160  19M12D</t>
+  </si>
+  <si>
+    <t>63  -0M18D</t>
+  </si>
+  <si>
+    <t>640  1M21D</t>
+  </si>
+  <si>
+    <t>169  73M7D</t>
+  </si>
+  <si>
+    <t>102  18M6D</t>
+  </si>
+  <si>
     <t>387  -0M7D</t>
   </si>
   <si>
-    <t>63  -0M18D</t>
-  </si>
-  <si>
-    <t>102  18M6D</t>
-  </si>
-  <si>
-    <t>160  19M12D</t>
-  </si>
-  <si>
-    <t>169  73M7D</t>
-  </si>
-  <si>
-    <t>640  1M21D</t>
-  </si>
-  <si>
     <t>526  4M5D</t>
   </si>
   <si>
+    <t>53  -0M24D</t>
+  </si>
+  <si>
     <t>1768  8M13D</t>
   </si>
   <si>
@@ -5116,21 +5119,18 @@
     <t>860  1M28D</t>
   </si>
   <si>
-    <t>53  -0M24D</t>
-  </si>
-  <si>
     <t>451  33M11D</t>
   </si>
   <si>
     <t>1095  4M26D</t>
   </si>
   <si>
+    <t>306  -0M19D</t>
+  </si>
+  <si>
     <t>537  3M25D</t>
   </si>
   <si>
-    <t>306  -0M19D</t>
-  </si>
-  <si>
     <t>333  7M26D</t>
   </si>
   <si>
@@ -5161,27 +5161,27 @@
     <t>198  4M27D</t>
   </si>
   <si>
+    <t>684  4M11D</t>
+  </si>
+  <si>
+    <t>1458  -0M29D</t>
+  </si>
+  <si>
     <t>1555  19M19D</t>
   </si>
   <si>
-    <t>684  4M11D</t>
-  </si>
-  <si>
     <t>2181  3M3D</t>
   </si>
   <si>
     <t>1040  3M20D</t>
   </si>
   <si>
-    <t>1458  -0M29D</t>
+    <t>47  -0M27D</t>
   </si>
   <si>
     <t>46  23M7D</t>
   </si>
   <si>
-    <t>47  -0M27D</t>
-  </si>
-  <si>
     <t>105  24M15D</t>
   </si>
   <si>
@@ -5197,18 +5197,18 @@
     <t>50  2M25D</t>
   </si>
   <si>
+    <t>166  2M0D</t>
+  </si>
+  <si>
+    <t>86  2M21D</t>
+  </si>
+  <si>
     <t>741  -0M15D</t>
   </si>
   <si>
     <t>586  1M6D</t>
   </si>
   <si>
-    <t>166  2M0D</t>
-  </si>
-  <si>
-    <t>86  2M21D</t>
-  </si>
-  <si>
     <t>2052  1M12D</t>
   </si>
   <si>
@@ -5230,13 +5230,16 @@
     <t>195  -0M22D</t>
   </si>
   <si>
+    <t>3022  -0M23D</t>
+  </si>
+  <si>
     <t>371  -1M1D</t>
   </si>
   <si>
     <t>6549  -1M3D</t>
   </si>
   <si>
-    <t>3022  -0M23D</t>
+    <t>2734  8M13D</t>
   </si>
   <si>
     <t>185  -0M24D</t>
@@ -5245,24 +5248,21 @@
     <t>2747  3M18D</t>
   </si>
   <si>
-    <t>2734  8M13D</t>
-  </si>
-  <si>
     <t>53  53M17D</t>
   </si>
   <si>
     <t>107  1M20D</t>
   </si>
   <si>
+    <t>53  1M5D</t>
+  </si>
+  <si>
     <t>98  -1M1D</t>
   </si>
   <si>
     <t>50  -1M3D</t>
   </si>
   <si>
-    <t>53  1M5D</t>
-  </si>
-  <si>
     <t>50  4M13D</t>
   </si>
   <si>
@@ -5272,96 +5272,96 @@
     <t>572  -0M14D</t>
   </si>
   <si>
+    <t>331  1M23D</t>
+  </si>
+  <si>
+    <t>148  -0M12D</t>
+  </si>
+  <si>
+    <t>1673  1M20D</t>
+  </si>
+  <si>
+    <t>574  -1M0D</t>
+  </si>
+  <si>
+    <t>660  6M0D</t>
+  </si>
+  <si>
     <t>110  2M17D</t>
   </si>
   <si>
-    <t>1673  1M20D</t>
-  </si>
-  <si>
-    <t>660  6M0D</t>
-  </si>
-  <si>
-    <t>331  1M23D</t>
-  </si>
-  <si>
-    <t>574  -1M0D</t>
-  </si>
-  <si>
-    <t>148  -0M12D</t>
-  </si>
-  <si>
     <t>54  -0M12D</t>
   </si>
   <si>
     <t>502  -0M23D</t>
   </si>
   <si>
+    <t>47  3M14D</t>
+  </si>
+  <si>
+    <t>1527  1M15D</t>
+  </si>
+  <si>
     <t>2292  1M17D</t>
   </si>
   <si>
-    <t>47  3M14D</t>
-  </si>
-  <si>
-    <t>1527  1M15D</t>
+    <t>36  2M19D</t>
   </si>
   <si>
     <t>457  1M18D</t>
   </si>
   <si>
-    <t>36  2M19D</t>
-  </si>
-  <si>
     <t>127  -1M3D</t>
   </si>
   <si>
+    <t>56  3M25D</t>
+  </si>
+  <si>
+    <t>31  -0M15D</t>
+  </si>
+  <si>
+    <t>387  -1M2D</t>
+  </si>
+  <si>
+    <t>14  5M9D</t>
+  </si>
+  <si>
+    <t>14  2M10D</t>
+  </si>
+  <si>
     <t>339  -0M7D</t>
   </si>
   <si>
-    <t>31  -0M15D</t>
-  </si>
-  <si>
-    <t>14  2M10D</t>
-  </si>
-  <si>
-    <t>56  3M25D</t>
-  </si>
-  <si>
-    <t>14  5M9D</t>
-  </si>
-  <si>
-    <t>387  -1M2D</t>
-  </si>
-  <si>
     <t>129  -1M0D</t>
   </si>
   <si>
+    <t>263  8M20D</t>
+  </si>
+  <si>
+    <t>176  -0M26D</t>
+  </si>
+  <si>
     <t>1996  1M13D</t>
   </si>
   <si>
-    <t>176  -0M26D</t>
-  </si>
-  <si>
     <t>175  3M28D</t>
   </si>
   <si>
     <t>1671  1M21D</t>
   </si>
   <si>
-    <t>263  8M20D</t>
-  </si>
-  <si>
     <t>190  5M22D</t>
   </si>
   <si>
     <t>357  2M12D</t>
   </si>
   <si>
+    <t>594  -1M2D</t>
+  </si>
+  <si>
     <t>165  2M17D</t>
   </si>
   <si>
-    <t>594  -1M2D</t>
-  </si>
-  <si>
     <t>476  17M18D</t>
   </si>
   <si>
@@ -5392,27 +5392,27 @@
     <t>58  -0M8D</t>
   </si>
   <si>
+    <t>640  2M20D</t>
+  </si>
+  <si>
+    <t>2709  -1M0D</t>
+  </si>
+  <si>
     <t>755  2M20D</t>
   </si>
   <si>
-    <t>640  2M20D</t>
-  </si>
-  <si>
     <t>1627  -0M23D</t>
   </si>
   <si>
     <t>2398  1M18D</t>
   </si>
   <si>
-    <t>2709  -1M0D</t>
+    <t>398  2M10D</t>
   </si>
   <si>
     <t>81  6M19D</t>
   </si>
   <si>
-    <t>398  2M10D</t>
-  </si>
-  <si>
     <t>254  1M17D</t>
   </si>
   <si>
@@ -5431,18 +5431,18 @@
     <t>30  -0M8D</t>
   </si>
   <si>
+    <t>342  1M23D</t>
+  </si>
+  <si>
+    <t>180  1M13D</t>
+  </si>
+  <si>
     <t>549  -0M7D</t>
   </si>
   <si>
     <t>287  -0M8D</t>
   </si>
   <si>
-    <t>342  1M23D</t>
-  </si>
-  <si>
-    <t>180  1M13D</t>
-  </si>
-  <si>
     <t>2875  1M15D</t>
   </si>
   <si>
@@ -5464,13 +5464,16 @@
     <t>252  -0M21D</t>
   </si>
   <si>
+    <t>4874  -0M29D</t>
+  </si>
+  <si>
     <t>571  2M25D</t>
   </si>
   <si>
     <t>6181  -0M24D</t>
   </si>
   <si>
-    <t>4874  -0M29D</t>
+    <t>996  1M28D</t>
   </si>
   <si>
     <t>229  -0M23D</t>
@@ -5479,21 +5482,18 @@
     <t>2845  2M2D</t>
   </si>
   <si>
-    <t>996  1M28D</t>
-  </si>
-  <si>
     <t>15  2M15D</t>
   </si>
   <si>
+    <t>97  1M14D</t>
+  </si>
+  <si>
     <t>360  3M0D</t>
   </si>
   <si>
     <t>41  -1M2D</t>
   </si>
   <si>
-    <t>97  1M14D</t>
-  </si>
-  <si>
     <t>71  8M18D</t>
   </si>
   <si>
@@ -5506,93 +5506,93 @@
     <t>374  -0M10D</t>
   </si>
   <si>
+    <t>796  2M21D</t>
+  </si>
+  <si>
+    <t>24  -0M2D</t>
+  </si>
+  <si>
+    <t>1720  1M21D</t>
+  </si>
+  <si>
+    <t>1111  1M10D</t>
+  </si>
+  <si>
+    <t>894  3M0D</t>
+  </si>
+  <si>
     <t>123  3M0D</t>
   </si>
   <si>
-    <t>1720  1M21D</t>
-  </si>
-  <si>
-    <t>894  3M0D</t>
-  </si>
-  <si>
-    <t>796  2M21D</t>
-  </si>
-  <si>
-    <t>1111  1M10D</t>
-  </si>
-  <si>
-    <t>24  -0M2D</t>
-  </si>
-  <si>
     <t>57  -1M3D</t>
   </si>
   <si>
     <t>299  -0M11D</t>
   </si>
   <si>
+    <t>25  1M5D</t>
+  </si>
+  <si>
+    <t>1199  -0M21D</t>
+  </si>
+  <si>
     <t>2412  1M5D</t>
   </si>
   <si>
-    <t>25  1M5D</t>
-  </si>
-  <si>
-    <t>1199  -0M21D</t>
-  </si>
-  <si>
     <t>524  1M5D</t>
   </si>
   <si>
     <t>41  -0M9D</t>
   </si>
   <si>
+    <t>76  5M0D</t>
+  </si>
+  <si>
+    <t>7  -0M2D</t>
+  </si>
+  <si>
+    <t>668  1M16D</t>
+  </si>
+  <si>
+    <t>4  -0M9D</t>
+  </si>
+  <si>
+    <t>55  4M19D</t>
+  </si>
+  <si>
     <t>2020  -0M16D</t>
   </si>
   <si>
-    <t>7  -0M2D</t>
-  </si>
-  <si>
-    <t>55  4M19D</t>
-  </si>
-  <si>
-    <t>76  5M0D</t>
-  </si>
-  <si>
-    <t>4  -0M9D</t>
-  </si>
-  <si>
-    <t>668  1M16D</t>
-  </si>
-  <si>
     <t>204  1M8D</t>
   </si>
   <si>
+    <t>121  1M26D</t>
+  </si>
+  <si>
+    <t>26  -0M13D</t>
+  </si>
+  <si>
     <t>2537  3M24D</t>
   </si>
   <si>
-    <t>26  -0M13D</t>
-  </si>
-  <si>
     <t>106  2M15D</t>
   </si>
   <si>
     <t>1221  1M10D</t>
   </si>
   <si>
-    <t>121  1M26D</t>
-  </si>
-  <si>
     <t>38  -0M24D</t>
   </si>
   <si>
     <t>1101  6M17D</t>
   </si>
   <si>
+    <t>332  1M19D</t>
+  </si>
+  <si>
     <t>153  1M20D</t>
   </si>
   <si>
-    <t>332  1M19D</t>
-  </si>
-  <si>
     <t>323  12M21D</t>
   </si>
   <si>
@@ -5620,27 +5620,27 @@
     <t>267  4M18D</t>
   </si>
   <si>
+    <t>763  2M27D</t>
+  </si>
+  <si>
+    <t>2575  -0M27D</t>
+  </si>
+  <si>
     <t>1687  3M29D</t>
   </si>
   <si>
-    <t>763  2M27D</t>
-  </si>
-  <si>
     <t>2289  -1M2D</t>
   </si>
   <si>
     <t>2048  3M3D</t>
   </si>
   <si>
-    <t>2575  -0M27D</t>
+    <t>235  4M17D</t>
   </si>
   <si>
     <t>159  -0M15D</t>
   </si>
   <si>
-    <t>235  4M17D</t>
-  </si>
-  <si>
     <t>91  2M14D</t>
   </si>
   <si>
@@ -5659,18 +5659,18 @@
     <t>75  2M17D</t>
   </si>
   <si>
+    <t>70  -0M21D</t>
+  </si>
+  <si>
+    <t>94  -0M29D</t>
+  </si>
+  <si>
     <t>696  -0M19D</t>
   </si>
   <si>
     <t>335  -0M16D</t>
   </si>
   <si>
-    <t>70  -0M21D</t>
-  </si>
-  <si>
-    <t>94  -0M29D</t>
-  </si>
-  <si>
     <t>2579  15M8D</t>
   </si>
   <si>
@@ -5692,13 +5692,16 @@
     <t>206  -0M24D</t>
   </si>
   <si>
+    <t>1083  -0M9D</t>
+  </si>
+  <si>
     <t>856  1M20D</t>
   </si>
   <si>
     <t>3309  -0M14D</t>
   </si>
   <si>
-    <t>1083  -0M9D</t>
+    <t>1816  1M25D</t>
   </si>
   <si>
     <t>481  4M6D</t>
@@ -5707,24 +5710,21 @@
     <t>3091  2M10D</t>
   </si>
   <si>
-    <t>1816  1M25D</t>
-  </si>
-  <si>
     <t>40  40M13D</t>
   </si>
   <si>
     <t>93  3M29D</t>
   </si>
   <si>
+    <t>91  3M26D</t>
+  </si>
+  <si>
     <t>66  2M6D</t>
   </si>
   <si>
     <t>28  4M14D</t>
   </si>
   <si>
-    <t>91  3M26D</t>
-  </si>
-  <si>
     <t>48  2M18D</t>
   </si>
   <si>
@@ -5734,84 +5734,84 @@
     <t>437  -0M10D</t>
   </si>
   <si>
+    <t>233  -0M20D</t>
+  </si>
+  <si>
+    <t>232  -0M26D</t>
+  </si>
+  <si>
+    <t>745  1M6D</t>
+  </si>
+  <si>
+    <t>859  1M8D</t>
+  </si>
+  <si>
+    <t>563  1M28D</t>
+  </si>
+  <si>
     <t>119  5M24D</t>
   </si>
   <si>
-    <t>745  1M6D</t>
-  </si>
-  <si>
-    <t>563  1M28D</t>
-  </si>
-  <si>
-    <t>233  -0M20D</t>
-  </si>
-  <si>
-    <t>859  1M8D</t>
-  </si>
-  <si>
-    <t>232  -0M26D</t>
-  </si>
-  <si>
     <t>92  3M14D</t>
   </si>
   <si>
     <t>259  -0M19D</t>
   </si>
   <si>
+    <t>737  -0M16D</t>
+  </si>
+  <si>
     <t>2134  -0M28D</t>
   </si>
   <si>
-    <t>737  -0M16D</t>
+    <t>11  -0M15D</t>
   </si>
   <si>
     <t>578  2M19D</t>
   </si>
   <si>
-    <t>11  -0M15D</t>
-  </si>
-  <si>
     <t>206  4M0D</t>
   </si>
   <si>
+    <t>63  3M2D</t>
+  </si>
+  <si>
     <t>22  -0M14D</t>
   </si>
   <si>
+    <t>326  1M16D</t>
+  </si>
+  <si>
     <t>17  3M6D</t>
   </si>
   <si>
-    <t>63  3M2D</t>
-  </si>
-  <si>
-    <t>326  1M16D</t>
-  </si>
-  <si>
     <t>300  2M1D</t>
   </si>
   <si>
+    <t>49  -0M10D</t>
+  </si>
+  <si>
+    <t>336  2M25D</t>
+  </si>
+  <si>
     <t>1603  3M4D</t>
   </si>
   <si>
-    <t>336  2M25D</t>
-  </si>
-  <si>
     <t>124  3M20D</t>
   </si>
   <si>
     <t>1724  4M29D</t>
   </si>
   <si>
-    <t>49  -0M10D</t>
-  </si>
-  <si>
     <t>750  1M18D</t>
   </si>
   <si>
+    <t>183  1M11D</t>
+  </si>
+  <si>
     <t>67  2M24D</t>
   </si>
   <si>
-    <t>183  1M11D</t>
-  </si>
-  <si>
     <t>170  1M16D</t>
   </si>
   <si>
@@ -5842,27 +5842,27 @@
     <t>124  5M4D</t>
   </si>
   <si>
+    <t>751  2M4D</t>
+  </si>
+  <si>
+    <t>1678  -0M21D</t>
+  </si>
+  <si>
     <t>1167  2M15D</t>
   </si>
   <si>
-    <t>751  2M4D</t>
-  </si>
-  <si>
     <t>2098  -0M27D</t>
   </si>
   <si>
     <t>1512  3M26D</t>
   </si>
   <si>
-    <t>1678  -0M21D</t>
+    <t>175  8M25D</t>
   </si>
   <si>
     <t>109  66M3D</t>
   </si>
   <si>
-    <t>175  8M25D</t>
-  </si>
-  <si>
     <t>174  25M4D</t>
   </si>
   <si>
@@ -5881,18 +5881,18 @@
     <t>25  2M11D</t>
   </si>
   <si>
+    <t>84  2M20D</t>
+  </si>
+  <si>
+    <t>183  2M27D</t>
+  </si>
+  <si>
     <t>438  -0M22D</t>
   </si>
   <si>
     <t>377  1M19D</t>
   </si>
   <si>
-    <t>84  2M20D</t>
-  </si>
-  <si>
-    <t>183  2M27D</t>
-  </si>
-  <si>
     <t>2408  17M4D</t>
   </si>
   <si>
@@ -5914,13 +5914,16 @@
     <t>975  6M20D</t>
   </si>
   <si>
+    <t>7876  3M10D</t>
+  </si>
+  <si>
     <t>280  1M14D</t>
   </si>
   <si>
     <t>5005  1M24D</t>
   </si>
   <si>
-    <t>7876  3M10D</t>
+    <t>9191  2M9D</t>
   </si>
   <si>
     <t>367  2M22D</t>
@@ -5929,18 +5932,15 @@
     <t>6568  2M26D</t>
   </si>
   <si>
-    <t>9191  2M9D</t>
-  </si>
-  <si>
     <t>114  2M26D</t>
   </si>
   <si>
+    <t>66  9M16D</t>
+  </si>
+  <si>
     <t>46  69M23D</t>
   </si>
   <si>
-    <t>66  9M16D</t>
-  </si>
-  <si>
     <t>33  8M10D</t>
   </si>
   <si>
@@ -5953,93 +5953,93 @@
     <t>790  -1M1D</t>
   </si>
   <si>
+    <t>240  1M14D</t>
+  </si>
+  <si>
+    <t>228  1M20D</t>
+  </si>
+  <si>
+    <t>975  2M1D</t>
+  </si>
+  <si>
+    <t>526  1M23D</t>
+  </si>
+  <si>
+    <t>488  2M14D</t>
+  </si>
+  <si>
     <t>219  7M19D</t>
   </si>
   <si>
-    <t>975  2M1D</t>
-  </si>
-  <si>
-    <t>488  2M14D</t>
-  </si>
-  <si>
-    <t>240  1M14D</t>
-  </si>
-  <si>
-    <t>526  1M23D</t>
-  </si>
-  <si>
-    <t>228  1M20D</t>
-  </si>
-  <si>
     <t>36  3M19D</t>
   </si>
   <si>
     <t>452  4M18D</t>
   </si>
   <si>
+    <t>39  3M1D</t>
+  </si>
+  <si>
+    <t>1016  1M29D</t>
+  </si>
+  <si>
     <t>1421  3M3D</t>
   </si>
   <si>
-    <t>39  3M1D</t>
-  </si>
-  <si>
-    <t>1016  1M29D</t>
+    <t>50  -0M22D</t>
   </si>
   <si>
     <t>738  2M16D</t>
   </si>
   <si>
-    <t>50  -0M22D</t>
-  </si>
-  <si>
     <t>97  2M12D</t>
   </si>
   <si>
+    <t>65  5M29D</t>
+  </si>
+  <si>
+    <t>258  1M10D</t>
+  </si>
+  <si>
+    <t>79  10M26D</t>
+  </si>
+  <si>
+    <t>21  1M19D</t>
+  </si>
+  <si>
     <t>90  -0M4D</t>
   </si>
   <si>
-    <t>21  1M19D</t>
-  </si>
-  <si>
-    <t>65  5M29D</t>
-  </si>
-  <si>
-    <t>79  10M26D</t>
-  </si>
-  <si>
-    <t>258  1M10D</t>
-  </si>
-  <si>
     <t>423  4M12D</t>
   </si>
   <si>
+    <t>25  2M13D</t>
+  </si>
+  <si>
+    <t>103  4M15D</t>
+  </si>
+  <si>
     <t>2480  22M5D</t>
   </si>
   <si>
-    <t>103  4M15D</t>
-  </si>
-  <si>
     <t>47  2M29D</t>
   </si>
   <si>
     <t>1578  6M14D</t>
   </si>
   <si>
-    <t>25  2M13D</t>
-  </si>
-  <si>
     <t>30  -0M19D</t>
   </si>
   <si>
     <t>433  5M18D</t>
   </si>
   <si>
+    <t>238  2M8D</t>
+  </si>
+  <si>
     <t>215  5M11D</t>
   </si>
   <si>
-    <t>238  2M8D</t>
-  </si>
-  <si>
     <t>158  2M19D</t>
   </si>
   <si>
@@ -6070,27 +6070,27 @@
     <t>95  2M20D</t>
   </si>
   <si>
+    <t>569  1M22D</t>
+  </si>
+  <si>
+    <t>2429  1M24D</t>
+  </si>
+  <si>
     <t>1723  8M22D</t>
   </si>
   <si>
-    <t>569  1M22D</t>
-  </si>
-  <si>
     <t>2824  3M24D</t>
   </si>
   <si>
     <t>1142  7M13D</t>
   </si>
   <si>
-    <t>2429  1M24D</t>
+    <t>191  3M29D</t>
   </si>
   <si>
     <t>95  16M0D</t>
   </si>
   <si>
-    <t>191  3M29D</t>
-  </si>
-  <si>
     <t>229  6M18D</t>
   </si>
   <si>
@@ -6109,18 +6109,18 @@
     <t>60  -1M0D</t>
   </si>
   <si>
+    <t>75  1M19D</t>
+  </si>
+  <si>
+    <t>182  9M20D</t>
+  </si>
+  <si>
     <t>1278  1M7D</t>
   </si>
   <si>
     <t>605  1M7D</t>
   </si>
   <si>
-    <t>75  1M19D</t>
-  </si>
-  <si>
-    <t>182  9M20D</t>
-  </si>
-  <si>
     <t>2706  2M2D</t>
   </si>
   <si>
@@ -6142,13 +6142,16 @@
     <t>612  2M4D</t>
   </si>
   <si>
+    <t>5877  2M17D</t>
+  </si>
+  <si>
     <t>1137  5M12D</t>
   </si>
   <si>
     <t>3865  1M5D</t>
   </si>
   <si>
-    <t>5877  2M17D</t>
+    <t>4577  4M18D</t>
   </si>
   <si>
     <t>271  1M5D</t>
@@ -6157,24 +6160,21 @@
     <t>4685  1M17D</t>
   </si>
   <si>
-    <t>4577  4M18D</t>
-  </si>
-  <si>
     <t>45  45M15D</t>
   </si>
   <si>
     <t>152  2M28D</t>
   </si>
   <si>
+    <t>106  3M29D</t>
+  </si>
+  <si>
     <t>98  1M5D</t>
   </si>
   <si>
     <t>56  2M17D</t>
   </si>
   <si>
-    <t>106  3M29D</t>
-  </si>
-  <si>
     <t>58  7M9D</t>
   </si>
   <si>
@@ -6187,96 +6187,96 @@
     <t>739  1M8D</t>
   </si>
   <si>
+    <t>133  -1M3D</t>
+  </si>
+  <si>
+    <t>111  -0M10D</t>
+  </si>
+  <si>
+    <t>1043  1M18D</t>
+  </si>
+  <si>
+    <t>1166  2M18D</t>
+  </si>
+  <si>
+    <t>764  1M24D</t>
+  </si>
+  <si>
     <t>92  3M2D</t>
   </si>
   <si>
-    <t>1043  1M18D</t>
-  </si>
-  <si>
-    <t>764  1M24D</t>
-  </si>
-  <si>
-    <t>133  -1M3D</t>
-  </si>
-  <si>
-    <t>1166  2M18D</t>
-  </si>
-  <si>
-    <t>111  -0M10D</t>
-  </si>
-  <si>
     <t>81  2M25D</t>
   </si>
   <si>
     <t>121  -0M8D</t>
   </si>
   <si>
+    <t>13  -1M1D</t>
+  </si>
+  <si>
+    <t>978  1M9D</t>
+  </si>
+  <si>
     <t>2032  3M6D</t>
   </si>
   <si>
-    <t>13  -1M1D</t>
-  </si>
-  <si>
-    <t>978  1M9D</t>
+    <t>124  4M0D</t>
   </si>
   <si>
     <t>702  1M13D</t>
   </si>
   <si>
-    <t>124  4M0D</t>
-  </si>
-  <si>
     <t>187  2M10D</t>
   </si>
   <si>
+    <t>30  5M20D</t>
+  </si>
+  <si>
+    <t>22  -0M11D</t>
+  </si>
+  <si>
+    <t>719  2M27D</t>
+  </si>
+  <si>
+    <t>6  2M18D</t>
+  </si>
+  <si>
+    <t>19  2M26D</t>
+  </si>
+  <si>
     <t>685  -0M20D</t>
   </si>
   <si>
-    <t>22  -0M11D</t>
-  </si>
-  <si>
-    <t>19  2M26D</t>
-  </si>
-  <si>
-    <t>30  5M20D</t>
-  </si>
-  <si>
-    <t>6  2M18D</t>
-  </si>
-  <si>
-    <t>719  2M27D</t>
-  </si>
-  <si>
     <t>282  3M19D</t>
   </si>
   <si>
+    <t>153  6M0D</t>
+  </si>
+  <si>
+    <t>184  2M10D</t>
+  </si>
+  <si>
     <t>2241  1M27D</t>
   </si>
   <si>
-    <t>184  2M10D</t>
-  </si>
-  <si>
     <t>108  4M2D</t>
   </si>
   <si>
     <t>2137  1M18D</t>
   </si>
   <si>
-    <t>153  6M0D</t>
-  </si>
-  <si>
     <t>65  1M6D</t>
   </si>
   <si>
     <t>445  10M23D</t>
   </si>
   <si>
+    <t>209  3M3D</t>
+  </si>
+  <si>
     <t>75  7M17D</t>
   </si>
   <si>
-    <t>209  3M3D</t>
-  </si>
-  <si>
     <t>141  -0M23D</t>
   </si>
   <si>
@@ -6307,27 +6307,27 @@
     <t>128  -1M1D</t>
   </si>
   <si>
+    <t>318  1M17D</t>
+  </si>
+  <si>
+    <t>3261  1M23D</t>
+  </si>
+  <si>
     <t>664  6M6D</t>
   </si>
   <si>
-    <t>318  1M17D</t>
-  </si>
-  <si>
     <t>1658  -0M27D</t>
   </si>
   <si>
     <t>1731  1M15D</t>
   </si>
   <si>
-    <t>3261  1M23D</t>
+    <t>189  10M24D</t>
   </si>
   <si>
     <t>144  4M24D</t>
   </si>
   <si>
-    <t>189  10M24D</t>
-  </si>
-  <si>
     <t>110  1M20D</t>
   </si>
   <si>
@@ -6346,18 +6346,18 @@
     <t>99  7M27D</t>
   </si>
   <si>
+    <t>199  12M9D</t>
+  </si>
+  <si>
+    <t>99  8M17D</t>
+  </si>
+  <si>
     <t>1535  3M22D</t>
   </si>
   <si>
     <t>394  1M8D</t>
   </si>
   <si>
-    <t>199  12M9D</t>
-  </si>
-  <si>
-    <t>99  8M17D</t>
-  </si>
-  <si>
     <t>2965  3M11D</t>
   </si>
   <si>
@@ -6379,13 +6379,16 @@
     <t>545  4M10D</t>
   </si>
   <si>
+    <t>4719  2M7D</t>
+  </si>
+  <si>
     <t>241  4M7D</t>
   </si>
   <si>
     <t>4970  -0M28D</t>
   </si>
   <si>
-    <t>4719  2M7D</t>
+    <t>3943  2M20D</t>
   </si>
   <si>
     <t>391  2M3D</t>
@@ -6394,24 +6397,21 @@
     <t>4139  1M10D</t>
   </si>
   <si>
-    <t>3943  2M20D</t>
-  </si>
-  <si>
     <t>23  -0M23D</t>
   </si>
   <si>
     <t>91  1M19D</t>
   </si>
   <si>
+    <t>83  6M4D</t>
+  </si>
+  <si>
     <t>110  2M13D</t>
   </si>
   <si>
     <t>68  3M22D</t>
   </si>
   <si>
-    <t>83  6M4D</t>
-  </si>
-  <si>
     <t>28  2M19D</t>
   </si>
   <si>
@@ -6424,90 +6424,90 @@
     <t>402  -0M17D</t>
   </si>
   <si>
+    <t>254  2M23D</t>
+  </si>
+  <si>
+    <t>90  -0M7D</t>
+  </si>
+  <si>
+    <t>846  -1M2D</t>
+  </si>
+  <si>
+    <t>982  1M29D</t>
+  </si>
+  <si>
+    <t>479  1M5D</t>
+  </si>
+  <si>
     <t>114  1M25D</t>
   </si>
   <si>
-    <t>846  -1M2D</t>
-  </si>
-  <si>
-    <t>479  1M5D</t>
-  </si>
-  <si>
-    <t>254  2M23D</t>
-  </si>
-  <si>
-    <t>982  1M29D</t>
-  </si>
-  <si>
-    <t>90  -0M7D</t>
-  </si>
-  <si>
     <t>89  6M12D</t>
   </si>
   <si>
     <t>288  1M11D</t>
   </si>
   <si>
+    <t>21  -0M21D</t>
+  </si>
+  <si>
+    <t>888  1M18D</t>
+  </si>
+  <si>
     <t>2181  5M13D</t>
   </si>
   <si>
-    <t>21  -0M21D</t>
-  </si>
-  <si>
-    <t>888  1M18D</t>
+    <t>76  4M5D</t>
   </si>
   <si>
     <t>532  2M5D</t>
   </si>
   <si>
-    <t>76  4M5D</t>
-  </si>
-  <si>
     <t>260  2M1D</t>
   </si>
   <si>
+    <t>92  46M15D</t>
+  </si>
+  <si>
+    <t>567  2M7D</t>
+  </si>
+  <si>
+    <t>41  9M17D</t>
+  </si>
+  <si>
     <t>1316  2M25D</t>
   </si>
   <si>
-    <t>92  46M15D</t>
-  </si>
-  <si>
-    <t>41  9M17D</t>
-  </si>
-  <si>
-    <t>567  2M7D</t>
-  </si>
-  <si>
     <t>303  6M15D</t>
   </si>
   <si>
+    <t>212  5M14D</t>
+  </si>
+  <si>
+    <t>101  -0M16D</t>
+  </si>
+  <si>
     <t>1987  1M19D</t>
   </si>
   <si>
-    <t>101  -0M16D</t>
-  </si>
-  <si>
     <t>315  6M12D</t>
   </si>
   <si>
     <t>2176  1M12D</t>
   </si>
   <si>
-    <t>212  5M14D</t>
-  </si>
-  <si>
     <t>73  2M11D</t>
   </si>
   <si>
     <t>473  3M26D</t>
   </si>
   <si>
+    <t>121  1M25D</t>
+  </si>
+  <si>
     <t>69  6M29D</t>
   </si>
   <si>
-    <t>121  1M25D</t>
-  </si>
-  <si>
     <t>216  6M22D</t>
   </si>
   <si>
@@ -6532,27 +6532,27 @@
     <t>169  12M15D</t>
   </si>
   <si>
+    <t>282  2M6D</t>
+  </si>
+  <si>
+    <t>2424  -1M4D</t>
+  </si>
+  <si>
     <t>649  6M10D</t>
   </si>
   <si>
-    <t>282  2M6D</t>
-  </si>
-  <si>
     <t>1383  -0M22D</t>
   </si>
   <si>
     <t>1454  1M8D</t>
   </si>
   <si>
-    <t>2424  -1M4D</t>
+    <t>171  4M2D</t>
   </si>
   <si>
     <t>155  4M28D</t>
   </si>
   <si>
-    <t>171  4M2D</t>
-  </si>
-  <si>
     <t>309  9M19D</t>
   </si>
   <si>
@@ -6568,18 +6568,18 @@
     <t>74  3M26D</t>
   </si>
   <si>
+    <t>146  4M12D</t>
+  </si>
+  <si>
+    <t>100  2M7D</t>
+  </si>
+  <si>
     <t>451  -0M16D</t>
   </si>
   <si>
     <t>699  1M24D</t>
   </si>
   <si>
-    <t>146  4M12D</t>
-  </si>
-  <si>
-    <t>100  2M7D</t>
-  </si>
-  <si>
     <t>5394  7M27D</t>
   </si>
   <si>
@@ -6601,13 +6601,16 @@
     <t>344  -0M18D</t>
   </si>
   <si>
+    <t>7784  1M15D</t>
+  </si>
+  <si>
     <t>999  2M0D</t>
   </si>
   <si>
     <t>6502  -0M25D</t>
   </si>
   <si>
-    <t>7784  1M15D</t>
+    <t>2818  26M1D</t>
   </si>
   <si>
     <t>562  2M28D</t>
@@ -6616,21 +6619,18 @@
     <t>4175  2M26D</t>
   </si>
   <si>
-    <t>2818  26M1D</t>
-  </si>
-  <si>
     <t>290  2M0D</t>
   </si>
   <si>
+    <t>104  2M23D</t>
+  </si>
+  <si>
     <t>457  4M0D</t>
   </si>
   <si>
     <t>104  2M0D</t>
   </si>
   <si>
-    <t>104  2M23D</t>
-  </si>
-  <si>
     <t>91  6M21D</t>
   </si>
   <si>
@@ -6640,63 +6640,66 @@
     <t>166  -1M2D</t>
   </si>
   <si>
+    <t>247  1M21D</t>
+  </si>
+  <si>
+    <t>73  -0M9D</t>
+  </si>
+  <si>
+    <t>974  1M10D</t>
+  </si>
+  <si>
+    <t>921  2M6D</t>
+  </si>
+  <si>
+    <t>542  1M9D</t>
+  </si>
+  <si>
     <t>142  2M19D</t>
   </si>
   <si>
-    <t>974  1M10D</t>
-  </si>
-  <si>
-    <t>542  1M9D</t>
-  </si>
-  <si>
-    <t>247  1M21D</t>
-  </si>
-  <si>
-    <t>921  2M6D</t>
-  </si>
-  <si>
-    <t>73  -0M9D</t>
-  </si>
-  <si>
     <t>28  -0M25D</t>
   </si>
   <si>
     <t>94  -0M7D</t>
   </si>
   <si>
+    <t>983  1M6D</t>
+  </si>
+  <si>
     <t>2516  2M4D</t>
   </si>
   <si>
-    <t>983  1M6D</t>
+    <t>12  -0M16D</t>
   </si>
   <si>
     <t>734  3M22D</t>
   </si>
   <si>
-    <t>12  -0M16D</t>
-  </si>
-  <si>
     <t>190  -1M1D</t>
   </si>
   <si>
+    <t>69  9M29D</t>
+  </si>
+  <si>
+    <t>432  1M15D</t>
+  </si>
+  <si>
+    <t>5  -0M14D</t>
+  </si>
+  <si>
+    <t>14  -1M4D</t>
+  </si>
+  <si>
     <t>628  -1M1D</t>
   </si>
   <si>
-    <t>14  -1M4D</t>
-  </si>
-  <si>
-    <t>69  9M29D</t>
-  </si>
-  <si>
-    <t>5  -0M14D</t>
-  </si>
-  <si>
-    <t>432  1M15D</t>
-  </si>
-  <si>
     <t>65  -0M17D</t>
   </si>
   <si>
+    <t>176  2M4D</t>
+  </si>
+  <si>
     <t>1565  1M6D</t>
   </si>
   <si>
@@ -6706,21 +6709,18 @@
     <t>3288  2M20D</t>
   </si>
   <si>
-    <t>176  2M4D</t>
-  </si>
-  <si>
     <t>53  1M20D</t>
   </si>
   <si>
     <t>1141  5M4D</t>
   </si>
   <si>
+    <t>305  4M13D</t>
+  </si>
+  <si>
     <t>79  2M4D</t>
   </si>
   <si>
-    <t>305  4M13D</t>
-  </si>
-  <si>
     <t>333  5M11D</t>
   </si>
   <si>
@@ -6745,27 +6745,27 @@
     <t>68  7M3D</t>
   </si>
   <si>
+    <t>437  4M16D</t>
+  </si>
+  <si>
+    <t>2160  1M6D</t>
+  </si>
+  <si>
     <t>883  3M26D</t>
   </si>
   <si>
-    <t>437  4M16D</t>
-  </si>
-  <si>
     <t>3517  2M8D</t>
   </si>
   <si>
     <t>2210  1M23D</t>
   </si>
   <si>
-    <t>2160  1M6D</t>
+    <t>263  16M8D</t>
   </si>
   <si>
     <t>20  -0M8D</t>
   </si>
   <si>
-    <t>263  16M8D</t>
-  </si>
-  <si>
     <t>60  3M2D</t>
   </si>
   <si>
@@ -6781,18 +6781,18 @@
     <t>115  12M0D</t>
   </si>
   <si>
+    <t>109  2M26D</t>
+  </si>
+  <si>
+    <t>105  2M3D</t>
+  </si>
+  <si>
     <t>1373  1M21D</t>
   </si>
   <si>
     <t>366  -0M24D</t>
   </si>
   <si>
-    <t>109  2M26D</t>
-  </si>
-  <si>
-    <t>105  2M3D</t>
-  </si>
-  <si>
     <t>2531  14M17D</t>
   </si>
   <si>
@@ -6811,13 +6811,16 @@
     <t>352  8M20D</t>
   </si>
   <si>
+    <t>2574  1M7D</t>
+  </si>
+  <si>
     <t>261  -1M2D</t>
   </si>
   <si>
     <t>2797  -0M25D</t>
   </si>
   <si>
-    <t>2574  1M7D</t>
+    <t>1750  6M23D</t>
   </si>
   <si>
     <t>393  2M1D</t>
@@ -6826,24 +6829,21 @@
     <t>1467  1M19D</t>
   </si>
   <si>
-    <t>1750  6M23D</t>
-  </si>
-  <si>
     <t>27  11M21D</t>
   </si>
   <si>
     <t>113  2M22D</t>
   </si>
   <si>
+    <t>71  3M29D</t>
+  </si>
+  <si>
     <t>126  3M12D</t>
   </si>
   <si>
     <t>10  -0M8D</t>
   </si>
   <si>
-    <t>71  3M29D</t>
-  </si>
-  <si>
     <t>69  69M23D</t>
   </si>
   <si>
@@ -6856,90 +6856,90 @@
     <t>337  -0M16D</t>
   </si>
   <si>
+    <t>283  2M9D</t>
+  </si>
+  <si>
+    <t>670  4M24D</t>
+  </si>
+  <si>
+    <t>833  -1M2D</t>
+  </si>
+  <si>
+    <t>466  -0M27D</t>
+  </si>
+  <si>
+    <t>579  2M9D</t>
+  </si>
+  <si>
     <t>140  2M19D</t>
   </si>
   <si>
-    <t>833  -1M2D</t>
-  </si>
-  <si>
-    <t>579  2M9D</t>
-  </si>
-  <si>
-    <t>283  2M9D</t>
-  </si>
-  <si>
-    <t>466  -0M27D</t>
-  </si>
-  <si>
-    <t>670  4M24D</t>
-  </si>
-  <si>
     <t>100  2M13D</t>
   </si>
   <si>
+    <t>49  2M2D</t>
+  </si>
+  <si>
+    <t>600  -0M22D</t>
+  </si>
+  <si>
     <t>1595  2M3D</t>
   </si>
   <si>
-    <t>49  2M2D</t>
-  </si>
-  <si>
-    <t>600  -0M22D</t>
+    <t>74  3M2D</t>
   </si>
   <si>
     <t>586  3M13D</t>
   </si>
   <si>
-    <t>74  3M2D</t>
+    <t>40  11M0D</t>
+  </si>
+  <si>
+    <t>19  -0M10D</t>
+  </si>
+  <si>
+    <t>370  1M18D</t>
+  </si>
+  <si>
+    <t>11  6M20D</t>
   </si>
   <si>
     <t>576  -0M23D</t>
   </si>
   <si>
-    <t>19  -0M10D</t>
-  </si>
-  <si>
-    <t>11  6M20D</t>
-  </si>
-  <si>
-    <t>40  11M0D</t>
-  </si>
-  <si>
-    <t>370  1M18D</t>
+    <t>236  3M3D</t>
   </si>
   <si>
     <t>1  1M15D</t>
   </si>
   <si>
-    <t>236  3M3D</t>
+    <t>167  2M24D</t>
+  </si>
+  <si>
+    <t>174  6M6D</t>
   </si>
   <si>
     <t>2311  9M20D</t>
   </si>
   <si>
-    <t>174  6M6D</t>
-  </si>
-  <si>
     <t>118  6M15D</t>
   </si>
   <si>
     <t>2299  6M9D</t>
   </si>
   <si>
-    <t>167  2M24D</t>
-  </si>
-  <si>
     <t>213  49M21D</t>
   </si>
   <si>
     <t>182  1M26D</t>
   </si>
   <si>
+    <t>329  1M18D</t>
+  </si>
+  <si>
     <t>241  10M4D</t>
   </si>
   <si>
-    <t>329  1M18D</t>
-  </si>
-  <si>
     <t>436  19M22D</t>
   </si>
   <si>
@@ -6970,27 +6970,27 @@
     <t>9  -0M0D</t>
   </si>
   <si>
+    <t>272  2M6D</t>
+  </si>
+  <si>
+    <t>1760  1M8D</t>
+  </si>
+  <si>
     <t>1159  7M25D</t>
   </si>
   <si>
-    <t>272  2M6D</t>
-  </si>
-  <si>
     <t>1358  1M14D</t>
   </si>
   <si>
     <t>1211  4M7D</t>
   </si>
   <si>
-    <t>1760  1M8D</t>
+    <t>224  3M7D</t>
   </si>
   <si>
     <t>225  2M5D</t>
   </si>
   <si>
-    <t>224  3M7D</t>
-  </si>
-  <si>
     <t>95  1M19D</t>
   </si>
   <si>
@@ -7009,18 +7009,18 @@
     <t>99  2M17D</t>
   </si>
   <si>
+    <t>96  1M8D</t>
+  </si>
+  <si>
+    <t>117  -0M27D</t>
+  </si>
+  <si>
     <t>1452  2M5D</t>
   </si>
   <si>
     <t>254  -0M16D</t>
   </si>
   <si>
-    <t>96  1M8D</t>
-  </si>
-  <si>
-    <t>117  -0M27D</t>
-  </si>
-  <si>
     <t>1910  2M7D</t>
   </si>
   <si>
@@ -7042,13 +7042,16 @@
     <t>208  -0M9D</t>
   </si>
   <si>
+    <t>3557  -1M1D</t>
+  </si>
+  <si>
     <t>371  2M1D</t>
   </si>
   <si>
     <t>3282  -0M12D</t>
   </si>
   <si>
-    <t>3557  -1M1D</t>
+    <t>1069  2M9D</t>
   </si>
   <si>
     <t>299  3M13D</t>
@@ -7057,24 +7060,21 @@
     <t>3465  2M17D</t>
   </si>
   <si>
-    <t>1069  2M9D</t>
-  </si>
-  <si>
     <t>33  16M20D</t>
   </si>
   <si>
     <t>164  2M23D</t>
   </si>
   <si>
+    <t>125  1M9D</t>
+  </si>
+  <si>
     <t>94  4M2D</t>
   </si>
   <si>
     <t>55  -0M24D</t>
   </si>
   <si>
-    <t>125  1M9D</t>
-  </si>
-  <si>
     <t>86  11M25D</t>
   </si>
   <si>
@@ -7087,93 +7087,93 @@
     <t>544  -0M19D</t>
   </si>
   <si>
+    <t>311  -0M16D</t>
+  </si>
+  <si>
+    <t>44  -0M3D</t>
+  </si>
+  <si>
+    <t>1158  1M15D</t>
+  </si>
+  <si>
+    <t>1082  -1M4D</t>
+  </si>
+  <si>
+    <t>801  1M12D</t>
+  </si>
+  <si>
     <t>127  3M12D</t>
   </si>
   <si>
-    <t>1158  1M15D</t>
-  </si>
-  <si>
-    <t>801  1M12D</t>
-  </si>
-  <si>
-    <t>311  -0M16D</t>
-  </si>
-  <si>
-    <t>1082  -1M4D</t>
-  </si>
-  <si>
-    <t>44  -0M3D</t>
-  </si>
-  <si>
     <t>49  -1M2D</t>
   </si>
   <si>
     <t>128  -0M5D</t>
   </si>
   <si>
+    <t>17  1M5D</t>
+  </si>
+  <si>
+    <t>1500  1M13D</t>
+  </si>
+  <si>
     <t>2707  1M29D</t>
   </si>
   <si>
-    <t>17  1M5D</t>
-  </si>
-  <si>
-    <t>1500  1M13D</t>
+    <t>36  1M15D</t>
   </si>
   <si>
     <t>547  1M16D</t>
   </si>
   <si>
-    <t>36  1M15D</t>
-  </si>
-  <si>
     <t>172  1M23D</t>
   </si>
   <si>
+    <t>100  2M29D</t>
+  </si>
+  <si>
+    <t>538  1M10D</t>
+  </si>
+  <si>
+    <t>130  17M27D</t>
+  </si>
+  <si>
+    <t>61  10M8D</t>
+  </si>
+  <si>
     <t>1687  -0M21D</t>
   </si>
   <si>
-    <t>61  10M8D</t>
-  </si>
-  <si>
-    <t>100  2M29D</t>
-  </si>
-  <si>
-    <t>130  17M27D</t>
-  </si>
-  <si>
-    <t>538  1M10D</t>
-  </si>
-  <si>
     <t>236  1M15D</t>
   </si>
   <si>
+    <t>122  1M24D</t>
+  </si>
+  <si>
+    <t>157  1M13D</t>
+  </si>
+  <si>
     <t>1669  1M7D</t>
   </si>
   <si>
-    <t>157  1M13D</t>
-  </si>
-  <si>
     <t>262  2M6D</t>
   </si>
   <si>
     <t>1979  1M27D</t>
   </si>
   <si>
-    <t>122  1M24D</t>
-  </si>
-  <si>
     <t>215  16M21D</t>
   </si>
   <si>
     <t>531  4M6D</t>
   </si>
   <si>
+    <t>785  2M1D</t>
+  </si>
+  <si>
     <t>29  -0M7D</t>
   </si>
   <si>
-    <t>785  2M1D</t>
-  </si>
-  <si>
     <t>229  2M17D</t>
   </si>
   <si>
@@ -7204,27 +7204,27 @@
     <t>180  1M22D</t>
   </si>
   <si>
+    <t>491  4M16D</t>
+  </si>
+  <si>
+    <t>2310  -0M23D</t>
+  </si>
+  <si>
     <t>991  1M26D</t>
   </si>
   <si>
-    <t>491  4M16D</t>
-  </si>
-  <si>
     <t>3743  2M0D</t>
   </si>
   <si>
     <t>1652  1M26D</t>
   </si>
   <si>
-    <t>2310  -0M23D</t>
+    <t>197  16M4D</t>
   </si>
   <si>
     <t>146  4M26D</t>
   </si>
   <si>
-    <t>197  16M4D</t>
-  </si>
-  <si>
     <t>208  4M17D</t>
   </si>
   <si>
@@ -7243,18 +7243,18 @@
     <t>53  1M25D</t>
   </si>
   <si>
+    <t>198  2M17D</t>
+  </si>
+  <si>
+    <t>61  2M0D</t>
+  </si>
+  <si>
     <t>1016  -0M24D</t>
   </si>
   <si>
     <t>482  -0M27D</t>
   </si>
   <si>
-    <t>198  2M17D</t>
-  </si>
-  <si>
-    <t>61  2M0D</t>
-  </si>
-  <si>
     <t>3277  4M13D</t>
   </si>
   <si>
@@ -7276,13 +7276,16 @@
     <t>224  -1M2D</t>
   </si>
   <si>
+    <t>2551  -1M2D</t>
+  </si>
+  <si>
     <t>607  20M7D</t>
   </si>
   <si>
     <t>2690  -0M17D</t>
   </si>
   <si>
-    <t>2551  -1M2D</t>
+    <t>1733  5M13D</t>
   </si>
   <si>
     <t>470  2M18D</t>
@@ -7291,24 +7294,21 @@
     <t>3165  3M24D</t>
   </si>
   <si>
-    <t>1733  5M13D</t>
-  </si>
-  <si>
     <t>37  56M3D</t>
   </si>
   <si>
     <t>84  2M25D</t>
   </si>
   <si>
+    <t>17  -0M5D</t>
+  </si>
+  <si>
     <t>126  1M12D</t>
   </si>
   <si>
     <t>61  -0M25D</t>
   </si>
   <si>
-    <t>17  -0M5D</t>
-  </si>
-  <si>
     <t>41  6M16D</t>
   </si>
   <si>
@@ -7321,93 +7321,93 @@
     <t>679  -0M21D</t>
   </si>
   <si>
+    <t>189  1M9D</t>
+  </si>
+  <si>
+    <t>250  -1M0D</t>
+  </si>
+  <si>
+    <t>1060  1M20D</t>
+  </si>
+  <si>
+    <t>848  1M21D</t>
+  </si>
+  <si>
+    <t>1260  3M14D</t>
+  </si>
+  <si>
     <t>52  -1M3D</t>
   </si>
   <si>
-    <t>1060  1M20D</t>
-  </si>
-  <si>
-    <t>1260  3M14D</t>
-  </si>
-  <si>
-    <t>189  1M9D</t>
-  </si>
-  <si>
-    <t>848  1M21D</t>
-  </si>
-  <si>
-    <t>250  -1M0D</t>
-  </si>
-  <si>
     <t>126  -0M11D</t>
   </si>
   <si>
     <t>384  -0M22D</t>
   </si>
   <si>
+    <t>53  3M8D</t>
+  </si>
+  <si>
+    <t>529  -0M14D</t>
+  </si>
+  <si>
     <t>2165  1M24D</t>
   </si>
   <si>
-    <t>53  3M8D</t>
-  </si>
-  <si>
-    <t>529  -0M14D</t>
-  </si>
-  <si>
     <t>402  1M5D</t>
   </si>
   <si>
     <t>95  -0M23D</t>
   </si>
   <si>
+    <t>56  8M28D</t>
+  </si>
+  <si>
+    <t>19  -0M9D</t>
+  </si>
+  <si>
+    <t>807  3M8D</t>
+  </si>
+  <si>
+    <t>5  -0M28D</t>
+  </si>
+  <si>
+    <t>14  10M18D</t>
+  </si>
+  <si>
     <t>522  -0M23D</t>
   </si>
   <si>
-    <t>19  -0M9D</t>
-  </si>
-  <si>
-    <t>14  10M18D</t>
-  </si>
-  <si>
-    <t>56  8M28D</t>
-  </si>
-  <si>
-    <t>5  -0M28D</t>
-  </si>
-  <si>
-    <t>807  3M8D</t>
-  </si>
-  <si>
     <t>176  -1M1D</t>
   </si>
   <si>
+    <t>139  10M8D</t>
+  </si>
+  <si>
+    <t>93  -0M19D</t>
+  </si>
+  <si>
     <t>2294  1M14D</t>
   </si>
   <si>
-    <t>93  -0M19D</t>
-  </si>
-  <si>
     <t>79  2M9D</t>
   </si>
   <si>
     <t>938  -0M29D</t>
   </si>
   <si>
-    <t>139  10M8D</t>
-  </si>
-  <si>
     <t>61  1M27D</t>
   </si>
   <si>
     <t>240  1M26D</t>
   </si>
   <si>
+    <t>326  1M15D</t>
+  </si>
+  <si>
     <t>158  4M19D</t>
   </si>
   <si>
-    <t>326  1M15D</t>
-  </si>
-  <si>
     <t>300  8M3D</t>
   </si>
   <si>
@@ -7435,27 +7435,27 @@
     <t>108  -1M1D</t>
   </si>
   <si>
+    <t>425  1M18D</t>
+  </si>
+  <si>
+    <t>1972  -1M4D</t>
+  </si>
+  <si>
     <t>1468  7M4D</t>
   </si>
   <si>
-    <t>425  1M18D</t>
-  </si>
-  <si>
     <t>1737  -0M27D</t>
   </si>
   <si>
     <t>2046  3M5D</t>
   </si>
   <si>
-    <t>1972  -1M4D</t>
+    <t>226  3M26D</t>
   </si>
   <si>
     <t>156  2M25D</t>
   </si>
   <si>
-    <t>226  3M26D</t>
-  </si>
-  <si>
     <t>183  8M8D</t>
   </si>
   <si>
@@ -7474,18 +7474,18 @@
     <t>135  4M24D</t>
   </si>
   <si>
+    <t>149  1M24D</t>
+  </si>
+  <si>
+    <t>175  2M26D</t>
+  </si>
+  <si>
     <t>1317  -0M29D</t>
   </si>
   <si>
     <t>412  -0M23D</t>
   </si>
   <si>
-    <t>149  1M24D</t>
-  </si>
-  <si>
-    <t>175  2M26D</t>
-  </si>
-  <si>
     <t>2584  3M21D</t>
   </si>
   <si>
@@ -7507,13 +7507,16 @@
     <t>978  3M1D</t>
   </si>
   <si>
+    <t>1118  -0M9D</t>
+  </si>
+  <si>
     <t>399  2M16D</t>
   </si>
   <si>
     <t>4054  -0M14D</t>
   </si>
   <si>
-    <t>1118  -0M9D</t>
+    <t>2072  11M4D</t>
   </si>
   <si>
     <t>297  2M24D</t>
@@ -7522,21 +7525,18 @@
     <t>4702  5M18D</t>
   </si>
   <si>
-    <t>2072  11M4D</t>
-  </si>
-  <si>
     <t>115  3M22D</t>
   </si>
   <si>
+    <t>43  -0M20D</t>
+  </si>
+  <si>
     <t>148  2M13D</t>
   </si>
   <si>
     <t>74  1M21D</t>
   </si>
   <si>
-    <t>43  -0M20D</t>
-  </si>
-  <si>
     <t>56  6M8D</t>
   </si>
   <si>
@@ -7546,90 +7546,90 @@
     <t>533  -0M14D</t>
   </si>
   <si>
+    <t>576  2M9D</t>
+  </si>
+  <si>
+    <t>264  -1M3D</t>
+  </si>
+  <si>
+    <t>1438  1M27D</t>
+  </si>
+  <si>
+    <t>641  -1M0D</t>
+  </si>
+  <si>
+    <t>909  6M14D</t>
+  </si>
+  <si>
     <t>86  2M27D</t>
   </si>
   <si>
-    <t>1438  1M27D</t>
-  </si>
-  <si>
-    <t>909  6M14D</t>
-  </si>
-  <si>
-    <t>576  2M9D</t>
-  </si>
-  <si>
-    <t>641  -1M0D</t>
-  </si>
-  <si>
-    <t>264  -1M3D</t>
-  </si>
-  <si>
     <t>49  1M21D</t>
   </si>
   <si>
+    <t>43  6M25D</t>
+  </si>
+  <si>
+    <t>952  -1M0D</t>
+  </si>
+  <si>
     <t>2089  1M26D</t>
   </si>
   <si>
-    <t>43  6M25D</t>
-  </si>
-  <si>
-    <t>952  -1M0D</t>
+    <t>51  4M16D</t>
   </si>
   <si>
     <t>464  1M13D</t>
   </si>
   <si>
-    <t>51  4M16D</t>
-  </si>
-  <si>
     <t>128  2M15D</t>
   </si>
   <si>
+    <t>76  6M2D</t>
+  </si>
+  <si>
+    <t>239  -0M18D</t>
+  </si>
+  <si>
+    <t>11  16M20D</t>
+  </si>
+  <si>
+    <t>51  11M1D</t>
+  </si>
+  <si>
     <t>3828  -1M0D</t>
   </si>
   <si>
-    <t>51  11M1D</t>
-  </si>
-  <si>
-    <t>76  6M2D</t>
-  </si>
-  <si>
-    <t>11  16M20D</t>
-  </si>
-  <si>
-    <t>239  -0M18D</t>
-  </si>
-  <si>
     <t>197  2M12D</t>
   </si>
   <si>
+    <t>206  4M4D</t>
+  </si>
+  <si>
+    <t>142  -0M27D</t>
+  </si>
+  <si>
     <t>2469  1M19D</t>
   </si>
   <si>
-    <t>142  -0M27D</t>
-  </si>
-  <si>
     <t>138  1M25D</t>
   </si>
   <si>
     <t>1780  -1M4D</t>
   </si>
   <si>
-    <t>206  4M4D</t>
-  </si>
-  <si>
     <t>316  4M7D</t>
   </si>
   <si>
     <t>562  4M26D</t>
   </si>
   <si>
+    <t>333  2M5D</t>
+  </si>
+  <si>
     <t>160  4M24D</t>
   </si>
   <si>
-    <t>333  2M5D</t>
-  </si>
-  <si>
     <t>159  2M9D</t>
   </si>
   <si>
@@ -7654,19 +7654,19 @@
     <t>277  4M19D</t>
   </si>
   <si>
+    <t>532  2M19D</t>
+  </si>
+  <si>
+    <t>1943  -0M25D</t>
+  </si>
+  <si>
     <t>1448  5M24D</t>
   </si>
   <si>
-    <t>532  2M19D</t>
-  </si>
-  <si>
     <t>2075  -0M26D</t>
   </si>
   <si>
     <t>1445  2M16D</t>
-  </si>
-  <si>
-    <t>1943  -0M25D</t>
   </si>
 </sst>
 </file>
@@ -8185,7 +8185,7 @@
         <v>1492</v>
       </c>
       <c r="X2" t="s">
-        <v>1187</v>
+        <v>1570</v>
       </c>
       <c r="Y2" t="s">
         <v>1644</v>
@@ -8295,7 +8295,7 @@
         <v>1493</v>
       </c>
       <c r="X3" t="s">
-        <v>1570</v>
+        <v>1188</v>
       </c>
       <c r="Y3" t="s">
         <v>1645</v>
@@ -8458,7 +8458,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>186</v>
@@ -8542,7 +8542,7 @@
         <v>2180</v>
       </c>
       <c r="AG5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AH5" t="s">
         <v>2326</v>
@@ -8568,7 +8568,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>187</v>
@@ -9118,7 +9118,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>192</v>
@@ -9225,10 +9225,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>193</v>
@@ -9338,7 +9338,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>194</v>
@@ -9778,7 +9778,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>198</v>
@@ -10192,7 +10192,7 @@
         <v>2194</v>
       </c>
       <c r="AG20" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="AH20" t="s">
         <v>2341</v>
@@ -10218,7 +10218,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>202</v>
@@ -10328,7 +10328,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>203</v>
@@ -10438,7 +10438,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>204</v>
@@ -10548,7 +10548,7 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>205</v>
@@ -10655,10 +10655,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>206</v>
@@ -10768,7 +10768,7 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
         <v>207</v>
@@ -10959,7 +10959,7 @@
         <v>2127</v>
       </c>
       <c r="AF27" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG27" t="s">
         <v>2271</v>
@@ -11098,7 +11098,7 @@
         <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>210</v>
@@ -11170,7 +11170,7 @@
         <v>1900</v>
       </c>
       <c r="AC29" t="s">
-        <v>927</v>
+        <v>1973</v>
       </c>
       <c r="AD29" t="s">
         <v>2050</v>
@@ -11205,10 +11205,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>211</v>
@@ -11229,7 +11229,7 @@
         <v>595</v>
       </c>
       <c r="L30" t="s">
-        <v>561</v>
+        <v>672</v>
       </c>
       <c r="M30" t="s">
         <v>749</v>
@@ -11280,7 +11280,7 @@
         <v>1901</v>
       </c>
       <c r="AC30" t="s">
-        <v>1973</v>
+        <v>924</v>
       </c>
       <c r="AD30" t="s">
         <v>2051</v>
@@ -11315,10 +11315,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>212</v>
@@ -11339,7 +11339,7 @@
         <v>596</v>
       </c>
       <c r="L31" t="s">
-        <v>672</v>
+        <v>561</v>
       </c>
       <c r="M31" t="s">
         <v>750</v>
@@ -11521,7 +11521,7 @@
         <v>2431</v>
       </c>
       <c r="AJ32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -11553,7 +11553,7 @@
         <v>446</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K33" t="s">
         <v>325</v>
@@ -11711,7 +11711,7 @@
         <v>1676</v>
       </c>
       <c r="Z34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA34" t="s">
         <v>1828</v>
@@ -11839,7 +11839,7 @@
         <v>2135</v>
       </c>
       <c r="AF35" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AG35" t="s">
         <v>2279</v>
@@ -11978,7 +11978,7 @@
         <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
         <v>218</v>
@@ -12005,7 +12005,7 @@
         <v>756</v>
       </c>
       <c r="N37" t="s">
-        <v>835</v>
+        <v>225</v>
       </c>
       <c r="O37" t="s">
         <v>911</v>
@@ -12038,7 +12038,7 @@
         <v>1604</v>
       </c>
       <c r="Y37" t="s">
-        <v>1679</v>
+        <v>1619</v>
       </c>
       <c r="Z37" t="s">
         <v>1753</v>
@@ -12085,10 +12085,10 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
         <v>72</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
       </c>
       <c r="F38" t="s">
         <v>219</v>
@@ -12115,7 +12115,7 @@
         <v>757</v>
       </c>
       <c r="N38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O38" t="s">
         <v>912</v>
@@ -12148,7 +12148,7 @@
         <v>1605</v>
       </c>
       <c r="Y38" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="Z38" t="s">
         <v>1754</v>
@@ -12198,7 +12198,7 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
         <v>220</v>
@@ -12225,7 +12225,7 @@
         <v>758</v>
       </c>
       <c r="N39" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O39" t="s">
         <v>913</v>
@@ -12258,7 +12258,7 @@
         <v>1606</v>
       </c>
       <c r="Y39" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="Z39" t="s">
         <v>1755</v>
@@ -12305,10 +12305,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
         <v>221</v>
@@ -12335,7 +12335,7 @@
         <v>759</v>
       </c>
       <c r="N40" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O40" t="s">
         <v>914</v>
@@ -12368,7 +12368,7 @@
         <v>1607</v>
       </c>
       <c r="Y40" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Z40" t="s">
         <v>1756</v>
@@ -12415,10 +12415,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
         <v>76</v>
-      </c>
-      <c r="E41" t="s">
-        <v>36</v>
       </c>
       <c r="F41" t="s">
         <v>222</v>
@@ -12445,7 +12445,7 @@
         <v>760</v>
       </c>
       <c r="N41" t="s">
-        <v>226</v>
+        <v>838</v>
       </c>
       <c r="O41" t="s">
         <v>915</v>
@@ -12478,7 +12478,7 @@
         <v>1608</v>
       </c>
       <c r="Y41" t="s">
-        <v>1621</v>
+        <v>1682</v>
       </c>
       <c r="Z41" t="s">
         <v>1757</v>
@@ -12722,7 +12722,7 @@
         <v>2215</v>
       </c>
       <c r="AG43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH43" t="s">
         <v>2364</v>
@@ -12731,7 +12731,7 @@
         <v>2442</v>
       </c>
       <c r="AJ43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -12748,7 +12748,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>225</v>
@@ -12763,7 +12763,7 @@
         <v>457</v>
       </c>
       <c r="J44" t="s">
-        <v>534</v>
+        <v>225</v>
       </c>
       <c r="K44" t="s">
         <v>608</v>
@@ -12817,7 +12817,7 @@
         <v>1838</v>
       </c>
       <c r="AB44" t="s">
-        <v>1914</v>
+        <v>225</v>
       </c>
       <c r="AC44" t="s">
         <v>1987</v>
@@ -12829,7 +12829,7 @@
         <v>2144</v>
       </c>
       <c r="AF44" t="s">
-        <v>2216</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s">
         <v>2287</v>
@@ -12858,7 +12858,7 @@
         <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
         <v>226</v>
@@ -12873,7 +12873,7 @@
         <v>458</v>
       </c>
       <c r="J45" t="s">
-        <v>226</v>
+        <v>534</v>
       </c>
       <c r="K45" t="s">
         <v>609</v>
@@ -12927,7 +12927,7 @@
         <v>1839</v>
       </c>
       <c r="AB45" t="s">
-        <v>226</v>
+        <v>1914</v>
       </c>
       <c r="AC45" t="s">
         <v>1988</v>
@@ -12939,7 +12939,7 @@
         <v>2145</v>
       </c>
       <c r="AF45" t="s">
-        <v>226</v>
+        <v>2216</v>
       </c>
       <c r="AG45" t="s">
         <v>2288</v>
@@ -12968,7 +12968,7 @@
         <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
         <v>227</v>
@@ -13084,7 +13084,7 @@
         <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
         <v>381</v>
@@ -13105,7 +13105,7 @@
         <v>766</v>
       </c>
       <c r="N47" t="s">
-        <v>844</v>
+        <v>329</v>
       </c>
       <c r="O47" t="s">
         <v>921</v>
@@ -13114,7 +13114,7 @@
         <v>1000</v>
       </c>
       <c r="Q47" t="s">
-        <v>1078</v>
+        <v>237</v>
       </c>
       <c r="R47" t="s">
         <v>1154</v>
@@ -13126,25 +13126,25 @@
         <v>1310</v>
       </c>
       <c r="U47" t="s">
-        <v>1383</v>
+        <v>1180</v>
       </c>
       <c r="V47" t="s">
         <v>1457</v>
       </c>
       <c r="W47" t="s">
-        <v>1537</v>
+        <v>225</v>
       </c>
       <c r="X47" t="s">
         <v>1614</v>
       </c>
       <c r="Y47" t="s">
-        <v>1688</v>
+        <v>1181</v>
       </c>
       <c r="Z47" t="s">
         <v>1763</v>
       </c>
       <c r="AA47" t="s">
-        <v>1841</v>
+        <v>233</v>
       </c>
       <c r="AB47" t="s">
         <v>1916</v>
@@ -13168,7 +13168,7 @@
         <v>2368</v>
       </c>
       <c r="AI47" t="s">
-        <v>2446</v>
+        <v>237</v>
       </c>
       <c r="AJ47" t="s">
         <v>2520</v>
@@ -13194,7 +13194,7 @@
         <v>229</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="H48" t="s">
         <v>382</v>
@@ -13215,7 +13215,7 @@
         <v>767</v>
       </c>
       <c r="N48" t="s">
-        <v>329</v>
+        <v>844</v>
       </c>
       <c r="O48" t="s">
         <v>922</v>
@@ -13224,7 +13224,7 @@
         <v>1001</v>
       </c>
       <c r="Q48" t="s">
-        <v>236</v>
+        <v>1078</v>
       </c>
       <c r="R48" t="s">
         <v>1155</v>
@@ -13236,25 +13236,25 @@
         <v>1311</v>
       </c>
       <c r="U48" t="s">
-        <v>1180</v>
+        <v>1383</v>
       </c>
       <c r="V48" t="s">
         <v>1458</v>
       </c>
       <c r="W48" t="s">
-        <v>226</v>
+        <v>1537</v>
       </c>
       <c r="X48" t="s">
         <v>1615</v>
       </c>
       <c r="Y48" t="s">
-        <v>1181</v>
+        <v>1688</v>
       </c>
       <c r="Z48" t="s">
         <v>1764</v>
       </c>
       <c r="AA48" t="s">
-        <v>234</v>
+        <v>1841</v>
       </c>
       <c r="AB48" t="s">
         <v>1917</v>
@@ -13278,7 +13278,7 @@
         <v>2369</v>
       </c>
       <c r="AI48" t="s">
-        <v>236</v>
+        <v>2446</v>
       </c>
       <c r="AJ48" t="s">
         <v>2521</v>
@@ -13343,7 +13343,7 @@
         <v>1234</v>
       </c>
       <c r="T49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="U49" t="s">
         <v>1384</v>
@@ -13382,7 +13382,7 @@
         <v>2220</v>
       </c>
       <c r="AG49" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="AH49" t="s">
         <v>2370</v>
@@ -13408,13 +13408,13 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
         <v>231</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="H50" t="s">
         <v>384</v>
@@ -13423,7 +13423,7 @@
         <v>463</v>
       </c>
       <c r="J50" t="s">
-        <v>226</v>
+        <v>539</v>
       </c>
       <c r="K50" t="s">
         <v>614</v>
@@ -13435,7 +13435,7 @@
         <v>769</v>
       </c>
       <c r="N50" t="s">
-        <v>226</v>
+        <v>846</v>
       </c>
       <c r="O50" t="s">
         <v>924</v>
@@ -13453,7 +13453,7 @@
         <v>1235</v>
       </c>
       <c r="T50" t="s">
-        <v>226</v>
+        <v>1312</v>
       </c>
       <c r="U50" t="s">
         <v>1385</v>
@@ -13477,7 +13477,7 @@
         <v>1843</v>
       </c>
       <c r="AB50" t="s">
-        <v>226</v>
+        <v>1919</v>
       </c>
       <c r="AC50" t="s">
         <v>1993</v>
@@ -13521,10 +13521,10 @@
         <v>53</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H51" t="s">
         <v>385</v>
@@ -13545,7 +13545,7 @@
         <v>770</v>
       </c>
       <c r="N51" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O51" t="s">
         <v>925</v>
@@ -13566,7 +13566,7 @@
         <v>1081</v>
       </c>
       <c r="U51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V51" t="s">
         <v>1461</v>
@@ -13587,7 +13587,7 @@
         <v>1844</v>
       </c>
       <c r="AB51" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="AC51" t="s">
         <v>714</v>
@@ -13605,13 +13605,13 @@
         <v>2293</v>
       </c>
       <c r="AH51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI51" t="s">
         <v>2449</v>
       </c>
       <c r="AJ51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -13628,13 +13628,13 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
         <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H52" t="s">
         <v>386</v>
@@ -13643,7 +13643,7 @@
         <v>465</v>
       </c>
       <c r="J52" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K52" t="s">
         <v>616</v>
@@ -13655,7 +13655,7 @@
         <v>771</v>
       </c>
       <c r="N52" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="O52" t="s">
         <v>926</v>
@@ -13664,7 +13664,7 @@
         <v>1005</v>
       </c>
       <c r="Q52" t="s">
-        <v>1082</v>
+        <v>942</v>
       </c>
       <c r="R52" t="s">
         <v>1158</v>
@@ -13673,7 +13673,7 @@
         <v>1237</v>
       </c>
       <c r="T52" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="U52" t="s">
         <v>1386</v>
@@ -13697,7 +13697,7 @@
         <v>1845</v>
       </c>
       <c r="AB52" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="AC52" t="s">
         <v>1994</v>
@@ -13706,7 +13706,7 @@
         <v>2073</v>
       </c>
       <c r="AE52" t="s">
-        <v>1768</v>
+        <v>2151</v>
       </c>
       <c r="AF52" t="s">
         <v>2222</v>
@@ -13738,13 +13738,13 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
         <v>387</v>
@@ -13753,10 +13753,10 @@
         <v>466</v>
       </c>
       <c r="J53" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K53" t="s">
-        <v>617</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s">
         <v>694</v>
@@ -13765,7 +13765,7 @@
         <v>772</v>
       </c>
       <c r="N53" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="O53" t="s">
         <v>927</v>
@@ -13774,7 +13774,7 @@
         <v>1006</v>
       </c>
       <c r="Q53" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="R53" t="s">
         <v>1159</v>
@@ -13783,10 +13783,10 @@
         <v>1238</v>
       </c>
       <c r="T53" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="U53" t="s">
-        <v>1387</v>
+        <v>706</v>
       </c>
       <c r="V53" t="s">
         <v>1463</v>
@@ -13795,7 +13795,7 @@
         <v>1542</v>
       </c>
       <c r="X53" t="s">
-        <v>1620</v>
+        <v>208</v>
       </c>
       <c r="Y53" t="s">
         <v>1693</v>
@@ -13807,7 +13807,7 @@
         <v>1846</v>
       </c>
       <c r="AB53" t="s">
-        <v>1921</v>
+        <v>329</v>
       </c>
       <c r="AC53" t="s">
         <v>1995</v>
@@ -13816,13 +13816,13 @@
         <v>2074</v>
       </c>
       <c r="AE53" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="AF53" t="s">
         <v>2223</v>
       </c>
       <c r="AG53" t="s">
-        <v>2295</v>
+        <v>237</v>
       </c>
       <c r="AH53" t="s">
         <v>2373</v>
@@ -13848,13 +13848,13 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
         <v>234</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H54" t="s">
         <v>388</v>
@@ -13863,10 +13863,10 @@
         <v>467</v>
       </c>
       <c r="J54" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>236</v>
+        <v>617</v>
       </c>
       <c r="L54" t="s">
         <v>695</v>
@@ -13875,7 +13875,7 @@
         <v>773</v>
       </c>
       <c r="N54" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="O54" t="s">
         <v>928</v>
@@ -13884,7 +13884,7 @@
         <v>1007</v>
       </c>
       <c r="Q54" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="R54" t="s">
         <v>1160</v>
@@ -13893,10 +13893,10 @@
         <v>1239</v>
       </c>
       <c r="T54" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="U54" t="s">
-        <v>705</v>
+        <v>1387</v>
       </c>
       <c r="V54" t="s">
         <v>1464</v>
@@ -13905,7 +13905,7 @@
         <v>1543</v>
       </c>
       <c r="X54" t="s">
-        <v>208</v>
+        <v>1620</v>
       </c>
       <c r="Y54" t="s">
         <v>1694</v>
@@ -13917,7 +13917,7 @@
         <v>1847</v>
       </c>
       <c r="AB54" t="s">
-        <v>329</v>
+        <v>1922</v>
       </c>
       <c r="AC54" t="s">
         <v>1996</v>
@@ -13926,13 +13926,13 @@
         <v>2075</v>
       </c>
       <c r="AE54" t="s">
-        <v>2152</v>
+        <v>1770</v>
       </c>
       <c r="AF54" t="s">
         <v>2224</v>
       </c>
       <c r="AG54" t="s">
-        <v>236</v>
+        <v>2295</v>
       </c>
       <c r="AH54" t="s">
         <v>2374</v>
@@ -13958,13 +13958,13 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
         <v>235</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
         <v>389</v>
@@ -13973,7 +13973,7 @@
         <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>542</v>
+        <v>225</v>
       </c>
       <c r="K55" t="s">
         <v>618</v>
@@ -13985,7 +13985,7 @@
         <v>774</v>
       </c>
       <c r="N55" t="s">
-        <v>850</v>
+        <v>225</v>
       </c>
       <c r="O55" t="s">
         <v>929</v>
@@ -13994,7 +13994,7 @@
         <v>1008</v>
       </c>
       <c r="Q55" t="s">
-        <v>942</v>
+        <v>1084</v>
       </c>
       <c r="R55" t="s">
         <v>1161</v>
@@ -14003,7 +14003,7 @@
         <v>1240</v>
       </c>
       <c r="T55" t="s">
-        <v>1315</v>
+        <v>225</v>
       </c>
       <c r="U55" t="s">
         <v>1388</v>
@@ -14027,7 +14027,7 @@
         <v>1848</v>
       </c>
       <c r="AB55" t="s">
-        <v>1922</v>
+        <v>225</v>
       </c>
       <c r="AC55" t="s">
         <v>1997</v>
@@ -14068,100 +14068,100 @@
         <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
         <v>236</v>
       </c>
       <c r="G56" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="H56" t="s">
-        <v>236</v>
+        <v>390</v>
       </c>
       <c r="I56" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J56" t="s">
-        <v>236</v>
+        <v>543</v>
       </c>
       <c r="K56" t="s">
         <v>619</v>
       </c>
       <c r="L56" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="M56" t="s">
-        <v>236</v>
+        <v>775</v>
       </c>
       <c r="N56" t="s">
-        <v>467</v>
+        <v>851</v>
       </c>
       <c r="O56" t="s">
-        <v>236</v>
+        <v>930</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>1009</v>
       </c>
       <c r="Q56" t="s">
-        <v>236</v>
+        <v>1085</v>
       </c>
       <c r="R56" t="s">
-        <v>236</v>
+        <v>1162</v>
       </c>
       <c r="S56" t="s">
-        <v>236</v>
+        <v>1241</v>
       </c>
       <c r="T56" t="s">
-        <v>236</v>
+        <v>1316</v>
       </c>
       <c r="U56" t="s">
-        <v>236</v>
+        <v>1389</v>
       </c>
       <c r="V56" t="s">
         <v>1466</v>
       </c>
       <c r="W56" t="s">
-        <v>901</v>
+        <v>1545</v>
       </c>
       <c r="X56" t="s">
-        <v>236</v>
+        <v>1622</v>
       </c>
       <c r="Y56" t="s">
-        <v>236</v>
+        <v>1696</v>
       </c>
       <c r="Z56" t="s">
-        <v>236</v>
+        <v>1772</v>
       </c>
       <c r="AA56" t="s">
-        <v>236</v>
+        <v>1849</v>
       </c>
       <c r="AB56" t="s">
-        <v>236</v>
+        <v>1923</v>
       </c>
       <c r="AC56" t="s">
-        <v>236</v>
+        <v>1998</v>
       </c>
       <c r="AD56" t="s">
-        <v>236</v>
+        <v>2077</v>
       </c>
       <c r="AE56" t="s">
-        <v>236</v>
+        <v>2154</v>
       </c>
       <c r="AF56" t="s">
-        <v>236</v>
+        <v>2226</v>
       </c>
       <c r="AG56" t="s">
         <v>2297</v>
       </c>
       <c r="AH56" t="s">
-        <v>236</v>
+        <v>2376</v>
       </c>
       <c r="AI56" t="s">
-        <v>236</v>
+        <v>2454</v>
       </c>
       <c r="AJ56" t="s">
-        <v>236</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="57" spans="1:36">
@@ -14178,100 +14178,100 @@
         <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="I57" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J57" t="s">
-        <v>543</v>
+        <v>237</v>
       </c>
       <c r="K57" t="s">
         <v>620</v>
       </c>
       <c r="L57" t="s">
-        <v>697</v>
+        <v>620</v>
       </c>
       <c r="M57" t="s">
-        <v>775</v>
+        <v>237</v>
       </c>
       <c r="N57" t="s">
-        <v>851</v>
+        <v>466</v>
       </c>
       <c r="O57" t="s">
-        <v>930</v>
+        <v>237</v>
       </c>
       <c r="P57" t="s">
-        <v>1009</v>
+        <v>237</v>
       </c>
       <c r="Q57" t="s">
-        <v>1085</v>
+        <v>237</v>
       </c>
       <c r="R57" t="s">
-        <v>1162</v>
+        <v>237</v>
       </c>
       <c r="S57" t="s">
-        <v>1241</v>
+        <v>237</v>
       </c>
       <c r="T57" t="s">
-        <v>1316</v>
+        <v>237</v>
       </c>
       <c r="U57" t="s">
-        <v>1389</v>
+        <v>237</v>
       </c>
       <c r="V57" t="s">
         <v>1467</v>
       </c>
       <c r="W57" t="s">
-        <v>1545</v>
+        <v>901</v>
       </c>
       <c r="X57" t="s">
-        <v>1622</v>
+        <v>237</v>
       </c>
       <c r="Y57" t="s">
-        <v>1696</v>
+        <v>237</v>
       </c>
       <c r="Z57" t="s">
-        <v>1772</v>
+        <v>237</v>
       </c>
       <c r="AA57" t="s">
-        <v>1849</v>
+        <v>237</v>
       </c>
       <c r="AB57" t="s">
-        <v>1923</v>
+        <v>237</v>
       </c>
       <c r="AC57" t="s">
-        <v>1998</v>
+        <v>237</v>
       </c>
       <c r="AD57" t="s">
-        <v>2077</v>
+        <v>237</v>
       </c>
       <c r="AE57" t="s">
-        <v>2154</v>
+        <v>237</v>
       </c>
       <c r="AF57" t="s">
-        <v>2226</v>
+        <v>237</v>
       </c>
       <c r="AG57" t="s">
         <v>2298</v>
       </c>
       <c r="AH57" t="s">
-        <v>2376</v>
+        <v>237</v>
       </c>
       <c r="AI57" t="s">
-        <v>2454</v>
+        <v>237</v>
       </c>
       <c r="AJ57" t="s">
-        <v>2528</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:36">
@@ -14321,7 +14321,7 @@
         <v>931</v>
       </c>
       <c r="P58" t="s">
-        <v>1010</v>
+        <v>184</v>
       </c>
       <c r="Q58" t="s">
         <v>1086</v>
@@ -14431,7 +14431,7 @@
         <v>932</v>
       </c>
       <c r="P59" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q59" t="s">
         <v>1087</v>
@@ -14455,7 +14455,7 @@
         <v>1547</v>
       </c>
       <c r="X59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y59" t="s">
         <v>1181</v>
@@ -14479,7 +14479,7 @@
         <v>2156</v>
       </c>
       <c r="AF59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG59" t="s">
         <v>2300</v>
@@ -14508,7 +14508,7 @@
         <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
         <v>240</v>
@@ -14541,7 +14541,7 @@
         <v>933</v>
       </c>
       <c r="P60" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q60" t="s">
         <v>1088</v>
@@ -14618,7 +14618,7 @@
         <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
         <v>241</v>
@@ -14651,7 +14651,7 @@
         <v>934</v>
       </c>
       <c r="P61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q61" t="s">
         <v>1089</v>
@@ -14728,7 +14728,7 @@
         <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
         <v>242</v>
@@ -14761,7 +14761,7 @@
         <v>935</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>1013</v>
       </c>
       <c r="Q62" t="s">
         <v>1090</v>
@@ -14907,7 +14907,7 @@
         <v>1855</v>
       </c>
       <c r="AB63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC63" t="s">
         <v>2004</v>
@@ -15058,7 +15058,7 @@
         <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
         <v>245</v>
@@ -15076,7 +15076,7 @@
         <v>551</v>
       </c>
       <c r="K65" t="s">
-        <v>226</v>
+        <v>628</v>
       </c>
       <c r="L65" t="s">
         <v>705</v>
@@ -15100,10 +15100,10 @@
         <v>1170</v>
       </c>
       <c r="S65" t="s">
-        <v>226</v>
+        <v>1249</v>
       </c>
       <c r="T65" t="s">
-        <v>226</v>
+        <v>1324</v>
       </c>
       <c r="U65" t="s">
         <v>1397</v>
@@ -15115,7 +15115,7 @@
         <v>1553</v>
       </c>
       <c r="X65" t="s">
-        <v>226</v>
+        <v>1629</v>
       </c>
       <c r="Y65" t="s">
         <v>1703</v>
@@ -15168,7 +15168,7 @@
         <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
         <v>246</v>
@@ -15186,7 +15186,7 @@
         <v>552</v>
       </c>
       <c r="K66" t="s">
-        <v>628</v>
+        <v>225</v>
       </c>
       <c r="L66" t="s">
         <v>706</v>
@@ -15210,10 +15210,10 @@
         <v>1171</v>
       </c>
       <c r="S66" t="s">
-        <v>1249</v>
+        <v>225</v>
       </c>
       <c r="T66" t="s">
-        <v>1324</v>
+        <v>225</v>
       </c>
       <c r="U66" t="s">
         <v>1398</v>
@@ -15225,7 +15225,7 @@
         <v>1554</v>
       </c>
       <c r="X66" t="s">
-        <v>1629</v>
+        <v>225</v>
       </c>
       <c r="Y66" t="s">
         <v>1704</v>
@@ -15409,7 +15409,7 @@
         <v>630</v>
       </c>
       <c r="L68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M68" t="s">
         <v>786</v>
@@ -15653,7 +15653,7 @@
         <v>1253</v>
       </c>
       <c r="T70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U70" t="s">
         <v>1402</v>
@@ -15686,7 +15686,7 @@
         <v>2090</v>
       </c>
       <c r="AE70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF70" t="s">
         <v>2238</v>
@@ -15763,7 +15763,7 @@
         <v>1254</v>
       </c>
       <c r="T71" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="U71" t="s">
         <v>1403</v>
@@ -15796,10 +15796,10 @@
         <v>2091</v>
       </c>
       <c r="AE71" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AF71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG71" t="s">
         <v>2312</v>
@@ -15811,7 +15811,7 @@
         <v>2468</v>
       </c>
       <c r="AJ71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:36">
@@ -15831,7 +15831,7 @@
         <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G72" t="s">
         <v>326</v>
@@ -15921,7 +15921,7 @@
         <v>2469</v>
       </c>
       <c r="AJ72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:36">
@@ -15941,7 +15941,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G73" t="s">
         <v>327</v>
@@ -15986,7 +15986,7 @@
         <v>1329</v>
       </c>
       <c r="U73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V73" t="s">
         <v>1483</v>
@@ -16170,7 +16170,7 @@
         <v>408</v>
       </c>
       <c r="I75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J75" t="s">
         <v>561</v>
@@ -16215,7 +16215,7 @@
         <v>1563</v>
       </c>
       <c r="X75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y75" t="s">
         <v>1713</v>
@@ -16224,7 +16224,7 @@
         <v>1790</v>
       </c>
       <c r="AA75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AB75" t="s">
         <v>1940</v>
@@ -16349,7 +16349,7 @@
         <v>2171</v>
       </c>
       <c r="AF76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG76" t="s">
         <v>2317</v>
@@ -16378,7 +16378,7 @@
         <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
         <v>255</v>
@@ -16485,10 +16485,10 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
         <v>256</v>
@@ -16595,10 +16595,10 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
         <v>257</v>

--- a/Data/item_wise_stock_days.xlsx
+++ b/Data/item_wise_stock_days.xlsx
@@ -25,24 +25,24 @@
     <t>18's</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>1's</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>12's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Biltin</t>
   </si>
   <si>
@@ -73,24 +73,24 @@
     <t>Dinafex</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
     <t>50 ml</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta</t>
   </si>
   <si>
@@ -121,33 +121,33 @@
     <t>Fenobac</t>
   </si>
   <si>
+    <t>Fenobac 5mg Tablet</t>
+  </si>
+  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>Fenobac 5mg Tablet</t>
-  </si>
-  <si>
     <t>Flucloxin</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
     <t>100 's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Ketonic</t>
   </si>
   <si>
@@ -157,45 +157,45 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
     <t>Levomax</t>
   </si>
   <si>
+    <t>Levomax 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>Lindamax</t>
   </si>
   <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>10gm</t>
   </si>
   <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>10gm</t>
-  </si>
-  <si>
     <t>Mebidal</t>
   </si>
   <si>
@@ -220,33 +220,33 @@
     <t>Naprox</t>
   </si>
   <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin</t>
   </si>
   <si>
@@ -262,15 +262,15 @@
     <t>Oradin</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare</t>
   </si>
   <si>
@@ -289,21 +289,21 @@
     <t>Quinox</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
@@ -316,24 +316,24 @@
     <t>Sk-Mox</t>
   </si>
   <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Stiba</t>
   </si>
   <si>
@@ -427,33 +427,33 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
     <t>20ml</t>
   </si>
   <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
     <t>50ml</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>12 's</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>BSL NO</t>
   </si>
   <si>
@@ -565,18 +565,18 @@
     <t>7916  1979D</t>
   </si>
   <si>
+    <t>6037  6037D</t>
+  </si>
+  <si>
+    <t>5245  -1D</t>
+  </si>
+  <si>
+    <t>21141  21141D</t>
+  </si>
+  <si>
     <t>25463  40D</t>
   </si>
   <si>
-    <t>6037  6037D</t>
-  </si>
-  <si>
-    <t>5245  -1D</t>
-  </si>
-  <si>
-    <t>21141  21141D</t>
-  </si>
-  <si>
     <t>13969  13969D</t>
   </si>
   <si>
@@ -586,18 +586,18 @@
     <t>3078  3078D</t>
   </si>
   <si>
+    <t>4270  4270D</t>
+  </si>
+  <si>
+    <t>3830  3830D</t>
+  </si>
+  <si>
     <t>17819  17819D</t>
   </si>
   <si>
     <t>35755  35755D</t>
   </si>
   <si>
-    <t>4270  4270D</t>
-  </si>
-  <si>
-    <t>3830  3830D</t>
-  </si>
-  <si>
     <t>68482  68482D</t>
   </si>
   <si>
@@ -610,51 +610,51 @@
     <t>95206  95206D</t>
   </si>
   <si>
+    <t>8924  8924D</t>
+  </si>
+  <si>
     <t>14495  14495D</t>
   </si>
   <si>
-    <t>8924  8924D</t>
+    <t>195557  -6D</t>
+  </si>
+  <si>
+    <t>158579  -9D</t>
   </si>
   <si>
     <t>9771  9771D</t>
   </si>
   <si>
-    <t>158579  -9D</t>
-  </si>
-  <si>
     <t>24642  -1D</t>
   </si>
   <si>
-    <t>195557  -6D</t>
-  </si>
-  <si>
     <t>88471  88471D</t>
   </si>
   <si>
+    <t>99070  99070D</t>
+  </si>
+  <si>
     <t>8206  8206D</t>
   </si>
   <si>
-    <t>99070  99070D</t>
+    <t>5383  5383D</t>
   </si>
   <si>
     <t>1247  1247D</t>
   </si>
   <si>
-    <t>5383  5383D</t>
+    <t>2712  2712D</t>
   </si>
   <si>
     <t>3974  3974D</t>
   </si>
   <si>
-    <t>2712  2712D</t>
+    <t>2543  2543D</t>
   </si>
   <si>
     <t>1654  1654D</t>
   </si>
   <si>
-    <t>2543  2543D</t>
-  </si>
-  <si>
     <t>1324  1324D</t>
   </si>
   <si>
@@ -664,39 +664,39 @@
     <t>5005  5005D</t>
   </si>
   <si>
+    <t>15889  15889D</t>
+  </si>
+  <si>
+    <t>5796  5796D</t>
+  </si>
+  <si>
+    <t>39730  39730D</t>
+  </si>
+  <si>
+    <t>22832  22832D</t>
+  </si>
+  <si>
+    <t>23274  23274D</t>
+  </si>
+  <si>
     <t>4465  4465D</t>
   </si>
   <si>
-    <t>15889  15889D</t>
-  </si>
-  <si>
-    <t>5796  5796D</t>
-  </si>
-  <si>
-    <t>23274  23274D</t>
-  </si>
-  <si>
-    <t>39730  39730D</t>
-  </si>
-  <si>
-    <t>22832  22832D</t>
-  </si>
-  <si>
     <t>6126  6126D</t>
   </si>
   <si>
     <t>2882  2882D</t>
   </si>
   <si>
+    <t>4983  4983D</t>
+  </si>
+  <si>
+    <t>12361  12361D</t>
+  </si>
+  <si>
     <t>57473  57473D</t>
   </si>
   <si>
-    <t>12361  12361D</t>
-  </si>
-  <si>
-    <t>4983  4983D</t>
-  </si>
-  <si>
     <t>5368  5368D</t>
   </si>
   <si>
@@ -706,42 +706,42 @@
     <t>6053  6053D</t>
   </si>
   <si>
+    <t>6480  6480D</t>
+  </si>
+  <si>
+    <t>2924  2924D</t>
+  </si>
+  <si>
+    <t>67053  67053D</t>
+  </si>
+  <si>
     <t>794  794D</t>
   </si>
   <si>
-    <t>2924  2924D</t>
-  </si>
-  <si>
-    <t>67053  67053D</t>
-  </si>
-  <si>
     <t>227  227D</t>
   </si>
   <si>
-    <t>6480  6480D</t>
-  </si>
-  <si>
     <t>13697  13697D</t>
   </si>
   <si>
     <t>7438  7438D</t>
   </si>
   <si>
+    <t>4185  149D</t>
+  </si>
+  <si>
     <t>9550  9550D</t>
   </si>
   <si>
+    <t>43378  43378D</t>
+  </si>
+  <si>
+    <t>3635  3635D</t>
+  </si>
+  <si>
     <t>35179  -29D</t>
   </si>
   <si>
-    <t>3635  3635D</t>
-  </si>
-  <si>
-    <t>4185  149D</t>
-  </si>
-  <si>
-    <t>43378  43378D</t>
-  </si>
-  <si>
     <t>3419  3419D</t>
   </si>
   <si>
@@ -784,36 +784,36 @@
     <t>9304  9304D</t>
   </si>
   <si>
+    <t>33048  33048D</t>
+  </si>
+  <si>
+    <t>133574  133574D</t>
+  </si>
+  <si>
     <t>34569  34569D</t>
   </si>
   <si>
+    <t>52853  52853D</t>
+  </si>
+  <si>
     <t>20539  20539D</t>
   </si>
   <si>
-    <t>52853  52853D</t>
-  </si>
-  <si>
-    <t>133574  133574D</t>
-  </si>
-  <si>
-    <t>33048  33048D</t>
-  </si>
-  <si>
     <t>147  704D</t>
   </si>
   <si>
+    <t>63  63D</t>
+  </si>
+  <si>
+    <t>238  1274D</t>
+  </si>
+  <si>
+    <t>366  546D</t>
+  </si>
+  <si>
     <t>337  143D</t>
   </si>
   <si>
-    <t>63  63D</t>
-  </si>
-  <si>
-    <t>238  1274D</t>
-  </si>
-  <si>
-    <t>366  546D</t>
-  </si>
-  <si>
     <t>598  -13D</t>
   </si>
   <si>
@@ -823,18 +823,18 @@
     <t>66  69D</t>
   </si>
   <si>
+    <t>212  149D</t>
+  </si>
+  <si>
+    <t>88  133D</t>
+  </si>
+  <si>
     <t>484  -28D</t>
   </si>
   <si>
     <t>1441  55D</t>
   </si>
   <si>
-    <t>212  149D</t>
-  </si>
-  <si>
-    <t>88  133D</t>
-  </si>
-  <si>
     <t>3035  75D</t>
   </si>
   <si>
@@ -847,51 +847,51 @@
     <t>2617  -30D</t>
   </si>
   <si>
+    <t>322  159D</t>
+  </si>
+  <si>
     <t>401  110D</t>
   </si>
   <si>
-    <t>322  159D</t>
+    <t>6814  36D</t>
+  </si>
+  <si>
+    <t>7038  58D</t>
   </si>
   <si>
     <t>390  57D</t>
   </si>
   <si>
-    <t>7038  58D</t>
-  </si>
-  <si>
     <t>1532  331D</t>
   </si>
   <si>
-    <t>6814  36D</t>
-  </si>
-  <si>
     <t>5012  75D</t>
   </si>
   <si>
+    <t>2127  118D</t>
+  </si>
+  <si>
     <t>303  -31D</t>
   </si>
   <si>
-    <t>2127  118D</t>
+    <t>126  98D</t>
   </si>
   <si>
     <t>30  303D</t>
   </si>
   <si>
-    <t>126  98D</t>
+    <t>69  161D</t>
   </si>
   <si>
     <t>222  57D</t>
   </si>
   <si>
-    <t>69  161D</t>
+    <t>91  51D</t>
   </si>
   <si>
     <t>26  -25D</t>
   </si>
   <si>
-    <t>91  51D</t>
-  </si>
-  <si>
     <t>41  103D</t>
   </si>
   <si>
@@ -901,39 +901,39 @@
     <t>311  -15D</t>
   </si>
   <si>
+    <t>532  -22D</t>
+  </si>
+  <si>
+    <t>308  47D</t>
+  </si>
+  <si>
+    <t>1522  58D</t>
+  </si>
+  <si>
+    <t>1055  43D</t>
+  </si>
+  <si>
+    <t>511  74D</t>
+  </si>
+  <si>
     <t>118  43D</t>
   </si>
   <si>
-    <t>532  -22D</t>
-  </si>
-  <si>
-    <t>308  47D</t>
-  </si>
-  <si>
-    <t>511  74D</t>
-  </si>
-  <si>
-    <t>1522  58D</t>
-  </si>
-  <si>
-    <t>1055  43D</t>
-  </si>
-  <si>
     <t>5  -0D</t>
   </si>
   <si>
     <t>117  81D</t>
   </si>
   <si>
+    <t>129  46D</t>
+  </si>
+  <si>
+    <t>169  -3D</t>
+  </si>
+  <si>
     <t>1962  60D</t>
   </si>
   <si>
-    <t>169  -3D</t>
-  </si>
-  <si>
-    <t>129  46D</t>
-  </si>
-  <si>
     <t>198  750D</t>
   </si>
   <si>
@@ -943,42 +943,42 @@
     <t>202  55D</t>
   </si>
   <si>
+    <t>27  91D</t>
+  </si>
+  <si>
+    <t>15  105D</t>
+  </si>
+  <si>
+    <t>2726  142D</t>
+  </si>
+  <si>
     <t>1  -3D</t>
   </si>
   <si>
-    <t>15  105D</t>
-  </si>
-  <si>
-    <t>2726  142D</t>
-  </si>
-  <si>
     <t>1  -0D</t>
   </si>
   <si>
-    <t>27  91D</t>
-  </si>
-  <si>
     <t>382  40D</t>
   </si>
   <si>
     <t>138  41D</t>
   </si>
   <si>
+    <t>117  63D</t>
+  </si>
+  <si>
     <t>167  -33D</t>
   </si>
   <si>
+    <t>1451  -32D</t>
+  </si>
+  <si>
+    <t>108  -33D</t>
+  </si>
+  <si>
     <t>1631  36D</t>
   </si>
   <si>
-    <t>108  -33D</t>
-  </si>
-  <si>
-    <t>117  63D</t>
-  </si>
-  <si>
-    <t>1451  -32D</t>
-  </si>
-  <si>
     <t>363  1943D</t>
   </si>
   <si>
@@ -1018,36 +1018,36 @@
     <t>255  42D</t>
   </si>
   <si>
+    <t>1121  225D</t>
+  </si>
+  <si>
+    <t>4422  65D</t>
+  </si>
+  <si>
     <t>1682  65D</t>
   </si>
   <si>
+    <t>1743  48D</t>
+  </si>
+  <si>
     <t>366  78D</t>
   </si>
   <si>
-    <t>1743  48D</t>
-  </si>
-  <si>
-    <t>4422  65D</t>
-  </si>
-  <si>
-    <t>1121  225D</t>
-  </si>
-  <si>
     <t>218  174D</t>
   </si>
   <si>
+    <t>235  203D</t>
+  </si>
+  <si>
+    <t>206  62D</t>
+  </si>
+  <si>
+    <t>802  230D</t>
+  </si>
+  <si>
     <t>1296  106D</t>
   </si>
   <si>
-    <t>235  203D</t>
-  </si>
-  <si>
-    <t>206  62D</t>
-  </si>
-  <si>
-    <t>802  230D</t>
-  </si>
-  <si>
     <t>272  -3D</t>
   </si>
   <si>
@@ -1057,18 +1057,18 @@
     <t>170  85D</t>
   </si>
   <si>
+    <t>42  -17D</t>
+  </si>
+  <si>
+    <t>102  -23D</t>
+  </si>
+  <si>
     <t>597  -26D</t>
   </si>
   <si>
     <t>1224  -21D</t>
   </si>
   <si>
-    <t>42  -17D</t>
-  </si>
-  <si>
-    <t>102  -23D</t>
-  </si>
-  <si>
     <t>1293  -21D</t>
   </si>
   <si>
@@ -1081,51 +1081,51 @@
     <t>6596  63D</t>
   </si>
   <si>
+    <t>183  92D</t>
+  </si>
+  <si>
     <t>648  106D</t>
   </si>
   <si>
-    <t>183  92D</t>
+    <t>8948  -32D</t>
+  </si>
+  <si>
+    <t>11171  75D</t>
   </si>
   <si>
     <t>191  -14D</t>
   </si>
   <si>
-    <t>11171  75D</t>
-  </si>
-  <si>
     <t>809  62D</t>
   </si>
   <si>
-    <t>8948  -32D</t>
-  </si>
-  <si>
     <t>4850  55D</t>
   </si>
   <si>
+    <t>8408  37D</t>
+  </si>
+  <si>
     <t>489  133D</t>
   </si>
   <si>
-    <t>8408  37D</t>
+    <t>203  192D</t>
   </si>
   <si>
     <t>38  384D</t>
   </si>
   <si>
-    <t>203  192D</t>
+    <t>29  377D</t>
   </si>
   <si>
     <t>108  127D</t>
   </si>
   <si>
-    <t>29  377D</t>
+    <t>57  91D</t>
   </si>
   <si>
     <t>45  -24D</t>
   </si>
   <si>
-    <t>57  91D</t>
-  </si>
-  <si>
     <t>105  308D</t>
   </si>
   <si>
@@ -1135,36 +1135,36 @@
     <t>133  -2D</t>
   </si>
   <si>
+    <t>619  44D</t>
+  </si>
+  <si>
+    <t>35  -2D</t>
+  </si>
+  <si>
+    <t>1800  57D</t>
+  </si>
+  <si>
+    <t>771  -28D</t>
+  </si>
+  <si>
+    <t>1030  85D</t>
+  </si>
+  <si>
     <t>137  76D</t>
   </si>
   <si>
-    <t>619  44D</t>
-  </si>
-  <si>
-    <t>35  -2D</t>
-  </si>
-  <si>
-    <t>1030  85D</t>
-  </si>
-  <si>
-    <t>1800  57D</t>
-  </si>
-  <si>
-    <t>771  -28D</t>
-  </si>
-  <si>
     <t>41  38D</t>
   </si>
   <si>
+    <t>118  357D</t>
+  </si>
+  <si>
+    <t>806  -21D</t>
+  </si>
+  <si>
     <t>2320  46D</t>
   </si>
   <si>
-    <t>806  -21D</t>
-  </si>
-  <si>
-    <t>118  357D</t>
-  </si>
-  <si>
     <t>205  230D</t>
   </si>
   <si>
@@ -1174,39 +1174,39 @@
     <t>15  -5D</t>
   </si>
   <si>
+    <t>7  -14D</t>
+  </si>
+  <si>
+    <t>11  58D</t>
+  </si>
+  <si>
+    <t>2469  36D</t>
+  </si>
+  <si>
     <t>1  -2D</t>
   </si>
   <si>
-    <t>11  58D</t>
-  </si>
-  <si>
-    <t>2469  36D</t>
-  </si>
-  <si>
-    <t>7  -14D</t>
-  </si>
-  <si>
     <t>255  -27D</t>
   </si>
   <si>
     <t>296  64D</t>
   </si>
   <si>
+    <t>219  219D</t>
+  </si>
+  <si>
     <t>510  94D</t>
   </si>
   <si>
+    <t>2044  145D</t>
+  </si>
+  <si>
+    <t>128  71D</t>
+  </si>
+  <si>
     <t>812  49D</t>
   </si>
   <si>
-    <t>128  71D</t>
-  </si>
-  <si>
-    <t>219  219D</t>
-  </si>
-  <si>
-    <t>2044  145D</t>
-  </si>
-  <si>
     <t>89  73D</t>
   </si>
   <si>
@@ -1243,36 +1243,36 @@
     <t>195  54D</t>
   </si>
   <si>
+    <t>2009  125D</t>
+  </si>
+  <si>
+    <t>8125  106D</t>
+  </si>
+  <si>
     <t>595  -23D</t>
   </si>
   <si>
+    <t>3045  -34D</t>
+  </si>
+  <si>
     <t>1365  89D</t>
   </si>
   <si>
-    <t>3045  -34D</t>
-  </si>
-  <si>
-    <t>8125  106D</t>
-  </si>
-  <si>
-    <t>2009  125D</t>
-  </si>
-  <si>
     <t>300  129D</t>
   </si>
   <si>
+    <t>158  186D</t>
+  </si>
+  <si>
+    <t>69  -20D</t>
+  </si>
+  <si>
+    <t>780  87D</t>
+  </si>
+  <si>
     <t>717  45D</t>
   </si>
   <si>
-    <t>158  186D</t>
-  </si>
-  <si>
-    <t>69  -20D</t>
-  </si>
-  <si>
-    <t>780  87D</t>
-  </si>
-  <si>
     <t>725  -10D</t>
   </si>
   <si>
@@ -1282,18 +1282,18 @@
     <t>112  72D</t>
   </si>
   <si>
+    <t>64  -10D</t>
+  </si>
+  <si>
+    <t>98  -25D</t>
+  </si>
+  <si>
     <t>527  -22D</t>
   </si>
   <si>
     <t>885  -13D</t>
   </si>
   <si>
-    <t>64  -10D</t>
-  </si>
-  <si>
-    <t>98  -25D</t>
-  </si>
-  <si>
     <t>2397  51D</t>
   </si>
   <si>
@@ -1306,51 +1306,51 @@
     <t>2649  -31D</t>
   </si>
   <si>
+    <t>251  118D</t>
+  </si>
+  <si>
     <t>324  95D</t>
   </si>
   <si>
-    <t>251  118D</t>
+    <t>10039  39D</t>
+  </si>
+  <si>
+    <t>5514  48D</t>
   </si>
   <si>
     <t>67  -5D</t>
   </si>
   <si>
-    <t>5514  48D</t>
-  </si>
-  <si>
     <t>1346  79D</t>
   </si>
   <si>
-    <t>10039  39D</t>
-  </si>
-  <si>
     <t>3229  84D</t>
   </si>
   <si>
+    <t>1033  45D</t>
+  </si>
+  <si>
     <t>150  -26D</t>
   </si>
   <si>
-    <t>1033  45D</t>
+    <t>99  85D</t>
   </si>
   <si>
     <t>36  819D</t>
   </si>
   <si>
-    <t>99  85D</t>
+    <t>16  182D</t>
   </si>
   <si>
     <t>94  56D</t>
   </si>
   <si>
-    <t>16  182D</t>
+    <t>176  205D</t>
   </si>
   <si>
     <t>42  78D</t>
   </si>
   <si>
-    <t>176  205D</t>
-  </si>
-  <si>
     <t>49  159D</t>
   </si>
   <si>
@@ -1360,39 +1360,39 @@
     <t>26  -0D</t>
   </si>
   <si>
+    <t>392  62D</t>
+  </si>
+  <si>
+    <t>118  -9D</t>
+  </si>
+  <si>
+    <t>1349  64D</t>
+  </si>
+  <si>
+    <t>681  39D</t>
+  </si>
+  <si>
+    <t>1081  86D</t>
+  </si>
+  <si>
     <t>174  64D</t>
   </si>
   <si>
-    <t>392  62D</t>
-  </si>
-  <si>
-    <t>118  -9D</t>
-  </si>
-  <si>
-    <t>1081  86D</t>
-  </si>
-  <si>
-    <t>1349  64D</t>
-  </si>
-  <si>
-    <t>681  39D</t>
-  </si>
-  <si>
     <t>102  -6D</t>
   </si>
   <si>
     <t>101  71D</t>
   </si>
   <si>
+    <t>119  87D</t>
+  </si>
+  <si>
+    <t>380  -12D</t>
+  </si>
+  <si>
     <t>2064  40D</t>
   </si>
   <si>
-    <t>380  -12D</t>
-  </si>
-  <si>
-    <t>119  87D</t>
-  </si>
-  <si>
     <t>286  260D</t>
   </si>
   <si>
@@ -1402,42 +1402,42 @@
     <t>129  42D</t>
   </si>
   <si>
+    <t>8  -22D</t>
+  </si>
+  <si>
+    <t>28  121D</t>
+  </si>
+  <si>
+    <t>2209  56D</t>
+  </si>
+  <si>
     <t>25  325D</t>
   </si>
   <si>
-    <t>28  121D</t>
-  </si>
-  <si>
-    <t>2209  56D</t>
-  </si>
-  <si>
     <t>54  -30D</t>
   </si>
   <si>
-    <t>8  -22D</t>
-  </si>
-  <si>
     <t>431  43D</t>
   </si>
   <si>
     <t>111  -30D</t>
   </si>
   <si>
+    <t>96  47D</t>
+  </si>
+  <si>
     <t>220  77D</t>
   </si>
   <si>
+    <t>1611  43D</t>
+  </si>
+  <si>
+    <t>71  -11D</t>
+  </si>
+  <si>
     <t>1056  -30D</t>
   </si>
   <si>
-    <t>71  -11D</t>
-  </si>
-  <si>
-    <t>96  47D</t>
-  </si>
-  <si>
-    <t>1611  43D</t>
-  </si>
-  <si>
     <t>129  96D</t>
   </si>
   <si>
@@ -1477,36 +1477,36 @@
     <t>135  54D</t>
   </si>
   <si>
+    <t>763  47D</t>
+  </si>
+  <si>
+    <t>4244  63D</t>
+  </si>
+  <si>
     <t>1320  182D</t>
   </si>
   <si>
+    <t>841  -16D</t>
+  </si>
+  <si>
     <t>989  75D</t>
   </si>
   <si>
-    <t>841  -16D</t>
-  </si>
-  <si>
-    <t>4244  63D</t>
-  </si>
-  <si>
-    <t>763  47D</t>
-  </si>
-  <si>
     <t>661  84D</t>
   </si>
   <si>
+    <t>611  -14D</t>
+  </si>
+  <si>
+    <t>439  88D</t>
+  </si>
+  <si>
+    <t>1201  48D</t>
+  </si>
+  <si>
     <t>1168  43D</t>
   </si>
   <si>
-    <t>611  -14D</t>
-  </si>
-  <si>
-    <t>439  88D</t>
-  </si>
-  <si>
-    <t>1201  48D</t>
-  </si>
-  <si>
     <t>549  -15D</t>
   </si>
   <si>
@@ -1516,15 +1516,15 @@
     <t>96  273D</t>
   </si>
   <si>
+    <t>148  43D</t>
+  </si>
+  <si>
     <t>501  -26D</t>
   </si>
   <si>
     <t>1611  35D</t>
   </si>
   <si>
-    <t>148  43D</t>
-  </si>
-  <si>
     <t>2431  125D</t>
   </si>
   <si>
@@ -1537,51 +1537,51 @@
     <t>2613  49D</t>
   </si>
   <si>
+    <t>123  399D</t>
+  </si>
+  <si>
     <t>261  282D</t>
   </si>
   <si>
-    <t>123  399D</t>
+    <t>7234  -26D</t>
+  </si>
+  <si>
+    <t>5575  47D</t>
   </si>
   <si>
     <t>604  42D</t>
   </si>
   <si>
-    <t>5575  47D</t>
-  </si>
-  <si>
     <t>835  -28D</t>
   </si>
   <si>
-    <t>7234  -26D</t>
-  </si>
-  <si>
     <t>2707  51D</t>
   </si>
   <si>
+    <t>5085  188D</t>
+  </si>
+  <si>
     <t>249  99D</t>
   </si>
   <si>
-    <t>5085  188D</t>
+    <t>179  39D</t>
   </si>
   <si>
     <t>21  273D</t>
   </si>
   <si>
-    <t>179  39D</t>
+    <t>58  175D</t>
   </si>
   <si>
     <t>61  67D</t>
   </si>
   <si>
-    <t>58  175D</t>
+    <t>74  54D</t>
   </si>
   <si>
     <t>28  57D</t>
   </si>
   <si>
-    <t>74  54D</t>
-  </si>
-  <si>
     <t>34  81D</t>
   </si>
   <si>
@@ -1591,39 +1591,39 @@
     <t>228  -14D</t>
   </si>
   <si>
+    <t>539  402D</t>
+  </si>
+  <si>
+    <t>273  86D</t>
+  </si>
+  <si>
+    <t>992  68D</t>
+  </si>
+  <si>
+    <t>603  60D</t>
+  </si>
+  <si>
+    <t>345  54D</t>
+  </si>
+  <si>
     <t>165  108D</t>
   </si>
   <si>
-    <t>539  402D</t>
-  </si>
-  <si>
-    <t>273  86D</t>
-  </si>
-  <si>
-    <t>345  54D</t>
-  </si>
-  <si>
-    <t>992  68D</t>
-  </si>
-  <si>
-    <t>603  60D</t>
-  </si>
-  <si>
     <t>434  -20D</t>
   </si>
   <si>
     <t>167  131D</t>
   </si>
   <si>
+    <t>36  148D</t>
+  </si>
+  <si>
+    <t>801  54D</t>
+  </si>
+  <si>
     <t>1231  48D</t>
   </si>
   <si>
-    <t>801  54D</t>
-  </si>
-  <si>
-    <t>36  148D</t>
-  </si>
-  <si>
     <t>46  199D</t>
   </si>
   <si>
@@ -1633,39 +1633,39 @@
     <t>65  -16D</t>
   </si>
   <si>
+    <t>94  167D</t>
+  </si>
+  <si>
+    <t>73  332D</t>
+  </si>
+  <si>
+    <t>1552  -31D</t>
+  </si>
+  <si>
     <t>1  -7D</t>
   </si>
   <si>
-    <t>73  332D</t>
-  </si>
-  <si>
-    <t>1552  -31D</t>
-  </si>
-  <si>
-    <t>94  167D</t>
-  </si>
-  <si>
     <t>737  109D</t>
   </si>
   <si>
     <t>182  67D</t>
   </si>
   <si>
+    <t>12  -8D</t>
+  </si>
+  <si>
     <t>93  -11D</t>
   </si>
   <si>
+    <t>2135  50D</t>
+  </si>
+  <si>
+    <t>28  -9D</t>
+  </si>
+  <si>
     <t>938  44D</t>
   </si>
   <si>
-    <t>28  -9D</t>
-  </si>
-  <si>
-    <t>12  -8D</t>
-  </si>
-  <si>
-    <t>2135  50D</t>
-  </si>
-  <si>
     <t>12  -10D</t>
   </si>
   <si>
@@ -1708,36 +1708,36 @@
     <t>149  47D</t>
   </si>
   <si>
+    <t>1719  76D</t>
+  </si>
+  <si>
+    <t>8941  92D</t>
+  </si>
+  <si>
     <t>1317  112D</t>
   </si>
   <si>
+    <t>1403  -22D</t>
+  </si>
+  <si>
     <t>490  53D</t>
   </si>
   <si>
-    <t>1403  -22D</t>
-  </si>
-  <si>
-    <t>8941  92D</t>
-  </si>
-  <si>
-    <t>1719  76D</t>
-  </si>
-  <si>
     <t>206  56D</t>
   </si>
   <si>
+    <t>187  58D</t>
+  </si>
+  <si>
+    <t>207  57D</t>
+  </si>
+  <si>
+    <t>1003  83D</t>
+  </si>
+  <si>
     <t>742  49D</t>
   </si>
   <si>
-    <t>187  58D</t>
-  </si>
-  <si>
-    <t>207  57D</t>
-  </si>
-  <si>
-    <t>1003  83D</t>
-  </si>
-  <si>
     <t>610  -10D</t>
   </si>
   <si>
@@ -1747,18 +1747,18 @@
     <t>99  81D</t>
   </si>
   <si>
+    <t>118  -30D</t>
+  </si>
+  <si>
+    <t>140  105D</t>
+  </si>
+  <si>
     <t>566  -19D</t>
   </si>
   <si>
     <t>1591  41D</t>
   </si>
   <si>
-    <t>118  -30D</t>
-  </si>
-  <si>
-    <t>140  105D</t>
-  </si>
-  <si>
     <t>2230  79D</t>
   </si>
   <si>
@@ -1771,90 +1771,90 @@
     <t>3165  36D</t>
   </si>
   <si>
+    <t>91  53D</t>
+  </si>
+  <si>
     <t>217  60D</t>
   </si>
   <si>
-    <t>91  53D</t>
+    <t>11797  51D</t>
+  </si>
+  <si>
+    <t>5483  42D</t>
   </si>
   <si>
     <t>678  45D</t>
   </si>
   <si>
-    <t>5483  42D</t>
-  </si>
-  <si>
     <t>922  205D</t>
   </si>
   <si>
-    <t>11797  51D</t>
-  </si>
-  <si>
     <t>2549  127D</t>
   </si>
   <si>
+    <t>2128  204D</t>
+  </si>
+  <si>
     <t>215  66D</t>
   </si>
   <si>
-    <t>2128  204D</t>
+    <t>140  73D</t>
   </si>
   <si>
     <t>30  66D</t>
   </si>
   <si>
-    <t>140  73D</t>
+    <t>59  596D</t>
   </si>
   <si>
     <t>64  71D</t>
   </si>
   <si>
-    <t>59  596D</t>
+    <t>89  35D</t>
   </si>
   <si>
     <t>96  82D</t>
   </si>
   <si>
-    <t>89  35D</t>
-  </si>
-  <si>
     <t>114  39D</t>
   </si>
   <si>
     <t>149  -6D</t>
   </si>
   <si>
+    <t>357  112D</t>
+  </si>
+  <si>
+    <t>275  42D</t>
+  </si>
+  <si>
+    <t>1029  51D</t>
+  </si>
+  <si>
+    <t>684  42D</t>
+  </si>
+  <si>
+    <t>211  -31D</t>
+  </si>
+  <si>
     <t>161  185D</t>
   </si>
   <si>
-    <t>357  112D</t>
-  </si>
-  <si>
-    <t>275  42D</t>
-  </si>
-  <si>
-    <t>211  -31D</t>
-  </si>
-  <si>
-    <t>1029  51D</t>
-  </si>
-  <si>
-    <t>684  42D</t>
-  </si>
-  <si>
     <t>754  118D</t>
   </si>
   <si>
     <t>64  82D</t>
   </si>
   <si>
+    <t>108  69D</t>
+  </si>
+  <si>
+    <t>40  -0D</t>
+  </si>
+  <si>
     <t>1468  -19D</t>
   </si>
   <si>
-    <t>40  -0D</t>
-  </si>
-  <si>
-    <t>108  69D</t>
-  </si>
-  <si>
     <t>126  77D</t>
   </si>
   <si>
@@ -1864,39 +1864,39 @@
     <t>156  53D</t>
   </si>
   <si>
+    <t>117  156D</t>
+  </si>
+  <si>
+    <t>33  300D</t>
+  </si>
+  <si>
+    <t>2781  50D</t>
+  </si>
+  <si>
     <t>24  39D</t>
   </si>
   <si>
-    <t>33  300D</t>
-  </si>
-  <si>
-    <t>2781  50D</t>
-  </si>
-  <si>
-    <t>117  156D</t>
-  </si>
-  <si>
     <t>582  59D</t>
   </si>
   <si>
     <t>187  39D</t>
   </si>
   <si>
+    <t>74  39D</t>
+  </si>
+  <si>
     <t>153  53D</t>
   </si>
   <si>
+    <t>746  61D</t>
+  </si>
+  <si>
+    <t>81  48D</t>
+  </si>
+  <si>
     <t>1499  52D</t>
   </si>
   <si>
-    <t>81  48D</t>
-  </si>
-  <si>
-    <t>74  39D</t>
-  </si>
-  <si>
-    <t>746  61D</t>
-  </si>
-  <si>
     <t>102  145D</t>
   </si>
   <si>
@@ -1939,36 +1939,36 @@
     <t>217  266D</t>
   </si>
   <si>
+    <t>1239  54D</t>
+  </si>
+  <si>
+    <t>10314  81D</t>
+  </si>
+  <si>
     <t>461  36D</t>
   </si>
   <si>
+    <t>579  -10D</t>
+  </si>
+  <si>
     <t>885  92D</t>
   </si>
   <si>
-    <t>579  -10D</t>
-  </si>
-  <si>
-    <t>10314  81D</t>
-  </si>
-  <si>
-    <t>1239  54D</t>
-  </si>
-  <si>
     <t>521  121D</t>
   </si>
   <si>
+    <t>100  -5D</t>
+  </si>
+  <si>
+    <t>131  59D</t>
+  </si>
+  <si>
+    <t>1105  126D</t>
+  </si>
+  <si>
     <t>746  39D</t>
   </si>
   <si>
-    <t>100  -5D</t>
-  </si>
-  <si>
-    <t>131  59D</t>
-  </si>
-  <si>
-    <t>1105  126D</t>
-  </si>
-  <si>
     <t>197  -2D</t>
   </si>
   <si>
@@ -1978,18 +1978,18 @@
     <t>70  132D</t>
   </si>
   <si>
+    <t>224  46D</t>
+  </si>
+  <si>
+    <t>115  73D</t>
+  </si>
+  <si>
     <t>532  -21D</t>
   </si>
   <si>
     <t>1899  47D</t>
   </si>
   <si>
-    <t>224  46D</t>
-  </si>
-  <si>
-    <t>115  73D</t>
-  </si>
-  <si>
     <t>2571  156D</t>
   </si>
   <si>
@@ -2002,51 +2002,51 @@
     <t>2121  -27D</t>
   </si>
   <si>
+    <t>349  281D</t>
+  </si>
+  <si>
     <t>268  61D</t>
   </si>
   <si>
-    <t>349  281D</t>
+    <t>9522  48D</t>
+  </si>
+  <si>
+    <t>6549  46D</t>
   </si>
   <si>
     <t>439  -26D</t>
   </si>
   <si>
-    <t>6549  46D</t>
-  </si>
-  <si>
     <t>779  -22D</t>
   </si>
   <si>
-    <t>9522  48D</t>
-  </si>
-  <si>
     <t>2797  131D</t>
   </si>
   <si>
+    <t>1879  169D</t>
+  </si>
+  <si>
     <t>254  89D</t>
   </si>
   <si>
-    <t>1879  169D</t>
+    <t>100  156D</t>
   </si>
   <si>
     <t>36  655D</t>
   </si>
   <si>
-    <t>100  156D</t>
+    <t>64  291D</t>
   </si>
   <si>
     <t>136  233D</t>
   </si>
   <si>
-    <t>64  291D</t>
+    <t>140  -27D</t>
   </si>
   <si>
     <t>99  68D</t>
   </si>
   <si>
-    <t>140  -27D</t>
-  </si>
-  <si>
     <t>19  -18D</t>
   </si>
   <si>
@@ -2056,39 +2056,39 @@
     <t>303  -16D</t>
   </si>
   <si>
+    <t>394  58D</t>
+  </si>
+  <si>
+    <t>253  52D</t>
+  </si>
+  <si>
+    <t>1245  69D</t>
+  </si>
+  <si>
+    <t>1194  71D</t>
+  </si>
+  <si>
+    <t>153  -24D</t>
+  </si>
+  <si>
     <t>159  101D</t>
   </si>
   <si>
-    <t>394  58D</t>
-  </si>
-  <si>
-    <t>253  52D</t>
-  </si>
-  <si>
-    <t>153  -24D</t>
-  </si>
-  <si>
-    <t>1245  69D</t>
-  </si>
-  <si>
-    <t>1194  71D</t>
-  </si>
-  <si>
     <t>988  217D</t>
   </si>
   <si>
     <t>92  -33D</t>
   </si>
   <si>
+    <t>32  -25D</t>
+  </si>
+  <si>
+    <t>498  -9D</t>
+  </si>
+  <si>
     <t>1911  37D</t>
   </si>
   <si>
-    <t>498  -9D</t>
-  </si>
-  <si>
-    <t>32  -25D</t>
-  </si>
-  <si>
     <t>124  296D</t>
   </si>
   <si>
@@ -2098,42 +2098,42 @@
     <t>172  71D</t>
   </si>
   <si>
+    <t>41  79D</t>
+  </si>
+  <si>
+    <t>11  91D</t>
+  </si>
+  <si>
+    <t>4322  224D</t>
+  </si>
+  <si>
     <t>1  -6D</t>
   </si>
   <si>
-    <t>11  91D</t>
-  </si>
-  <si>
-    <t>4322  224D</t>
-  </si>
-  <si>
     <t>31  -24D</t>
   </si>
   <si>
-    <t>41  79D</t>
-  </si>
-  <si>
     <t>803  150D</t>
   </si>
   <si>
     <t>183  -28D</t>
   </si>
   <si>
+    <t>113  128D</t>
+  </si>
+  <si>
     <t>343  221D</t>
   </si>
   <si>
+    <t>1793  134D</t>
+  </si>
+  <si>
+    <t>93  91D</t>
+  </si>
+  <si>
     <t>954  59D</t>
   </si>
   <si>
-    <t>93  91D</t>
-  </si>
-  <si>
-    <t>113  128D</t>
-  </si>
-  <si>
-    <t>1793  134D</t>
-  </si>
-  <si>
     <t>64  -32D</t>
   </si>
   <si>
@@ -2176,36 +2176,36 @@
     <t>289  154D</t>
   </si>
   <si>
+    <t>1167  50D</t>
+  </si>
+  <si>
+    <t>9757  96D</t>
+  </si>
+  <si>
     <t>1718  201D</t>
   </si>
   <si>
+    <t>836  -20D</t>
+  </si>
+  <si>
     <t>681  80D</t>
   </si>
   <si>
-    <t>836  -20D</t>
-  </si>
-  <si>
-    <t>9757  96D</t>
-  </si>
-  <si>
-    <t>1167  50D</t>
-  </si>
-  <si>
     <t>184  136D</t>
   </si>
   <si>
+    <t>54  89D</t>
+  </si>
+  <si>
+    <t>227  35D</t>
+  </si>
+  <si>
+    <t>503  127D</t>
+  </si>
+  <si>
     <t>557  66D</t>
   </si>
   <si>
-    <t>54  89D</t>
-  </si>
-  <si>
-    <t>227  35D</t>
-  </si>
-  <si>
-    <t>503  127D</t>
-  </si>
-  <si>
     <t>482  -14D</t>
   </si>
   <si>
@@ -2215,18 +2215,18 @@
     <t>69  64D</t>
   </si>
   <si>
+    <t>211  237D</t>
+  </si>
+  <si>
+    <t>108  102D</t>
+  </si>
+  <si>
     <t>487  35D</t>
   </si>
   <si>
     <t>1538  50D</t>
   </si>
   <si>
-    <t>211  237D</t>
-  </si>
-  <si>
-    <t>108  102D</t>
-  </si>
-  <si>
     <t>2101  -32D</t>
   </si>
   <si>
@@ -2239,51 +2239,51 @@
     <t>2936  42D</t>
   </si>
   <si>
+    <t>382  96D</t>
+  </si>
+  <si>
     <t>554  108D</t>
   </si>
   <si>
-    <t>382  96D</t>
+    <t>6832  40D</t>
+  </si>
+  <si>
+    <t>6987  81D</t>
   </si>
   <si>
     <t>701  89D</t>
   </si>
   <si>
-    <t>6987  81D</t>
-  </si>
-  <si>
     <t>1381  198D</t>
   </si>
   <si>
-    <t>6832  40D</t>
-  </si>
-  <si>
     <t>2761  42D</t>
   </si>
   <si>
+    <t>1521  109D</t>
+  </si>
+  <si>
     <t>747  102D</t>
   </si>
   <si>
-    <t>1521  109D</t>
+    <t>89  40D</t>
   </si>
   <si>
     <t>9  48D</t>
   </si>
   <si>
-    <t>89  40D</t>
+    <t>63  163D</t>
   </si>
   <si>
     <t>88  40D</t>
   </si>
   <si>
-    <t>63  163D</t>
+    <t>81  96D</t>
   </si>
   <si>
     <t>82  173D</t>
   </si>
   <si>
-    <t>81  96D</t>
-  </si>
-  <si>
     <t>25  133D</t>
   </si>
   <si>
@@ -2293,39 +2293,39 @@
     <t>102  -3D</t>
   </si>
   <si>
+    <t>447  -34D</t>
+  </si>
+  <si>
+    <t>285  75D</t>
+  </si>
+  <si>
+    <t>904  40D</t>
+  </si>
+  <si>
+    <t>861  48D</t>
+  </si>
+  <si>
+    <t>82  -10D</t>
+  </si>
+  <si>
     <t>196  75D</t>
   </si>
   <si>
-    <t>447  -34D</t>
-  </si>
-  <si>
-    <t>285  75D</t>
-  </si>
-  <si>
-    <t>82  -10D</t>
-  </si>
-  <si>
-    <t>904  40D</t>
-  </si>
-  <si>
-    <t>861  48D</t>
-  </si>
-  <si>
     <t>65  -8D</t>
   </si>
   <si>
     <t>97  89D</t>
   </si>
   <si>
+    <t>99  152D</t>
+  </si>
+  <si>
+    <t>323  -12D</t>
+  </si>
+  <si>
     <t>1874  67D</t>
   </si>
   <si>
-    <t>323  -12D</t>
-  </si>
-  <si>
-    <t>99  152D</t>
-  </si>
-  <si>
     <t>90  134D</t>
   </si>
   <si>
@@ -2335,42 +2335,42 @@
     <t>78  -15D</t>
   </si>
   <si>
+    <t>35  199D</t>
+  </si>
+  <si>
+    <t>20  42D</t>
+  </si>
+  <si>
+    <t>829  59D</t>
+  </si>
+  <si>
     <t>23  299D</t>
   </si>
   <si>
-    <t>20  42D</t>
-  </si>
-  <si>
-    <t>829  59D</t>
-  </si>
-  <si>
     <t>8  -8D</t>
   </si>
   <si>
-    <t>35  199D</t>
-  </si>
-  <si>
     <t>439  62D</t>
   </si>
   <si>
     <t>297  95D</t>
   </si>
   <si>
+    <t>108  35D</t>
+  </si>
+  <si>
     <t>111  -17D</t>
   </si>
   <si>
+    <t>2588  -33D</t>
+  </si>
+  <si>
+    <t>132  -22D</t>
+  </si>
+  <si>
     <t>1107  -9D</t>
   </si>
   <si>
-    <t>132  -22D</t>
-  </si>
-  <si>
-    <t>108  35D</t>
-  </si>
-  <si>
-    <t>2588  -33D</t>
-  </si>
-  <si>
     <t>40  62D</t>
   </si>
   <si>
@@ -2404,36 +2404,36 @@
     <t>256  -26D</t>
   </si>
   <si>
+    <t>1128  237D</t>
+  </si>
+  <si>
+    <t>5380  105D</t>
+  </si>
+  <si>
     <t>1070  -28D</t>
   </si>
   <si>
+    <t>2077  61D</t>
+  </si>
+  <si>
     <t>394  121D</t>
   </si>
   <si>
-    <t>2077  61D</t>
-  </si>
-  <si>
-    <t>5380  105D</t>
-  </si>
-  <si>
-    <t>1128  237D</t>
-  </si>
-  <si>
     <t>172  150D</t>
   </si>
   <si>
+    <t>91  394D</t>
+  </si>
+  <si>
+    <t>169  301D</t>
+  </si>
+  <si>
+    <t>441  364D</t>
+  </si>
+  <si>
     <t>695  120D</t>
   </si>
   <si>
-    <t>91  394D</t>
-  </si>
-  <si>
-    <t>169  301D</t>
-  </si>
-  <si>
-    <t>441  364D</t>
-  </si>
-  <si>
     <t>180  -3D</t>
   </si>
   <si>
@@ -2443,18 +2443,18 @@
     <t>170  377D</t>
   </si>
   <si>
+    <t>95  -31D</t>
+  </si>
+  <si>
+    <t>155  59D</t>
+  </si>
+  <si>
     <t>399  -22D</t>
   </si>
   <si>
     <t>971  -23D</t>
   </si>
   <si>
-    <t>95  -31D</t>
-  </si>
-  <si>
-    <t>155  59D</t>
-  </si>
-  <si>
     <t>2978  175D</t>
   </si>
   <si>
@@ -2467,51 +2467,51 @@
     <t>3433  47D</t>
   </si>
   <si>
+    <t>235  277D</t>
+  </si>
+  <si>
     <t>321  188D</t>
   </si>
   <si>
-    <t>235  277D</t>
+    <t>7888  51D</t>
+  </si>
+  <si>
+    <t>5496  66D</t>
   </si>
   <si>
     <t>175  -21D</t>
   </si>
   <si>
-    <t>5496  66D</t>
-  </si>
-  <si>
     <t>1008  146D</t>
   </si>
   <si>
-    <t>7888  51D</t>
-  </si>
-  <si>
     <t>3955  148D</t>
   </si>
   <si>
+    <t>1499  54D</t>
+  </si>
+  <si>
     <t>400  114D</t>
   </si>
   <si>
-    <t>1499  54D</t>
+    <t>159  178D</t>
   </si>
   <si>
     <t>25  568D</t>
   </si>
   <si>
-    <t>159  178D</t>
+    <t>54  819D</t>
   </si>
   <si>
     <t>68  143D</t>
   </si>
   <si>
-    <t>54  819D</t>
+    <t>89  245D</t>
   </si>
   <si>
     <t>68  167D</t>
   </si>
   <si>
-    <t>89  245D</t>
-  </si>
-  <si>
     <t>44  143D</t>
   </si>
   <si>
@@ -2521,39 +2521,39 @@
     <t>115  -4D</t>
   </si>
   <si>
+    <t>297  50D</t>
+  </si>
+  <si>
+    <t>280  36D</t>
+  </si>
+  <si>
+    <t>1525  118D</t>
+  </si>
+  <si>
+    <t>662  45D</t>
+  </si>
+  <si>
+    <t>270  55D</t>
+  </si>
+  <si>
     <t>62  46D</t>
   </si>
   <si>
-    <t>297  50D</t>
-  </si>
-  <si>
-    <t>280  36D</t>
-  </si>
-  <si>
-    <t>270  55D</t>
-  </si>
-  <si>
-    <t>1525  118D</t>
-  </si>
-  <si>
-    <t>662  45D</t>
-  </si>
-  <si>
     <t>348  -31D</t>
   </si>
   <si>
     <t>50  72D</t>
   </si>
   <si>
+    <t>53  53D</t>
+  </si>
+  <si>
+    <t>286  -9D</t>
+  </si>
+  <si>
     <t>2785  95D</t>
   </si>
   <si>
-    <t>286  -9D</t>
-  </si>
-  <si>
-    <t>53  53D</t>
-  </si>
-  <si>
     <t>167  422D</t>
   </si>
   <si>
@@ -2563,42 +2563,42 @@
     <t>59  40D</t>
   </si>
   <si>
+    <t>74  518D</t>
+  </si>
+  <si>
+    <t>8  121D</t>
+  </si>
+  <si>
+    <t>1799  52D</t>
+  </si>
+  <si>
     <t>1  -8D</t>
   </si>
   <si>
-    <t>8  121D</t>
-  </si>
-  <si>
-    <t>1799  52D</t>
-  </si>
-  <si>
     <t>29  39D</t>
   </si>
   <si>
-    <t>74  518D</t>
-  </si>
-  <si>
     <t>446  115D</t>
   </si>
   <si>
     <t>427  144D</t>
   </si>
   <si>
+    <t>117  136D</t>
+  </si>
+  <si>
     <t>416  198D</t>
   </si>
   <si>
+    <t>1288  125D</t>
+  </si>
+  <si>
+    <t>174  336D</t>
+  </si>
+  <si>
     <t>2391  193D</t>
   </si>
   <si>
-    <t>174  336D</t>
-  </si>
-  <si>
-    <t>117  136D</t>
-  </si>
-  <si>
-    <t>1288  125D</t>
-  </si>
-  <si>
     <t>54  -31D</t>
   </si>
   <si>
@@ -2638,36 +2638,36 @@
     <t>190  150D</t>
   </si>
   <si>
+    <t>1011  84D</t>
+  </si>
+  <si>
+    <t>4004  60D</t>
+  </si>
+  <si>
     <t>1312  133D</t>
   </si>
   <si>
+    <t>2399  56D</t>
+  </si>
+  <si>
     <t>938  395D</t>
   </si>
   <si>
-    <t>2399  56D</t>
-  </si>
-  <si>
-    <t>4004  60D</t>
-  </si>
-  <si>
-    <t>1011  84D</t>
-  </si>
-  <si>
     <t>158  102D</t>
   </si>
   <si>
+    <t>150  390D</t>
+  </si>
+  <si>
+    <t>121  74D</t>
+  </si>
+  <si>
+    <t>548  137D</t>
+  </si>
+  <si>
     <t>535  57D</t>
   </si>
   <si>
-    <t>150  390D</t>
-  </si>
-  <si>
-    <t>121  74D</t>
-  </si>
-  <si>
-    <t>548  137D</t>
-  </si>
-  <si>
     <t>279  -4D</t>
   </si>
   <si>
@@ -2677,18 +2677,18 @@
     <t>57  115D</t>
   </si>
   <si>
+    <t>229  87D</t>
+  </si>
+  <si>
+    <t>220  45D</t>
+  </si>
+  <si>
     <t>1266  53D</t>
   </si>
   <si>
     <t>1502  -29D</t>
   </si>
   <si>
-    <t>229  87D</t>
-  </si>
-  <si>
-    <t>220  45D</t>
-  </si>
-  <si>
     <t>1640  90D</t>
   </si>
   <si>
@@ -2701,51 +2701,51 @@
     <t>5528  45D</t>
   </si>
   <si>
+    <t>235  137D</t>
+  </si>
+  <si>
     <t>102  36D</t>
   </si>
   <si>
-    <t>235  137D</t>
+    <t>7533  -33D</t>
+  </si>
+  <si>
+    <t>9204  48D</t>
   </si>
   <si>
     <t>321  -16D</t>
   </si>
   <si>
-    <t>9204  48D</t>
-  </si>
-  <si>
     <t>708  148D</t>
   </si>
   <si>
-    <t>7533  -33D</t>
-  </si>
-  <si>
     <t>3821  62D</t>
   </si>
   <si>
+    <t>9060  106D</t>
+  </si>
+  <si>
     <t>157  -14D</t>
   </si>
   <si>
-    <t>9060  106D</t>
+    <t>70  -24D</t>
   </si>
   <si>
     <t>53  482D</t>
   </si>
   <si>
-    <t>70  -24D</t>
+    <t>46  299D</t>
   </si>
   <si>
     <t>120  59D</t>
   </si>
   <si>
-    <t>46  299D</t>
+    <t>58  36D</t>
   </si>
   <si>
     <t>76  -26D</t>
   </si>
   <si>
-    <t>58  36D</t>
-  </si>
-  <si>
     <t>26  157D</t>
   </si>
   <si>
@@ -2755,39 +2755,39 @@
     <t>171  -5D</t>
   </si>
   <si>
+    <t>485  -32D</t>
+  </si>
+  <si>
+    <t>205  -17D</t>
+  </si>
+  <si>
+    <t>1116  35D</t>
+  </si>
+  <si>
+    <t>1593  47D</t>
+  </si>
+  <si>
+    <t>917  55D</t>
+  </si>
+  <si>
     <t>46  -31D</t>
   </si>
   <si>
-    <t>485  -32D</t>
-  </si>
-  <si>
-    <t>205  -17D</t>
-  </si>
-  <si>
-    <t>917  55D</t>
-  </si>
-  <si>
-    <t>1116  35D</t>
-  </si>
-  <si>
-    <t>1593  47D</t>
-  </si>
-  <si>
     <t>55  -3D</t>
   </si>
   <si>
     <t>108  118D</t>
   </si>
   <si>
+    <t>41  177D</t>
+  </si>
+  <si>
+    <t>143  -3D</t>
+  </si>
+  <si>
     <t>2723  71D</t>
   </si>
   <si>
-    <t>143  -3D</t>
-  </si>
-  <si>
-    <t>41  177D</t>
-  </si>
-  <si>
     <t>236  613D</t>
   </si>
   <si>
@@ -2797,39 +2797,39 @@
     <t>68  -10D</t>
   </si>
   <si>
+    <t>78  97D</t>
+  </si>
+  <si>
+    <t>8  40D</t>
+  </si>
+  <si>
+    <t>2907  65D</t>
+  </si>
+  <si>
     <t>15  195D</t>
   </si>
   <si>
-    <t>8  40D</t>
-  </si>
-  <si>
-    <t>2907  65D</t>
-  </si>
-  <si>
-    <t>78  97D</t>
-  </si>
-  <si>
     <t>398  -29D</t>
   </si>
   <si>
     <t>154  43D</t>
   </si>
   <si>
+    <t>113  81D</t>
+  </si>
+  <si>
     <t>759  215D</t>
   </si>
   <si>
+    <t>723  -33D</t>
+  </si>
+  <si>
+    <t>87  74D</t>
+  </si>
+  <si>
     <t>771  -30D</t>
   </si>
   <si>
-    <t>87  74D</t>
-  </si>
-  <si>
-    <t>113  81D</t>
-  </si>
-  <si>
-    <t>723  -33D</t>
-  </si>
-  <si>
     <t>63  51D</t>
   </si>
   <si>
@@ -2869,36 +2869,36 @@
     <t>141  -27D</t>
   </si>
   <si>
+    <t>810  71D</t>
+  </si>
+  <si>
+    <t>5058  53D</t>
+  </si>
+  <si>
     <t>1035  53D</t>
   </si>
   <si>
+    <t>2814  53D</t>
+  </si>
+  <si>
     <t>1231  122D</t>
   </si>
   <si>
-    <t>2814  53D</t>
-  </si>
-  <si>
-    <t>5058  53D</t>
-  </si>
-  <si>
-    <t>810  71D</t>
-  </si>
-  <si>
     <t>284  266D</t>
   </si>
   <si>
+    <t>59  214D</t>
+  </si>
+  <si>
+    <t>39  47D</t>
+  </si>
+  <si>
+    <t>303  183D</t>
+  </si>
+  <si>
     <t>2130  374D</t>
   </si>
   <si>
-    <t>59  214D</t>
-  </si>
-  <si>
-    <t>39  47D</t>
-  </si>
-  <si>
-    <t>303  183D</t>
-  </si>
-  <si>
     <t>477  -7D</t>
   </si>
   <si>
@@ -2908,15 +2908,15 @@
     <t>34  162D</t>
   </si>
   <si>
+    <t>141  86D</t>
+  </si>
+  <si>
     <t>362  -18D</t>
   </si>
   <si>
     <t>738  -13D</t>
   </si>
   <si>
-    <t>141  86D</t>
-  </si>
-  <si>
     <t>2622  124D</t>
   </si>
   <si>
@@ -2929,45 +2929,45 @@
     <t>4067  64D</t>
   </si>
   <si>
+    <t>189  197D</t>
+  </si>
+  <si>
     <t>283  103D</t>
   </si>
   <si>
-    <t>189  197D</t>
+    <t>5892  47D</t>
+  </si>
+  <si>
+    <t>2953  -33D</t>
   </si>
   <si>
     <t>352  75D</t>
   </si>
   <si>
-    <t>2953  -33D</t>
-  </si>
-  <si>
     <t>842  60D</t>
   </si>
   <si>
-    <t>5892  47D</t>
-  </si>
-  <si>
     <t>852  35D</t>
   </si>
   <si>
+    <t>3063  509D</t>
+  </si>
+  <si>
     <t>336  75D</t>
   </si>
   <si>
-    <t>3063  509D</t>
+    <t>111  88D</t>
   </si>
   <si>
     <t>10  70D</t>
   </si>
   <si>
-    <t>111  88D</t>
+    <t>33  200D</t>
   </si>
   <si>
     <t>103  -32D</t>
   </si>
   <si>
-    <t>33  200D</t>
-  </si>
-  <si>
     <t>11  -5D</t>
   </si>
   <si>
@@ -2980,36 +2980,36 @@
     <t>149  -4D</t>
   </si>
   <si>
+    <t>741  48D</t>
+  </si>
+  <si>
+    <t>56  -13D</t>
+  </si>
+  <si>
+    <t>835  37D</t>
+  </si>
+  <si>
+    <t>939  43D</t>
+  </si>
+  <si>
+    <t>368  66D</t>
+  </si>
+  <si>
     <t>88  52D</t>
   </si>
   <si>
-    <t>741  48D</t>
-  </si>
-  <si>
-    <t>56  -13D</t>
-  </si>
-  <si>
-    <t>368  66D</t>
-  </si>
-  <si>
-    <t>835  37D</t>
-  </si>
-  <si>
-    <t>939  43D</t>
-  </si>
-  <si>
     <t>85  62D</t>
   </si>
   <si>
+    <t>47  80D</t>
+  </si>
+  <si>
+    <t>285  -7D</t>
+  </si>
+  <si>
     <t>1725  46D</t>
   </si>
   <si>
-    <t>285  -7D</t>
-  </si>
-  <si>
-    <t>47  80D</t>
-  </si>
-  <si>
     <t>8  -14D</t>
   </si>
   <si>
@@ -3019,36 +3019,36 @@
     <t>104  78D</t>
   </si>
   <si>
+    <t>31  97D</t>
+  </si>
+  <si>
+    <t>45  170D</t>
+  </si>
+  <si>
+    <t>1331  39D</t>
+  </si>
+  <si>
     <t>23  65D</t>
   </si>
   <si>
-    <t>45  170D</t>
-  </si>
-  <si>
-    <t>1331  39D</t>
-  </si>
-  <si>
-    <t>31  97D</t>
-  </si>
-  <si>
     <t>252  -25D</t>
   </si>
   <si>
     <t>353  91D</t>
   </si>
   <si>
+    <t>101  108D</t>
+  </si>
+  <si>
     <t>141  72D</t>
   </si>
   <si>
+    <t>1128  95D</t>
+  </si>
+  <si>
     <t>98  65D</t>
   </si>
   <si>
-    <t>101  108D</t>
-  </si>
-  <si>
-    <t>1128  95D</t>
-  </si>
-  <si>
     <t>126  154D</t>
   </si>
   <si>
@@ -3088,36 +3088,36 @@
     <t>907  66D</t>
   </si>
   <si>
+    <t>1116  173D</t>
+  </si>
+  <si>
+    <t>3721  71D</t>
+  </si>
+  <si>
     <t>1121  63D</t>
   </si>
   <si>
+    <t>1347  38D</t>
+  </si>
+  <si>
     <t>345  73D</t>
   </si>
   <si>
-    <t>1347  38D</t>
-  </si>
-  <si>
-    <t>3721  71D</t>
-  </si>
-  <si>
-    <t>1116  173D</t>
-  </si>
-  <si>
     <t>272  100D</t>
   </si>
   <si>
+    <t>264  -21D</t>
+  </si>
+  <si>
+    <t>113  -24D</t>
+  </si>
+  <si>
+    <t>1088  83D</t>
+  </si>
+  <si>
     <t>951  68D</t>
   </si>
   <si>
-    <t>264  -21D</t>
-  </si>
-  <si>
-    <t>113  -24D</t>
-  </si>
-  <si>
-    <t>1088  83D</t>
-  </si>
-  <si>
     <t>247  -3D</t>
   </si>
   <si>
@@ -3127,15 +3127,15 @@
     <t>94  80D</t>
   </si>
   <si>
+    <t>157  43D</t>
+  </si>
+  <si>
     <t>628  -32D</t>
   </si>
   <si>
     <t>777  -15D</t>
   </si>
   <si>
-    <t>157  43D</t>
-  </si>
-  <si>
     <t>1766  161D</t>
   </si>
   <si>
@@ -3148,51 +3148,51 @@
     <t>3551  -33D</t>
   </si>
   <si>
+    <t>128  171D</t>
+  </si>
+  <si>
     <t>293  142D</t>
   </si>
   <si>
-    <t>128  171D</t>
+    <t>9082  -34D</t>
+  </si>
+  <si>
+    <t>7378  59D</t>
   </si>
   <si>
     <t>434  46D</t>
   </si>
   <si>
-    <t>7378  59D</t>
-  </si>
-  <si>
     <t>560  106D</t>
   </si>
   <si>
-    <t>9082  -34D</t>
-  </si>
-  <si>
     <t>3040  72D</t>
   </si>
   <si>
+    <t>3658  118D</t>
+  </si>
+  <si>
     <t>251  36D</t>
   </si>
   <si>
-    <t>3658  118D</t>
+    <t>126  74D</t>
   </si>
   <si>
     <t>18  60D</t>
   </si>
   <si>
-    <t>126  74D</t>
+    <t>47  329D</t>
   </si>
   <si>
     <t>149  205D</t>
   </si>
   <si>
-    <t>47  329D</t>
+    <t>39  43D</t>
   </si>
   <si>
     <t>22  -22D</t>
   </si>
   <si>
-    <t>39  43D</t>
-  </si>
-  <si>
     <t>32  59D</t>
   </si>
   <si>
@@ -3202,36 +3202,36 @@
     <t>191  -3D</t>
   </si>
   <si>
+    <t>444  46D</t>
+  </si>
+  <si>
+    <t>45  -3D</t>
+  </si>
+  <si>
+    <t>1742  79D</t>
+  </si>
+  <si>
+    <t>881  49D</t>
+  </si>
+  <si>
+    <t>555  62D</t>
+  </si>
+  <si>
     <t>117  86D</t>
   </si>
   <si>
-    <t>444  46D</t>
-  </si>
-  <si>
-    <t>45  -3D</t>
-  </si>
-  <si>
-    <t>555  62D</t>
-  </si>
-  <si>
-    <t>1742  79D</t>
-  </si>
-  <si>
-    <t>881  49D</t>
-  </si>
-  <si>
     <t>148  151D</t>
   </si>
   <si>
+    <t>109  150D</t>
+  </si>
+  <si>
+    <t>238  -6D</t>
+  </si>
+  <si>
     <t>2823  49D</t>
   </si>
   <si>
-    <t>238  -6D</t>
-  </si>
-  <si>
-    <t>109  150D</t>
-  </si>
-  <si>
     <t>174  368D</t>
   </si>
   <si>
@@ -3241,42 +3241,42 @@
     <t>34  -9D</t>
   </si>
   <si>
+    <t>112  203D</t>
+  </si>
+  <si>
+    <t>28  849D</t>
+  </si>
+  <si>
+    <t>2074  38D</t>
+  </si>
+  <si>
     <t>40  40D</t>
   </si>
   <si>
-    <t>28  849D</t>
-  </si>
-  <si>
-    <t>2074  38D</t>
-  </si>
-  <si>
     <t>38  -24D</t>
   </si>
   <si>
-    <t>112  203D</t>
-  </si>
-  <si>
     <t>424  53D</t>
   </si>
   <si>
     <t>110  -28D</t>
   </si>
   <si>
+    <t>97  79D</t>
+  </si>
+  <si>
     <t>586  220D</t>
   </si>
   <si>
+    <t>545  -33D</t>
+  </si>
+  <si>
+    <t>72  77D</t>
+  </si>
+  <si>
     <t>622  37D</t>
   </si>
   <si>
-    <t>72  77D</t>
-  </si>
-  <si>
-    <t>97  79D</t>
-  </si>
-  <si>
-    <t>545  -33D</t>
-  </si>
-  <si>
     <t>17  -11D</t>
   </si>
   <si>
@@ -3316,36 +3316,36 @@
     <t>249  132D</t>
   </si>
   <si>
+    <t>813  57D</t>
+  </si>
+  <si>
+    <t>3638  40D</t>
+  </si>
+  <si>
     <t>955  87D</t>
   </si>
   <si>
+    <t>1307  -13D</t>
+  </si>
+  <si>
     <t>867  66D</t>
   </si>
   <si>
-    <t>1307  -13D</t>
-  </si>
-  <si>
-    <t>3638  40D</t>
-  </si>
-  <si>
-    <t>813  57D</t>
-  </si>
-  <si>
     <t>261  204D</t>
   </si>
   <si>
+    <t>64  69D</t>
+  </si>
+  <si>
+    <t>208  167D</t>
+  </si>
+  <si>
+    <t>168  107D</t>
+  </si>
+  <si>
     <t>701  134D</t>
   </si>
   <si>
-    <t>64  69D</t>
-  </si>
-  <si>
-    <t>208  167D</t>
-  </si>
-  <si>
-    <t>168  107D</t>
-  </si>
-  <si>
     <t>726  -16D</t>
   </si>
   <si>
@@ -3355,18 +3355,18 @@
     <t>114  97D</t>
   </si>
   <si>
+    <t>71  49D</t>
+  </si>
+  <si>
+    <t>134  61D</t>
+  </si>
+  <si>
     <t>514  -27D</t>
   </si>
   <si>
     <t>631  -17D</t>
   </si>
   <si>
-    <t>71  49D</t>
-  </si>
-  <si>
-    <t>134  61D</t>
-  </si>
-  <si>
     <t>2380  -28D</t>
   </si>
   <si>
@@ -3379,51 +3379,51 @@
     <t>2507  -27D</t>
   </si>
   <si>
+    <t>139  109D</t>
+  </si>
+  <si>
     <t>796  124D</t>
   </si>
   <si>
-    <t>139  109D</t>
+    <t>4849  45D</t>
+  </si>
+  <si>
+    <t>3118  -28D</t>
   </si>
   <si>
     <t>117  -10D</t>
   </si>
   <si>
-    <t>3118  -28D</t>
-  </si>
-  <si>
     <t>491  -20D</t>
   </si>
   <si>
-    <t>4849  45D</t>
-  </si>
-  <si>
     <t>666  -4D</t>
   </si>
   <si>
+    <t>4634  55D</t>
+  </si>
+  <si>
     <t>158  -24D</t>
   </si>
   <si>
-    <t>4634  55D</t>
+    <t>92  36D</t>
   </si>
   <si>
     <t>29  105D</t>
   </si>
   <si>
-    <t>92  36D</t>
+    <t>52  147D</t>
   </si>
   <si>
     <t>152  48D</t>
   </si>
   <si>
-    <t>52  147D</t>
+    <t>33  -22D</t>
   </si>
   <si>
     <t>22  -25D</t>
   </si>
   <si>
-    <t>33  -22D</t>
-  </si>
-  <si>
     <t>65  985D</t>
   </si>
   <si>
@@ -3433,39 +3433,39 @@
     <t>315  -12D</t>
   </si>
   <si>
+    <t>508  -33D</t>
+  </si>
+  <si>
+    <t>80  -7D</t>
+  </si>
+  <si>
+    <t>1150  43D</t>
+  </si>
+  <si>
+    <t>827  36D</t>
+  </si>
+  <si>
+    <t>659  58D</t>
+  </si>
+  <si>
     <t>100  63D</t>
   </si>
   <si>
-    <t>508  -33D</t>
-  </si>
-  <si>
-    <t>80  -7D</t>
-  </si>
-  <si>
-    <t>659  58D</t>
-  </si>
-  <si>
-    <t>1150  43D</t>
-  </si>
-  <si>
-    <t>827  36D</t>
-  </si>
-  <si>
     <t>860  170D</t>
   </si>
   <si>
     <t>61  62D</t>
   </si>
   <si>
+    <t>93  48D</t>
+  </si>
+  <si>
+    <t>376  -11D</t>
+  </si>
+  <si>
     <t>2038  49D</t>
   </si>
   <si>
-    <t>376  -11D</t>
-  </si>
-  <si>
-    <t>93  48D</t>
-  </si>
-  <si>
     <t>120  120D</t>
   </si>
   <si>
@@ -3475,39 +3475,39 @@
     <t>159  38D</t>
   </si>
   <si>
+    <t>81  273D</t>
+  </si>
+  <si>
+    <t>65  179D</t>
+  </si>
+  <si>
+    <t>2158  165D</t>
+  </si>
+  <si>
     <t>4  -19D</t>
   </si>
   <si>
-    <t>65  179D</t>
-  </si>
-  <si>
-    <t>2158  165D</t>
-  </si>
-  <si>
-    <t>81  273D</t>
-  </si>
-  <si>
     <t>226  -34D</t>
   </si>
   <si>
     <t>361  96D</t>
   </si>
   <si>
+    <t>126  42D</t>
+  </si>
+  <si>
     <t>409  57D</t>
   </si>
   <si>
+    <t>636  -18D</t>
+  </si>
+  <si>
+    <t>137  214D</t>
+  </si>
+  <si>
     <t>698  -24D</t>
   </si>
   <si>
-    <t>137  214D</t>
-  </si>
-  <si>
-    <t>126  42D</t>
-  </si>
-  <si>
-    <t>636  -18D</t>
-  </si>
-  <si>
     <t>48  53D</t>
   </si>
   <si>
@@ -3550,54 +3550,54 @@
     <t>105  94D</t>
   </si>
   <si>
+    <t>1041  173D</t>
+  </si>
+  <si>
+    <t>4344  59D</t>
+  </si>
+  <si>
     <t>915  -23D</t>
   </si>
   <si>
+    <t>1732  -32D</t>
+  </si>
+  <si>
     <t>312  42D</t>
   </si>
   <si>
-    <t>1732  -32D</t>
-  </si>
-  <si>
-    <t>4344  59D</t>
-  </si>
-  <si>
-    <t>1041  173D</t>
-  </si>
-  <si>
     <t>162  359D</t>
   </si>
   <si>
+    <t>245  69D</t>
+  </si>
+  <si>
+    <t>155  276D</t>
+  </si>
+  <si>
+    <t>212  279D</t>
+  </si>
+  <si>
     <t>502  150D</t>
   </si>
   <si>
-    <t>245  69D</t>
-  </si>
-  <si>
-    <t>155  276D</t>
-  </si>
-  <si>
-    <t>212  279D</t>
-  </si>
-  <si>
     <t>800  -11D</t>
   </si>
   <si>
     <t>37  -22D</t>
   </si>
   <si>
+    <t>101  61D</t>
+  </si>
+  <si>
+    <t>154  80D</t>
+  </si>
+  <si>
     <t>594  57D</t>
   </si>
   <si>
     <t>762  41D</t>
   </si>
   <si>
-    <t>101  61D</t>
-  </si>
-  <si>
-    <t>154  80D</t>
-  </si>
-  <si>
     <t>1107  101D</t>
   </si>
   <si>
@@ -3610,51 +3610,51 @@
     <t>1110  -15D</t>
   </si>
   <si>
+    <t>222  481D</t>
+  </si>
+  <si>
     <t>320  106D</t>
   </si>
   <si>
-    <t>222  481D</t>
+    <t>4750  51D</t>
+  </si>
+  <si>
+    <t>5816  63D</t>
   </si>
   <si>
     <t>122  -18D</t>
   </si>
   <si>
-    <t>5816  63D</t>
-  </si>
-  <si>
     <t>887  35D</t>
   </si>
   <si>
-    <t>4750  51D</t>
-  </si>
-  <si>
     <t>5310  82D</t>
   </si>
   <si>
+    <t>3798  55D</t>
+  </si>
+  <si>
     <t>199  -25D</t>
   </si>
   <si>
-    <t>3798  55D</t>
+    <t>91  68D</t>
   </si>
   <si>
     <t>29  293D</t>
   </si>
   <si>
-    <t>91  68D</t>
+    <t>42  382D</t>
   </si>
   <si>
     <t>126  57D</t>
   </si>
   <si>
-    <t>42  382D</t>
+    <t>103  91D</t>
   </si>
   <si>
     <t>66  250D</t>
   </si>
   <si>
-    <t>103  91D</t>
-  </si>
-  <si>
     <t>78  394D</t>
   </si>
   <si>
@@ -3664,39 +3664,39 @@
     <t>237  -13D</t>
   </si>
   <si>
+    <t>390  73D</t>
+  </si>
+  <si>
+    <t>77  -15D</t>
+  </si>
+  <si>
+    <t>937  37D</t>
+  </si>
+  <si>
+    <t>629  37D</t>
+  </si>
+  <si>
+    <t>515  73D</t>
+  </si>
+  <si>
     <t>75  41D</t>
   </si>
   <si>
-    <t>390  73D</t>
-  </si>
-  <si>
-    <t>77  -15D</t>
-  </si>
-  <si>
-    <t>515  73D</t>
-  </si>
-  <si>
-    <t>937  37D</t>
-  </si>
-  <si>
-    <t>629  37D</t>
-  </si>
-  <si>
     <t>272  -30D</t>
   </si>
   <si>
     <t>122  100D</t>
   </si>
   <si>
+    <t>56  99D</t>
+  </si>
+  <si>
+    <t>107  -2D</t>
+  </si>
+  <si>
     <t>1595  67D</t>
   </si>
   <si>
-    <t>107  -2D</t>
-  </si>
-  <si>
-    <t>56  99D</t>
-  </si>
-  <si>
     <t>98  495D</t>
   </si>
   <si>
@@ -3706,39 +3706,39 @@
     <t>78  -21D</t>
   </si>
   <si>
+    <t>73  221D</t>
+  </si>
+  <si>
+    <t>21  39D</t>
+  </si>
+  <si>
+    <t>2077  77D</t>
+  </si>
+  <si>
     <t>20  910D</t>
   </si>
   <si>
-    <t>21  39D</t>
-  </si>
-  <si>
-    <t>2077  77D</t>
-  </si>
-  <si>
-    <t>73  221D</t>
-  </si>
-  <si>
     <t>327  40D</t>
   </si>
   <si>
     <t>360  87D</t>
   </si>
   <si>
+    <t>119  59D</t>
+  </si>
+  <si>
     <t>336  273D</t>
   </si>
   <si>
+    <t>2130  178D</t>
+  </si>
+  <si>
+    <t>133  526D</t>
+  </si>
+  <si>
     <t>1184  80D</t>
   </si>
   <si>
-    <t>133  526D</t>
-  </si>
-  <si>
-    <t>119  59D</t>
-  </si>
-  <si>
-    <t>2130  178D</t>
-  </si>
-  <si>
     <t>164  339D</t>
   </si>
   <si>
@@ -3778,36 +3778,36 @@
     <t>172  63D</t>
   </si>
   <si>
+    <t>738  126D</t>
+  </si>
+  <si>
+    <t>2897  58D</t>
+  </si>
+  <si>
     <t>772  -30D</t>
   </si>
   <si>
+    <t>1332  39D</t>
+  </si>
+  <si>
     <t>691  109D</t>
   </si>
   <si>
-    <t>1332  39D</t>
-  </si>
-  <si>
-    <t>2897  58D</t>
-  </si>
-  <si>
-    <t>738  126D</t>
-  </si>
-  <si>
     <t>85  37D</t>
   </si>
   <si>
+    <t>72  72D</t>
+  </si>
+  <si>
+    <t>113  101D</t>
+  </si>
+  <si>
+    <t>487  79D</t>
+  </si>
+  <si>
     <t>500  57D</t>
   </si>
   <si>
-    <t>72  72D</t>
-  </si>
-  <si>
-    <t>113  101D</t>
-  </si>
-  <si>
-    <t>487  79D</t>
-  </si>
-  <si>
     <t>597  -14D</t>
   </si>
   <si>
@@ -3817,18 +3817,18 @@
     <t>88  177D</t>
   </si>
   <si>
+    <t>47  -19D</t>
+  </si>
+  <si>
+    <t>45  -17D</t>
+  </si>
+  <si>
     <t>457  -25D</t>
   </si>
   <si>
     <t>1184  -23D</t>
   </si>
   <si>
-    <t>47  -19D</t>
-  </si>
-  <si>
-    <t>45  -17D</t>
-  </si>
-  <si>
     <t>2534  90D</t>
   </si>
   <si>
@@ -3841,51 +3841,51 @@
     <t>4491  83D</t>
   </si>
   <si>
+    <t>377  779D</t>
+  </si>
+  <si>
     <t>370  415D</t>
   </si>
   <si>
-    <t>377  779D</t>
+    <t>4249  58D</t>
+  </si>
+  <si>
+    <t>4980  86D</t>
   </si>
   <si>
     <t>109  -24D</t>
   </si>
   <si>
-    <t>4980  86D</t>
-  </si>
-  <si>
     <t>310  46D</t>
   </si>
   <si>
-    <t>4249  58D</t>
-  </si>
-  <si>
     <t>2402  140D</t>
   </si>
   <si>
+    <t>1528  307D</t>
+  </si>
+  <si>
     <t>157  46D</t>
   </si>
   <si>
-    <t>1528  307D</t>
+    <t>95  157D</t>
   </si>
   <si>
     <t>49  891D</t>
   </si>
   <si>
-    <t>95  157D</t>
+    <t>43  782D</t>
   </si>
   <si>
     <t>113  163D</t>
   </si>
   <si>
-    <t>43  782D</t>
+    <t>79  224D</t>
   </si>
   <si>
     <t>78  85D</t>
   </si>
   <si>
-    <t>79  224D</t>
-  </si>
-  <si>
     <t>42  131D</t>
   </si>
   <si>
@@ -3901,30 +3901,30 @@
     <t>112  -31D</t>
   </si>
   <si>
+    <t>959  72D</t>
+  </si>
+  <si>
+    <t>326  -26D</t>
+  </si>
+  <si>
     <t>496  77D</t>
   </si>
   <si>
-    <t>959  72D</t>
-  </si>
-  <si>
-    <t>326  -26D</t>
-  </si>
-  <si>
     <t>226  -14D</t>
   </si>
   <si>
     <t>52  73D</t>
   </si>
   <si>
+    <t>33  150D</t>
+  </si>
+  <si>
+    <t>511  -24D</t>
+  </si>
+  <si>
     <t>1023  39D</t>
   </si>
   <si>
-    <t>511  -24D</t>
-  </si>
-  <si>
-    <t>33  150D</t>
-  </si>
-  <si>
     <t>135  201D</t>
   </si>
   <si>
@@ -3934,42 +3934,42 @@
     <t>118  66D</t>
   </si>
   <si>
+    <t>53  166D</t>
+  </si>
+  <si>
+    <t>58  586D</t>
+  </si>
+  <si>
+    <t>2595  101D</t>
+  </si>
+  <si>
     <t>13  -13D</t>
   </si>
   <si>
-    <t>58  586D</t>
-  </si>
-  <si>
-    <t>2595  101D</t>
-  </si>
-  <si>
     <t>33  -34D</t>
   </si>
   <si>
-    <t>53  166D</t>
-  </si>
-  <si>
     <t>242  41D</t>
   </si>
   <si>
     <t>316  209D</t>
   </si>
   <si>
+    <t>270  296D</t>
+  </si>
+  <si>
     <t>146  217D</t>
   </si>
   <si>
+    <t>792  135D</t>
+  </si>
+  <si>
+    <t>330  500D</t>
+  </si>
+  <si>
     <t>1117  78D</t>
   </si>
   <si>
-    <t>330  500D</t>
-  </si>
-  <si>
-    <t>270  296D</t>
-  </si>
-  <si>
-    <t>792  135D</t>
-  </si>
-  <si>
     <t>128  284D</t>
   </si>
   <si>
@@ -4012,48 +4012,48 @@
     <t>93  145D</t>
   </si>
   <si>
+    <t>720  135D</t>
+  </si>
+  <si>
+    <t>1524  36D</t>
+  </si>
+  <si>
     <t>818  86D</t>
   </si>
   <si>
+    <t>1609  45D</t>
+  </si>
+  <si>
     <t>528  143D</t>
   </si>
   <si>
-    <t>1609  45D</t>
-  </si>
-  <si>
-    <t>1524  36D</t>
-  </si>
-  <si>
-    <t>720  135D</t>
-  </si>
-  <si>
     <t>157  274D</t>
   </si>
   <si>
+    <t>77  875D</t>
+  </si>
+  <si>
+    <t>165  1155D</t>
+  </si>
+  <si>
+    <t>319  172D</t>
+  </si>
+  <si>
     <t>591  222D</t>
   </si>
   <si>
-    <t>77  875D</t>
-  </si>
-  <si>
-    <t>165  1155D</t>
-  </si>
-  <si>
-    <t>319  172D</t>
-  </si>
-  <si>
     <t>319  -11D</t>
   </si>
   <si>
+    <t>89  74D</t>
+  </si>
+  <si>
     <t>616  72D</t>
   </si>
   <si>
     <t>734  -33D</t>
   </si>
   <si>
-    <t>89  74D</t>
-  </si>
-  <si>
     <t>2184  103D</t>
   </si>
   <si>
@@ -4066,90 +4066,90 @@
     <t>2523  54D</t>
   </si>
   <si>
+    <t>121  96D</t>
+  </si>
+  <si>
     <t>225  78D</t>
   </si>
   <si>
-    <t>121  96D</t>
+    <t>4520  -26D</t>
+  </si>
+  <si>
+    <t>3634  55D</t>
   </si>
   <si>
     <t>114  -12D</t>
   </si>
   <si>
-    <t>3634  55D</t>
-  </si>
-  <si>
     <t>293  -26D</t>
   </si>
   <si>
-    <t>4520  -26D</t>
-  </si>
-  <si>
     <t>1465  93D</t>
   </si>
   <si>
+    <t>1609  144D</t>
+  </si>
+  <si>
     <t>164  46D</t>
   </si>
   <si>
-    <t>1609  144D</t>
+    <t>69  41D</t>
   </si>
   <si>
     <t>7  159D</t>
   </si>
   <si>
-    <t>69  41D</t>
+    <t>70  455D</t>
   </si>
   <si>
     <t>117  79D</t>
   </si>
   <si>
-    <t>70  455D</t>
+    <t>68  114D</t>
   </si>
   <si>
     <t>60  67D</t>
   </si>
   <si>
-    <t>68  114D</t>
-  </si>
-  <si>
     <t>28  2548D</t>
   </si>
   <si>
     <t>69  -2D</t>
   </si>
   <si>
+    <t>480  225D</t>
+  </si>
+  <si>
+    <t>212  -21D</t>
+  </si>
+  <si>
+    <t>1555  62D</t>
+  </si>
+  <si>
+    <t>579  36D</t>
+  </si>
+  <si>
+    <t>215  -18D</t>
+  </si>
+  <si>
     <t>73  141D</t>
   </si>
   <si>
-    <t>480  225D</t>
-  </si>
-  <si>
-    <t>212  -21D</t>
-  </si>
-  <si>
-    <t>215  -18D</t>
-  </si>
-  <si>
-    <t>1555  62D</t>
-  </si>
-  <si>
-    <t>579  36D</t>
-  </si>
-  <si>
     <t>94  -8D</t>
   </si>
   <si>
     <t>40  53D</t>
   </si>
   <si>
+    <t>64  145D</t>
+  </si>
+  <si>
+    <t>602  -18D</t>
+  </si>
+  <si>
     <t>1244  -27D</t>
   </si>
   <si>
-    <t>602  -18D</t>
-  </si>
-  <si>
-    <t>64  145D</t>
-  </si>
-  <si>
     <t>118  1534D</t>
   </si>
   <si>
@@ -4159,36 +4159,36 @@
     <t>138  86D</t>
   </si>
   <si>
+    <t>21  106D</t>
+  </si>
+  <si>
+    <t>78  53D</t>
+  </si>
+  <si>
+    <t>2505  45D</t>
+  </si>
+  <si>
     <t>12  57D</t>
   </si>
   <si>
-    <t>78  53D</t>
-  </si>
-  <si>
-    <t>2505  45D</t>
-  </si>
-  <si>
-    <t>21  106D</t>
-  </si>
-  <si>
     <t>767  112D</t>
   </si>
   <si>
+    <t>34  37D</t>
+  </si>
+  <si>
     <t>694  152D</t>
   </si>
   <si>
+    <t>1151  -31D</t>
+  </si>
+  <si>
+    <t>127  -34D</t>
+  </si>
+  <si>
     <t>1202  44D</t>
   </si>
   <si>
-    <t>127  -34D</t>
-  </si>
-  <si>
-    <t>34  37D</t>
-  </si>
-  <si>
-    <t>1151  -31D</t>
-  </si>
-  <si>
     <t>27  41D</t>
   </si>
   <si>
@@ -4225,36 +4225,36 @@
     <t>146  210D</t>
   </si>
   <si>
+    <t>1718  196D</t>
+  </si>
+  <si>
+    <t>3324  61D</t>
+  </si>
+  <si>
     <t>659  -22D</t>
   </si>
   <si>
+    <t>849  -15D</t>
+  </si>
+  <si>
     <t>851  159D</t>
   </si>
   <si>
-    <t>849  -15D</t>
-  </si>
-  <si>
-    <t>3324  61D</t>
-  </si>
-  <si>
-    <t>1718  196D</t>
-  </si>
-  <si>
     <t>310  455D</t>
   </si>
   <si>
+    <t>94  4277D</t>
+  </si>
+  <si>
+    <t>163  302D</t>
+  </si>
+  <si>
+    <t>272  176D</t>
+  </si>
+  <si>
     <t>801  124D</t>
   </si>
   <si>
-    <t>94  4277D</t>
-  </si>
-  <si>
-    <t>163  302D</t>
-  </si>
-  <si>
-    <t>272  176D</t>
-  </si>
-  <si>
     <t>261  -7D</t>
   </si>
   <si>
@@ -4264,18 +4264,18 @@
     <t>135  178D</t>
   </si>
   <si>
+    <t>117  71D</t>
+  </si>
+  <si>
+    <t>94  -33D</t>
+  </si>
+  <si>
     <t>434  -26D</t>
   </si>
   <si>
     <t>736  -23D</t>
   </si>
   <si>
-    <t>117  71D</t>
-  </si>
-  <si>
-    <t>94  -33D</t>
-  </si>
-  <si>
     <t>1558  -20D</t>
   </si>
   <si>
@@ -4285,45 +4285,45 @@
     <t>3898  48D</t>
   </si>
   <si>
+    <t>166  126D</t>
+  </si>
+  <si>
     <t>668  137D</t>
   </si>
   <si>
-    <t>166  126D</t>
+    <t>6861  57D</t>
+  </si>
+  <si>
+    <t>5448  47D</t>
   </si>
   <si>
     <t>120  -11D</t>
   </si>
   <si>
-    <t>5448  47D</t>
-  </si>
-  <si>
     <t>834  83D</t>
   </si>
   <si>
-    <t>6861  57D</t>
-  </si>
-  <si>
     <t>1896  -13D</t>
   </si>
   <si>
+    <t>7724  164D</t>
+  </si>
+  <si>
     <t>191  -17D</t>
   </si>
   <si>
-    <t>7724  164D</t>
+    <t>176  59D</t>
   </si>
   <si>
     <t>6  -28D</t>
   </si>
   <si>
-    <t>176  59D</t>
+    <t>67  145D</t>
   </si>
   <si>
     <t>179  53D</t>
   </si>
   <si>
-    <t>67  145D</t>
-  </si>
-  <si>
     <t>22  -14D</t>
   </si>
   <si>
@@ -4336,39 +4336,39 @@
     <t>134  -4D</t>
   </si>
   <si>
+    <t>104  -8D</t>
+  </si>
+  <si>
+    <t>31  -2D</t>
+  </si>
+  <si>
+    <t>637  -25D</t>
+  </si>
+  <si>
+    <t>577  -26D</t>
+  </si>
+  <si>
+    <t>194  -21D</t>
+  </si>
+  <si>
     <t>71  37D</t>
   </si>
   <si>
-    <t>104  -8D</t>
-  </si>
-  <si>
-    <t>31  -2D</t>
-  </si>
-  <si>
-    <t>194  -21D</t>
-  </si>
-  <si>
-    <t>637  -25D</t>
-  </si>
-  <si>
-    <t>577  -26D</t>
-  </si>
-  <si>
     <t>260  38D</t>
   </si>
   <si>
     <t>55  102D</t>
   </si>
   <si>
+    <t>92  76D</t>
+  </si>
+  <si>
+    <t>253  -7D</t>
+  </si>
+  <si>
     <t>2454  -21D</t>
   </si>
   <si>
-    <t>253  -7D</t>
-  </si>
-  <si>
-    <t>92  76D</t>
-  </si>
-  <si>
     <t>240  3120D</t>
   </si>
   <si>
@@ -4378,33 +4378,33 @@
     <t>49  -12D</t>
   </si>
   <si>
+    <t>16  -22D</t>
+  </si>
+  <si>
+    <t>1545  114D</t>
+  </si>
+  <si>
     <t>8  -4D</t>
   </si>
   <si>
-    <t>16  -22D</t>
-  </si>
-  <si>
-    <t>1545  114D</t>
-  </si>
-  <si>
     <t>765  71D</t>
   </si>
   <si>
     <t>125  44D</t>
   </si>
   <si>
+    <t>108  61D</t>
+  </si>
+  <si>
     <t>369  93D</t>
   </si>
   <si>
+    <t>1408  57D</t>
+  </si>
+  <si>
     <t>61  36D</t>
   </si>
   <si>
-    <t>108  61D</t>
-  </si>
-  <si>
-    <t>1408  57D</t>
-  </si>
-  <si>
     <t>130  281D</t>
   </si>
   <si>
@@ -4441,36 +4441,36 @@
     <t>155  53D</t>
   </si>
   <si>
+    <t>805  171D</t>
+  </si>
+  <si>
+    <t>5173  73D</t>
+  </si>
+  <si>
     <t>852  -30D</t>
   </si>
   <si>
+    <t>1731  -28D</t>
+  </si>
+  <si>
     <t>681  138D</t>
   </si>
   <si>
-    <t>1731  -28D</t>
-  </si>
-  <si>
-    <t>5173  73D</t>
-  </si>
-  <si>
-    <t>805  171D</t>
-  </si>
-  <si>
     <t>854  291D</t>
   </si>
   <si>
+    <t>1697  116D</t>
+  </si>
+  <si>
+    <t>240  52D</t>
+  </si>
+  <si>
+    <t>5509  1165D</t>
+  </si>
+  <si>
     <t>5451  400D</t>
   </si>
   <si>
-    <t>1697  116D</t>
-  </si>
-  <si>
-    <t>240  52D</t>
-  </si>
-  <si>
-    <t>5509  1165D</t>
-  </si>
-  <si>
     <t>446  -3D</t>
   </si>
   <si>
@@ -4480,18 +4480,18 @@
     <t>382  1053D</t>
   </si>
   <si>
+    <t>408  297D</t>
+  </si>
+  <si>
+    <t>383  92D</t>
+  </si>
+  <si>
     <t>1803  56D</t>
   </si>
   <si>
     <t>555  -19D</t>
   </si>
   <si>
-    <t>408  297D</t>
-  </si>
-  <si>
-    <t>383  92D</t>
-  </si>
-  <si>
     <t>2275  363D</t>
   </si>
   <si>
@@ -4504,51 +4504,51 @@
     <t>2645  41D</t>
   </si>
   <si>
+    <t>1312  1404D</t>
+  </si>
+  <si>
     <t>3686  855D</t>
   </si>
   <si>
-    <t>1312  1404D</t>
+    <t>3523  63D</t>
+  </si>
+  <si>
+    <t>3288  50D</t>
   </si>
   <si>
     <t>512  230D</t>
   </si>
   <si>
-    <t>3288  50D</t>
-  </si>
-  <si>
     <t>2760  81D</t>
   </si>
   <si>
-    <t>3523  63D</t>
-  </si>
-  <si>
     <t>1492  88D</t>
   </si>
   <si>
+    <t>2029  1073D</t>
+  </si>
+  <si>
     <t>226  75D</t>
   </si>
   <si>
-    <t>2029  1073D</t>
+    <t>1715  1696D</t>
   </si>
   <si>
     <t>309  4686D</t>
   </si>
   <si>
-    <t>1715  1696D</t>
+    <t>1033  9400D</t>
   </si>
   <si>
     <t>355  389D</t>
   </si>
   <si>
-    <t>1033  9400D</t>
+    <t>290  140D</t>
   </si>
   <si>
     <t>122  58D</t>
   </si>
   <si>
-    <t>290  140D</t>
-  </si>
-  <si>
     <t>67  1016D</t>
   </si>
   <si>
@@ -4558,39 +4558,39 @@
     <t>139  -4D</t>
   </si>
   <si>
+    <t>590  122D</t>
+  </si>
+  <si>
+    <t>241  -31D</t>
+  </si>
+  <si>
+    <t>3755  121D</t>
+  </si>
+  <si>
+    <t>23  -0D</t>
+  </si>
+  <si>
+    <t>8067  891D</t>
+  </si>
+  <si>
     <t>914  41D</t>
   </si>
   <si>
-    <t>590  122D</t>
-  </si>
-  <si>
-    <t>241  -31D</t>
-  </si>
-  <si>
-    <t>8067  891D</t>
-  </si>
-  <si>
-    <t>3755  121D</t>
-  </si>
-  <si>
-    <t>23  -0D</t>
-  </si>
-  <si>
     <t>375  120D</t>
   </si>
   <si>
     <t>260  197D</t>
   </si>
   <si>
+    <t>2296  3264D</t>
+  </si>
+  <si>
+    <t>520  -8D</t>
+  </si>
+  <si>
     <t>1424  38D</t>
   </si>
   <si>
-    <t>520  -8D</t>
-  </si>
-  <si>
-    <t>2296  3264D</t>
-  </si>
-  <si>
     <t>578  152D</t>
   </si>
   <si>
@@ -4600,42 +4600,42 @@
     <t>3111  2948D</t>
   </si>
   <si>
+    <t>4608  27955D</t>
+  </si>
+  <si>
+    <t>1906  13342D</t>
+  </si>
+  <si>
+    <t>943  38D</t>
+  </si>
+  <si>
     <t>104  52D</t>
   </si>
   <si>
-    <t>1906  13342D</t>
-  </si>
-  <si>
-    <t>943  38D</t>
-  </si>
-  <si>
     <t>28  -15D</t>
   </si>
   <si>
-    <t>4608  27955D</t>
-  </si>
-  <si>
     <t>1104  127D</t>
   </si>
   <si>
     <t>757  176D</t>
   </si>
   <si>
+    <t>233  1060D</t>
+  </si>
+  <si>
     <t>256  629D</t>
   </si>
   <si>
+    <t>648  100D</t>
+  </si>
+  <si>
+    <t>210  294D</t>
+  </si>
+  <si>
     <t>689  66D</t>
   </si>
   <si>
-    <t>210  294D</t>
-  </si>
-  <si>
-    <t>233  1060D</t>
-  </si>
-  <si>
-    <t>648  100D</t>
-  </si>
-  <si>
     <t>81  216D</t>
   </si>
   <si>
@@ -4675,36 +4675,36 @@
     <t>1021  1523D</t>
   </si>
   <si>
+    <t>562  250D</t>
+  </si>
+  <si>
+    <t>2289  69D</t>
+  </si>
+  <si>
     <t>617  92D</t>
   </si>
   <si>
+    <t>2695  180D</t>
+  </si>
+  <si>
     <t>892  242D</t>
   </si>
   <si>
-    <t>2695  180D</t>
-  </si>
-  <si>
-    <t>2289  69D</t>
-  </si>
-  <si>
-    <t>562  250D</t>
-  </si>
-  <si>
     <t>432  124D</t>
   </si>
   <si>
+    <t>255  66D</t>
+  </si>
+  <si>
+    <t>465  124D</t>
+  </si>
+  <si>
+    <t>651  452D</t>
+  </si>
+  <si>
     <t>342  -17D</t>
   </si>
   <si>
-    <t>255  66D</t>
-  </si>
-  <si>
-    <t>465  124D</t>
-  </si>
-  <si>
-    <t>651  452D</t>
-  </si>
-  <si>
     <t>58  -0D</t>
   </si>
   <si>
@@ -4714,18 +4714,18 @@
     <t>102  238D</t>
   </si>
   <si>
+    <t>249  397D</t>
+  </si>
+  <si>
+    <t>125  36D</t>
+  </si>
+  <si>
     <t>804  71D</t>
   </si>
   <si>
     <t>1378  74D</t>
   </si>
   <si>
-    <t>249  397D</t>
-  </si>
-  <si>
-    <t>125  36D</t>
-  </si>
-  <si>
     <t>3409  686D</t>
   </si>
   <si>
@@ -4738,51 +4738,51 @@
     <t>2007  41D</t>
   </si>
   <si>
+    <t>361  631D</t>
+  </si>
+  <si>
     <t>358  123D</t>
   </si>
   <si>
-    <t>361  631D</t>
+    <t>3189  88D</t>
+  </si>
+  <si>
+    <t>3132  75D</t>
   </si>
   <si>
     <t>200  122D</t>
   </si>
   <si>
-    <t>3132  75D</t>
-  </si>
-  <si>
     <t>1653  46D</t>
   </si>
   <si>
-    <t>3189  88D</t>
-  </si>
-  <si>
     <t>2896  371D</t>
   </si>
   <si>
+    <t>1796  10895D</t>
+  </si>
+  <si>
     <t>183  106D</t>
   </si>
   <si>
-    <t>1796  10895D</t>
+    <t>131  248D</t>
   </si>
   <si>
     <t>64  1941D</t>
   </si>
   <si>
-    <t>131  248D</t>
+    <t>78  7098D</t>
   </si>
   <si>
     <t>99  111D</t>
   </si>
   <si>
-    <t>78  7098D</t>
+    <t>121  169D</t>
   </si>
   <si>
     <t>124  256D</t>
   </si>
   <si>
-    <t>121  169D</t>
-  </si>
-  <si>
     <t>66  546D</t>
   </si>
   <si>
@@ -4792,39 +4792,39 @@
     <t>153  -8D</t>
   </si>
   <si>
+    <t>702  341D</t>
+  </si>
+  <si>
+    <t>157  -30D</t>
+  </si>
+  <si>
+    <t>487  -25D</t>
+  </si>
+  <si>
+    <t>17  -0D</t>
+  </si>
+  <si>
+    <t>744  116D</t>
+  </si>
+  <si>
     <t>88  131D</t>
   </si>
   <si>
-    <t>702  341D</t>
-  </si>
-  <si>
-    <t>157  -30D</t>
-  </si>
-  <si>
-    <t>744  116D</t>
-  </si>
-  <si>
-    <t>487  -25D</t>
-  </si>
-  <si>
-    <t>17  -0D</t>
-  </si>
-  <si>
     <t>54  -7D</t>
   </si>
   <si>
     <t>129  56D</t>
   </si>
   <si>
+    <t>263  451D</t>
+  </si>
+  <si>
+    <t>118  -2D</t>
+  </si>
+  <si>
     <t>2588  133D</t>
   </si>
   <si>
-    <t>118  -2D</t>
-  </si>
-  <si>
-    <t>263  451D</t>
-  </si>
-  <si>
     <t>316  90D</t>
   </si>
   <si>
@@ -4834,39 +4834,39 @@
     <t>102  94D</t>
   </si>
   <si>
+    <t>175  1327D</t>
+  </si>
+  <si>
+    <t>95  2161D</t>
+  </si>
+  <si>
+    <t>416  -14D</t>
+  </si>
+  <si>
     <t>12  -9D</t>
   </si>
   <si>
-    <t>95  2161D</t>
-  </si>
-  <si>
-    <t>416  -14D</t>
-  </si>
-  <si>
-    <t>175  1327D</t>
-  </si>
-  <si>
     <t>371  49D</t>
   </si>
   <si>
     <t>238  65D</t>
   </si>
   <si>
+    <t>125  227D</t>
+  </si>
+  <si>
     <t>535  2212D</t>
   </si>
   <si>
+    <t>901  157D</t>
+  </si>
+  <si>
+    <t>60  53D</t>
+  </si>
+  <si>
     <t>1378  233D</t>
   </si>
   <si>
-    <t>60  53D</t>
-  </si>
-  <si>
-    <t>125  227D</t>
-  </si>
-  <si>
-    <t>901  157D</t>
-  </si>
-  <si>
     <t>178  704D</t>
   </si>
   <si>
@@ -4906,36 +4906,36 @@
     <t>259  368D</t>
   </si>
   <si>
+    <t>1195  543D</t>
+  </si>
+  <si>
+    <t>4065  140D</t>
+  </si>
+  <si>
     <t>365  40D</t>
   </si>
   <si>
+    <t>2852  229D</t>
+  </si>
+  <si>
     <t>547  231D</t>
   </si>
   <si>
-    <t>2852  229D</t>
-  </si>
-  <si>
-    <t>4065  140D</t>
-  </si>
-  <si>
-    <t>1195  543D</t>
-  </si>
-  <si>
     <t>156  66D</t>
   </si>
   <si>
+    <t>60  60D</t>
+  </si>
+  <si>
+    <t>105  76D</t>
+  </si>
+  <si>
+    <t>436  76D</t>
+  </si>
+  <si>
     <t>402  48D</t>
   </si>
   <si>
-    <t>60  60D</t>
-  </si>
-  <si>
-    <t>105  76D</t>
-  </si>
-  <si>
-    <t>436  76D</t>
-  </si>
-  <si>
     <t>553  -14D</t>
   </si>
   <si>
@@ -4945,18 +4945,18 @@
     <t>29  51D</t>
   </si>
   <si>
+    <t>78  -32D</t>
+  </si>
+  <si>
+    <t>95  35D</t>
+  </si>
+  <si>
     <t>397  -22D</t>
   </si>
   <si>
     <t>1459  -34D</t>
   </si>
   <si>
-    <t>78  -32D</t>
-  </si>
-  <si>
-    <t>95  35D</t>
-  </si>
-  <si>
     <t>2544  116D</t>
   </si>
   <si>
@@ -4969,51 +4969,51 @@
     <t>3132  51D</t>
   </si>
   <si>
+    <t>280  238D</t>
+  </si>
+  <si>
     <t>371  134D</t>
   </si>
   <si>
-    <t>280  238D</t>
+    <t>5215  -24D</t>
+  </si>
+  <si>
+    <t>4852  52D</t>
   </si>
   <si>
     <t>4  -0D</t>
   </si>
   <si>
-    <t>4852  52D</t>
-  </si>
-  <si>
     <t>780  72D</t>
   </si>
   <si>
-    <t>5215  -24D</t>
-  </si>
-  <si>
     <t>3351  99D</t>
   </si>
   <si>
+    <t>1815  195D</t>
+  </si>
+  <si>
     <t>211  39D</t>
   </si>
   <si>
-    <t>1815  195D</t>
+    <t>132  81D</t>
   </si>
   <si>
     <t>13  65D</t>
   </si>
   <si>
-    <t>132  81D</t>
+    <t>49  123D</t>
   </si>
   <si>
     <t>111  70D</t>
   </si>
   <si>
-    <t>49  123D</t>
+    <t>157  35D</t>
   </si>
   <si>
     <t>63  44D</t>
   </si>
   <si>
-    <t>157  35D</t>
-  </si>
-  <si>
     <t>25  -27D</t>
   </si>
   <si>
@@ -5023,33 +5023,33 @@
     <t>110  -4D</t>
   </si>
   <si>
+    <t>549  52D</t>
+  </si>
+  <si>
+    <t>149  -13D</t>
+  </si>
+  <si>
+    <t>1196  43D</t>
+  </si>
+  <si>
+    <t>619  -34D</t>
+  </si>
+  <si>
+    <t>627  59D</t>
+  </si>
+  <si>
     <t>357  93D</t>
   </si>
   <si>
-    <t>549  52D</t>
-  </si>
-  <si>
-    <t>149  -13D</t>
-  </si>
-  <si>
-    <t>627  59D</t>
-  </si>
-  <si>
-    <t>1196  43D</t>
-  </si>
-  <si>
-    <t>619  -34D</t>
+    <t>106  166D</t>
+  </si>
+  <si>
+    <t>656  -27D</t>
   </si>
   <si>
     <t>1566  40D</t>
   </si>
   <si>
-    <t>656  -27D</t>
-  </si>
-  <si>
-    <t>106  166D</t>
-  </si>
-  <si>
     <t>150  455D</t>
   </si>
   <si>
@@ -5059,36 +5059,36 @@
     <t>96  39D</t>
   </si>
   <si>
+    <t>39  75D</t>
+  </si>
+  <si>
+    <t>3775  57D</t>
+  </si>
+  <si>
     <t>30  248D</t>
   </si>
   <si>
-    <t>3775  57D</t>
-  </si>
-  <si>
-    <t>39  75D</t>
-  </si>
-  <si>
     <t>392  40D</t>
   </si>
   <si>
     <t>196  40D</t>
   </si>
   <si>
+    <t>369  57D</t>
+  </si>
+  <si>
     <t>284  38D</t>
   </si>
   <si>
+    <t>868  -17D</t>
+  </si>
+  <si>
+    <t>34  -28D</t>
+  </si>
+  <si>
     <t>952  -21D</t>
   </si>
   <si>
-    <t>34  -28D</t>
-  </si>
-  <si>
-    <t>369  57D</t>
-  </si>
-  <si>
-    <t>868  -17D</t>
-  </si>
-  <si>
     <t>91  150D</t>
   </si>
   <si>
@@ -5128,36 +5128,36 @@
     <t>150  151D</t>
   </si>
   <si>
+    <t>604  39D</t>
+  </si>
+  <si>
+    <t>4628  50D</t>
+  </si>
+  <si>
     <t>2552  50D</t>
   </si>
   <si>
+    <t>1125  -15D</t>
+  </si>
+  <si>
     <t>393  83D</t>
   </si>
   <si>
-    <t>1125  -15D</t>
-  </si>
-  <si>
-    <t>4628  50D</t>
-  </si>
-  <si>
-    <t>604  39D</t>
-  </si>
-  <si>
     <t>387  163D</t>
   </si>
   <si>
+    <t>277  -12D</t>
+  </si>
+  <si>
+    <t>158  57D</t>
+  </si>
+  <si>
+    <t>418  137D</t>
+  </si>
+  <si>
     <t>357  -25D</t>
   </si>
   <si>
-    <t>277  -12D</t>
-  </si>
-  <si>
-    <t>158  57D</t>
-  </si>
-  <si>
-    <t>418  137D</t>
-  </si>
-  <si>
     <t>509  -4D</t>
   </si>
   <si>
@@ -5167,18 +5167,18 @@
     <t>137  108D</t>
   </si>
   <si>
+    <t>287  180D</t>
+  </si>
+  <si>
+    <t>216  -34D</t>
+  </si>
+  <si>
     <t>631  -24D</t>
   </si>
   <si>
     <t>2016  61D</t>
   </si>
   <si>
-    <t>287  180D</t>
-  </si>
-  <si>
-    <t>216  -34D</t>
-  </si>
-  <si>
     <t>1624  154D</t>
   </si>
   <si>
@@ -5191,51 +5191,51 @@
     <t>2955  38D</t>
   </si>
   <si>
+    <t>674  840D</t>
+  </si>
+  <si>
     <t>324  82D</t>
   </si>
   <si>
-    <t>674  840D</t>
+    <t>4115  61D</t>
+  </si>
+  <si>
+    <t>2467  37D</t>
   </si>
   <si>
     <t>427  182D</t>
   </si>
   <si>
-    <t>2467  37D</t>
-  </si>
-  <si>
     <t>409  -5D</t>
   </si>
   <si>
-    <t>4115  61D</t>
-  </si>
-  <si>
     <t>2377  100D</t>
   </si>
   <si>
+    <t>2944  1332D</t>
+  </si>
+  <si>
     <t>346  142D</t>
   </si>
   <si>
-    <t>2944  1332D</t>
+    <t>196  134D</t>
   </si>
   <si>
     <t>110  910D</t>
   </si>
   <si>
-    <t>196  134D</t>
+    <t>92  1046D</t>
   </si>
   <si>
     <t>67  70D</t>
   </si>
   <si>
-    <t>92  1046D</t>
+    <t>228  241D</t>
   </si>
   <si>
     <t>82  -22D</t>
   </si>
   <si>
-    <t>228  241D</t>
-  </si>
-  <si>
     <t>99  300D</t>
   </si>
   <si>
@@ -5248,30 +5248,30 @@
     <t>100  -12D</t>
   </si>
   <si>
+    <t>886  -33D</t>
+  </si>
+  <si>
+    <t>351  -14D</t>
+  </si>
+  <si>
     <t>807  72D</t>
   </si>
   <si>
-    <t>886  -33D</t>
-  </si>
-  <si>
-    <t>351  -14D</t>
-  </si>
-  <si>
     <t>144  -26D</t>
   </si>
   <si>
     <t>176  210D</t>
   </si>
   <si>
+    <t>211  195D</t>
+  </si>
+  <si>
+    <t>621  -12D</t>
+  </si>
+  <si>
     <t>2821  82D</t>
   </si>
   <si>
-    <t>621  -12D</t>
-  </si>
-  <si>
-    <t>211  195D</t>
-  </si>
-  <si>
     <t>416  93D</t>
   </si>
   <si>
@@ -5281,39 +5281,39 @@
     <t>165  105D</t>
   </si>
   <si>
+    <t>156  507D</t>
+  </si>
+  <si>
+    <t>102  580D</t>
+  </si>
+  <si>
+    <t>2493  44D</t>
+  </si>
+  <si>
     <t>169  1281D</t>
   </si>
   <si>
-    <t>102  580D</t>
-  </si>
-  <si>
-    <t>2493  44D</t>
-  </si>
-  <si>
-    <t>156  507D</t>
-  </si>
-  <si>
     <t>530  43D</t>
   </si>
   <si>
     <t>479  117D</t>
   </si>
   <si>
+    <t>193  675D</t>
+  </si>
+  <si>
     <t>299  76D</t>
   </si>
   <si>
+    <t>1688  242D</t>
+  </si>
+  <si>
+    <t>35  -16D</t>
+  </si>
+  <si>
     <t>650  42D</t>
   </si>
   <si>
-    <t>35  -16D</t>
-  </si>
-  <si>
-    <t>193  675D</t>
-  </si>
-  <si>
-    <t>1688  242D</t>
-  </si>
-  <si>
     <t>447  1196D</t>
   </si>
   <si>
@@ -5353,36 +5353,36 @@
     <t>276  200D</t>
   </si>
   <si>
+    <t>1511  522D</t>
+  </si>
+  <si>
+    <t>3696  74D</t>
+  </si>
+  <si>
     <t>908  95D</t>
   </si>
   <si>
+    <t>1834  72D</t>
+  </si>
+  <si>
     <t>968  171D</t>
   </si>
   <si>
-    <t>1834  72D</t>
-  </si>
-  <si>
-    <t>3696  74D</t>
-  </si>
-  <si>
-    <t>1511  522D</t>
-  </si>
-  <si>
     <t>128  65D</t>
   </si>
   <si>
+    <t>68  1031D</t>
+  </si>
+  <si>
+    <t>103  669D</t>
+  </si>
+  <si>
+    <t>194  226D</t>
+  </si>
+  <si>
     <t>546  105D</t>
   </si>
   <si>
-    <t>68  1031D</t>
-  </si>
-  <si>
-    <t>103  669D</t>
-  </si>
-  <si>
-    <t>194  226D</t>
-  </si>
-  <si>
     <t>544  -13D</t>
   </si>
   <si>
@@ -5392,18 +5392,18 @@
     <t>101  170D</t>
   </si>
   <si>
+    <t>118  40D</t>
+  </si>
+  <si>
+    <t>71  65D</t>
+  </si>
+  <si>
     <t>591  36D</t>
   </si>
   <si>
     <t>1140  -22D</t>
   </si>
   <si>
-    <t>118  40D</t>
-  </si>
-  <si>
-    <t>71  65D</t>
-  </si>
-  <si>
     <t>1261  -23D</t>
   </si>
   <si>
@@ -5416,90 +5416,90 @@
     <t>5886  100D</t>
   </si>
   <si>
+    <t>301  151D</t>
+  </si>
+  <si>
     <t>448  116D</t>
   </si>
   <si>
-    <t>301  151D</t>
+    <t>7464  38D</t>
+  </si>
+  <si>
+    <t>4191  -33D</t>
   </si>
   <si>
     <t>65  -7D</t>
   </si>
   <si>
-    <t>4191  -33D</t>
-  </si>
-  <si>
     <t>322  -29D</t>
   </si>
   <si>
-    <t>7464  38D</t>
-  </si>
-  <si>
     <t>2562  122D</t>
   </si>
   <si>
+    <t>2638  266D</t>
+  </si>
+  <si>
     <t>124  -18D</t>
   </si>
   <si>
-    <t>2638  266D</t>
+    <t>99  40D</t>
   </si>
   <si>
     <t>52  1183D</t>
   </si>
   <si>
-    <t>99  40D</t>
+    <t>44  100D</t>
   </si>
   <si>
     <t>78  -25D</t>
   </si>
   <si>
-    <t>44  100D</t>
+    <t>30  -18D</t>
   </si>
   <si>
     <t>26  -17D</t>
   </si>
   <si>
-    <t>30  -18D</t>
-  </si>
-  <si>
     <t>3  -0D</t>
   </si>
   <si>
     <t>81  -2D</t>
   </si>
   <si>
+    <t>606  169D</t>
+  </si>
+  <si>
+    <t>242  42D</t>
+  </si>
+  <si>
+    <t>2116  68D</t>
+  </si>
+  <si>
+    <t>716  38D</t>
+  </si>
+  <si>
+    <t>736  65D</t>
+  </si>
+  <si>
     <t>90  53D</t>
   </si>
   <si>
-    <t>606  169D</t>
-  </si>
-  <si>
-    <t>242  42D</t>
-  </si>
-  <si>
-    <t>736  65D</t>
-  </si>
-  <si>
-    <t>2116  68D</t>
-  </si>
-  <si>
-    <t>716  38D</t>
-  </si>
-  <si>
     <t>144  -6D</t>
   </si>
   <si>
     <t>178  44D</t>
   </si>
   <si>
+    <t>38  76D</t>
+  </si>
+  <si>
+    <t>477  -14D</t>
+  </si>
+  <si>
     <t>1430  -27D</t>
   </si>
   <si>
-    <t>477  -14D</t>
-  </si>
-  <si>
-    <t>38  76D</t>
-  </si>
-  <si>
     <t>273  653D</t>
   </si>
   <si>
@@ -5509,39 +5509,39 @@
     <t>66  -17D</t>
   </si>
   <si>
+    <t>47  99D</t>
+  </si>
+  <si>
+    <t>13  62D</t>
+  </si>
+  <si>
+    <t>2087  46D</t>
+  </si>
+  <si>
     <t>11  111D</t>
   </si>
   <si>
-    <t>13  62D</t>
-  </si>
-  <si>
-    <t>2087  46D</t>
-  </si>
-  <si>
-    <t>47  99D</t>
-  </si>
-  <si>
     <t>257  -22D</t>
   </si>
   <si>
     <t>141  35D</t>
   </si>
   <si>
+    <t>152  98D</t>
+  </si>
+  <si>
     <t>140  -18D</t>
   </si>
   <si>
+    <t>1248  -25D</t>
+  </si>
+  <si>
+    <t>263  265D</t>
+  </si>
+  <si>
     <t>1245  38D</t>
   </si>
   <si>
-    <t>263  265D</t>
-  </si>
-  <si>
-    <t>152  98D</t>
-  </si>
-  <si>
-    <t>1248  -25D</t>
-  </si>
-  <si>
     <t>175  183D</t>
   </si>
   <si>
@@ -5575,54 +5575,54 @@
     <t>408  52D</t>
   </si>
   <si>
+    <t>700  74D</t>
+  </si>
+  <si>
+    <t>3613  47D</t>
+  </si>
+  <si>
     <t>1821  37D</t>
   </si>
   <si>
+    <t>1418  -19D</t>
+  </si>
+  <si>
     <t>1339  170D</t>
   </si>
   <si>
-    <t>1418  -19D</t>
-  </si>
-  <si>
-    <t>3613  47D</t>
-  </si>
-  <si>
-    <t>700  74D</t>
-  </si>
-  <si>
     <t>285  46D</t>
   </si>
   <si>
+    <t>121  355D</t>
+  </si>
+  <si>
+    <t>168  -30D</t>
+  </si>
+  <si>
+    <t>788  63D</t>
+  </si>
+  <si>
     <t>1030  37D</t>
   </si>
   <si>
-    <t>121  355D</t>
-  </si>
-  <si>
-    <t>168  -30D</t>
-  </si>
-  <si>
-    <t>788  63D</t>
-  </si>
-  <si>
     <t>367  -5D</t>
   </si>
   <si>
     <t>124  42D</t>
   </si>
   <si>
+    <t>231  -33D</t>
+  </si>
+  <si>
+    <t>122  -29D</t>
+  </si>
+  <si>
     <t>360  -10D</t>
   </si>
   <si>
     <t>181  -2D</t>
   </si>
   <si>
-    <t>231  -33D</t>
-  </si>
-  <si>
-    <t>122  -29D</t>
-  </si>
-  <si>
     <t>1895  -29D</t>
   </si>
   <si>
@@ -5635,51 +5635,51 @@
     <t>2473  -26D</t>
   </si>
   <si>
+    <t>510  263D</t>
+  </si>
+  <si>
     <t>557  131D</t>
   </si>
   <si>
-    <t>510  263D</t>
+    <t>8028  -33D</t>
+  </si>
+  <si>
+    <t>7198  44D</t>
   </si>
   <si>
     <t>89  -8D</t>
   </si>
   <si>
-    <t>7198  44D</t>
-  </si>
-  <si>
     <t>362  40D</t>
   </si>
   <si>
-    <t>8028  -33D</t>
-  </si>
-  <si>
     <t>2419  54D</t>
   </si>
   <si>
+    <t>1767  116D</t>
+  </si>
+  <si>
     <t>110  -11D</t>
   </si>
   <si>
-    <t>1767  116D</t>
+    <t>120  51D</t>
   </si>
   <si>
     <t>11  50D</t>
   </si>
   <si>
-    <t>120  51D</t>
+    <t>66  200D</t>
   </si>
   <si>
     <t>301  76D</t>
   </si>
   <si>
-    <t>66  200D</t>
+    <t>46  -18D</t>
   </si>
   <si>
     <t>16  -11D</t>
   </si>
   <si>
-    <t>46  -18D</t>
-  </si>
-  <si>
     <t>29  -32D</t>
   </si>
   <si>
@@ -5689,78 +5689,78 @@
     <t>132  -3D</t>
   </si>
   <si>
+    <t>773  82D</t>
+  </si>
+  <si>
+    <t>681  69D</t>
+  </si>
+  <si>
+    <t>1612  48D</t>
+  </si>
+  <si>
+    <t>746  -26D</t>
+  </si>
+  <si>
+    <t>830  76D</t>
+  </si>
+  <si>
     <t>102  63D</t>
   </si>
   <si>
-    <t>773  82D</t>
-  </si>
-  <si>
-    <t>681  69D</t>
-  </si>
-  <si>
-    <t>830  76D</t>
-  </si>
-  <si>
-    <t>1612  48D</t>
-  </si>
-  <si>
-    <t>746  -26D</t>
-  </si>
-  <si>
     <t>44  -1D</t>
   </si>
   <si>
     <t>84  48D</t>
   </si>
   <si>
+    <t>41  49D</t>
+  </si>
+  <si>
+    <t>350  -5D</t>
+  </si>
+  <si>
     <t>1530  -21D</t>
   </si>
   <si>
-    <t>350  -5D</t>
-  </si>
-  <si>
-    <t>41  49D</t>
-  </si>
-  <si>
     <t>99  409D</t>
   </si>
   <si>
     <t>248  -15D</t>
   </si>
   <si>
+    <t>68  137D</t>
+  </si>
+  <si>
+    <t>50  156D</t>
+  </si>
+  <si>
+    <t>1043  -8D</t>
+  </si>
+  <si>
     <t>4  -24D</t>
   </si>
   <si>
-    <t>50  156D</t>
-  </si>
-  <si>
-    <t>1043  -8D</t>
-  </si>
-  <si>
-    <t>68  137D</t>
-  </si>
-  <si>
     <t>391  -26D</t>
   </si>
   <si>
     <t>122  -21D</t>
   </si>
   <si>
+    <t>75  48D</t>
+  </si>
+  <si>
     <t>102  49D</t>
   </si>
   <si>
+    <t>2027  80D</t>
+  </si>
+  <si>
+    <t>109  51D</t>
+  </si>
+  <si>
     <t>607  -18D</t>
   </si>
   <si>
-    <t>109  51D</t>
-  </si>
-  <si>
-    <t>75  48D</t>
-  </si>
-  <si>
-    <t>2027  80D</t>
-  </si>
-  <si>
     <t>1018  183D</t>
   </si>
   <si>
@@ -5791,36 +5791,36 @@
     <t>243  126D</t>
   </si>
   <si>
+    <t>1538  103D</t>
+  </si>
+  <si>
+    <t>3194  -34D</t>
+  </si>
+  <si>
     <t>1769  81D</t>
   </si>
   <si>
+    <t>1898  -25D</t>
+  </si>
+  <si>
     <t>652  69D</t>
   </si>
   <si>
-    <t>1898  -25D</t>
-  </si>
-  <si>
-    <t>3194  -34D</t>
-  </si>
-  <si>
-    <t>1538  103D</t>
-  </si>
-  <si>
     <t>204  109D</t>
   </si>
   <si>
+    <t>454  -30D</t>
+  </si>
+  <si>
+    <t>69  49D</t>
+  </si>
+  <si>
+    <t>355  71D</t>
+  </si>
+  <si>
     <t>787  65D</t>
   </si>
   <si>
-    <t>454  -30D</t>
-  </si>
-  <si>
-    <t>69  49D</t>
-  </si>
-  <si>
-    <t>355  71D</t>
-  </si>
-  <si>
     <t>538  -8D</t>
   </si>
   <si>
@@ -5830,18 +5830,18 @@
     <t>71  75D</t>
   </si>
   <si>
+    <t>97  -28D</t>
+  </si>
+  <si>
+    <t>113  36D</t>
+  </si>
+  <si>
     <t>847  42D</t>
   </si>
   <si>
     <t>953  -26D</t>
   </si>
   <si>
-    <t>97  -28D</t>
-  </si>
-  <si>
-    <t>113  36D</t>
-  </si>
-  <si>
     <t>2467  395D</t>
   </si>
   <si>
@@ -5854,51 +5854,51 @@
     <t>2835  -33D</t>
   </si>
   <si>
+    <t>174  236D</t>
+  </si>
+  <si>
     <t>102  78D</t>
   </si>
   <si>
-    <t>174  236D</t>
+    <t>4135  -18D</t>
+  </si>
+  <si>
+    <t>4057  38D</t>
   </si>
   <si>
     <t>104  -12D</t>
   </si>
   <si>
-    <t>4057  38D</t>
-  </si>
-  <si>
     <t>844  65D</t>
   </si>
   <si>
-    <t>4135  -18D</t>
-  </si>
-  <si>
     <t>2546  59D</t>
   </si>
   <si>
+    <t>1500  50D</t>
+  </si>
+  <si>
     <t>449  128D</t>
   </si>
   <si>
-    <t>1500  50D</t>
+    <t>86  132D</t>
   </si>
   <si>
     <t>40  1213D</t>
   </si>
   <si>
-    <t>86  132D</t>
+    <t>18  234D</t>
   </si>
   <si>
     <t>57  61D</t>
   </si>
   <si>
-    <t>18  234D</t>
+    <t>84  125D</t>
   </si>
   <si>
     <t>27  129D</t>
   </si>
   <si>
-    <t>84  125D</t>
-  </si>
-  <si>
     <t>45  85D</t>
   </si>
   <si>
@@ -5908,36 +5908,36 @@
     <t>70  -1D</t>
   </si>
   <si>
+    <t>430  46D</t>
+  </si>
+  <si>
+    <t>260  -23D</t>
+  </si>
+  <si>
+    <t>1013  51D</t>
+  </si>
+  <si>
+    <t>571  -25D</t>
+  </si>
+  <si>
+    <t>433  51D</t>
+  </si>
+  <si>
     <t>105  119D</t>
   </si>
   <si>
-    <t>430  46D</t>
-  </si>
-  <si>
-    <t>260  -23D</t>
-  </si>
-  <si>
-    <t>433  51D</t>
-  </si>
-  <si>
-    <t>1013  51D</t>
-  </si>
-  <si>
-    <t>571  -25D</t>
-  </si>
-  <si>
     <t>104  -7D</t>
   </si>
   <si>
     <t>80  88D</t>
   </si>
   <si>
+    <t>158  -3D</t>
+  </si>
+  <si>
     <t>2190  -28D</t>
   </si>
   <si>
-    <t>158  -3D</t>
-  </si>
-  <si>
     <t>117  145D</t>
   </si>
   <si>
@@ -5947,36 +5947,36 @@
     <t>178  115D</t>
   </si>
   <si>
+    <t>60  88D</t>
+  </si>
+  <si>
     <t>784  -13D</t>
   </si>
   <si>
     <t>7  -4D</t>
   </si>
   <si>
-    <t>60  88D</t>
-  </si>
-  <si>
     <t>252  37D</t>
   </si>
   <si>
     <t>250  55D</t>
   </si>
   <si>
+    <t>96  74D</t>
+  </si>
+  <si>
     <t>286  76D</t>
   </si>
   <si>
+    <t>1336  71D</t>
+  </si>
+  <si>
+    <t>158  -29D</t>
+  </si>
+  <si>
     <t>1511  123D</t>
   </si>
   <si>
-    <t>158  -29D</t>
-  </si>
-  <si>
-    <t>96  74D</t>
-  </si>
-  <si>
-    <t>1336  71D</t>
-  </si>
-  <si>
     <t>28  -11D</t>
   </si>
   <si>
@@ -6016,36 +6016,36 @@
     <t>117  149D</t>
   </si>
   <si>
+    <t>1062  67D</t>
+  </si>
+  <si>
+    <t>4843  65D</t>
+  </si>
+  <si>
     <t>1315  92D</t>
   </si>
   <si>
+    <t>2286  -26D</t>
+  </si>
+  <si>
     <t>628  51D</t>
   </si>
   <si>
-    <t>2286  -26D</t>
-  </si>
-  <si>
-    <t>4843  65D</t>
-  </si>
-  <si>
-    <t>1062  67D</t>
-  </si>
-  <si>
     <t>157  195D</t>
   </si>
   <si>
+    <t>93  403D</t>
+  </si>
+  <si>
+    <t>170  672D</t>
+  </si>
+  <si>
+    <t>218  144D</t>
+  </si>
+  <si>
     <t>362  70D</t>
   </si>
   <si>
-    <t>93  403D</t>
-  </si>
-  <si>
-    <t>170  672D</t>
-  </si>
-  <si>
-    <t>218  144D</t>
-  </si>
-  <si>
     <t>240  -6D</t>
   </si>
   <si>
@@ -6055,18 +6055,18 @@
     <t>21  76D</t>
   </si>
   <si>
+    <t>70  63D</t>
+  </si>
+  <si>
+    <t>155  75D</t>
+  </si>
+  <si>
     <t>673  84D</t>
   </si>
   <si>
     <t>1301  66D</t>
   </si>
   <si>
-    <t>70  63D</t>
-  </si>
-  <si>
-    <t>155  75D</t>
-  </si>
-  <si>
     <t>2297  417D</t>
   </si>
   <si>
@@ -6079,51 +6079,51 @@
     <t>4496  94D</t>
   </si>
   <si>
+    <t>262  384D</t>
+  </si>
+  <si>
     <t>147  71D</t>
   </si>
   <si>
-    <t>262  384D</t>
+    <t>5368  60D</t>
+  </si>
+  <si>
+    <t>7351  96D</t>
   </si>
   <si>
     <t>865  159D</t>
   </si>
   <si>
-    <t>7351  96D</t>
-  </si>
-  <si>
     <t>426  76D</t>
   </si>
   <si>
-    <t>5368  60D</t>
-  </si>
-  <si>
     <t>4944  63D</t>
   </si>
   <si>
+    <t>10072  80D</t>
+  </si>
+  <si>
     <t>314  69D</t>
   </si>
   <si>
-    <t>10072  80D</t>
+    <t>128  97D</t>
   </si>
   <si>
     <t>8  80D</t>
   </si>
   <si>
-    <t>128  97D</t>
+    <t>33  250D</t>
   </si>
   <si>
     <t>57  178D</t>
   </si>
   <si>
-    <t>33  250D</t>
+    <t>60  218D</t>
   </si>
   <si>
     <t>45  1365D</t>
   </si>
   <si>
-    <t>60  218D</t>
-  </si>
-  <si>
     <t>61  555D</t>
   </si>
   <si>
@@ -6133,39 +6133,39 @@
     <t>308  -11D</t>
   </si>
   <si>
+    <t>389  59D</t>
+  </si>
+  <si>
+    <t>177  -32D</t>
+  </si>
+  <si>
+    <t>959  65D</t>
+  </si>
+  <si>
+    <t>523  53D</t>
+  </si>
+  <si>
+    <t>757  167D</t>
+  </si>
+  <si>
     <t>208  205D</t>
   </si>
   <si>
-    <t>389  59D</t>
-  </si>
-  <si>
-    <t>177  -32D</t>
-  </si>
-  <si>
-    <t>757  167D</t>
-  </si>
-  <si>
-    <t>959  65D</t>
-  </si>
-  <si>
-    <t>523  53D</t>
-  </si>
-  <si>
     <t>381  115D</t>
   </si>
   <si>
     <t>55  151D</t>
   </si>
   <si>
+    <t>107  286D</t>
+  </si>
+  <si>
+    <t>787  47D</t>
+  </si>
+  <si>
     <t>1201  78D</t>
   </si>
   <si>
-    <t>787  47D</t>
-  </si>
-  <si>
-    <t>107  286D</t>
-  </si>
-  <si>
     <t>141  64D</t>
   </si>
   <si>
@@ -6175,36 +6175,36 @@
     <t>58  38D</t>
   </si>
   <si>
+    <t>61  168D</t>
+  </si>
+  <si>
+    <t>20  49D</t>
+  </si>
+  <si>
+    <t>1745  82D</t>
+  </si>
+  <si>
     <t>77  412D</t>
   </si>
   <si>
-    <t>20  49D</t>
-  </si>
-  <si>
-    <t>1745  82D</t>
-  </si>
-  <si>
-    <t>61  168D</t>
-  </si>
-  <si>
     <t>199  -33D</t>
   </si>
   <si>
     <t>392  128D</t>
   </si>
   <si>
+    <t>69  125D</t>
+  </si>
+  <si>
+    <t>2434  696D</t>
+  </si>
+  <si>
+    <t>16  42D</t>
+  </si>
+  <si>
     <t>1475  188D</t>
   </si>
   <si>
-    <t>16  42D</t>
-  </si>
-  <si>
-    <t>69  125D</t>
-  </si>
-  <si>
-    <t>2434  696D</t>
-  </si>
-  <si>
     <t>31  -20D</t>
   </si>
   <si>
@@ -6244,36 +6244,36 @@
     <t>82  76D</t>
   </si>
   <si>
+    <t>1683  251D</t>
+  </si>
+  <si>
+    <t>2924  70D</t>
+  </si>
+  <si>
     <t>1058  192D</t>
   </si>
   <si>
+    <t>2502  95D</t>
+  </si>
+  <si>
     <t>864  75D</t>
   </si>
   <si>
-    <t>2502  95D</t>
-  </si>
-  <si>
-    <t>2924  70D</t>
-  </si>
-  <si>
-    <t>1683  251D</t>
-  </si>
-  <si>
     <t>221  128D</t>
   </si>
   <si>
+    <t>43  91D</t>
+  </si>
+  <si>
+    <t>204  153D</t>
+  </si>
+  <si>
+    <t>423  95D</t>
+  </si>
+  <si>
     <t>742  80D</t>
   </si>
   <si>
-    <t>43  91D</t>
-  </si>
-  <si>
-    <t>204  153D</t>
-  </si>
-  <si>
-    <t>423  95D</t>
-  </si>
-  <si>
     <t>518  -16D</t>
   </si>
   <si>
@@ -6283,18 +6283,18 @@
     <t>167  88D</t>
   </si>
   <si>
+    <t>51  -33D</t>
+  </si>
+  <si>
+    <t>178  289D</t>
+  </si>
+  <si>
     <t>690  40D</t>
   </si>
   <si>
     <t>1603  45D</t>
   </si>
   <si>
-    <t>51  -33D</t>
-  </si>
-  <si>
-    <t>178  289D</t>
-  </si>
-  <si>
     <t>1927  41D</t>
   </si>
   <si>
@@ -6307,90 +6307,90 @@
     <t>1999  -27D</t>
   </si>
   <si>
+    <t>179  133D</t>
+  </si>
+  <si>
     <t>547  93D</t>
   </si>
   <si>
-    <t>179  133D</t>
+    <t>6927  65D</t>
+  </si>
+  <si>
+    <t>6505  90D</t>
   </si>
   <si>
     <t>476  51D</t>
   </si>
   <si>
-    <t>6505  90D</t>
-  </si>
-  <si>
     <t>1350  166D</t>
   </si>
   <si>
-    <t>6927  65D</t>
-  </si>
-  <si>
     <t>3342  -34D</t>
   </si>
   <si>
+    <t>4155  129D</t>
+  </si>
+  <si>
     <t>180  -24D</t>
   </si>
   <si>
-    <t>4155  129D</t>
+    <t>118  63D</t>
   </si>
   <si>
     <t>45  2047D</t>
   </si>
   <si>
-    <t>118  63D</t>
+    <t>97  259D</t>
   </si>
   <si>
     <t>103  35D</t>
   </si>
   <si>
-    <t>97  259D</t>
+    <t>87  86D</t>
   </si>
   <si>
     <t>40  51D</t>
   </si>
   <si>
-    <t>87  86D</t>
-  </si>
-  <si>
     <t>95  2881D</t>
   </si>
   <si>
     <t>53  -26D</t>
   </si>
   <si>
+    <t>625  49D</t>
+  </si>
+  <si>
+    <t>86  -22D</t>
+  </si>
+  <si>
+    <t>1457  71D</t>
+  </si>
+  <si>
+    <t>1375  94D</t>
+  </si>
+  <si>
+    <t>454  44D</t>
+  </si>
+  <si>
     <t>75  64D</t>
   </si>
   <si>
-    <t>625  49D</t>
-  </si>
-  <si>
-    <t>86  -22D</t>
-  </si>
-  <si>
-    <t>454  44D</t>
-  </si>
-  <si>
-    <t>1457  71D</t>
-  </si>
-  <si>
-    <t>1375  94D</t>
-  </si>
-  <si>
     <t>6  -0D</t>
   </si>
   <si>
     <t>95  105D</t>
   </si>
   <si>
+    <t>106  200D</t>
+  </si>
+  <si>
+    <t>574  -22D</t>
+  </si>
+  <si>
     <t>1680  77D</t>
   </si>
   <si>
-    <t>574  -22D</t>
-  </si>
-  <si>
-    <t>106  200D</t>
-  </si>
-  <si>
     <t>116  113D</t>
   </si>
   <si>
@@ -6400,6 +6400,9 @@
     <t>150  58D</t>
   </si>
   <si>
+    <t>29  239D</t>
+  </si>
+  <si>
     <t>14  57D</t>
   </si>
   <si>
@@ -6409,30 +6412,27 @@
     <t>6  -3D</t>
   </si>
   <si>
-    <t>29  239D</t>
-  </si>
-  <si>
     <t>649  86D</t>
   </si>
   <si>
     <t>257  103D</t>
   </si>
   <si>
+    <t>94  103D</t>
+  </si>
+  <si>
     <t>329  118D</t>
   </si>
   <si>
+    <t>1757  43D</t>
+  </si>
+  <si>
+    <t>145  158D</t>
+  </si>
+  <si>
     <t>1515  35D</t>
   </si>
   <si>
-    <t>145  158D</t>
-  </si>
-  <si>
-    <t>94  103D</t>
-  </si>
-  <si>
-    <t>1757  43D</t>
-  </si>
-  <si>
     <t>29  -13D</t>
   </si>
   <si>
@@ -6475,36 +6475,36 @@
     <t>240  51D</t>
   </si>
   <si>
+    <t>755  213D</t>
+  </si>
+  <si>
+    <t>2692  46D</t>
+  </si>
+  <si>
     <t>1089  -26D</t>
   </si>
   <si>
+    <t>1175  -18D</t>
+  </si>
+  <si>
     <t>620  88D</t>
   </si>
   <si>
-    <t>1175  -18D</t>
-  </si>
-  <si>
-    <t>2692  46D</t>
-  </si>
-  <si>
-    <t>755  213D</t>
-  </si>
-  <si>
     <t>211  342D</t>
   </si>
   <si>
+    <t>54  54D</t>
+  </si>
+  <si>
+    <t>82  36D</t>
+  </si>
+  <si>
+    <t>478  227D</t>
+  </si>
+  <si>
     <t>368  93D</t>
   </si>
   <si>
-    <t>54  54D</t>
-  </si>
-  <si>
-    <t>82  36D</t>
-  </si>
-  <si>
-    <t>478  227D</t>
-  </si>
-  <si>
     <t>345  -8D</t>
   </si>
   <si>
@@ -6514,18 +6514,18 @@
     <t>95  298D</t>
   </si>
   <si>
+    <t>182  271D</t>
+  </si>
+  <si>
+    <t>89  213D</t>
+  </si>
+  <si>
     <t>462  43D</t>
   </si>
   <si>
     <t>1913  132D</t>
   </si>
   <si>
-    <t>182  271D</t>
-  </si>
-  <si>
-    <t>89  213D</t>
-  </si>
-  <si>
     <t>2509  82D</t>
   </si>
   <si>
@@ -6538,48 +6538,48 @@
     <t>2107  -17D</t>
   </si>
   <si>
+    <t>363  559D</t>
+  </si>
+  <si>
     <t>230  135D</t>
   </si>
   <si>
-    <t>363  559D</t>
+    <t>5635  -34D</t>
+  </si>
+  <si>
+    <t>5093  74D</t>
   </si>
   <si>
     <t>490  122D</t>
   </si>
   <si>
-    <t>5093  74D</t>
-  </si>
-  <si>
     <t>241  215D</t>
   </si>
   <si>
-    <t>5635  -34D</t>
-  </si>
-  <si>
     <t>3258  -33D</t>
   </si>
   <si>
+    <t>3563  78D</t>
+  </si>
+  <si>
     <t>310  53D</t>
   </si>
   <si>
-    <t>3563  78D</t>
+    <t>148  76D</t>
   </si>
   <si>
     <t>23  -23D</t>
   </si>
   <si>
-    <t>148  76D</t>
-  </si>
-  <si>
     <t>95  69D</t>
   </si>
   <si>
+    <t>72  152D</t>
+  </si>
+  <si>
     <t>63  106D</t>
   </si>
   <si>
-    <t>72  152D</t>
-  </si>
-  <si>
     <t>50  206D</t>
   </si>
   <si>
@@ -6589,39 +6589,39 @@
     <t>158  -7D</t>
   </si>
   <si>
+    <t>323  -25D</t>
+  </si>
+  <si>
+    <t>232  89D</t>
+  </si>
+  <si>
+    <t>1528  62D</t>
+  </si>
+  <si>
+    <t>1236  79D</t>
+  </si>
+  <si>
+    <t>462  39D</t>
+  </si>
+  <si>
     <t>87  37D</t>
   </si>
   <si>
-    <t>323  -25D</t>
-  </si>
-  <si>
-    <t>232  89D</t>
-  </si>
-  <si>
-    <t>462  39D</t>
-  </si>
-  <si>
-    <t>1528  62D</t>
-  </si>
-  <si>
-    <t>1236  79D</t>
-  </si>
-  <si>
     <t>178  -24D</t>
   </si>
   <si>
     <t>100  197D</t>
   </si>
   <si>
+    <t>74  70D</t>
+  </si>
+  <si>
+    <t>623  -33D</t>
+  </si>
+  <si>
     <t>2016  162D</t>
   </si>
   <si>
-    <t>623  -33D</t>
-  </si>
-  <si>
-    <t>74  70D</t>
-  </si>
-  <si>
     <t>183  260D</t>
   </si>
   <si>
@@ -6631,39 +6631,39 @@
     <t>206  49D</t>
   </si>
   <si>
+    <t>91  1656D</t>
+  </si>
+  <si>
+    <t>13  73D</t>
+  </si>
+  <si>
+    <t>2913  208D</t>
+  </si>
+  <si>
     <t>41  287D</t>
   </si>
   <si>
-    <t>13  73D</t>
-  </si>
-  <si>
-    <t>2913  208D</t>
-  </si>
-  <si>
-    <t>91  1656D</t>
-  </si>
-  <si>
     <t>470  61D</t>
   </si>
   <si>
     <t>276  174D</t>
   </si>
   <si>
+    <t>300  186D</t>
+  </si>
+  <si>
     <t>399  63D</t>
   </si>
   <si>
+    <t>1472  35D</t>
+  </si>
+  <si>
+    <t>212  169D</t>
+  </si>
+  <si>
     <t>1134  -20D</t>
   </si>
   <si>
-    <t>212  169D</t>
-  </si>
-  <si>
-    <t>300  186D</t>
-  </si>
-  <si>
-    <t>1472  35D</t>
-  </si>
-  <si>
     <t>56  55D</t>
   </si>
   <si>
@@ -6706,54 +6706,54 @@
     <t>342  662D</t>
   </si>
   <si>
+    <t>635  191D</t>
+  </si>
+  <si>
+    <t>3332  54D</t>
+  </si>
+  <si>
     <t>789  -19D</t>
   </si>
   <si>
+    <t>2768  39D</t>
+  </si>
+  <si>
     <t>415  93D</t>
   </si>
   <si>
-    <t>2768  39D</t>
-  </si>
-  <si>
-    <t>3332  54D</t>
-  </si>
-  <si>
-    <t>635  191D</t>
-  </si>
-  <si>
     <t>152  107D</t>
   </si>
   <si>
+    <t>151  144D</t>
+  </si>
+  <si>
+    <t>297  284D</t>
+  </si>
+  <si>
+    <t>518  147D</t>
+  </si>
+  <si>
     <t>806  110D</t>
   </si>
   <si>
-    <t>151  144D</t>
-  </si>
-  <si>
-    <t>297  284D</t>
-  </si>
-  <si>
-    <t>518  147D</t>
-  </si>
-  <si>
     <t>715  -17D</t>
   </si>
   <si>
     <t>61  88D</t>
   </si>
   <si>
+    <t>135  124D</t>
+  </si>
+  <si>
+    <t>114  68D</t>
+  </si>
+  <si>
     <t>372  -28D</t>
   </si>
   <si>
     <t>1990  70D</t>
   </si>
   <si>
-    <t>135  124D</t>
-  </si>
-  <si>
-    <t>114  68D</t>
-  </si>
-  <si>
     <t>5023  220D</t>
   </si>
   <si>
@@ -6766,51 +6766,51 @@
     <t>3402  48D</t>
   </si>
   <si>
+    <t>185  79D</t>
+  </si>
+  <si>
     <t>538  62D</t>
   </si>
   <si>
-    <t>185  79D</t>
+    <t>7359  -32D</t>
+  </si>
+  <si>
+    <t>6855  42D</t>
   </si>
   <si>
     <t>211  -13D</t>
   </si>
   <si>
-    <t>6855  42D</t>
-  </si>
-  <si>
     <t>854  57D</t>
   </si>
   <si>
-    <t>7359  -32D</t>
-  </si>
-  <si>
     <t>3812  85D</t>
   </si>
   <si>
+    <t>3443  1001D</t>
+  </si>
+  <si>
     <t>506  81D</t>
   </si>
   <si>
-    <t>3443  1001D</t>
+    <t>299  56D</t>
   </si>
   <si>
     <t>44  250D</t>
   </si>
   <si>
-    <t>299  56D</t>
+    <t>88  182D</t>
   </si>
   <si>
     <t>419  128D</t>
   </si>
   <si>
-    <t>88  182D</t>
+    <t>77  59D</t>
   </si>
   <si>
     <t>73  42D</t>
   </si>
   <si>
-    <t>77  59D</t>
-  </si>
-  <si>
     <t>45  63D</t>
   </si>
   <si>
@@ -6820,36 +6820,36 @@
     <t>363  -11D</t>
   </si>
   <si>
+    <t>368  -29D</t>
+  </si>
+  <si>
+    <t>185  37D</t>
+  </si>
+  <si>
+    <t>1333  59D</t>
+  </si>
+  <si>
+    <t>1162  87D</t>
+  </si>
+  <si>
+    <t>202  -27D</t>
+  </si>
+  <si>
     <t>124  62D</t>
   </si>
   <si>
-    <t>368  -29D</t>
-  </si>
-  <si>
-    <t>185  37D</t>
-  </si>
-  <si>
-    <t>202  -27D</t>
-  </si>
-  <si>
-    <t>1333  59D</t>
-  </si>
-  <si>
-    <t>1162  87D</t>
-  </si>
-  <si>
     <t>91  100D</t>
   </si>
   <si>
+    <t>188  71D</t>
+  </si>
+  <si>
+    <t>655  -25D</t>
+  </si>
+  <si>
     <t>1965  48D</t>
   </si>
   <si>
-    <t>655  -25D</t>
-  </si>
-  <si>
-    <t>188  71D</t>
-  </si>
-  <si>
     <t>126  168D</t>
   </si>
   <si>
@@ -6859,33 +6859,33 @@
     <t>124  -22D</t>
   </si>
   <si>
+    <t>66  286D</t>
+  </si>
+  <si>
     <t>2  -3D</t>
   </si>
   <si>
     <t>1394  69D</t>
   </si>
   <si>
-    <t>66  286D</t>
-  </si>
-  <si>
     <t>370  38D</t>
   </si>
   <si>
+    <t>256  162D</t>
+  </si>
+  <si>
     <t>101  -9D</t>
   </si>
   <si>
+    <t>1494  -33D</t>
+  </si>
+  <si>
+    <t>124  41D</t>
+  </si>
+  <si>
     <t>3264  82D</t>
   </si>
   <si>
-    <t>124  41D</t>
-  </si>
-  <si>
-    <t>256  162D</t>
-  </si>
-  <si>
-    <t>1494  -33D</t>
-  </si>
-  <si>
     <t>29  -23D</t>
   </si>
   <si>
@@ -6922,54 +6922,54 @@
     <t>1525  88D</t>
   </si>
   <si>
+    <t>840  114D</t>
+  </si>
+  <si>
+    <t>4587  79D</t>
+  </si>
+  <si>
     <t>1858  46D</t>
   </si>
   <si>
+    <t>2372  46D</t>
+  </si>
+  <si>
     <t>423  135D</t>
   </si>
   <si>
-    <t>2372  46D</t>
-  </si>
-  <si>
-    <t>4587  79D</t>
-  </si>
-  <si>
-    <t>840  114D</t>
-  </si>
-  <si>
     <t>254  420D</t>
   </si>
   <si>
+    <t>236  105D</t>
+  </si>
+  <si>
+    <t>59  94D</t>
+  </si>
+  <si>
+    <t>549  337D</t>
+  </si>
+  <si>
     <t>554  80D</t>
   </si>
   <si>
-    <t>236  105D</t>
-  </si>
-  <si>
-    <t>59  94D</t>
-  </si>
-  <si>
-    <t>549  337D</t>
-  </si>
-  <si>
     <t>1050  -24D</t>
   </si>
   <si>
     <t>48  436D</t>
   </si>
   <si>
+    <t>88  67D</t>
+  </si>
+  <si>
+    <t>82  48D</t>
+  </si>
+  <si>
     <t>504  -31D</t>
   </si>
   <si>
     <t>1026  -34D</t>
   </si>
   <si>
-    <t>88  67D</t>
-  </si>
-  <si>
-    <t>82  48D</t>
-  </si>
-  <si>
     <t>2446  405D</t>
   </si>
   <si>
@@ -6982,48 +6982,48 @@
     <t>4191  70D</t>
   </si>
   <si>
+    <t>343  278D</t>
+  </si>
+  <si>
     <t>434  156D</t>
   </si>
   <si>
-    <t>343  278D</t>
+    <t>7342  66D</t>
+  </si>
+  <si>
+    <t>4354  65D</t>
   </si>
   <si>
     <t>290  72D</t>
   </si>
   <si>
-    <t>4354  65D</t>
-  </si>
-  <si>
     <t>656  76D</t>
   </si>
   <si>
-    <t>7342  66D</t>
-  </si>
-  <si>
     <t>969  -29D</t>
   </si>
   <si>
+    <t>1603  183D</t>
+  </si>
+  <si>
     <t>341  57D</t>
   </si>
   <si>
-    <t>1603  183D</t>
+    <t>90  59D</t>
   </si>
   <si>
     <t>27  351D</t>
   </si>
   <si>
-    <t>90  59D</t>
-  </si>
-  <si>
     <t>68  1547D</t>
   </si>
   <si>
+    <t>62  110D</t>
+  </si>
+  <si>
     <t>15  -13D</t>
   </si>
   <si>
-    <t>62  110D</t>
-  </si>
-  <si>
     <t>37  259D</t>
   </si>
   <si>
@@ -7033,36 +7033,36 @@
     <t>59  -2D</t>
   </si>
   <si>
+    <t>416  49D</t>
+  </si>
+  <si>
+    <t>204  48D</t>
+  </si>
+  <si>
+    <t>1255  49D</t>
+  </si>
+  <si>
+    <t>991  57D</t>
+  </si>
+  <si>
+    <t>440  95D</t>
+  </si>
+  <si>
     <t>113  53D</t>
   </si>
   <si>
-    <t>416  49D</t>
-  </si>
-  <si>
-    <t>204  48D</t>
-  </si>
-  <si>
-    <t>440  95D</t>
-  </si>
-  <si>
-    <t>1255  49D</t>
-  </si>
-  <si>
-    <t>991  57D</t>
-  </si>
-  <si>
     <t>104  -10D</t>
   </si>
   <si>
     <t>119  94D</t>
   </si>
   <si>
+    <t>191  -7D</t>
+  </si>
+  <si>
     <t>2494  90D</t>
   </si>
   <si>
-    <t>191  -7D</t>
-  </si>
-  <si>
     <t>187  243D</t>
   </si>
   <si>
@@ -7072,36 +7072,36 @@
     <t>33  -15D</t>
   </si>
   <si>
+    <t>38  288D</t>
+  </si>
+  <si>
     <t>10  227D</t>
   </si>
   <si>
     <t>1561  66D</t>
   </si>
   <si>
-    <t>38  288D</t>
-  </si>
-  <si>
     <t>272  36D</t>
   </si>
   <si>
     <t>208  94D</t>
   </si>
   <si>
+    <t>90  103D</t>
+  </si>
+  <si>
     <t>355  343D</t>
   </si>
   <si>
+    <t>2120  266D</t>
+  </si>
+  <si>
+    <t>132  69D</t>
+  </si>
+  <si>
     <t>2135  174D</t>
   </si>
   <si>
-    <t>132  69D</t>
-  </si>
-  <si>
-    <t>90  103D</t>
-  </si>
-  <si>
-    <t>2120  266D</t>
-  </si>
-  <si>
     <t>204  1031D</t>
   </si>
   <si>
@@ -7144,36 +7144,36 @@
     <t>560  49D</t>
   </si>
   <si>
+    <t>1117  242D</t>
+  </si>
+  <si>
+    <t>3638  80D</t>
+  </si>
+  <si>
     <t>1046  99D</t>
   </si>
   <si>
+    <t>922  -28D</t>
+  </si>
+  <si>
     <t>229  51D</t>
   </si>
   <si>
-    <t>922  -28D</t>
-  </si>
-  <si>
-    <t>3638  80D</t>
-  </si>
-  <si>
-    <t>1117  242D</t>
-  </si>
-  <si>
     <t>187  79D</t>
   </si>
   <si>
+    <t>175  48D</t>
+  </si>
+  <si>
+    <t>72  37D</t>
+  </si>
+  <si>
+    <t>757  150D</t>
+  </si>
+  <si>
     <t>413  42D</t>
   </si>
   <si>
-    <t>175  48D</t>
-  </si>
-  <si>
-    <t>72  37D</t>
-  </si>
-  <si>
-    <t>757  150D</t>
-  </si>
-  <si>
     <t>566  -10D</t>
   </si>
   <si>
@@ -7183,18 +7183,18 @@
     <t>136  93D</t>
   </si>
   <si>
+    <t>60  -24D</t>
+  </si>
+  <si>
+    <t>134  -29D</t>
+  </si>
+  <si>
     <t>414  -25D</t>
   </si>
   <si>
     <t>1154  48D</t>
   </si>
   <si>
-    <t>60  -24D</t>
-  </si>
-  <si>
-    <t>134  -29D</t>
-  </si>
-  <si>
     <t>1462  48D</t>
   </si>
   <si>
@@ -7207,51 +7207,51 @@
     <t>1261  -17D</t>
   </si>
   <si>
+    <t>124  49D</t>
+  </si>
+  <si>
     <t>318  146D</t>
   </si>
   <si>
-    <t>124  49D</t>
+    <t>6487  -25D</t>
+  </si>
+  <si>
+    <t>4251  41D</t>
   </si>
   <si>
     <t>189  -8D</t>
   </si>
   <si>
-    <t>4251  41D</t>
-  </si>
-  <si>
     <t>311  47D</t>
   </si>
   <si>
-    <t>6487  -25D</t>
-  </si>
-  <si>
     <t>2934  66D</t>
   </si>
   <si>
+    <t>871  58D</t>
+  </si>
+  <si>
     <t>270  98D</t>
   </si>
   <si>
-    <t>871  58D</t>
+    <t>129  61D</t>
   </si>
   <si>
     <t>34  618D</t>
   </si>
   <si>
-    <t>129  61D</t>
+    <t>82  287D</t>
   </si>
   <si>
     <t>74  81D</t>
   </si>
   <si>
-    <t>82  287D</t>
+    <t>69  -21D</t>
   </si>
   <si>
     <t>17  -6D</t>
   </si>
   <si>
-    <t>69  -21D</t>
-  </si>
-  <si>
     <t>8  -5D</t>
   </si>
   <si>
@@ -7261,36 +7261,36 @@
     <t>86  -2D</t>
   </si>
   <si>
+    <t>528  -28D</t>
+  </si>
+  <si>
+    <t>76  -4D</t>
+  </si>
+  <si>
+    <t>1511  61D</t>
+  </si>
+  <si>
+    <t>668  -21D</t>
+  </si>
+  <si>
+    <t>396  -30D</t>
+  </si>
+  <si>
     <t>116  85D</t>
   </si>
   <si>
-    <t>528  -28D</t>
-  </si>
-  <si>
-    <t>76  -4D</t>
-  </si>
-  <si>
-    <t>396  -30D</t>
-  </si>
-  <si>
-    <t>1511  61D</t>
-  </si>
-  <si>
-    <t>668  -21D</t>
-  </si>
-  <si>
     <t>60  41D</t>
   </si>
   <si>
+    <t>123  294D</t>
+  </si>
+  <si>
+    <t>433  -12D</t>
+  </si>
+  <si>
     <t>2399  48D</t>
   </si>
   <si>
-    <t>433  -12D</t>
-  </si>
-  <si>
-    <t>123  294D</t>
-  </si>
-  <si>
     <t>146  179D</t>
   </si>
   <si>
@@ -7300,39 +7300,39 @@
     <t>136  43D</t>
   </si>
   <si>
+    <t>79  66D</t>
+  </si>
+  <si>
+    <t>61  427D</t>
+  </si>
+  <si>
+    <t>3407  41D</t>
+  </si>
+  <si>
     <t>121  550D</t>
   </si>
   <si>
-    <t>61  427D</t>
-  </si>
-  <si>
-    <t>3407  41D</t>
-  </si>
-  <si>
-    <t>79  66D</t>
-  </si>
-  <si>
     <t>364  -28D</t>
   </si>
   <si>
     <t>169  -33D</t>
   </si>
   <si>
+    <t>219  54D</t>
+  </si>
+  <si>
     <t>577  160D</t>
   </si>
   <si>
+    <t>1245  -27D</t>
+  </si>
+  <si>
+    <t>97  42D</t>
+  </si>
+  <si>
     <t>1511  43D</t>
   </si>
   <si>
-    <t>97  42D</t>
-  </si>
-  <si>
-    <t>219  54D</t>
-  </si>
-  <si>
-    <t>1245  -27D</t>
-  </si>
-  <si>
     <t>208  525D</t>
   </si>
   <si>
@@ -7372,36 +7372,36 @@
     <t>100  -23D</t>
   </si>
   <si>
+    <t>1158  64D</t>
+  </si>
+  <si>
+    <t>4990  54D</t>
+  </si>
+  <si>
     <t>1283  42D</t>
   </si>
   <si>
+    <t>2988  45D</t>
+  </si>
+  <si>
     <t>458  121D</t>
   </si>
   <si>
-    <t>2988  45D</t>
-  </si>
-  <si>
-    <t>4990  54D</t>
-  </si>
-  <si>
-    <t>1158  64D</t>
-  </si>
-  <si>
     <t>190  411D</t>
   </si>
   <si>
+    <t>133  931D</t>
+  </si>
+  <si>
+    <t>188  143D</t>
+  </si>
+  <si>
+    <t>266  242D</t>
+  </si>
+  <si>
     <t>608  128D</t>
   </si>
   <si>
-    <t>133  931D</t>
-  </si>
-  <si>
-    <t>188  143D</t>
-  </si>
-  <si>
-    <t>266  242D</t>
-  </si>
-  <si>
     <t>382  -10D</t>
   </si>
   <si>
@@ -7411,18 +7411,18 @@
     <t>40  41D</t>
   </si>
   <si>
+    <t>162  59D</t>
+  </si>
+  <si>
+    <t>48  44D</t>
+  </si>
+  <si>
     <t>605  -33D</t>
   </si>
   <si>
     <t>1278  -27D</t>
   </si>
   <si>
-    <t>162  59D</t>
-  </si>
-  <si>
-    <t>48  44D</t>
-  </si>
-  <si>
     <t>2767  98D</t>
   </si>
   <si>
@@ -7435,81 +7435,81 @@
     <t>3063  45D</t>
   </si>
   <si>
+    <t>335  385D</t>
+  </si>
+  <si>
     <t>186  95D</t>
   </si>
   <si>
-    <t>335  385D</t>
+    <t>4322  -30D</t>
+  </si>
+  <si>
+    <t>1724  -23D</t>
   </si>
   <si>
     <t>132  -20D</t>
   </si>
   <si>
-    <t>1724  -23D</t>
-  </si>
-  <si>
     <t>597  5432D</t>
   </si>
   <si>
-    <t>4322  -30D</t>
-  </si>
-  <si>
     <t>2741  98D</t>
   </si>
   <si>
+    <t>1598  157D</t>
+  </si>
+  <si>
     <t>406  73D</t>
   </si>
   <si>
-    <t>1598  157D</t>
-  </si>
-  <si>
     <t>37  1683D</t>
   </si>
   <si>
+    <t>37  146D</t>
+  </si>
+  <si>
     <t>90  -29D</t>
   </si>
   <si>
-    <t>37  146D</t>
+    <t>42  -13D</t>
   </si>
   <si>
     <t>26  -11D</t>
   </si>
   <si>
-    <t>42  -13D</t>
-  </si>
-  <si>
     <t>108  -27D</t>
   </si>
   <si>
     <t>197  -6D</t>
   </si>
   <si>
+    <t>1080  96D</t>
+  </si>
+  <si>
+    <t>1139  56D</t>
+  </si>
+  <si>
+    <t>738  45D</t>
+  </si>
+  <si>
+    <t>990  122D</t>
+  </si>
+  <si>
     <t>85  49D</t>
   </si>
   <si>
-    <t>1080  96D</t>
-  </si>
-  <si>
-    <t>990  122D</t>
-  </si>
-  <si>
-    <t>1139  56D</t>
-  </si>
-  <si>
-    <t>738  45D</t>
-  </si>
-  <si>
     <t>198  -11D</t>
   </si>
   <si>
     <t>51  -4D</t>
   </si>
   <si>
+    <t>42  64D</t>
+  </si>
+  <si>
     <t>1569  40D</t>
   </si>
   <si>
-    <t>42  64D</t>
-  </si>
-  <si>
     <t>104  178D</t>
   </si>
   <si>
@@ -7519,39 +7519,39 @@
     <t>25  -5D</t>
   </si>
   <si>
+    <t>53  283D</t>
+  </si>
+  <si>
+    <t>13  394D</t>
+  </si>
+  <si>
+    <t>1763  83D</t>
+  </si>
+  <si>
     <t>5  -32D</t>
   </si>
   <si>
-    <t>13  394D</t>
-  </si>
-  <si>
-    <t>1763  83D</t>
-  </si>
-  <si>
-    <t>53  283D</t>
-  </si>
-  <si>
     <t>717  93D</t>
   </si>
   <si>
     <t>107  -20D</t>
   </si>
   <si>
+    <t>72  69D</t>
+  </si>
+  <si>
     <t>218  50D</t>
   </si>
   <si>
+    <t>1570  -30D</t>
+  </si>
+  <si>
+    <t>137  311D</t>
+  </si>
+  <si>
     <t>550  -17D</t>
   </si>
   <si>
-    <t>137  311D</t>
-  </si>
-  <si>
-    <t>72  69D</t>
-  </si>
-  <si>
-    <t>1570  -30D</t>
-  </si>
-  <si>
     <t>56  53D</t>
   </si>
   <si>
@@ -7591,19 +7591,19 @@
     <t>201  52D</t>
   </si>
   <si>
+    <t>1426  212D</t>
+  </si>
+  <si>
+    <t>2242  41D</t>
+  </si>
+  <si>
     <t>1807  84D</t>
   </si>
   <si>
+    <t>1587  -23D</t>
+  </si>
+  <si>
     <t>686  78D</t>
-  </si>
-  <si>
-    <t>1587  -23D</t>
-  </si>
-  <si>
-    <t>2242  41D</t>
-  </si>
-  <si>
-    <t>1426  212D</t>
   </si>
 </sst>
 </file>
@@ -8175,7 +8175,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>183</v>
@@ -8282,10 +8282,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>184</v>
@@ -8392,10 +8392,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>185</v>
@@ -8505,7 +8505,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>186</v>
@@ -8773,7 +8773,7 @@
         <v>1265</v>
       </c>
       <c r="U8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V8" t="s">
         <v>1414</v>
@@ -8809,7 +8809,7 @@
         <v>2164</v>
       </c>
       <c r="AG8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AH8" t="s">
         <v>2313</v>
@@ -8883,7 +8883,7 @@
         <v>1266</v>
       </c>
       <c r="U9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V9" t="s">
         <v>1415</v>
@@ -8993,7 +8993,7 @@
         <v>1267</v>
       </c>
       <c r="U10" t="s">
-        <v>1343</v>
+        <v>466</v>
       </c>
       <c r="V10" t="s">
         <v>1416</v>
@@ -9055,7 +9055,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>191</v>
@@ -9070,7 +9070,7 @@
         <v>423</v>
       </c>
       <c r="J11" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="K11" t="s">
         <v>578</v>
@@ -9088,10 +9088,10 @@
         <v>888</v>
       </c>
       <c r="P11" t="s">
-        <v>965</v>
+        <v>896</v>
       </c>
       <c r="Q11" t="s">
-        <v>1038</v>
+        <v>348</v>
       </c>
       <c r="R11" t="s">
         <v>1114</v>
@@ -9103,7 +9103,7 @@
         <v>1268</v>
       </c>
       <c r="U11" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V11" t="s">
         <v>1417</v>
@@ -9162,7 +9162,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -9180,7 +9180,7 @@
         <v>424</v>
       </c>
       <c r="J12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K12" t="s">
         <v>579</v>
@@ -9198,10 +9198,10 @@
         <v>889</v>
       </c>
       <c r="P12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="R12" t="s">
         <v>1115</v>
@@ -9213,7 +9213,7 @@
         <v>1269</v>
       </c>
       <c r="U12" t="s">
-        <v>465</v>
+        <v>1344</v>
       </c>
       <c r="V12" t="s">
         <v>1418</v>
@@ -9272,10 +9272,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>193</v>
@@ -9290,7 +9290,7 @@
         <v>425</v>
       </c>
       <c r="J13" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="K13" t="s">
         <v>580</v>
@@ -9308,10 +9308,10 @@
         <v>890</v>
       </c>
       <c r="P13" t="s">
-        <v>895</v>
+        <v>966</v>
       </c>
       <c r="Q13" t="s">
-        <v>350</v>
+        <v>1039</v>
       </c>
       <c r="R13" t="s">
         <v>1116</v>
@@ -9825,7 +9825,7 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>198</v>
@@ -9932,10 +9932,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
       </c>
       <c r="F19" t="s">
         <v>199</v>
@@ -10045,7 +10045,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>200</v>
@@ -10152,7 +10152,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -10262,10 +10262,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
         <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>202</v>
@@ -10375,7 +10375,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>203</v>
@@ -10595,7 +10595,7 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
         <v>205</v>
@@ -10705,7 +10705,7 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>206</v>
@@ -10908,7 +10908,7 @@
         <v>2406</v>
       </c>
       <c r="AJ27" t="s">
-        <v>2482</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -11018,7 +11018,7 @@
         <v>2407</v>
       </c>
       <c r="AJ28" t="s">
-        <v>1614</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -11116,13 +11116,13 @@
         <v>2108</v>
       </c>
       <c r="AF29" t="s">
-        <v>2185</v>
+        <v>1662</v>
       </c>
       <c r="AG29" t="s">
         <v>2261</v>
       </c>
       <c r="AH29" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="AI29" t="s">
         <v>2408</v>
@@ -11226,13 +11226,13 @@
         <v>2109</v>
       </c>
       <c r="AF30" t="s">
-        <v>1663</v>
+        <v>2185</v>
       </c>
       <c r="AG30" t="s">
         <v>2262</v>
       </c>
       <c r="AH30" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="AI30" t="s">
         <v>2409</v>
@@ -11255,7 +11255,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
         <v>211</v>
@@ -11288,7 +11288,7 @@
         <v>908</v>
       </c>
       <c r="P31" t="s">
-        <v>465</v>
+        <v>984</v>
       </c>
       <c r="Q31" t="s">
         <v>1057</v>
@@ -11306,7 +11306,7 @@
         <v>1363</v>
       </c>
       <c r="V31" t="s">
-        <v>1436</v>
+        <v>313</v>
       </c>
       <c r="W31" t="s">
         <v>1509</v>
@@ -11362,10 +11362,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>212</v>
@@ -11398,7 +11398,7 @@
         <v>909</v>
       </c>
       <c r="P32" t="s">
-        <v>984</v>
+        <v>466</v>
       </c>
       <c r="Q32" t="s">
         <v>1058</v>
@@ -11416,7 +11416,7 @@
         <v>1364</v>
       </c>
       <c r="V32" t="s">
-        <v>312</v>
+        <v>1436</v>
       </c>
       <c r="W32" t="s">
         <v>1510</v>
@@ -11493,7 +11493,7 @@
         <v>522</v>
       </c>
       <c r="K33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
         <v>677</v>
@@ -11541,7 +11541,7 @@
         <v>1740</v>
       </c>
       <c r="AA33" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="AB33" t="s">
         <v>1888</v>
@@ -11568,7 +11568,7 @@
         <v>2412</v>
       </c>
       <c r="AJ33" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -11758,7 +11758,7 @@
         <v>1668</v>
       </c>
       <c r="Z35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA35" t="s">
         <v>1816</v>
@@ -11773,7 +11773,7 @@
         <v>2038</v>
       </c>
       <c r="AE35" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="AF35" t="s">
         <v>2190</v>
@@ -11805,7 +11805,7 @@
         <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
         <v>216</v>
@@ -11850,7 +11850,7 @@
         <v>1216</v>
       </c>
       <c r="T36" t="s">
-        <v>370</v>
+        <v>1293</v>
       </c>
       <c r="U36" t="s">
         <v>1367</v>
@@ -11868,7 +11868,7 @@
         <v>1669</v>
       </c>
       <c r="Z36" t="s">
-        <v>356</v>
+        <v>1742</v>
       </c>
       <c r="AA36" t="s">
         <v>1817</v>
@@ -11912,10 +11912,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
         <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -11960,7 +11960,7 @@
         <v>1217</v>
       </c>
       <c r="T37" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="U37" t="s">
         <v>1368</v>
@@ -11978,7 +11978,7 @@
         <v>1670</v>
       </c>
       <c r="Z37" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="AA37" t="s">
         <v>1818</v>
@@ -12008,7 +12008,7 @@
         <v>2416</v>
       </c>
       <c r="AJ37" t="s">
-        <v>2490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -12070,7 +12070,7 @@
         <v>1218</v>
       </c>
       <c r="T38" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="U38" t="s">
         <v>1369</v>
@@ -12088,7 +12088,7 @@
         <v>1671</v>
       </c>
       <c r="Z38" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="AA38" t="s">
         <v>1819</v>
@@ -12118,7 +12118,7 @@
         <v>2417</v>
       </c>
       <c r="AJ38" t="s">
-        <v>483</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -12135,7 +12135,7 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
         <v>219</v>
@@ -12180,7 +12180,7 @@
         <v>1219</v>
       </c>
       <c r="T39" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="U39" t="s">
         <v>1370</v>
@@ -12198,7 +12198,7 @@
         <v>1672</v>
       </c>
       <c r="Z39" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="AA39" t="s">
         <v>1820</v>
@@ -12245,7 +12245,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>220</v>
@@ -12290,7 +12290,7 @@
         <v>1220</v>
       </c>
       <c r="T40" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="U40" t="s">
         <v>1371</v>
@@ -12308,7 +12308,7 @@
         <v>1673</v>
       </c>
       <c r="Z40" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="AA40" t="s">
         <v>1821</v>
@@ -12352,10 +12352,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
         <v>76</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -12400,7 +12400,7 @@
         <v>1221</v>
       </c>
       <c r="T41" t="s">
-        <v>1297</v>
+        <v>370</v>
       </c>
       <c r="U41" t="s">
         <v>1372</v>
@@ -12418,7 +12418,7 @@
         <v>1674</v>
       </c>
       <c r="Z41" t="s">
-        <v>1746</v>
+        <v>355</v>
       </c>
       <c r="AA41" t="s">
         <v>1822</v>
@@ -12474,7 +12474,7 @@
         <v>301</v>
       </c>
       <c r="H42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I42" t="s">
         <v>454</v>
@@ -12498,10 +12498,10 @@
         <v>919</v>
       </c>
       <c r="P42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R42" t="s">
         <v>1145</v>
@@ -12525,7 +12525,7 @@
         <v>1598</v>
       </c>
       <c r="Y42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z42" t="s">
         <v>1747</v>
@@ -12549,13 +12549,13 @@
         <v>2197</v>
       </c>
       <c r="AG42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH42" t="s">
         <v>2345</v>
       </c>
       <c r="AI42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AJ42" t="s">
         <v>2494</v>
@@ -12575,7 +12575,7 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
         <v>223</v>
@@ -12635,7 +12635,7 @@
         <v>1599</v>
       </c>
       <c r="Y43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Z43" t="s">
         <v>1748</v>
@@ -12685,7 +12685,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>224</v>
@@ -12757,7 +12757,7 @@
         <v>1899</v>
       </c>
       <c r="AC44" t="s">
-        <v>1972</v>
+        <v>262</v>
       </c>
       <c r="AD44" t="s">
         <v>2047</v>
@@ -12772,7 +12772,7 @@
         <v>2275</v>
       </c>
       <c r="AH44" t="s">
-        <v>2347</v>
+        <v>1999</v>
       </c>
       <c r="AI44" t="s">
         <v>2422</v>
@@ -12795,7 +12795,7 @@
         <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
         <v>225</v>
@@ -12867,7 +12867,7 @@
         <v>1900</v>
       </c>
       <c r="AC45" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="AD45" t="s">
         <v>2048</v>
@@ -12882,13 +12882,13 @@
         <v>2276</v>
       </c>
       <c r="AH45" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="AI45" t="s">
         <v>2423</v>
       </c>
       <c r="AJ45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -12905,7 +12905,7 @@
         <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
         <v>226</v>
@@ -12977,7 +12977,7 @@
         <v>1901</v>
       </c>
       <c r="AC46" t="s">
-        <v>263</v>
+        <v>1973</v>
       </c>
       <c r="AD46" t="s">
         <v>2049</v>
@@ -12992,7 +12992,7 @@
         <v>2277</v>
       </c>
       <c r="AH46" t="s">
-        <v>1999</v>
+        <v>2348</v>
       </c>
       <c r="AI46" t="s">
         <v>2424</v>
@@ -13235,7 +13235,7 @@
         <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -13304,7 +13304,7 @@
         <v>1830</v>
       </c>
       <c r="AB49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AC49" t="s">
         <v>1976</v>
@@ -13345,7 +13345,7 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
         <v>230</v>
@@ -13396,7 +13396,7 @@
         <v>1381</v>
       </c>
       <c r="V50" t="s">
-        <v>1454</v>
+        <v>1209</v>
       </c>
       <c r="W50" t="s">
         <v>1528</v>
@@ -13417,22 +13417,22 @@
         <v>1904</v>
       </c>
       <c r="AC50" t="s">
-        <v>309</v>
+        <v>1977</v>
       </c>
       <c r="AD50" t="s">
         <v>2053</v>
       </c>
       <c r="AE50" t="s">
-        <v>539</v>
+        <v>2128</v>
       </c>
       <c r="AF50" t="s">
         <v>2205</v>
       </c>
       <c r="AG50" t="s">
-        <v>309</v>
+        <v>2281</v>
       </c>
       <c r="AH50" t="s">
-        <v>562</v>
+        <v>2352</v>
       </c>
       <c r="AI50" t="s">
         <v>2428</v>
@@ -13455,7 +13455,7 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F51" t="s">
         <v>231</v>
@@ -13506,7 +13506,7 @@
         <v>1382</v>
       </c>
       <c r="V51" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="W51" t="s">
         <v>1529</v>
@@ -13515,7 +13515,7 @@
         <v>1607</v>
       </c>
       <c r="Y51" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Z51" t="s">
         <v>1756</v>
@@ -13533,16 +13533,16 @@
         <v>2054</v>
       </c>
       <c r="AE51" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="AF51" t="s">
         <v>2206</v>
       </c>
       <c r="AG51" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="AH51" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="AI51" t="s">
         <v>2429</v>
@@ -13616,7 +13616,7 @@
         <v>1383</v>
       </c>
       <c r="V52" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="W52" t="s">
         <v>1530</v>
@@ -13637,22 +13637,22 @@
         <v>1906</v>
       </c>
       <c r="AC52" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="AD52" t="s">
         <v>2055</v>
       </c>
       <c r="AE52" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="AF52" t="s">
         <v>2207</v>
       </c>
       <c r="AG52" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="AH52" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="AI52" t="s">
         <v>2430</v>
@@ -13675,7 +13675,7 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>233</v>
@@ -13684,16 +13684,16 @@
         <v>312</v>
       </c>
       <c r="H53" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="I53" t="s">
         <v>465</v>
       </c>
       <c r="J53" t="s">
-        <v>312</v>
+        <v>542</v>
       </c>
       <c r="K53" t="s">
-        <v>312</v>
+        <v>619</v>
       </c>
       <c r="L53" t="s">
         <v>697</v>
@@ -13705,70 +13705,70 @@
         <v>852</v>
       </c>
       <c r="O53" t="s">
-        <v>312</v>
+        <v>930</v>
       </c>
       <c r="P53" t="s">
-        <v>312</v>
+        <v>1004</v>
       </c>
       <c r="Q53" t="s">
         <v>1078</v>
       </c>
       <c r="R53" t="s">
-        <v>312</v>
+        <v>1156</v>
       </c>
       <c r="S53" t="s">
-        <v>312</v>
+        <v>1233</v>
       </c>
       <c r="T53" t="s">
         <v>1309</v>
       </c>
       <c r="U53" t="s">
-        <v>312</v>
+        <v>1384</v>
       </c>
       <c r="V53" t="s">
-        <v>312</v>
+        <v>1456</v>
       </c>
       <c r="W53" t="s">
         <v>1531</v>
       </c>
       <c r="X53" t="s">
+        <v>1609</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>1683</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AC53" t="s">
         <v>312</v>
       </c>
-      <c r="Y53" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>1978</v>
-      </c>
       <c r="AD53" t="s">
-        <v>562</v>
+        <v>2056</v>
       </c>
       <c r="AE53" t="s">
-        <v>2130</v>
+        <v>542</v>
       </c>
       <c r="AF53" t="s">
-        <v>312</v>
+        <v>2208</v>
       </c>
       <c r="AG53" t="s">
         <v>312</v>
       </c>
       <c r="AH53" t="s">
-        <v>312</v>
+        <v>562</v>
       </c>
       <c r="AI53" t="s">
-        <v>312</v>
+        <v>2431</v>
       </c>
       <c r="AJ53" t="s">
-        <v>312</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="54" spans="1:36">
@@ -13785,7 +13785,7 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
         <v>234</v>
@@ -13794,16 +13794,16 @@
         <v>313</v>
       </c>
       <c r="H54" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="I54" t="s">
         <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>542</v>
+        <v>313</v>
       </c>
       <c r="K54" t="s">
-        <v>619</v>
+        <v>313</v>
       </c>
       <c r="L54" t="s">
         <v>698</v>
@@ -13815,70 +13815,70 @@
         <v>853</v>
       </c>
       <c r="O54" t="s">
-        <v>930</v>
+        <v>313</v>
       </c>
       <c r="P54" t="s">
-        <v>1004</v>
+        <v>313</v>
       </c>
       <c r="Q54" t="s">
         <v>1079</v>
       </c>
       <c r="R54" t="s">
-        <v>1156</v>
+        <v>313</v>
       </c>
       <c r="S54" t="s">
-        <v>1233</v>
+        <v>313</v>
       </c>
       <c r="T54" t="s">
         <v>1310</v>
       </c>
       <c r="U54" t="s">
-        <v>1384</v>
+        <v>313</v>
       </c>
       <c r="V54" t="s">
-        <v>1210</v>
+        <v>313</v>
       </c>
       <c r="W54" t="s">
         <v>1532</v>
       </c>
       <c r="X54" t="s">
-        <v>1609</v>
+        <v>313</v>
       </c>
       <c r="Y54" t="s">
-        <v>1683</v>
+        <v>313</v>
       </c>
       <c r="Z54" t="s">
-        <v>1758</v>
+        <v>313</v>
       </c>
       <c r="AA54" t="s">
-        <v>1834</v>
+        <v>313</v>
       </c>
       <c r="AB54" t="s">
-        <v>1907</v>
+        <v>313</v>
       </c>
       <c r="AC54" t="s">
         <v>1979</v>
       </c>
       <c r="AD54" t="s">
-        <v>2056</v>
+        <v>562</v>
       </c>
       <c r="AE54" t="s">
         <v>2131</v>
       </c>
       <c r="AF54" t="s">
-        <v>2208</v>
+        <v>313</v>
       </c>
       <c r="AG54" t="s">
-        <v>2283</v>
+        <v>313</v>
       </c>
       <c r="AH54" t="s">
-        <v>2354</v>
+        <v>313</v>
       </c>
       <c r="AI54" t="s">
-        <v>2431</v>
+        <v>313</v>
       </c>
       <c r="AJ54" t="s">
-        <v>2504</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -14053,7 +14053,7 @@
         <v>1312</v>
       </c>
       <c r="U56" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V56" t="s">
         <v>1458</v>
@@ -14115,7 +14115,7 @@
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
         <v>237</v>
@@ -14190,7 +14190,7 @@
         <v>1982</v>
       </c>
       <c r="AD57" t="s">
-        <v>732</v>
+        <v>2059</v>
       </c>
       <c r="AE57" t="s">
         <v>2134</v>
@@ -14222,10 +14222,10 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s">
         <v>102</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
       </c>
       <c r="F58" t="s">
         <v>238</v>
@@ -14258,7 +14258,7 @@
         <v>934</v>
       </c>
       <c r="P58" t="s">
-        <v>587</v>
+        <v>1008</v>
       </c>
       <c r="Q58" t="s">
         <v>1083</v>
@@ -14276,7 +14276,7 @@
         <v>1387</v>
       </c>
       <c r="V58" t="s">
-        <v>1342</v>
+        <v>1460</v>
       </c>
       <c r="W58" t="s">
         <v>1536</v>
@@ -14300,7 +14300,7 @@
         <v>1983</v>
       </c>
       <c r="AD58" t="s">
-        <v>2059</v>
+        <v>732</v>
       </c>
       <c r="AE58" t="s">
         <v>2135</v>
@@ -14368,7 +14368,7 @@
         <v>935</v>
       </c>
       <c r="P59" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="Q59" t="s">
         <v>1084</v>
@@ -14386,7 +14386,7 @@
         <v>1388</v>
       </c>
       <c r="V59" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="W59" t="s">
         <v>1537</v>
@@ -14445,7 +14445,7 @@
         <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
         <v>240</v>
@@ -14478,7 +14478,7 @@
         <v>936</v>
       </c>
       <c r="P60" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Q60" t="s">
         <v>1085</v>
@@ -14496,7 +14496,7 @@
         <v>1389</v>
       </c>
       <c r="V60" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="W60" t="s">
         <v>1538</v>
@@ -14555,7 +14555,7 @@
         <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
         <v>241</v>
@@ -14588,7 +14588,7 @@
         <v>937</v>
       </c>
       <c r="P61" t="s">
-        <v>1010</v>
+        <v>589</v>
       </c>
       <c r="Q61" t="s">
         <v>1086</v>
@@ -14606,7 +14606,7 @@
         <v>1390</v>
       </c>
       <c r="V61" t="s">
-        <v>1462</v>
+        <v>1342</v>
       </c>
       <c r="W61" t="s">
         <v>1539</v>
@@ -14734,7 +14734,7 @@
         <v>1842</v>
       </c>
       <c r="AB62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC62" t="s">
         <v>1987</v>
@@ -15043,7 +15043,7 @@
         <v>1321</v>
       </c>
       <c r="U65" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V65" t="s">
         <v>1466</v>
@@ -15281,7 +15281,7 @@
         <v>1771</v>
       </c>
       <c r="AA67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB67" t="s">
         <v>1919</v>
@@ -15661,13 +15661,13 @@
         <v>251</v>
       </c>
       <c r="G71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J71" t="s">
         <v>559</v>
@@ -15679,19 +15679,19 @@
         <v>715</v>
       </c>
       <c r="M71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R71" t="s">
         <v>1173</v>
@@ -15703,31 +15703,31 @@
         <v>1327</v>
       </c>
       <c r="U71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y71" t="s">
         <v>1700</v>
       </c>
       <c r="Z71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AD71" t="s">
         <v>2071</v>
@@ -15739,13 +15739,13 @@
         <v>2225</v>
       </c>
       <c r="AG71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH71" t="s">
         <v>2371</v>
       </c>
       <c r="AI71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AJ71" t="s">
         <v>2521</v>
@@ -15765,7 +15765,7 @@
         <v>127</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
         <v>252</v>
@@ -15789,7 +15789,7 @@
         <v>716</v>
       </c>
       <c r="M72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N72" t="s">
         <v>870</v>
@@ -15816,7 +15816,7 @@
         <v>1399</v>
       </c>
       <c r="V72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W72" t="s">
         <v>1549</v>
@@ -15831,10 +15831,10 @@
         <v>1775</v>
       </c>
       <c r="AA72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC72" t="s">
         <v>1996</v>
@@ -15849,7 +15849,7 @@
         <v>2226</v>
       </c>
       <c r="AG72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH72" t="s">
         <v>2372</v>
@@ -15994,7 +15994,7 @@
         <v>332</v>
       </c>
       <c r="H74" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I74" t="s">
         <v>485</v>
@@ -16054,7 +16054,7 @@
         <v>1851</v>
       </c>
       <c r="AB74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC74" t="s">
         <v>1998</v>
@@ -16205,7 +16205,7 @@
         <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
         <v>256</v>
@@ -16312,10 +16312,10 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" t="s">
         <v>139</v>
-      </c>
-      <c r="E77" t="s">
-        <v>140</v>
       </c>
       <c r="F77" t="s">
         <v>257</v>
@@ -16422,10 +16422,10 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" t="s">
         <v>141</v>
-      </c>
-      <c r="E78" t="s">
-        <v>142</v>
       </c>
       <c r="F78" t="s">
         <v>258</v>
@@ -16532,10 +16532,10 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" t="s">
         <v>143</v>
-      </c>
-      <c r="E79" t="s">
-        <v>144</v>
       </c>
       <c r="F79" t="s">
         <v>259</v>
@@ -16642,10 +16642,10 @@
         <v>79</v>
       </c>
       <c r="D80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" t="s">
         <v>145</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
       </c>
       <c r="F80" t="s">
         <v>260</v>

--- a/Data/item_wise_stock_days.xlsx
+++ b/Data/item_wise_stock_days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="497">
   <si>
     <t>Aladay</t>
   </si>
@@ -58,15 +58,15 @@
     <t>Levomax OS</t>
   </si>
   <si>
+    <t>Levomax TS 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
+    <t>1's</t>
+  </si>
+  <si>
     <t>Levomax 5ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Levomax TS 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>Lumigan</t>
   </si>
   <si>
@@ -235,52 +235,52 @@
     <t>VRB</t>
   </si>
   <si>
-    <t>4839  4839D</t>
-  </si>
-  <si>
-    <t>2720  2720D</t>
-  </si>
-  <si>
-    <t>1119  1119D</t>
-  </si>
-  <si>
-    <t>856  856D</t>
-  </si>
-  <si>
-    <t>7078  7078D</t>
-  </si>
-  <si>
-    <t>3034  3034D</t>
-  </si>
-  <si>
-    <t>2378  2378D</t>
-  </si>
-  <si>
-    <t>65  65D</t>
+    <t>4792  4792D</t>
+  </si>
+  <si>
+    <t>2713  2713D</t>
+  </si>
+  <si>
+    <t>1093  1093D</t>
+  </si>
+  <si>
+    <t>808  808D</t>
+  </si>
+  <si>
+    <t>6602  6602D</t>
+  </si>
+  <si>
+    <t>2338  2338D</t>
+  </si>
+  <si>
+    <t>2957  2957D</t>
+  </si>
+  <si>
+    <t>62  62D</t>
   </si>
   <si>
     <t>1  -1D</t>
   </si>
   <si>
-    <t>85465  85465D</t>
+    <t>84794  84794D</t>
   </si>
   <si>
     <t>1168  1168D</t>
   </si>
   <si>
-    <t>4666  4666D</t>
-  </si>
-  <si>
-    <t>4096  4096D</t>
-  </si>
-  <si>
-    <t>19405  19405D</t>
-  </si>
-  <si>
-    <t>3828  3828D</t>
-  </si>
-  <si>
-    <t>9784  9784D</t>
+    <t>4378  4378D</t>
+  </si>
+  <si>
+    <t>4019  4019D</t>
+  </si>
+  <si>
+    <t>19000  19000D</t>
+  </si>
+  <si>
+    <t>3535  3535D</t>
+  </si>
+  <si>
+    <t>9587  9587D</t>
   </si>
   <si>
     <t>102  546D</t>
@@ -292,25 +292,25 @@
     <t>32  364D</t>
   </si>
   <si>
-    <t>38  104D</t>
-  </si>
-  <si>
-    <t>182  98D</t>
-  </si>
-  <si>
-    <t>33  125D</t>
+    <t>38  115D</t>
+  </si>
+  <si>
+    <t>169  90D</t>
   </si>
   <si>
     <t>27  175D</t>
   </si>
   <si>
+    <t>28  94D</t>
+  </si>
+  <si>
     <t>1  -7D</t>
   </si>
   <si>
     <t>1  -4D</t>
   </si>
   <si>
-    <t>1367  251D</t>
+    <t>1365  277D</t>
   </si>
   <si>
     <t>48  174D</t>
@@ -319,61 +319,61 @@
     <t>143  1859D</t>
   </si>
   <si>
-    <t>116  1319D</t>
-  </si>
-  <si>
-    <t>577  237D</t>
-  </si>
-  <si>
-    <t>124  156D</t>
-  </si>
-  <si>
-    <t>251  1903D</t>
-  </si>
-  <si>
-    <t>118  233D</t>
-  </si>
-  <si>
-    <t>23  299D</t>
-  </si>
-  <si>
-    <t>11  250D</t>
+    <t>114  1037D</t>
+  </si>
+  <si>
+    <t>573  233D</t>
+  </si>
+  <si>
+    <t>116  144D</t>
+  </si>
+  <si>
+    <t>250  1750D</t>
+  </si>
+  <si>
+    <t>116  245D</t>
+  </si>
+  <si>
+    <t>23  261D</t>
+  </si>
+  <si>
+    <t>10  182D</t>
   </si>
   <si>
     <t>1  -3D</t>
   </si>
   <si>
-    <t>331  -28D</t>
-  </si>
-  <si>
-    <t>28  37D</t>
-  </si>
-  <si>
-    <t>104  163D</t>
-  </si>
-  <si>
-    <t>472  107D</t>
-  </si>
-  <si>
-    <t>19  --864D</t>
-  </si>
-  <si>
-    <t>83  164D</t>
-  </si>
-  <si>
-    <t>130  61D</t>
-  </si>
-  <si>
-    <t>740  81D</t>
-  </si>
-  <si>
-    <t>221  152D</t>
-  </si>
-  <si>
-    <t>318  761D</t>
-  </si>
-  <si>
-    <t>159  183D</t>
+    <t>315  -27D</t>
+  </si>
+  <si>
+    <t>102  165D</t>
+  </si>
+  <si>
+    <t>25  36D</t>
+  </si>
+  <si>
+    <t>451  97D</t>
+  </si>
+  <si>
+    <t>19  -19D</t>
+  </si>
+  <si>
+    <t>81  167D</t>
+  </si>
+  <si>
+    <t>118  56D</t>
+  </si>
+  <si>
+    <t>851  93D</t>
+  </si>
+  <si>
+    <t>218  146D</t>
+  </si>
+  <si>
+    <t>317  779D</t>
+  </si>
+  <si>
+    <t>158  182D</t>
   </si>
   <si>
     <t>29  879D</t>
@@ -382,43 +382,40 @@
     <t>19  192D</t>
   </si>
   <si>
-    <t>51  63D</t>
-  </si>
-  <si>
-    <t>312  -29D</t>
-  </si>
-  <si>
-    <t>118  85D</t>
-  </si>
-  <si>
-    <t>71  59D</t>
+    <t>48  66D</t>
+  </si>
+  <si>
+    <t>298  -28D</t>
+  </si>
+  <si>
+    <t>60  47D</t>
+  </si>
+  <si>
+    <t>106  75D</t>
   </si>
   <si>
     <t>4  91D</t>
   </si>
   <si>
-    <t>426  105D</t>
+    <t>395  98D</t>
   </si>
   <si>
     <t>20  -20D</t>
   </si>
   <si>
-    <t>191  129D</t>
-  </si>
-  <si>
-    <t>103  132D</t>
-  </si>
-  <si>
-    <t>1671  372D</t>
-  </si>
-  <si>
-    <t>154  74D</t>
+    <t>188  140D</t>
+  </si>
+  <si>
+    <t>1655  383D</t>
+  </si>
+  <si>
+    <t>153  74D</t>
   </si>
   <si>
     <t>181  1647D</t>
   </si>
   <si>
-    <t>93  -21D</t>
+    <t>94  -21D</t>
   </si>
   <si>
     <t>30  -30D</t>
@@ -427,22 +424,22 @@
     <t>29  2639D</t>
   </si>
   <si>
-    <t>13  591D</t>
-  </si>
-  <si>
-    <t>236  44D</t>
+    <t>13  394D</t>
+  </si>
+  <si>
+    <t>231  43D</t>
+  </si>
+  <si>
+    <t>129  308D</t>
   </si>
   <si>
     <t>69  784D</t>
   </si>
   <si>
-    <t>129  308D</t>
-  </si>
-  <si>
     <t>1  91D</t>
   </si>
   <si>
-    <t>857  1321D</t>
+    <t>857  1368D</t>
   </si>
   <si>
     <t>24  -24D</t>
@@ -451,19 +448,19 @@
     <t>202  1531D</t>
   </si>
   <si>
-    <t>159  258D</t>
+    <t>159  2411D</t>
   </si>
   <si>
     <t>269  41D</t>
   </si>
   <si>
-    <t>250  47D</t>
+    <t>246  48D</t>
   </si>
   <si>
     <t>355  529D</t>
   </si>
   <si>
-    <t>193  731D</t>
+    <t>191  695D</t>
   </si>
   <si>
     <t>32  -32D</t>
@@ -472,34 +469,34 @@
     <t>36  36D</t>
   </si>
   <si>
-    <t>258  94D</t>
-  </si>
-  <si>
-    <t>97  267D</t>
+    <t>251  95D</t>
   </si>
   <si>
     <t>22  95D</t>
   </si>
   <si>
-    <t>673  163D</t>
+    <t>97  259D</t>
+  </si>
+  <si>
+    <t>664  194D</t>
   </si>
   <si>
     <t>46  46D</t>
   </si>
   <si>
-    <t>131  270D</t>
-  </si>
-  <si>
-    <t>236  1263D</t>
-  </si>
-  <si>
-    <t>534  101D</t>
-  </si>
-  <si>
-    <t>61  168D</t>
-  </si>
-  <si>
-    <t>112  113D</t>
+    <t>131  277D</t>
+  </si>
+  <si>
+    <t>236  1342D</t>
+  </si>
+  <si>
+    <t>363  52D</t>
+  </si>
+  <si>
+    <t>61  179D</t>
+  </si>
+  <si>
+    <t>112  114D</t>
   </si>
   <si>
     <t>61  84D</t>
@@ -511,16 +508,19 @@
     <t>27  307D</t>
   </si>
   <si>
-    <t>184  -33D</t>
-  </si>
-  <si>
-    <t>73  214D</t>
-  </si>
-  <si>
-    <t>57  235D</t>
-  </si>
-  <si>
-    <t>1109  297D</t>
+    <t>168  -30D</t>
+  </si>
+  <si>
+    <t>57  259D</t>
+  </si>
+  <si>
+    <t>73  201D</t>
+  </si>
+  <si>
+    <t>1  -8D</t>
+  </si>
+  <si>
+    <t>1101  311D</t>
   </si>
   <si>
     <t>47  47D</t>
@@ -529,37 +529,37 @@
     <t>81  39D</t>
   </si>
   <si>
-    <t>66  60D</t>
-  </si>
-  <si>
-    <t>514  79D</t>
-  </si>
-  <si>
-    <t>71  71D</t>
-  </si>
-  <si>
-    <t>381  121D</t>
-  </si>
-  <si>
-    <t>95  130D</t>
+    <t>66  64D</t>
+  </si>
+  <si>
+    <t>502  76D</t>
+  </si>
+  <si>
+    <t>69  68D</t>
+  </si>
+  <si>
+    <t>375  123D</t>
+  </si>
+  <si>
+    <t>93  141D</t>
   </si>
   <si>
     <t>28  -28D</t>
   </si>
   <si>
-    <t>7  57D</t>
-  </si>
-  <si>
-    <t>61  1850D</t>
-  </si>
-  <si>
-    <t>256  217D</t>
-  </si>
-  <si>
-    <t>68  77D</t>
-  </si>
-  <si>
-    <t>71  107D</t>
+    <t>5  45D</t>
+  </si>
+  <si>
+    <t>60  1365D</t>
+  </si>
+  <si>
+    <t>255  216D</t>
+  </si>
+  <si>
+    <t>69  104D</t>
+  </si>
+  <si>
+    <t>64  72D</t>
   </si>
   <si>
     <t>7  318D</t>
@@ -568,28 +568,28 @@
     <t>1  -30D</t>
   </si>
   <si>
-    <t>596  1084D</t>
+    <t>592  1036D</t>
   </si>
   <si>
     <t>12  -12D</t>
   </si>
   <si>
-    <t>163  1854D</t>
+    <t>163  2119D</t>
   </si>
   <si>
     <t>156  215D</t>
   </si>
   <si>
-    <t>430  63D</t>
-  </si>
-  <si>
-    <t>111  109D</t>
-  </si>
-  <si>
-    <t>270  702D</t>
-  </si>
-  <si>
-    <t>164  829D</t>
+    <t>416  62D</t>
+  </si>
+  <si>
+    <t>109  110D</t>
+  </si>
+  <si>
+    <t>258  510D</t>
+  </si>
+  <si>
+    <t>163  872D</t>
   </si>
   <si>
     <t>10  -10D</t>
@@ -601,925 +601,910 @@
     <t>33  300D</t>
   </si>
   <si>
-    <t>128  45D</t>
+    <t>124  43D</t>
+  </si>
+  <si>
+    <t>37  280D</t>
   </si>
   <si>
     <t>123  1119D</t>
   </si>
   <si>
-    <t>37  280D</t>
-  </si>
-  <si>
     <t>4  -4D</t>
   </si>
   <si>
     <t>1  -13D</t>
   </si>
   <si>
-    <t>824  211D</t>
+    <t>817  214D</t>
   </si>
   <si>
     <t>18  -18D</t>
   </si>
   <si>
-    <t>75  455D</t>
-  </si>
-  <si>
-    <t>30  105D</t>
-  </si>
-  <si>
-    <t>293  118D</t>
-  </si>
-  <si>
-    <t>110  83D</t>
-  </si>
-  <si>
-    <t>236  1534D</t>
-  </si>
-  <si>
-    <t>105  161D</t>
-  </si>
-  <si>
-    <t>25  2275D</t>
-  </si>
-  <si>
-    <t>16  145D</t>
-  </si>
-  <si>
-    <t>44  95D</t>
-  </si>
-  <si>
-    <t>117  66D</t>
-  </si>
-  <si>
-    <t>99  83D</t>
-  </si>
-  <si>
-    <t>70  80D</t>
-  </si>
-  <si>
-    <t>2  -30D</t>
+    <t>74  420D</t>
+  </si>
+  <si>
+    <t>30  109D</t>
+  </si>
+  <si>
+    <t>286  116D</t>
+  </si>
+  <si>
+    <t>110  84D</t>
+  </si>
+  <si>
+    <t>236  1652D</t>
+  </si>
+  <si>
+    <t>103  156D</t>
+  </si>
+  <si>
+    <t>24  2184D</t>
+  </si>
+  <si>
+    <t>14  127D</t>
+  </si>
+  <si>
+    <t>44  97D</t>
+  </si>
+  <si>
+    <t>99  53D</t>
+  </si>
+  <si>
+    <t>67  75D</t>
+  </si>
+  <si>
+    <t>96  81D</t>
+  </si>
+  <si>
+    <t>1  -15D</t>
+  </si>
+  <si>
+    <t>943  85D</t>
+  </si>
+  <si>
+    <t>19  345D</t>
+  </si>
+  <si>
+    <t>139  156D</t>
+  </si>
+  <si>
+    <t>156  507D</t>
+  </si>
+  <si>
+    <t>485  110D</t>
+  </si>
+  <si>
+    <t>71  222D</t>
+  </si>
+  <si>
+    <t>282  400D</t>
+  </si>
+  <si>
+    <t>127  577D</t>
+  </si>
+  <si>
+    <t>28  1274D</t>
+  </si>
+  <si>
+    <t>223  100D</t>
+  </si>
+  <si>
+    <t>39  394D</t>
+  </si>
+  <si>
+    <t>93  2115D</t>
+  </si>
+  <si>
+    <t>1  -10D</t>
+  </si>
+  <si>
+    <t>511  201D</t>
+  </si>
+  <si>
+    <t>22  2002D</t>
+  </si>
+  <si>
+    <t>149  376D</t>
+  </si>
+  <si>
+    <t>182  690D</t>
+  </si>
+  <si>
+    <t>176  91D</t>
+  </si>
+  <si>
+    <t>186  71D</t>
+  </si>
+  <si>
+    <t>205  6218D</t>
+  </si>
+  <si>
+    <t>236  715D</t>
+  </si>
+  <si>
+    <t>78  78D</t>
+  </si>
+  <si>
+    <t>156  68D</t>
+  </si>
+  <si>
+    <t>92  930D</t>
+  </si>
+  <si>
+    <t>145  1015D</t>
+  </si>
+  <si>
+    <t>805  345D</t>
+  </si>
+  <si>
+    <t>129  510D</t>
+  </si>
+  <si>
+    <t>66  50D</t>
+  </si>
+  <si>
+    <t>299  89D</t>
+  </si>
+  <si>
+    <t>105  111D</t>
+  </si>
+  <si>
+    <t>209  161D</t>
+  </si>
+  <si>
+    <t>157  166D</t>
+  </si>
+  <si>
+    <t>54  819D</t>
+  </si>
+  <si>
+    <t>17  221D</t>
+  </si>
+  <si>
+    <t>1  -0D</t>
+  </si>
+  <si>
+    <t>40  62D</t>
+  </si>
+  <si>
+    <t>141  147D</t>
+  </si>
+  <si>
+    <t>1  45D</t>
+  </si>
+  <si>
+    <t>1  -2D</t>
+  </si>
+  <si>
+    <t>1340  128D</t>
+  </si>
+  <si>
+    <t>40  40D</t>
+  </si>
+  <si>
+    <t>297  60D</t>
+  </si>
+  <si>
+    <t>116  69D</t>
+  </si>
+  <si>
+    <t>217  -27D</t>
+  </si>
+  <si>
+    <t>288  315D</t>
+  </si>
+  <si>
+    <t>192  76D</t>
+  </si>
+  <si>
+    <t>294  863D</t>
+  </si>
+  <si>
+    <t>84  849D</t>
+  </si>
+  <si>
+    <t>7  -12D</t>
+  </si>
+  <si>
+    <t>283  48D</t>
+  </si>
+  <si>
+    <t>54  60D</t>
+  </si>
+  <si>
+    <t>318  280D</t>
+  </si>
+  <si>
+    <t>2  -4D</t>
+  </si>
+  <si>
+    <t>1330  109D</t>
+  </si>
+  <si>
+    <t>18  148D</t>
+  </si>
+  <si>
+    <t>41  -10D</t>
+  </si>
+  <si>
+    <t>301  83D</t>
+  </si>
+  <si>
+    <t>432  47D</t>
+  </si>
+  <si>
+    <t>150  43D</t>
+  </si>
+  <si>
+    <t>620  1200D</t>
+  </si>
+  <si>
+    <t>159  352D</t>
+  </si>
+  <si>
+    <t>5  151D</t>
+  </si>
+  <si>
+    <t>6  136D</t>
+  </si>
+  <si>
+    <t>180  147D</t>
+  </si>
+  <si>
+    <t>119  119D</t>
+  </si>
+  <si>
+    <t>204  204D</t>
+  </si>
+  <si>
+    <t>65  1478D</t>
+  </si>
+  <si>
+    <t>49  139D</t>
+  </si>
+  <si>
+    <t>408  134D</t>
+  </si>
+  <si>
+    <t>117  169D</t>
+  </si>
+  <si>
+    <t>163  478D</t>
+  </si>
+  <si>
+    <t>44  286D</t>
+  </si>
+  <si>
+    <t>113  120D</t>
+  </si>
+  <si>
+    <t>105  142D</t>
+  </si>
+  <si>
+    <t>35  54D</t>
+  </si>
+  <si>
+    <t>5  -5D</t>
+  </si>
+  <si>
+    <t>498  238D</t>
+  </si>
+  <si>
+    <t>143  6506D</t>
+  </si>
+  <si>
+    <t>80  3640D</t>
+  </si>
+  <si>
+    <t>257  216D</t>
+  </si>
+  <si>
+    <t>31  74D</t>
+  </si>
+  <si>
+    <t>365  11071D</t>
+  </si>
+  <si>
+    <t>191  214D</t>
+  </si>
+  <si>
+    <t>21  -16D</t>
+  </si>
+  <si>
+    <t>247  66D</t>
+  </si>
+  <si>
+    <t>72  -26D</t>
+  </si>
+  <si>
+    <t>69  112D</t>
+  </si>
+  <si>
+    <t>1  -5D</t>
+  </si>
+  <si>
+    <t>660  106D</t>
+  </si>
+  <si>
+    <t>21  -21D</t>
+  </si>
+  <si>
+    <t>126  79D</t>
+  </si>
+  <si>
+    <t>89  112D</t>
+  </si>
+  <si>
+    <t>319  48D</t>
+  </si>
+  <si>
+    <t>173  62D</t>
+  </si>
+  <si>
+    <t>287  258D</t>
+  </si>
+  <si>
+    <t>450  417D</t>
+  </si>
+  <si>
+    <t>1519  548D</t>
+  </si>
+  <si>
+    <t>356  76D</t>
+  </si>
+  <si>
+    <t>35  -28D</t>
+  </si>
+  <si>
+    <t>434  -12D</t>
+  </si>
+  <si>
+    <t>132  500D</t>
+  </si>
+  <si>
+    <t>84  218D</t>
+  </si>
+  <si>
+    <t>52324  795D</t>
+  </si>
+  <si>
+    <t>223  882D</t>
+  </si>
+  <si>
+    <t>369  69D</t>
+  </si>
+  <si>
+    <t>229  289D</t>
+  </si>
+  <si>
+    <t>5309  570D</t>
+  </si>
+  <si>
+    <t>147  -18D</t>
+  </si>
+  <si>
+    <t>2604  363D</t>
+  </si>
+  <si>
+    <t>92  73D</t>
+  </si>
+  <si>
+    <t>120  1820D</t>
+  </si>
+  <si>
+    <t>7  -11D</t>
+  </si>
+  <si>
+    <t>39  591D</t>
+  </si>
+  <si>
+    <t>362  -26D</t>
+  </si>
+  <si>
+    <t>103  4686D</t>
+  </si>
+  <si>
+    <t>144  2620D</t>
+  </si>
+  <si>
+    <t>5085  343D</t>
+  </si>
+  <si>
+    <t>15  -33D</t>
+  </si>
+  <si>
+    <t>276  46D</t>
+  </si>
+  <si>
+    <t>87  188D</t>
+  </si>
+  <si>
+    <t>630  98D</t>
+  </si>
+  <si>
+    <t>49  -10D</t>
+  </si>
+  <si>
+    <t>149  68D</t>
+  </si>
+  <si>
+    <t>145  212D</t>
+  </si>
+  <si>
+    <t>43  150D</t>
+  </si>
+  <si>
+    <t>195  103D</t>
+  </si>
+  <si>
+    <t>63  71D</t>
+  </si>
+  <si>
+    <t>124  118D</t>
+  </si>
+  <si>
+    <t>673  241D</t>
+  </si>
+  <si>
+    <t>22  1001D</t>
+  </si>
+  <si>
+    <t>107  167D</t>
+  </si>
+  <si>
+    <t>84  127D</t>
+  </si>
+  <si>
+    <t>422  85D</t>
+  </si>
+  <si>
+    <t>110  61D</t>
+  </si>
+  <si>
+    <t>178  145D</t>
+  </si>
+  <si>
+    <t>152  177D</t>
+  </si>
+  <si>
+    <t>35  109D</t>
+  </si>
+  <si>
+    <t>11  -14D</t>
+  </si>
+  <si>
+    <t>47  72D</t>
+  </si>
+  <si>
+    <t>461  37D</t>
+  </si>
+  <si>
+    <t>212  1015D</t>
+  </si>
+  <si>
+    <t>130  381D</t>
+  </si>
+  <si>
+    <t>12  -13D</t>
+  </si>
+  <si>
+    <t>4207  132D</t>
+  </si>
+  <si>
+    <t>65  1971D</t>
+  </si>
+  <si>
+    <t>234  180D</t>
+  </si>
+  <si>
+    <t>205  224D</t>
+  </si>
+  <si>
+    <t>1913  262D</t>
+  </si>
+  <si>
+    <t>171  82D</t>
+  </si>
+  <si>
+    <t>107  -13D</t>
+  </si>
+  <si>
+    <t>208  676D</t>
+  </si>
+  <si>
+    <t>56  -14D</t>
+  </si>
+  <si>
+    <t>143  41D</t>
+  </si>
+  <si>
+    <t>87  68D</t>
+  </si>
+  <si>
+    <t>58  77D</t>
+  </si>
+  <si>
+    <t>10  455D</t>
+  </si>
+  <si>
+    <t>852  760D</t>
+  </si>
+  <si>
+    <t>112  57D</t>
+  </si>
+  <si>
+    <t>188  1710D</t>
+  </si>
+  <si>
+    <t>305  129D</t>
+  </si>
+  <si>
+    <t>47  -9D</t>
+  </si>
+  <si>
+    <t>150  53D</t>
+  </si>
+  <si>
+    <t>112  169D</t>
+  </si>
+  <si>
+    <t>40  1820D</t>
+  </si>
+  <si>
+    <t>60  60D</t>
+  </si>
+  <si>
+    <t>72  327D</t>
+  </si>
+  <si>
+    <t>239  49D</t>
+  </si>
+  <si>
+    <t>134  348D</t>
+  </si>
+  <si>
+    <t>61  46D</t>
+  </si>
+  <si>
+    <t>1074  201D</t>
+  </si>
+  <si>
+    <t>48  48D</t>
+  </si>
+  <si>
+    <t>216  1512D</t>
+  </si>
+  <si>
+    <t>134  871D</t>
+  </si>
+  <si>
+    <t>333  69D</t>
+  </si>
+  <si>
+    <t>133  57D</t>
+  </si>
+  <si>
+    <t>216  204D</t>
+  </si>
+  <si>
+    <t>139  332D</t>
+  </si>
+  <si>
+    <t>35  -35D</t>
+  </si>
+  <si>
+    <t>37  3367D</t>
+  </si>
+  <si>
+    <t>34  206D</t>
+  </si>
+  <si>
+    <t>270  101D</t>
+  </si>
+  <si>
+    <t>53  344D</t>
+  </si>
+  <si>
+    <t>77  304D</t>
+  </si>
+  <si>
+    <t>558  288D</t>
+  </si>
+  <si>
+    <t>152  166D</t>
+  </si>
+  <si>
+    <t>174  754D</t>
+  </si>
+  <si>
+    <t>218  38D</t>
+  </si>
+  <si>
+    <t>64  -19D</t>
+  </si>
+  <si>
+    <t>135  175D</t>
+  </si>
+  <si>
+    <t>120  321D</t>
+  </si>
+  <si>
+    <t>7  39D</t>
+  </si>
+  <si>
+    <t>159  160D</t>
+  </si>
+  <si>
+    <t>25  -25D</t>
+  </si>
+  <si>
+    <t>125  2843D</t>
+  </si>
+  <si>
+    <t>587  331D</t>
+  </si>
+  <si>
+    <t>56  -22D</t>
+  </si>
+  <si>
+    <t>47  388D</t>
+  </si>
+  <si>
+    <t>478  78D</t>
+  </si>
+  <si>
+    <t>87  76D</t>
+  </si>
+  <si>
+    <t>208  1261D</t>
+  </si>
+  <si>
+    <t>267  934D</t>
+  </si>
+  <si>
+    <t>23  2093D</t>
+  </si>
+  <si>
+    <t>22  -22D</t>
+  </si>
+  <si>
+    <t>57  185D</t>
+  </si>
+  <si>
+    <t>167  78D</t>
+  </si>
+  <si>
+    <t>137  40D</t>
+  </si>
+  <si>
+    <t>83  118D</t>
+  </si>
+  <si>
+    <t>1  -22D</t>
+  </si>
+  <si>
+    <t>807  179D</t>
+  </si>
+  <si>
+    <t>23  -23D</t>
+  </si>
+  <si>
+    <t>166  2158D</t>
+  </si>
+  <si>
+    <t>183  273D</t>
+  </si>
+  <si>
+    <t>192  48D</t>
+  </si>
+  <si>
+    <t>153  91D</t>
+  </si>
+  <si>
+    <t>174  129D</t>
+  </si>
+  <si>
+    <t>126  93D</t>
+  </si>
+  <si>
+    <t>70  70D</t>
+  </si>
+  <si>
+    <t>5  65D</t>
+  </si>
+  <si>
+    <t>31  37D</t>
+  </si>
+  <si>
+    <t>248  63D</t>
+  </si>
+  <si>
+    <t>78  88D</t>
+  </si>
+  <si>
+    <t>56  164D</t>
+  </si>
+  <si>
+    <t>12  218D</t>
+  </si>
+  <si>
+    <t>837  347D</t>
+  </si>
+  <si>
+    <t>153  357D</t>
+  </si>
+  <si>
+    <t>181  457D</t>
+  </si>
+  <si>
+    <t>620  80D</t>
+  </si>
+  <si>
+    <t>11  -1D</t>
+  </si>
+  <si>
+    <t>191  248D</t>
+  </si>
+  <si>
+    <t>196  660D</t>
+  </si>
+  <si>
+    <t>106  106D</t>
+  </si>
+  <si>
+    <t>122  122D</t>
+  </si>
+  <si>
+    <t>42  318D</t>
+  </si>
+  <si>
+    <t>141  273D</t>
+  </si>
+  <si>
+    <t>27  98D</t>
+  </si>
+  <si>
+    <t>37  481D</t>
+  </si>
+  <si>
+    <t>1  -18D</t>
+  </si>
+  <si>
+    <t>776  1103D</t>
+  </si>
+  <si>
+    <t>66  66D</t>
+  </si>
+  <si>
+    <t>114  100D</t>
+  </si>
+  <si>
+    <t>53  48D</t>
+  </si>
+  <si>
+    <t>146  56D</t>
+  </si>
+  <si>
+    <t>116  62D</t>
+  </si>
+  <si>
+    <t>294  5350D</t>
+  </si>
+  <si>
+    <t>264  572D</t>
+  </si>
+  <si>
+    <t>94  2851D</t>
+  </si>
+  <si>
+    <t>100  4550D</t>
+  </si>
+  <si>
+    <t>76  -19D</t>
+  </si>
+  <si>
+    <t>64  121D</t>
+  </si>
+  <si>
+    <t>56  566D</t>
+  </si>
+  <si>
+    <t>1544  261D</t>
+  </si>
+  <si>
+    <t>57  57D</t>
+  </si>
+  <si>
+    <t>93  940D</t>
+  </si>
+  <si>
+    <t>187  340D</t>
+  </si>
+  <si>
+    <t>97  -10D</t>
+  </si>
+  <si>
+    <t>148  76D</t>
+  </si>
+  <si>
+    <t>329  5987D</t>
+  </si>
+  <si>
+    <t>94  74D</t>
+  </si>
+  <si>
+    <t>68  2062D</t>
+  </si>
+  <si>
+    <t>13  197D</t>
+  </si>
+  <si>
+    <t>210  63D</t>
+  </si>
+  <si>
+    <t>95  480D</t>
+  </si>
+  <si>
+    <t>1066  1102D</t>
+  </si>
+  <si>
+    <t>101  270D</t>
+  </si>
+  <si>
+    <t>91  223D</t>
+  </si>
+  <si>
+    <t>584  73D</t>
+  </si>
+  <si>
+    <t>69  -19D</t>
+  </si>
+  <si>
+    <t>215  383D</t>
+  </si>
+  <si>
+    <t>104  498D</t>
+  </si>
+  <si>
+    <t>27  819D</t>
+  </si>
+  <si>
+    <t>20  364D</t>
+  </si>
+  <si>
+    <t>41  133D</t>
+  </si>
+  <si>
+    <t>213  -30D</t>
+  </si>
+  <si>
+    <t>96  728D</t>
+  </si>
+  <si>
+    <t>57  129D</t>
   </si>
   <si>
     <t>1  -11D</t>
   </si>
   <si>
-    <t>1009  89D</t>
-  </si>
-  <si>
-    <t>19  345D</t>
-  </si>
-  <si>
-    <t>146  179D</t>
-  </si>
-  <si>
-    <t>157  529D</t>
-  </si>
-  <si>
-    <t>507  115D</t>
-  </si>
-  <si>
-    <t>74  259D</t>
-  </si>
-  <si>
-    <t>289  445D</t>
-  </si>
-  <si>
-    <t>128  613D</t>
-  </si>
-  <si>
-    <t>28  1274D</t>
-  </si>
-  <si>
-    <t>228  102D</t>
-  </si>
-  <si>
-    <t>93  2115D</t>
-  </si>
-  <si>
-    <t>39  394D</t>
-  </si>
-  <si>
-    <t>1  -10D</t>
-  </si>
-  <si>
-    <t>511  196D</t>
-  </si>
-  <si>
-    <t>22  2002D</t>
-  </si>
-  <si>
-    <t>150  379D</t>
-  </si>
-  <si>
-    <t>182  690D</t>
-  </si>
-  <si>
-    <t>185  98D</t>
-  </si>
-  <si>
-    <t>189  86D</t>
-  </si>
-  <si>
-    <t>205  3731D</t>
-  </si>
-  <si>
-    <t>236  692D</t>
-  </si>
-  <si>
-    <t>78  78D</t>
-  </si>
-  <si>
-    <t>161  72D</t>
-  </si>
-  <si>
-    <t>148  1346D</t>
-  </si>
-  <si>
-    <t>93  940D</t>
-  </si>
-  <si>
-    <t>806  342D</t>
-  </si>
-  <si>
-    <t>133  576D</t>
-  </si>
-  <si>
-    <t>75  57D</t>
-  </si>
-  <si>
-    <t>303  89D</t>
-  </si>
-  <si>
-    <t>107  114D</t>
-  </si>
-  <si>
-    <t>215  173D</t>
-  </si>
-  <si>
-    <t>165  172D</t>
-  </si>
-  <si>
-    <t>54  819D</t>
-  </si>
-  <si>
-    <t>17  221D</t>
-  </si>
-  <si>
-    <t>21  -12D</t>
-  </si>
-  <si>
-    <t>286  55D</t>
-  </si>
-  <si>
-    <t>153  136D</t>
-  </si>
-  <si>
-    <t>40  58D</t>
-  </si>
-  <si>
-    <t>1  45D</t>
-  </si>
-  <si>
-    <t>1  -2D</t>
-  </si>
-  <si>
-    <t>1351  130D</t>
-  </si>
-  <si>
-    <t>40  40D</t>
-  </si>
-  <si>
-    <t>380  77D</t>
-  </si>
-  <si>
-    <t>134  81D</t>
-  </si>
-  <si>
-    <t>272  35D</t>
-  </si>
-  <si>
-    <t>300  317D</t>
-  </si>
-  <si>
-    <t>254  101D</t>
-  </si>
-  <si>
-    <t>294  836D</t>
-  </si>
-  <si>
-    <t>84  694D</t>
-  </si>
-  <si>
-    <t>7  -10D</t>
-  </si>
-  <si>
-    <t>1  -0D</t>
-  </si>
-  <si>
-    <t>290  48D</t>
-  </si>
-  <si>
-    <t>318  275D</t>
-  </si>
-  <si>
-    <t>55  58D</t>
-  </si>
-  <si>
-    <t>2  -4D</t>
-  </si>
-  <si>
-    <t>1360  113D</t>
-  </si>
-  <si>
-    <t>18  148D</t>
-  </si>
-  <si>
-    <t>63  -16D</t>
-  </si>
-  <si>
-    <t>301  83D</t>
-  </si>
-  <si>
-    <t>462  50D</t>
-  </si>
-  <si>
-    <t>152  41D</t>
-  </si>
-  <si>
-    <t>622  1179D</t>
-  </si>
-  <si>
-    <t>159  336D</t>
-  </si>
-  <si>
-    <t>5  151D</t>
-  </si>
-  <si>
-    <t>6  136D</t>
-  </si>
-  <si>
-    <t>182  151D</t>
-  </si>
-  <si>
-    <t>119  119D</t>
-  </si>
-  <si>
-    <t>1  -9D</t>
-  </si>
-  <si>
-    <t>206  203D</t>
-  </si>
-  <si>
-    <t>65  1478D</t>
-  </si>
-  <si>
-    <t>49  139D</t>
-  </si>
-  <si>
-    <t>408  131D</t>
-  </si>
-  <si>
-    <t>118  167D</t>
-  </si>
-  <si>
-    <t>165  517D</t>
-  </si>
-  <si>
-    <t>46  299D</t>
-  </si>
-  <si>
-    <t>1  -8D</t>
-  </si>
-  <si>
-    <t>116  124D</t>
-  </si>
-  <si>
-    <t>35  54D</t>
-  </si>
-  <si>
-    <t>105  136D</t>
-  </si>
-  <si>
-    <t>5  -5D</t>
-  </si>
-  <si>
-    <t>499  237D</t>
-  </si>
-  <si>
-    <t>143  6506D</t>
-  </si>
-  <si>
-    <t>80  3640D</t>
-  </si>
-  <si>
-    <t>258  213D</t>
-  </si>
-  <si>
-    <t>35  79D</t>
-  </si>
-  <si>
-    <t>365  11071D</t>
-  </si>
-  <si>
-    <t>195  227D</t>
-  </si>
-  <si>
-    <t>21  -18D</t>
-  </si>
-  <si>
-    <t>260  68D</t>
-  </si>
-  <si>
-    <t>74  120D</t>
-  </si>
-  <si>
-    <t>79  -28D</t>
-  </si>
-  <si>
-    <t>2  91D</t>
-  </si>
-  <si>
-    <t>1  -5D</t>
-  </si>
-  <si>
-    <t>677  108D</t>
-  </si>
-  <si>
-    <t>21  -21D</t>
-  </si>
-  <si>
-    <t>132  86D</t>
-  </si>
-  <si>
-    <t>94  118D</t>
-  </si>
-  <si>
-    <t>336  50D</t>
-  </si>
-  <si>
-    <t>176  62D</t>
-  </si>
-  <si>
-    <t>294  278D</t>
-  </si>
-  <si>
-    <t>453  408D</t>
-  </si>
-  <si>
-    <t>1523  545D</t>
-  </si>
-  <si>
-    <t>371  74D</t>
-  </si>
-  <si>
-    <t>36  -30D</t>
-  </si>
-  <si>
-    <t>490  -12D</t>
-  </si>
-  <si>
-    <t>85  221D</t>
-  </si>
-  <si>
-    <t>132  429D</t>
-  </si>
-  <si>
-    <t>52508  787D</t>
-  </si>
-  <si>
-    <t>223  845D</t>
-  </si>
-  <si>
-    <t>387  75D</t>
-  </si>
-  <si>
-    <t>232  301D</t>
-  </si>
-  <si>
-    <t>5514  591D</t>
-  </si>
-  <si>
-    <t>215  -28D</t>
-  </si>
-  <si>
-    <t>2605  359D</t>
-  </si>
-  <si>
-    <t>93  73D</t>
-  </si>
-  <si>
-    <t>120  1820D</t>
-  </si>
-  <si>
-    <t>10  -15D</t>
-  </si>
-  <si>
-    <t>39  591D</t>
-  </si>
-  <si>
-    <t>393  -29D</t>
-  </si>
-  <si>
-    <t>144  2620D</t>
-  </si>
-  <si>
-    <t>103  4686D</t>
-  </si>
-  <si>
-    <t>5123  330D</t>
-  </si>
-  <si>
-    <t>15  -33D</t>
-  </si>
-  <si>
-    <t>385  78D</t>
-  </si>
-  <si>
-    <t>87  172D</t>
-  </si>
-  <si>
-    <t>638  98D</t>
-  </si>
-  <si>
-    <t>58  -12D</t>
-  </si>
-  <si>
-    <t>154  71D</t>
-  </si>
-  <si>
-    <t>148  217D</t>
-  </si>
-  <si>
-    <t>45  157D</t>
-  </si>
-  <si>
-    <t>197  105D</t>
-  </si>
-  <si>
-    <t>126  120D</t>
-  </si>
-  <si>
-    <t>64  72D</t>
-  </si>
-  <si>
-    <t>676  239D</t>
-  </si>
-  <si>
-    <t>22  1001D</t>
-  </si>
-  <si>
-    <t>107  149D</t>
-  </si>
-  <si>
-    <t>84  112D</t>
-  </si>
-  <si>
-    <t>432  87D</t>
-  </si>
-  <si>
-    <t>115  65D</t>
-  </si>
-  <si>
-    <t>179  146D</t>
-  </si>
-  <si>
-    <t>155  188D</t>
-  </si>
-  <si>
-    <t>35  109D</t>
-  </si>
-  <si>
-    <t>12  -16D</t>
-  </si>
-  <si>
-    <t>47  72D</t>
-  </si>
-  <si>
-    <t>530  45D</t>
-  </si>
-  <si>
-    <t>130  381D</t>
-  </si>
-  <si>
-    <t>212  1015D</t>
-  </si>
-  <si>
-    <t>13  -11D</t>
-  </si>
-  <si>
-    <t>4351  136D</t>
-  </si>
-  <si>
-    <t>65  1971D</t>
-  </si>
-  <si>
-    <t>237  185D</t>
-  </si>
-  <si>
-    <t>212  216D</t>
-  </si>
-  <si>
-    <t>1928  264D</t>
-  </si>
-  <si>
-    <t>173  82D</t>
-  </si>
-  <si>
-    <t>114  -14D</t>
-  </si>
-  <si>
-    <t>208  610D</t>
-  </si>
-  <si>
-    <t>66  -15D</t>
-  </si>
-  <si>
-    <t>153  46D</t>
-  </si>
-  <si>
-    <t>70  109D</t>
-  </si>
-  <si>
-    <t>89  69D</t>
-  </si>
-  <si>
-    <t>10  455D</t>
-  </si>
-  <si>
-    <t>860  815D</t>
-  </si>
-  <si>
-    <t>125  63D</t>
-  </si>
-  <si>
-    <t>188  1710D</t>
-  </si>
-  <si>
-    <t>305  127D</t>
-  </si>
-  <si>
-    <t>61  -12D</t>
-  </si>
-  <si>
-    <t>165  62D</t>
-  </si>
-  <si>
-    <t>115  171D</t>
-  </si>
-  <si>
-    <t>40  1820D</t>
-  </si>
-  <si>
-    <t>60  60D</t>
-  </si>
-  <si>
-    <t>74  232D</t>
-  </si>
-  <si>
-    <t>248  49D</t>
-  </si>
-  <si>
-    <t>64  47D</t>
-  </si>
-  <si>
-    <t>136  334D</t>
-  </si>
-  <si>
-    <t>1082  193D</t>
-  </si>
-  <si>
-    <t>48  48D</t>
-  </si>
-  <si>
-    <t>218  1526D</t>
-  </si>
-  <si>
-    <t>137  890D</t>
-  </si>
-  <si>
-    <t>345  69D</t>
-  </si>
-  <si>
-    <t>133  54D</t>
-  </si>
-  <si>
-    <t>219  203D</t>
-  </si>
-  <si>
-    <t>139  332D</t>
-  </si>
-  <si>
-    <t>35  1592D</t>
-  </si>
-  <si>
-    <t>38  38D</t>
-  </si>
-  <si>
-    <t>34  206D</t>
-  </si>
-  <si>
-    <t>272  100D</t>
-  </si>
-  <si>
-    <t>79  342D</t>
-  </si>
-  <si>
-    <t>53  321D</t>
-  </si>
-  <si>
-    <t>1  -6D</t>
-  </si>
-  <si>
-    <t>566  273D</t>
-  </si>
-  <si>
-    <t>152  166D</t>
-  </si>
-  <si>
-    <t>174  754D</t>
-  </si>
-  <si>
-    <t>228  38D</t>
-  </si>
-  <si>
-    <t>69  -21D</t>
-  </si>
-  <si>
-    <t>135  159D</t>
-  </si>
-  <si>
-    <t>120  321D</t>
-  </si>
-  <si>
-    <t>9  58D</t>
-  </si>
-  <si>
-    <t>160  154D</t>
-  </si>
-  <si>
-    <t>125  2843D</t>
-  </si>
-  <si>
-    <t>25  -25D</t>
-  </si>
-  <si>
-    <t>625  440D</t>
-  </si>
-  <si>
-    <t>58  -22D</t>
-  </si>
-  <si>
-    <t>47  427D</t>
-  </si>
-  <si>
-    <t>490  80D</t>
-  </si>
-  <si>
-    <t>87  76D</t>
-  </si>
-  <si>
-    <t>208  1183D</t>
-  </si>
-  <si>
-    <t>267  934D</t>
-  </si>
-  <si>
-    <t>23  2093D</t>
-  </si>
-  <si>
-    <t>22  -22D</t>
-  </si>
-  <si>
-    <t>57  185D</t>
-  </si>
-  <si>
-    <t>181  89D</t>
-  </si>
-  <si>
-    <t>84  119D</t>
-  </si>
-  <si>
-    <t>139  41D</t>
-  </si>
-  <si>
-    <t>1  -22D</t>
-  </si>
-  <si>
-    <t>812  188D</t>
-  </si>
-  <si>
-    <t>23  -23D</t>
-  </si>
-  <si>
-    <t>166  2158D</t>
-  </si>
-  <si>
-    <t>183  462D</t>
-  </si>
-  <si>
-    <t>218  58D</t>
-  </si>
-  <si>
-    <t>167  105D</t>
-  </si>
-  <si>
-    <t>177  125D</t>
-  </si>
-  <si>
-    <t>127  91D</t>
-  </si>
-  <si>
-    <t>70  70D</t>
-  </si>
-  <si>
-    <t>5  65D</t>
-  </si>
-  <si>
-    <t>32  38D</t>
-  </si>
-  <si>
-    <t>264  66D</t>
-  </si>
-  <si>
-    <t>57  167D</t>
-  </si>
-  <si>
-    <t>79  91D</t>
-  </si>
-  <si>
-    <t>12  218D</t>
-  </si>
-  <si>
-    <t>848  353D</t>
-  </si>
-  <si>
-    <t>160  455D</t>
-  </si>
-  <si>
-    <t>181  457D</t>
-  </si>
-  <si>
-    <t>634  79D</t>
-  </si>
-  <si>
-    <t>79  -9D</t>
-  </si>
-  <si>
-    <t>193  240D</t>
-  </si>
-  <si>
-    <t>196  660D</t>
-  </si>
-  <si>
-    <t>106  106D</t>
-  </si>
-  <si>
-    <t>122  122D</t>
-  </si>
-  <si>
-    <t>42  318D</t>
-  </si>
-  <si>
-    <t>143  276D</t>
-  </si>
-  <si>
-    <t>37  481D</t>
-  </si>
-  <si>
-    <t>27  91D</t>
-  </si>
-  <si>
-    <t>1  -18D</t>
-  </si>
-  <si>
-    <t>780  1183D</t>
-  </si>
-  <si>
-    <t>66  66D</t>
-  </si>
-  <si>
-    <t>115  104D</t>
-  </si>
-  <si>
-    <t>54  50D</t>
-  </si>
-  <si>
-    <t>153  56D</t>
-  </si>
-  <si>
-    <t>121  66D</t>
-  </si>
-  <si>
-    <t>294  5350D</t>
-  </si>
-  <si>
-    <t>265  574D</t>
-  </si>
-  <si>
-    <t>94  2851D</t>
-  </si>
-  <si>
-    <t>100  4550D</t>
-  </si>
-  <si>
-    <t>111  -31D</t>
-  </si>
-  <si>
-    <t>57  648D</t>
-  </si>
-  <si>
-    <t>64  118D</t>
-  </si>
-  <si>
-    <t>1544  259D</t>
-  </si>
-  <si>
-    <t>57  57D</t>
-  </si>
-  <si>
-    <t>93  651D</t>
-  </si>
-  <si>
-    <t>200  413D</t>
-  </si>
-  <si>
-    <t>134  -14D</t>
-  </si>
-  <si>
-    <t>150  78D</t>
-  </si>
-  <si>
-    <t>329  4989D</t>
-  </si>
-  <si>
-    <t>70  2123D</t>
-  </si>
-  <si>
-    <t>14  212D</t>
-  </si>
-  <si>
-    <t>215  57D</t>
-  </si>
-  <si>
-    <t>96  485D</t>
-  </si>
-  <si>
-    <t>1071  1036D</t>
-  </si>
-  <si>
-    <t>101  143D</t>
-  </si>
-  <si>
-    <t>92  124D</t>
-  </si>
-  <si>
-    <t>382  45D</t>
-  </si>
-  <si>
-    <t>117  -33D</t>
-  </si>
-  <si>
-    <t>265  463D</t>
-  </si>
-  <si>
-    <t>107  486D</t>
-  </si>
-  <si>
-    <t>27  819D</t>
-  </si>
-  <si>
-    <t>20  364D</t>
-  </si>
-  <si>
-    <t>41  133D</t>
-  </si>
-  <si>
-    <t>240  -34D</t>
-  </si>
-  <si>
-    <t>59  130D</t>
-  </si>
-  <si>
-    <t>96  672D</t>
-  </si>
-  <si>
-    <t>709  105D</t>
+    <t>699  102D</t>
   </si>
   <si>
     <t>106  1929D</t>
   </si>
   <si>
-    <t>161  2441D</t>
-  </si>
-  <si>
-    <t>178  114D</t>
+    <t>160  2426D</t>
+  </si>
+  <si>
+    <t>176  113D</t>
   </si>
   <si>
     <t>27  136D</t>
   </si>
   <si>
-    <t>159  1315D</t>
+    <t>155  940D</t>
   </si>
 </sst>
 </file>
@@ -1996,13 +1981,13 @@
         <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
         <v>175</v>
@@ -2014,67 +1999,67 @@
         <v>207</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="V2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="W2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="X2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Y2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Z2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AA2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AB2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AC2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AD2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AE2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AF2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AG2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AH2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AI2" t="s">
-        <v>212</v>
+        <v>472</v>
       </c>
       <c r="AJ2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2106,13 +2091,13 @@
         <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
         <v>176</v>
@@ -2124,19 +2109,19 @@
         <v>208</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="T3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U3" t="s">
         <v>192</v>
@@ -2145,46 +2130,46 @@
         <v>128</v>
       </c>
       <c r="W3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="X3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Y3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AA3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AC3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AD3" t="s">
         <v>192</v>
       </c>
       <c r="AE3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AF3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AG3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AH3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AI3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AJ3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2216,10 +2201,10 @@
         <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L4" t="s">
         <v>90</v>
@@ -2237,16 +2222,16 @@
         <v>193</v>
       </c>
       <c r="Q4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="U4" t="s">
         <v>192</v>
@@ -2255,46 +2240,46 @@
         <v>107</v>
       </c>
       <c r="W4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="X4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Y4" t="s">
         <v>128</v>
       </c>
       <c r="Z4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AA4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AC4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AD4" t="s">
         <v>192</v>
       </c>
       <c r="AE4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AF4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AG4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AH4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AI4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AJ4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2326,13 +2311,13 @@
         <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
         <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M5" t="s">
         <v>178</v>
@@ -2347,64 +2332,64 @@
         <v>81</v>
       </c>
       <c r="Q5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="T5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U5" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="V5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="W5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Y5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Z5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AA5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AB5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AC5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AD5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AE5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AF5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AG5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AH5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AI5" t="s">
         <v>81</v>
       </c>
       <c r="AJ5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2436,13 +2421,13 @@
         <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M6" t="s">
         <v>179</v>
@@ -2454,67 +2439,67 @@
         <v>211</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R6" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="S6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="V6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="W6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="X6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Y6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Z6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AB6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AC6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AD6" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AE6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AF6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AG6" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AH6" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AI6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AJ6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2531,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>78</v>
@@ -2546,13 +2531,13 @@
         <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M7" t="s">
         <v>180</v>
@@ -2564,67 +2549,67 @@
         <v>212</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="T7" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="U7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="V7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="W7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="X7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Y7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Z7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AA7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AB7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AC7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AD7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AE7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AF7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AG7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AH7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AI7" t="s">
-        <v>482</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2638,10 +2623,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>79</v>
@@ -2656,13 +2641,13 @@
         <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M8" t="s">
         <v>181</v>
@@ -2674,67 +2659,67 @@
         <v>213</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="U8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="V8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="W8" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="X8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Y8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Z8" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AA8" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AB8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AC8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AD8" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AE8" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AF8" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AG8" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AH8" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AI8" t="s">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AJ8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2766,7 +2751,7 @@
         <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" t="s">
         <v>81</v>
@@ -2781,7 +2766,7 @@
         <v>198</v>
       </c>
       <c r="O9" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="P9" t="s">
         <v>193</v>
@@ -2790,37 +2775,37 @@
         <v>81</v>
       </c>
       <c r="R9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T9" t="s">
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="V9" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="W9" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="X9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Y9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AA9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AB9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC9" t="s">
         <v>81</v>
@@ -2829,16 +2814,16 @@
         <v>81</v>
       </c>
       <c r="AE9" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AF9" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AG9" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AH9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AI9" t="s">
         <v>81</v>
@@ -2882,7 +2867,7 @@
         <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="M10" t="s">
         <v>183</v>
@@ -2891,70 +2876,70 @@
         <v>199</v>
       </c>
       <c r="O10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S10" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="T10" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="U10" t="s">
         <v>183</v>
       </c>
       <c r="V10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="W10" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="X10" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="Y10" t="s">
         <v>97</v>
       </c>
       <c r="Z10" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AA10" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="AB10" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="AC10" t="s">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="AD10" t="s">
         <v>96</v>
       </c>
       <c r="AE10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF10" t="s">
         <v>108</v>
       </c>
       <c r="AG10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH10" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="AI10" t="s">
         <v>108</v>
       </c>
       <c r="AJ10" t="s">
-        <v>215</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2986,10 +2971,10 @@
         <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
         <v>168</v>
@@ -3001,70 +2986,70 @@
         <v>200</v>
       </c>
       <c r="O11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="T11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="U11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="V11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="W11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="X11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Y11" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Z11" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AA11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AB11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AC11" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AD11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AE11" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF11" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AG11" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AH11" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AI11" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AJ11" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -3096,10 +3081,10 @@
         <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s">
         <v>169</v>
@@ -3111,46 +3096,46 @@
         <v>201</v>
       </c>
       <c r="O12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q12" t="s">
         <v>128</v>
       </c>
       <c r="R12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T12" t="s">
         <v>192</v>
       </c>
       <c r="U12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="V12" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="W12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="X12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y12" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Z12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AA12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AC12" t="s">
         <v>128</v>
@@ -3159,22 +3144,22 @@
         <v>192</v>
       </c>
       <c r="AE12" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF12" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AG12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AH12" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AI12" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AJ12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -3191,7 +3176,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -3206,10 +3191,10 @@
         <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
         <v>170</v>
@@ -3221,70 +3206,70 @@
         <v>202</v>
       </c>
       <c r="O13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="T13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="U13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="V13" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="W13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="X13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Z13" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AA13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AB13" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AC13" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AD13" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AE13" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AF13" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AG13" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AH13" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AI13" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AJ13" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -3313,13 +3298,13 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
         <v>171</v>
@@ -3331,70 +3316,70 @@
         <v>203</v>
       </c>
       <c r="O14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="U14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="V14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="W14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="X14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Z14" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AA14" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AB14" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AC14" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AD14" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AE14" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AF14" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AG14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AH14" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AI14" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AJ14" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -3423,13 +3408,13 @@
         <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
         <v>172</v>
@@ -3441,70 +3426,70 @@
         <v>204</v>
       </c>
       <c r="O15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="U15" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="V15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="W15" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="X15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Y15" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Z15" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AA15" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AB15" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AC15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AD15" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AE15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AF15" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AG15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AH15" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AI15" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AJ15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -3533,13 +3518,13 @@
         <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
         <v>173</v>
@@ -3551,70 +3536,70 @@
         <v>205</v>
       </c>
       <c r="O16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="T16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="U16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="V16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="W16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="X16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Y16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Z16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AA16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AB16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AC16" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AD16" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AE16" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AF16" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AG16" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AH16" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AI16" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AJ16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -3631,7 +3616,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
         <v>88</v>
@@ -3643,13 +3628,13 @@
         <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
         <v>174</v>
@@ -3661,70 +3646,70 @@
         <v>206</v>
       </c>
       <c r="O17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="U17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="V17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="W17" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="X17" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Y17" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Z17" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AA17" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AB17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AC17" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AD17" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AE17" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AF17" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AG17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AH17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AI17" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AJ17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
